--- a/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
+++ b/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="fin_consulta">Hoja2!$A$2</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/</t>
   </si>
@@ -237,6 +238,30 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</t>
+  </si>
+  <si>
+    <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</t>
+  </si>
+  <si>
+    <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (</t>
+  </si>
+  <si>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</t>
+  </si>
+  <si>
+    <t>bill</t>
   </si>
 </sst>
 </file>
@@ -252,9 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,9 +304,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -566,1759 +591,1771 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143:E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E1" s="3" t="str">
+        <f>IF(B1&lt;&gt;"",CONCATENATE(inicio_consulta,C1,mid_consulta,A1,B1,fin_consulta),IF(A1&lt;&gt;"",CONCATENATE("-- ",A1),""))</f>
+        <v>-- hotel</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="2" t="str">
         <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Query"),"")</f>
         <v>hotelQuery</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" t="str">
-        <f>IF(B2&lt;&gt;"",CONCATENATE(inicio_consulta,C2,mid_consulta,A2,B2,fin_consulta),"")</f>
+      <c r="E2" s="3" t="str">
+        <f>IF(B2&lt;&gt;"",CONCATENATE(inicio_consulta,C2,mid_consulta,A2,B2,fin_consulta),IF(A2&lt;&gt;"",CONCATENATE("-- ",A2),""))</f>
         <v>INSERT INTO tserver_permission VALUES (1,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelQuery');</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="2" t="str">
         <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Insert"),"")</f>
         <v>hotelInsert</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="E3" t="str">
-        <f>IF(B3&lt;&gt;"",CONCATENATE(inicio_consulta,C3,mid_consulta,A3,B3,fin_consulta),"")</f>
+      <c r="E3" s="3" t="str">
+        <f>IF(B3&lt;&gt;"",CONCATENATE(inicio_consulta,C3,mid_consulta,A3,B3,fin_consulta),IF(A3&lt;&gt;"",CONCATENATE("-- ",A3),""))</f>
         <v>INSERT INTO tserver_permission VALUES (2,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelInsert');</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="2" t="str">
         <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Update"),"")</f>
         <v>hotelUpdate</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f t="shared" ref="C4:C5" si="0">C3+1</f>
         <v>3</v>
       </c>
-      <c r="E4" t="str">
-        <f>IF(B4&lt;&gt;"",CONCATENATE(inicio_consulta,C4,mid_consulta,A4,B4,fin_consulta),"")</f>
+      <c r="E4" s="3" t="str">
+        <f>IF(B4&lt;&gt;"",CONCATENATE(inicio_consulta,C4,mid_consulta,A4,B4,fin_consulta),IF(A4&lt;&gt;"",CONCATENATE("-- ",A4),""))</f>
         <v>INSERT INTO tserver_permission VALUES (3,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelUpdate');</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="2" t="str">
         <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Delete"),"")</f>
         <v>hotelDelete</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" t="str">
-        <f>IF(B5&lt;&gt;"",CONCATENATE(inicio_consulta,C5,mid_consulta,A5,B5,fin_consulta),"")</f>
+      <c r="E5" s="3" t="str">
+        <f>IF(B5&lt;&gt;"",CONCATENATE(inicio_consulta,C5,mid_consulta,A5,B5,fin_consulta),IF(A5&lt;&gt;"",CONCATENATE("-- ",A5),""))</f>
         <v>INSERT INTO tserver_permission VALUES (4,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelDelete');</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="str">
-        <f>IF(B6&lt;&gt;"",CONCATENATE(inicio_consulta,C6,mid_consulta,A6,B6,fin_consulta),"")</f>
+      <c r="E6" s="3" t="str">
+        <f>IF(B6&lt;&gt;"",CONCATENATE(inicio_consulta,C6,mid_consulta,A6,B6,fin_consulta),IF(A6&lt;&gt;"",CONCATENATE("-- ",A6),""))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="str">
-        <f>IF(B7&lt;&gt;"",CONCATENATE(inicio_consulta,C7,mid_consulta,A7,B7,fin_consulta),"")</f>
-        <v/>
+      <c r="E7" s="3" t="str">
+        <f>IF(B7&lt;&gt;"",CONCATENATE(inicio_consulta,C7,mid_consulta,A7,B7,fin_consulta),IF(A7&lt;&gt;"",CONCATENATE("-- ",A7),""))</f>
+        <v>-- bedCombo</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="2" t="str">
         <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Query"),"")</f>
         <v>bedComboQuery</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f>C5+1</f>
         <v>5</v>
       </c>
-      <c r="E8" t="str">
-        <f>IF(B8&lt;&gt;"",CONCATENATE(inicio_consulta,C8,mid_consulta,A8,B8,fin_consulta),"")</f>
+      <c r="E8" s="3" t="str">
+        <f>IF(B8&lt;&gt;"",CONCATENATE(inicio_consulta,C8,mid_consulta,A8,B8,fin_consulta),IF(A8&lt;&gt;"",CONCATENATE("-- ",A8),""))</f>
         <v>INSERT INTO tserver_permission VALUES (5,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboQuery');</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="2" t="str">
         <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Insert"),"")</f>
         <v>bedComboInsert</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f>C8+1</f>
         <v>6</v>
       </c>
-      <c r="E9" t="str">
-        <f>IF(B9&lt;&gt;"",CONCATENATE(inicio_consulta,C9,mid_consulta,A9,B9,fin_consulta),"")</f>
+      <c r="E9" s="3" t="str">
+        <f>IF(B9&lt;&gt;"",CONCATENATE(inicio_consulta,C9,mid_consulta,A9,B9,fin_consulta),IF(A9&lt;&gt;"",CONCATENATE("-- ",A9),""))</f>
         <v>INSERT INTO tserver_permission VALUES (6,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboInsert');</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="2" t="str">
         <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Update"),"")</f>
         <v>bedComboUpdate</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f t="shared" ref="C10:C11" si="1">C9+1</f>
         <v>7</v>
       </c>
-      <c r="E10" t="str">
-        <f>IF(B10&lt;&gt;"",CONCATENATE(inicio_consulta,C10,mid_consulta,A10,B10,fin_consulta),"")</f>
+      <c r="E10" s="3" t="str">
+        <f>IF(B10&lt;&gt;"",CONCATENATE(inicio_consulta,C10,mid_consulta,A10,B10,fin_consulta),IF(A10&lt;&gt;"",CONCATENATE("-- ",A10),""))</f>
         <v>INSERT INTO tserver_permission VALUES (7,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboUpdate');</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="2" t="str">
         <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Delete"),"")</f>
         <v>bedComboDelete</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E11" t="str">
-        <f>IF(B11&lt;&gt;"",CONCATENATE(inicio_consulta,C11,mid_consulta,A11,B11,fin_consulta),"")</f>
+      <c r="E11" s="3" t="str">
+        <f>IF(B11&lt;&gt;"",CONCATENATE(inicio_consulta,C11,mid_consulta,A11,B11,fin_consulta),IF(A11&lt;&gt;"",CONCATENATE("-- ",A11),""))</f>
         <v>INSERT INTO tserver_permission VALUES (8,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboDelete');</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="str">
-        <f>IF(B12&lt;&gt;"",CONCATENATE(inicio_consulta,C12,mid_consulta,A12,B12,fin_consulta),"")</f>
+      <c r="E12" s="3" t="str">
+        <f>IF(B12&lt;&gt;"",CONCATENATE(inicio_consulta,C12,mid_consulta,A12,B12,fin_consulta),IF(A12&lt;&gt;"",CONCATENATE("-- ",A12),""))</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="str">
-        <f>IF(B13&lt;&gt;"",CONCATENATE(inicio_consulta,C13,mid_consulta,A13,B13,fin_consulta),"")</f>
-        <v/>
+      <c r="E13" s="3" t="str">
+        <f>IF(B13&lt;&gt;"",CONCATENATE(inicio_consulta,C13,mid_consulta,A13,B13,fin_consulta),IF(A13&lt;&gt;"",CONCATENATE("-- ",A13),""))</f>
+        <v>-- bookingGuest</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="2" t="str">
         <f>IF(A13&lt;&gt;"",CONCATENATE(A13,"Query"),"")</f>
         <v>bookingGuestQuery</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f>C11+1</f>
         <v>9</v>
       </c>
-      <c r="E14" t="str">
-        <f>IF(B14&lt;&gt;"",CONCATENATE(inicio_consulta,C14,mid_consulta,A14,B14,fin_consulta),"")</f>
+      <c r="E14" s="3" t="str">
+        <f>IF(B14&lt;&gt;"",CONCATENATE(inicio_consulta,C14,mid_consulta,A14,B14,fin_consulta),IF(A14&lt;&gt;"",CONCATENATE("-- ",A14),""))</f>
         <v>INSERT INTO tserver_permission VALUES (9,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestQuery');</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="2" t="str">
         <f>IF(A13&lt;&gt;"",CONCATENATE(A13,"Insert"),"")</f>
         <v>bookingGuestInsert</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f>C14+1</f>
         <v>10</v>
       </c>
-      <c r="E15" t="str">
-        <f>IF(B15&lt;&gt;"",CONCATENATE(inicio_consulta,C15,mid_consulta,A15,B15,fin_consulta),"")</f>
+      <c r="E15" s="3" t="str">
+        <f>IF(B15&lt;&gt;"",CONCATENATE(inicio_consulta,C15,mid_consulta,A15,B15,fin_consulta),IF(A15&lt;&gt;"",CONCATENATE("-- ",A15),""))</f>
         <v>INSERT INTO tserver_permission VALUES (10,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestInsert');</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" ref="C16" si="2">C15+1</f>
         <v>11</v>
       </c>
-      <c r="E16" t="str">
-        <f>IF(B16&lt;&gt;"",CONCATENATE(inicio_consulta,C16,mid_consulta,A16,B16,fin_consulta),"")</f>
+      <c r="E16" s="3" t="str">
+        <f>IF(B16&lt;&gt;"",CONCATENATE(inicio_consulta,C16,mid_consulta,A16,B16,fin_consulta),IF(A16&lt;&gt;"",CONCATENATE("-- ",A16),""))</f>
         <v>INSERT INTO tserver_permission VALUES (11,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/guestCountQuery');</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="2" t="str">
         <f>IF(A13&lt;&gt;"",CONCATENATE(A13,"Delete"),"")</f>
         <v>bookingGuestDelete</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f>C16+1</f>
         <v>12</v>
       </c>
-      <c r="E17" t="str">
-        <f>IF(B17&lt;&gt;"",CONCATENATE(inicio_consulta,C17,mid_consulta,A17,B17,fin_consulta),"")</f>
+      <c r="E17" s="3" t="str">
+        <f>IF(B17&lt;&gt;"",CONCATENATE(inicio_consulta,C17,mid_consulta,A17,B17,fin_consulta),IF(A17&lt;&gt;"",CONCATENATE("-- ",A17),""))</f>
         <v>INSERT INTO tserver_permission VALUES (12,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestDelete');</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <f>C17+1</f>
         <v>13</v>
       </c>
-      <c r="E18" t="str">
-        <f>IF(B18&lt;&gt;"",CONCATENATE(inicio_consulta,C18,mid_consulta,A18,B18,fin_consulta),"")</f>
+      <c r="E18" s="3" t="str">
+        <f>IF(B18&lt;&gt;"",CONCATENATE(inicio_consulta,C18,mid_consulta,A18,B18,fin_consulta),IF(A18&lt;&gt;"",CONCATENATE("-- ",A18),""))</f>
         <v>INSERT INTO tserver_permission VALUES (13,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestsInfoQuery');</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="str">
-        <f>IF(B19&lt;&gt;"",CONCATENATE(inicio_consulta,C19,mid_consulta,A19,B19,fin_consulta),"")</f>
+      <c r="E19" s="3" t="str">
+        <f>IF(B19&lt;&gt;"",CONCATENATE(inicio_consulta,C19,mid_consulta,A19,B19,fin_consulta),IF(A19&lt;&gt;"",CONCATENATE("-- ",A19),""))</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="str">
-        <f>IF(B20&lt;&gt;"",CONCATENATE(inicio_consulta,C20,mid_consulta,A20,B20,fin_consulta),"")</f>
-        <v/>
+      <c r="E20" s="3" t="str">
+        <f>IF(B20&lt;&gt;"",CONCATENATE(inicio_consulta,C20,mid_consulta,A20,B20,fin_consulta),IF(A20&lt;&gt;"",CONCATENATE("-- ",A20),""))</f>
+        <v>-- booking</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="2" t="str">
         <f>IF(A20&lt;&gt;"",CONCATENATE(A20,"Query"),"")</f>
         <v>bookingQuery</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <f>C18+1</f>
         <v>14</v>
       </c>
-      <c r="E21" t="str">
-        <f>IF(B21&lt;&gt;"",CONCATENATE(inicio_consulta,C21,mid_consulta,A21,B21,fin_consulta),"")</f>
+      <c r="E21" s="3" t="str">
+        <f>IF(B21&lt;&gt;"",CONCATENATE(inicio_consulta,C21,mid_consulta,A21,B21,fin_consulta),IF(A21&lt;&gt;"",CONCATENATE("-- ",A21),""))</f>
         <v>INSERT INTO tserver_permission VALUES (14,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingQuery');</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="2" t="str">
         <f>IF(A20&lt;&gt;"",CONCATENATE(A20,"Insert"),"")</f>
         <v>bookingInsert</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <f>C21+1</f>
         <v>15</v>
       </c>
-      <c r="E22" t="str">
-        <f>IF(B22&lt;&gt;"",CONCATENATE(inicio_consulta,C22,mid_consulta,A22,B22,fin_consulta),"")</f>
+      <c r="E22" s="3" t="str">
+        <f>IF(B22&lt;&gt;"",CONCATENATE(inicio_consulta,C22,mid_consulta,A22,B22,fin_consulta),IF(A22&lt;&gt;"",CONCATENATE("-- ",A22),""))</f>
         <v>INSERT INTO tserver_permission VALUES (15,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInsert');</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <f t="shared" ref="C23:C33" si="3">C22+1</f>
         <v>16</v>
       </c>
-      <c r="E23" t="str">
-        <f>IF(B23&lt;&gt;"",CONCATENATE(inicio_consulta,C23,mid_consulta,A23,B23,fin_consulta),"")</f>
+      <c r="E23" s="3" t="str">
+        <f>IF(B23&lt;&gt;"",CONCATENATE(inicio_consulta,C23,mid_consulta,A23,B23,fin_consulta),IF(A23&lt;&gt;"",CONCATENATE("-- ",A23),""))</f>
         <v>INSERT INTO tserver_permission VALUES (16,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingActionUpdate');</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="2" t="str">
         <f>IF(A20&lt;&gt;"",CONCATENATE(A20,"Delete"),"")</f>
         <v>bookingDelete</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E24" t="str">
-        <f>IF(B24&lt;&gt;"",CONCATENATE(inicio_consulta,C24,mid_consulta,A24,B24,fin_consulta),"")</f>
+      <c r="E24" s="3" t="str">
+        <f>IF(B24&lt;&gt;"",CONCATENATE(inicio_consulta,C24,mid_consulta,A24,B24,fin_consulta),IF(A24&lt;&gt;"",CONCATENATE("-- ",A24),""))</f>
         <v>INSERT INTO tserver_permission VALUES (17,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDelete');</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="E25" t="str">
-        <f>IF(B25&lt;&gt;"",CONCATENATE(inicio_consulta,C25,mid_consulta,A25,B25,fin_consulta),"")</f>
+      <c r="E25" s="3" t="str">
+        <f>IF(B25&lt;&gt;"",CONCATENATE(inicio_consulta,C25,mid_consulta,A25,B25,fin_consulta),IF(A25&lt;&gt;"",CONCATENATE("-- ",A25),""))</f>
         <v>INSERT INTO tserver_permission VALUES (18,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInfoQuery');</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="E26" t="str">
-        <f>IF(B26&lt;&gt;"",CONCATENATE(inicio_consulta,C26,mid_consulta,A26,B26,fin_consulta),"")</f>
+      <c r="E26" s="3" t="str">
+        <f>IF(B26&lt;&gt;"",CONCATENATE(inicio_consulta,C26,mid_consulta,A26,B26,fin_consulta),IF(A26&lt;&gt;"",CONCATENATE("-- ",A26),""))</f>
         <v>INSERT INTO tserver_permission VALUES (19,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeQuery');</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E27" t="str">
-        <f>IF(B27&lt;&gt;"",CONCATENATE(inicio_consulta,C27,mid_consulta,A27,B27,fin_consulta),"")</f>
+      <c r="E27" s="3" t="str">
+        <f>IF(B27&lt;&gt;"",CONCATENATE(inicio_consulta,C27,mid_consulta,A27,B27,fin_consulta),IF(A27&lt;&gt;"",CONCATENATE("-- ",A27),""))</f>
         <v>INSERT INTO tserver_permission VALUES (20,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeInfoQuery');</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="E28" t="str">
-        <f>IF(B28&lt;&gt;"",CONCATENATE(inicio_consulta,C28,mid_consulta,A28,B28,fin_consulta),"")</f>
+      <c r="E28" s="3" t="str">
+        <f>IF(B28&lt;&gt;"",CONCATENATE(inicio_consulta,C28,mid_consulta,A28,B28,fin_consulta),IF(A28&lt;&gt;"",CONCATENATE("-- ",A28),""))</f>
         <v>INSERT INTO tserver_permission VALUES (21,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDaysUnitaryRoomPriceQuery');</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="E29" t="str">
-        <f>IF(B29&lt;&gt;"",CONCATENATE(inicio_consulta,C29,mid_consulta,A29,B29,fin_consulta),"")</f>
+      <c r="E29" s="3" t="str">
+        <f>IF(B29&lt;&gt;"",CONCATENATE(inicio_consulta,C29,mid_consulta,A29,B29,fin_consulta),IF(A29&lt;&gt;"",CONCATENATE("-- ",A29),""))</f>
         <v>INSERT INTO tserver_permission VALUES (22,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsHotelsQuery');</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="E30" t="str">
-        <f>IF(B30&lt;&gt;"",CONCATENATE(inicio_consulta,C30,mid_consulta,A30,B30,fin_consulta),"")</f>
+      <c r="E30" s="3" t="str">
+        <f>IF(B30&lt;&gt;"",CONCATENATE(inicio_consulta,C30,mid_consulta,A30,B30,fin_consulta),IF(A30&lt;&gt;"",CONCATENATE("-- ",A30),""))</f>
         <v>INSERT INTO tserver_permission VALUES (23,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/booking_now_by_room_numberQuery');</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="E31" t="str">
-        <f>IF(B31&lt;&gt;"",CONCATENATE(inicio_consulta,C31,mid_consulta,A31,B31,fin_consulta),"")</f>
+      <c r="E31" s="3" t="str">
+        <f>IF(B31&lt;&gt;"",CONCATENATE(inicio_consulta,C31,mid_consulta,A31,B31,fin_consulta),IF(A31&lt;&gt;"",CONCATENATE("-- ",A31),""))</f>
         <v>INSERT INTO tserver_permission VALUES (24,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingSlotsInfoQuery');</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="E32" t="str">
-        <f>IF(B32&lt;&gt;"",CONCATENATE(inicio_consulta,C32,mid_consulta,A32,B32,fin_consulta),"")</f>
+      <c r="E32" s="3" t="str">
+        <f>IF(B32&lt;&gt;"",CONCATENATE(inicio_consulta,C32,mid_consulta,A32,B32,fin_consulta),IF(A32&lt;&gt;"",CONCATENATE("-- ",A32),""))</f>
         <v>INSERT INTO tserver_permission VALUES (25,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingCompleteInfoQuery');</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="E33" t="str">
-        <f>IF(B33&lt;&gt;"",CONCATENATE(inicio_consulta,C33,mid_consulta,A33,B33,fin_consulta),"")</f>
+      <c r="E33" s="3" t="str">
+        <f>IF(B33&lt;&gt;"",CONCATENATE(inicio_consulta,C33,mid_consulta,A33,B33,fin_consulta),IF(A33&lt;&gt;"",CONCATENATE("-- ",A33),""))</f>
         <v>INSERT INTO tserver_permission VALUES (26,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingHotelRoomRoomTypeQuery');</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E34" t="str">
-        <f>IF(B34&lt;&gt;"",CONCATENATE(inicio_consulta,C34,mid_consulta,A34,B34,fin_consulta),"")</f>
+      <c r="E34" s="3" t="str">
+        <f>IF(B34&lt;&gt;"",CONCATENATE(inicio_consulta,C34,mid_consulta,A34,B34,fin_consulta),IF(A34&lt;&gt;"",CONCATENATE("-- ",A34),""))</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E35" t="str">
-        <f>IF(B35&lt;&gt;"",CONCATENATE(inicio_consulta,C35,mid_consulta,A35,B35,fin_consulta),"")</f>
-        <v/>
+      <c r="E35" s="3" t="str">
+        <f>IF(B35&lt;&gt;"",CONCATENATE(inicio_consulta,C35,mid_consulta,A35,B35,fin_consulta),IF(A35&lt;&gt;"",CONCATENATE("-- ",A35),""))</f>
+        <v>-- bookingServiceExtra</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="2" t="str">
         <f>IF(A35&lt;&gt;"",CONCATENATE(A35,"Query"),"")</f>
         <v>bookingServiceExtraQuery</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <f>C33+1</f>
         <v>27</v>
       </c>
-      <c r="E36" t="str">
-        <f>IF(B36&lt;&gt;"",CONCATENATE(inicio_consulta,C36,mid_consulta,A36,B36,fin_consulta),"")</f>
+      <c r="E36" s="3" t="str">
+        <f>IF(B36&lt;&gt;"",CONCATENATE(inicio_consulta,C36,mid_consulta,A36,B36,fin_consulta),IF(A36&lt;&gt;"",CONCATENATE("-- ",A36),""))</f>
         <v>INSERT INTO tserver_permission VALUES (27,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraQuery');</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="2" t="str">
         <f>IF(A35&lt;&gt;"",CONCATENATE(A35,"Insert"),"")</f>
         <v>bookingServiceExtraInsert</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <f>C36+1</f>
         <v>28</v>
       </c>
-      <c r="E37" t="str">
-        <f>IF(B37&lt;&gt;"",CONCATENATE(inicio_consulta,C37,mid_consulta,A37,B37,fin_consulta),"")</f>
+      <c r="E37" s="3" t="str">
+        <f>IF(B37&lt;&gt;"",CONCATENATE(inicio_consulta,C37,mid_consulta,A37,B37,fin_consulta),IF(A37&lt;&gt;"",CONCATENATE("-- ",A37),""))</f>
         <v>INSERT INTO tserver_permission VALUES (28,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraInsert');</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" s="2" t="str">
         <f>IF(A35&lt;&gt;"",CONCATENATE(A35,"Delete"),"")</f>
         <v>bookingServiceExtraDelete</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <f t="shared" ref="C38:C40" si="4">C37+1</f>
         <v>29</v>
       </c>
-      <c r="E38" t="str">
-        <f>IF(B38&lt;&gt;"",CONCATENATE(inicio_consulta,C38,mid_consulta,A38,B38,fin_consulta),"")</f>
+      <c r="E38" s="3" t="str">
+        <f>IF(B38&lt;&gt;"",CONCATENATE(inicio_consulta,C38,mid_consulta,A38,B38,fin_consulta),IF(A38&lt;&gt;"",CONCATENATE("-- ",A38),""))</f>
         <v>INSERT INTO tserver_permission VALUES (29,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraDelete');</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E39" t="str">
-        <f>IF(B39&lt;&gt;"",CONCATENATE(inicio_consulta,C39,mid_consulta,A39,B39,fin_consulta),"")</f>
+      <c r="E39" s="3" t="str">
+        <f>IF(B39&lt;&gt;"",CONCATENATE(inicio_consulta,C39,mid_consulta,A39,B39,fin_consulta),IF(A39&lt;&gt;"",CONCATENATE("-- ",A39),""))</f>
         <v>INSERT INTO tserver_permission VALUES (30,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingExtraServicePriceUnitsTotalQuery');</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="E40" t="str">
-        <f>IF(B40&lt;&gt;"",CONCATENATE(inicio_consulta,C40,mid_consulta,A40,B40,fin_consulta),"")</f>
+      <c r="E40" s="3" t="str">
+        <f>IF(B40&lt;&gt;"",CONCATENATE(inicio_consulta,C40,mid_consulta,A40,B40,fin_consulta),IF(A40&lt;&gt;"",CONCATENATE("-- ",A40),""))</f>
         <v>INSERT INTO tserver_permission VALUES (31,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/extraServicesNameDescriptionUnitsPriceDateQuery');</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="str">
+        <f>IF(B41&lt;&gt;"",CONCATENATE(inicio_consulta,C41,mid_consulta,A41,B41,fin_consulta),IF(A41&lt;&gt;"",CONCATENATE("-- ",A41),""))</f>
+        <v/>
+      </c>
+    </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E42" t="str">
-        <f>IF(B42&lt;&gt;"",CONCATENATE(inicio_consulta,C42,mid_consulta,A42,B42,fin_consulta),"")</f>
-        <v/>
+      <c r="E42" s="3" t="str">
+        <f>IF(B42&lt;&gt;"",CONCATENATE(inicio_consulta,C42,mid_consulta,A42,B42,fin_consulta),IF(A42&lt;&gt;"",CONCATENATE("-- ",A42),""))</f>
+        <v>-- country</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="2" t="str">
         <f>IF(A42&lt;&gt;"",CONCATENATE(A42,"Query"),"")</f>
         <v>countryQuery</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <f>C40+1</f>
         <v>32</v>
       </c>
-      <c r="E43" t="str">
-        <f>IF(B43&lt;&gt;"",CONCATENATE(inicio_consulta,C43,mid_consulta,A43,B43,fin_consulta),"")</f>
+      <c r="E43" s="3" t="str">
+        <f>IF(B43&lt;&gt;"",CONCATENATE(inicio_consulta,C43,mid_consulta,A43,B43,fin_consulta),IF(A43&lt;&gt;"",CONCATENATE("-- ",A43),""))</f>
         <v>INSERT INTO tserver_permission VALUES (32,'com.ontimize.atomicHotelsApiRest.api.core.service.ICountryService/countryQuery');</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" t="str">
-        <f>IF(B44&lt;&gt;"",CONCATENATE(inicio_consulta,C44,mid_consulta,A44,B44,fin_consulta),"")</f>
+      <c r="E44" s="3" t="str">
+        <f>IF(B44&lt;&gt;"",CONCATENATE(inicio_consulta,C44,mid_consulta,A44,B44,fin_consulta),IF(A44&lt;&gt;"",CONCATENATE("-- ",A44),""))</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E45" t="str">
-        <f>IF(B45&lt;&gt;"",CONCATENATE(inicio_consulta,C45,mid_consulta,A45,B45,fin_consulta),"")</f>
-        <v/>
+      <c r="E45" s="3" t="str">
+        <f>IF(B45&lt;&gt;"",CONCATENATE(inicio_consulta,C45,mid_consulta,A45,B45,fin_consulta),IF(A45&lt;&gt;"",CONCATENATE("-- ",A45),""))</f>
+        <v>-- creditCard</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="2" t="str">
         <f>IF(A45&lt;&gt;"",CONCATENATE(A45,"Query"),"")</f>
         <v>creditCardQuery</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <f>C43+1</f>
         <v>33</v>
       </c>
-      <c r="E46" t="str">
-        <f>IF(B46&lt;&gt;"",CONCATENATE(inicio_consulta,C46,mid_consulta,A46,B46,fin_consulta),"")</f>
+      <c r="E46" s="3" t="str">
+        <f>IF(B46&lt;&gt;"",CONCATENATE(inicio_consulta,C46,mid_consulta,A46,B46,fin_consulta),IF(A46&lt;&gt;"",CONCATENATE("-- ",A46),""))</f>
         <v>INSERT INTO tserver_permission VALUES (33,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardQuery');</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="2" t="str">
         <f>IF(A45&lt;&gt;"",CONCATENATE(A45,"Insert"),"")</f>
         <v>creditCardInsert</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <f>C46+1</f>
         <v>34</v>
       </c>
-      <c r="E47" t="str">
-        <f>IF(B47&lt;&gt;"",CONCATENATE(inicio_consulta,C47,mid_consulta,A47,B47,fin_consulta),"")</f>
+      <c r="E47" s="3" t="str">
+        <f>IF(B47&lt;&gt;"",CONCATENATE(inicio_consulta,C47,mid_consulta,A47,B47,fin_consulta),IF(A47&lt;&gt;"",CONCATENATE("-- ",A47),""))</f>
         <v>INSERT INTO tserver_permission VALUES (34,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardInsert');</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48" s="2" t="str">
         <f>IF(A45&lt;&gt;"",CONCATENATE(A45,"Delete"),"")</f>
         <v>creditCardDelete</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <f>C47+1</f>
         <v>35</v>
       </c>
-      <c r="E48" t="str">
-        <f>IF(B48&lt;&gt;"",CONCATENATE(inicio_consulta,C48,mid_consulta,A48,B48,fin_consulta),"")</f>
+      <c r="E48" s="3" t="str">
+        <f>IF(B48&lt;&gt;"",CONCATENATE(inicio_consulta,C48,mid_consulta,A48,B48,fin_consulta),IF(A48&lt;&gt;"",CONCATENATE("-- ",A48),""))</f>
         <v>INSERT INTO tserver_permission VALUES (35,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardDelete');</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E49" t="str">
-        <f>IF(B49&lt;&gt;"",CONCATENATE(inicio_consulta,C49,mid_consulta,A49,B49,fin_consulta),"")</f>
+      <c r="E49" s="3" t="str">
+        <f>IF(B49&lt;&gt;"",CONCATENATE(inicio_consulta,C49,mid_consulta,A49,B49,fin_consulta),IF(A49&lt;&gt;"",CONCATENATE("-- ",A49),""))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E50" t="str">
-        <f>IF(B50&lt;&gt;"",CONCATENATE(inicio_consulta,C50,mid_consulta,A50,B50,fin_consulta),"")</f>
-        <v/>
+      <c r="E50" s="3" t="str">
+        <f>IF(B50&lt;&gt;"",CONCATENATE(inicio_consulta,C50,mid_consulta,A50,B50,fin_consulta),IF(A50&lt;&gt;"",CONCATENATE("-- ",A50),""))</f>
+        <v>-- customerCreditCard</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51" s="2" t="str">
         <f>IF(A50&lt;&gt;"",CONCATENATE(A50,"Query"),"")</f>
         <v>customerCreditCardQuery</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <f>C48+1</f>
         <v>36</v>
       </c>
-      <c r="E51" t="str">
-        <f>IF(B51&lt;&gt;"",CONCATENATE(inicio_consulta,C51,mid_consulta,A51,B51,fin_consulta),"")</f>
+      <c r="E51" s="3" t="str">
+        <f>IF(B51&lt;&gt;"",CONCATENATE(inicio_consulta,C51,mid_consulta,A51,B51,fin_consulta),IF(A51&lt;&gt;"",CONCATENATE("-- ",A51),""))</f>
         <v>INSERT INTO tserver_permission VALUES (36,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardQuery');</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52" s="2" t="str">
         <f>IF(A50&lt;&gt;"",CONCATENATE(A50,"Insert"),"")</f>
         <v>customerCreditCardInsert</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <f>C51+1</f>
         <v>37</v>
       </c>
-      <c r="E52" t="str">
-        <f>IF(B52&lt;&gt;"",CONCATENATE(inicio_consulta,C52,mid_consulta,A52,B52,fin_consulta),"")</f>
+      <c r="E52" s="3" t="str">
+        <f>IF(B52&lt;&gt;"",CONCATENATE(inicio_consulta,C52,mid_consulta,A52,B52,fin_consulta),IF(A52&lt;&gt;"",CONCATENATE("-- ",A52),""))</f>
         <v>INSERT INTO tserver_permission VALUES (37,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardInsert');</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="2" t="str">
         <f>IF(A50&lt;&gt;"",CONCATENATE(A50,"Delete"),"")</f>
         <v>customerCreditCardDelete</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <f>C52+1</f>
         <v>38</v>
       </c>
-      <c r="E53" t="str">
-        <f>IF(B53&lt;&gt;"",CONCATENATE(inicio_consulta,C53,mid_consulta,A53,B53,fin_consulta),"")</f>
+      <c r="E53" s="3" t="str">
+        <f>IF(B53&lt;&gt;"",CONCATENATE(inicio_consulta,C53,mid_consulta,A53,B53,fin_consulta),IF(A53&lt;&gt;"",CONCATENATE("-- ",A53),""))</f>
         <v>INSERT INTO tserver_permission VALUES (38,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardDelete');</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E54" t="str">
-        <f>IF(B54&lt;&gt;"",CONCATENATE(inicio_consulta,C54,mid_consulta,A54,B54,fin_consulta),"")</f>
+      <c r="E54" s="3" t="str">
+        <f>IF(B54&lt;&gt;"",CONCATENATE(inicio_consulta,C54,mid_consulta,A54,B54,fin_consulta),IF(A54&lt;&gt;"",CONCATENATE("-- ",A54),""))</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E55" t="str">
-        <f>IF(B55&lt;&gt;"",CONCATENATE(inicio_consulta,C55,mid_consulta,A55,B55,fin_consulta),"")</f>
-        <v/>
+      <c r="E55" s="3" t="str">
+        <f>IF(B55&lt;&gt;"",CONCATENATE(inicio_consulta,C55,mid_consulta,A55,B55,fin_consulta),IF(A55&lt;&gt;"",CONCATENATE("-- ",A55),""))</f>
+        <v>-- customer</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="2" t="str">
         <f>IF(A55&lt;&gt;"",CONCATENATE(A55,"Query"),"")</f>
         <v>customerQuery</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <f>C53+1</f>
         <v>39</v>
       </c>
-      <c r="E56" t="str">
-        <f>IF(B56&lt;&gt;"",CONCATENATE(inicio_consulta,C56,mid_consulta,A56,B56,fin_consulta),"")</f>
+      <c r="E56" s="3" t="str">
+        <f>IF(B56&lt;&gt;"",CONCATENATE(inicio_consulta,C56,mid_consulta,A56,B56,fin_consulta),IF(A56&lt;&gt;"",CONCATENATE("-- ",A56),""))</f>
         <v>INSERT INTO tserver_permission VALUES (39,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerQuery');</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <f>C56+1</f>
         <v>40</v>
       </c>
-      <c r="E57" t="str">
-        <f>IF(B57&lt;&gt;"",CONCATENATE(inicio_consulta,C57,mid_consulta,A57,B57,fin_consulta),"")</f>
+      <c r="E57" s="3" t="str">
+        <f>IF(B57&lt;&gt;"",CONCATENATE(inicio_consulta,C57,mid_consulta,A57,B57,fin_consulta),IF(A57&lt;&gt;"",CONCATENATE("-- ",A57),""))</f>
         <v>INSERT INTO tserver_permission VALUES (40,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/mailAgreementQuery');</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <f t="shared" ref="C58:C64" si="5">C57+1</f>
         <v>41</v>
       </c>
-      <c r="E58" t="str">
-        <f>IF(B58&lt;&gt;"",CONCATENATE(inicio_consulta,C58,mid_consulta,A58,B58,fin_consulta),"")</f>
+      <c r="E58" s="3" t="str">
+        <f>IF(B58&lt;&gt;"",CONCATENATE(inicio_consulta,C58,mid_consulta,A58,B58,fin_consulta),IF(A58&lt;&gt;"",CONCATENATE("-- ",A58),""))</f>
         <v>INSERT INTO tserver_permission VALUES (41,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/isCustomerValidBookingHolder');</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59" s="2" t="str">
         <f>IF(A55&lt;&gt;"",CONCATENATE(A55,"Delete"),"")</f>
         <v>customerDelete</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="E59" t="str">
-        <f>IF(B59&lt;&gt;"",CONCATENATE(inicio_consulta,C59,mid_consulta,A59,B59,fin_consulta),"")</f>
+      <c r="E59" s="3" t="str">
+        <f>IF(B59&lt;&gt;"",CONCATENATE(inicio_consulta,C59,mid_consulta,A59,B59,fin_consulta),IF(A59&lt;&gt;"",CONCATENATE("-- ",A59),""))</f>
         <v>INSERT INTO tserver_permission VALUES (42,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerDelete');</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="E60" t="str">
-        <f>IF(B60&lt;&gt;"",CONCATENATE(inicio_consulta,C60,mid_consulta,A60,B60,fin_consulta),"")</f>
+      <c r="E60" s="3" t="str">
+        <f>IF(B60&lt;&gt;"",CONCATENATE(inicio_consulta,C60,mid_consulta,A60,B60,fin_consulta),IF(A60&lt;&gt;"",CONCATENATE("-- ",A60),""))</f>
         <v>INSERT INTO tserver_permission VALUES (43,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/businessCustomerInsert');</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="E61" t="str">
-        <f>IF(B61&lt;&gt;"",CONCATENATE(inicio_consulta,C61,mid_consulta,A61,B61,fin_consulta),"")</f>
+      <c r="E61" s="3" t="str">
+        <f>IF(B61&lt;&gt;"",CONCATENATE(inicio_consulta,C61,mid_consulta,A61,B61,fin_consulta),IF(A61&lt;&gt;"",CONCATENATE("-- ",A61),""))</f>
         <v>INSERT INTO tserver_permission VALUES (44,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/regularCustomerInsert');</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="E62" t="str">
-        <f>IF(B62&lt;&gt;"",CONCATENATE(inicio_consulta,C62,mid_consulta,A62,B62,fin_consulta),"")</f>
+      <c r="E62" s="3" t="str">
+        <f>IF(B62&lt;&gt;"",CONCATENATE(inicio_consulta,C62,mid_consulta,A62,B62,fin_consulta),IF(A62&lt;&gt;"",CONCATENATE("-- ",A62),""))</f>
         <v>INSERT INTO tserver_permission VALUES (45,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerCancelUpdate');</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="E63" t="str">
-        <f>IF(B63&lt;&gt;"",CONCATENATE(inicio_consulta,C63,mid_consulta,A63,B63,fin_consulta),"")</f>
+      <c r="E63" s="3" t="str">
+        <f>IF(B63&lt;&gt;"",CONCATENATE(inicio_consulta,C63,mid_consulta,A63,B63,fin_consulta),IF(A63&lt;&gt;"",CONCATENATE("-- ",A63),""))</f>
         <v>INSERT INTO tserver_permission VALUES (46,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerBusinessUpdate');</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="E64" t="str">
-        <f>IF(B64&lt;&gt;"",CONCATENATE(inicio_consulta,C64,mid_consulta,A64,B64,fin_consulta),"")</f>
+      <c r="E64" s="3" t="str">
+        <f>IF(B64&lt;&gt;"",CONCATENATE(inicio_consulta,C64,mid_consulta,A64,B64,fin_consulta),IF(A64&lt;&gt;"",CONCATENATE("-- ",A64),""))</f>
         <v>INSERT INTO tserver_permission VALUES (47,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerRegularUpdate');</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" t="str">
-        <f>IF(B65&lt;&gt;"",CONCATENATE(inicio_consulta,C65,mid_consulta,A65,B65,fin_consulta),"")</f>
+      <c r="E65" s="3" t="str">
+        <f>IF(B65&lt;&gt;"",CONCATENATE(inicio_consulta,C65,mid_consulta,A65,B65,fin_consulta),IF(A65&lt;&gt;"",CONCATENATE("-- ",A65),""))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E66" t="str">
-        <f>IF(B66&lt;&gt;"",CONCATENATE(inicio_consulta,C66,mid_consulta,A66,B66,fin_consulta),"")</f>
-        <v/>
+      <c r="E66" s="3" t="str">
+        <f>IF(B66&lt;&gt;"",CONCATENATE(inicio_consulta,C66,mid_consulta,A66,B66,fin_consulta),IF(A66&lt;&gt;"",CONCATENATE("-- ",A66),""))</f>
+        <v>-- feature</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67" s="2" t="str">
         <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Query"),"")</f>
         <v>featureQuery</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <f>C64+1</f>
         <v>48</v>
       </c>
-      <c r="E67" t="str">
-        <f>IF(B67&lt;&gt;"",CONCATENATE(inicio_consulta,C67,mid_consulta,A67,B67,fin_consulta),"")</f>
+      <c r="E67" s="3" t="str">
+        <f>IF(B67&lt;&gt;"",CONCATENATE(inicio_consulta,C67,mid_consulta,A67,B67,fin_consulta),IF(A67&lt;&gt;"",CONCATENATE("-- ",A67),""))</f>
         <v>INSERT INTO tserver_permission VALUES (48,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureQuery');</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68" s="2" t="str">
         <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Insert"),"")</f>
         <v>featureInsert</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <f>C67+1</f>
         <v>49</v>
       </c>
-      <c r="E68" t="str">
-        <f>IF(B68&lt;&gt;"",CONCATENATE(inicio_consulta,C68,mid_consulta,A68,B68,fin_consulta),"")</f>
+      <c r="E68" s="3" t="str">
+        <f>IF(B68&lt;&gt;"",CONCATENATE(inicio_consulta,C68,mid_consulta,A68,B68,fin_consulta),IF(A68&lt;&gt;"",CONCATENATE("-- ",A68),""))</f>
         <v>INSERT INTO tserver_permission VALUES (49,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureInsert');</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69" s="2" t="str">
         <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Update"),"")</f>
         <v>featureUpdate</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <f t="shared" ref="C69:C70" si="6">C68+1</f>
         <v>50</v>
       </c>
-      <c r="E69" t="str">
-        <f>IF(B69&lt;&gt;"",CONCATENATE(inicio_consulta,C69,mid_consulta,A69,B69,fin_consulta),"")</f>
+      <c r="E69" s="3" t="str">
+        <f>IF(B69&lt;&gt;"",CONCATENATE(inicio_consulta,C69,mid_consulta,A69,B69,fin_consulta),IF(A69&lt;&gt;"",CONCATENATE("-- ",A69),""))</f>
         <v>INSERT INTO tserver_permission VALUES (50,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureUpdate');</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B70" s="2" t="str">
         <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Delete"),"")</f>
         <v>featureDelete</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="E70" t="str">
-        <f>IF(B70&lt;&gt;"",CONCATENATE(inicio_consulta,C70,mid_consulta,A70,B70,fin_consulta),"")</f>
+      <c r="E70" s="3" t="str">
+        <f>IF(B70&lt;&gt;"",CONCATENATE(inicio_consulta,C70,mid_consulta,A70,B70,fin_consulta),IF(A70&lt;&gt;"",CONCATENATE("-- ",A70),""))</f>
         <v>INSERT INTO tserver_permission VALUES (51,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureDelete');</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E71" t="str">
-        <f>IF(B71&lt;&gt;"",CONCATENATE(inicio_consulta,C71,mid_consulta,A71,B71,fin_consulta),"")</f>
+      <c r="E71" s="3" t="str">
+        <f>IF(B71&lt;&gt;"",CONCATENATE(inicio_consulta,C71,mid_consulta,A71,B71,fin_consulta),IF(A71&lt;&gt;"",CONCATENATE("-- ",A71),""))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E72" t="str">
-        <f>IF(B72&lt;&gt;"",CONCATENATE(inicio_consulta,C72,mid_consulta,A72,B72,fin_consulta),"")</f>
-        <v/>
+      <c r="E72" s="3" t="str">
+        <f>IF(B72&lt;&gt;"",CONCATENATE(inicio_consulta,C72,mid_consulta,A72,B72,fin_consulta),IF(A72&lt;&gt;"",CONCATENATE("-- ",A72),""))</f>
+        <v>-- hotelServiceExtra</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B73" s="2" t="str">
         <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Query"),"")</f>
         <v>hotelServiceExtraQuery</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <f>C70+1</f>
         <v>52</v>
       </c>
-      <c r="E73" t="str">
-        <f>IF(B73&lt;&gt;"",CONCATENATE(inicio_consulta,C73,mid_consulta,A73,B73,fin_consulta),"")</f>
+      <c r="E73" s="3" t="str">
+        <f>IF(B73&lt;&gt;"",CONCATENATE(inicio_consulta,C73,mid_consulta,A73,B73,fin_consulta),IF(A73&lt;&gt;"",CONCATENATE("-- ",A73),""))</f>
         <v>INSERT INTO tserver_permission VALUES (52,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraQuery');</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74" s="2" t="str">
         <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Insert"),"")</f>
         <v>hotelServiceExtraInsert</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <f>C73+1</f>
         <v>53</v>
       </c>
-      <c r="E74" t="str">
-        <f>IF(B74&lt;&gt;"",CONCATENATE(inicio_consulta,C74,mid_consulta,A74,B74,fin_consulta),"")</f>
+      <c r="E74" s="3" t="str">
+        <f>IF(B74&lt;&gt;"",CONCATENATE(inicio_consulta,C74,mid_consulta,A74,B74,fin_consulta),IF(A74&lt;&gt;"",CONCATENATE("-- ",A74),""))</f>
         <v>INSERT INTO tserver_permission VALUES (53,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraInsert');</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75" s="2" t="str">
         <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Update"),"")</f>
         <v>hotelServiceExtraUpdate</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <f t="shared" ref="C75:C76" si="7">C74+1</f>
         <v>54</v>
       </c>
-      <c r="E75" t="str">
-        <f>IF(B75&lt;&gt;"",CONCATENATE(inicio_consulta,C75,mid_consulta,A75,B75,fin_consulta),"")</f>
+      <c r="E75" s="3" t="str">
+        <f>IF(B75&lt;&gt;"",CONCATENATE(inicio_consulta,C75,mid_consulta,A75,B75,fin_consulta),IF(A75&lt;&gt;"",CONCATENATE("-- ",A75),""))</f>
         <v>INSERT INTO tserver_permission VALUES (54,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraUpdate');</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B76" s="2" t="str">
         <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Delete"),"")</f>
         <v>hotelServiceExtraDelete</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="E76" t="str">
-        <f>IF(B76&lt;&gt;"",CONCATENATE(inicio_consulta,C76,mid_consulta,A76,B76,fin_consulta),"")</f>
+      <c r="E76" s="3" t="str">
+        <f>IF(B76&lt;&gt;"",CONCATENATE(inicio_consulta,C76,mid_consulta,A76,B76,fin_consulta),IF(A76&lt;&gt;"",CONCATENATE("-- ",A76),""))</f>
         <v>INSERT INTO tserver_permission VALUES (55,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraDelete');</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E77" t="str">
-        <f>IF(B77&lt;&gt;"",CONCATENATE(inicio_consulta,C77,mid_consulta,A77,B77,fin_consulta),"")</f>
+      <c r="E77" s="3" t="str">
+        <f>IF(B77&lt;&gt;"",CONCATENATE(inicio_consulta,C77,mid_consulta,A77,B77,fin_consulta),IF(A77&lt;&gt;"",CONCATENATE("-- ",A77),""))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E78" t="str">
-        <f>IF(B78&lt;&gt;"",CONCATENATE(inicio_consulta,C78,mid_consulta,A78,B78,fin_consulta),"")</f>
-        <v/>
+      <c r="E78" s="3" t="str">
+        <f>IF(B78&lt;&gt;"",CONCATENATE(inicio_consulta,C78,mid_consulta,A78,B78,fin_consulta),IF(A78&lt;&gt;"",CONCATENATE("-- ",A78),""))</f>
+        <v>-- hotelService</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B79" s="2" t="str">
         <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Query"),"")</f>
         <v>hotelServiceQuery</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <f>C76+1</f>
         <v>56</v>
       </c>
-      <c r="E79" t="str">
-        <f>IF(B79&lt;&gt;"",CONCATENATE(inicio_consulta,C79,mid_consulta,A79,B79,fin_consulta),"")</f>
+      <c r="E79" s="3" t="str">
+        <f>IF(B79&lt;&gt;"",CONCATENATE(inicio_consulta,C79,mid_consulta,A79,B79,fin_consulta),IF(A79&lt;&gt;"",CONCATENATE("-- ",A79),""))</f>
         <v>INSERT INTO tserver_permission VALUES (56,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceQuery');</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80" s="2" t="str">
         <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Insert"),"")</f>
         <v>hotelServiceInsert</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <f>C79+1</f>
         <v>57</v>
       </c>
-      <c r="E80" t="str">
-        <f>IF(B80&lt;&gt;"",CONCATENATE(inicio_consulta,C80,mid_consulta,A80,B80,fin_consulta),"")</f>
+      <c r="E80" s="3" t="str">
+        <f>IF(B80&lt;&gt;"",CONCATENATE(inicio_consulta,C80,mid_consulta,A80,B80,fin_consulta),IF(A80&lt;&gt;"",CONCATENATE("-- ",A80),""))</f>
         <v>INSERT INTO tserver_permission VALUES (57,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceInsert');</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81" s="2" t="str">
         <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Update"),"")</f>
         <v>hotelServiceUpdate</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <f t="shared" ref="C81:C82" si="8">C80+1</f>
         <v>58</v>
       </c>
-      <c r="E81" t="str">
-        <f>IF(B81&lt;&gt;"",CONCATENATE(inicio_consulta,C81,mid_consulta,A81,B81,fin_consulta),"")</f>
+      <c r="E81" s="3" t="str">
+        <f>IF(B81&lt;&gt;"",CONCATENATE(inicio_consulta,C81,mid_consulta,A81,B81,fin_consulta),IF(A81&lt;&gt;"",CONCATENATE("-- ",A81),""))</f>
         <v>INSERT INTO tserver_permission VALUES (58,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceUpdate');</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B82" s="2" t="str">
         <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Delete"),"")</f>
         <v>hotelServiceDelete</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="E82" t="str">
-        <f>IF(B82&lt;&gt;"",CONCATENATE(inicio_consulta,C82,mid_consulta,A82,B82,fin_consulta),"")</f>
+      <c r="E82" s="3" t="str">
+        <f>IF(B82&lt;&gt;"",CONCATENATE(inicio_consulta,C82,mid_consulta,A82,B82,fin_consulta),IF(A82&lt;&gt;"",CONCATENATE("-- ",A82),""))</f>
         <v>INSERT INTO tserver_permission VALUES (59,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceDelete');</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E83" t="str">
-        <f>IF(B83&lt;&gt;"",CONCATENATE(inicio_consulta,C83,mid_consulta,A83,B83,fin_consulta),"")</f>
+      <c r="E83" s="3" t="str">
+        <f>IF(B83&lt;&gt;"",CONCATENATE(inicio_consulta,C83,mid_consulta,A83,B83,fin_consulta),IF(A83&lt;&gt;"",CONCATENATE("-- ",A83),""))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E84" t="str">
-        <f>IF(B84&lt;&gt;"",CONCATENATE(inicio_consulta,C84,mid_consulta,A84,B84,fin_consulta),"")</f>
-        <v/>
+      <c r="E84" s="3" t="str">
+        <f>IF(B84&lt;&gt;"",CONCATENATE(inicio_consulta,C84,mid_consulta,A84,B84,fin_consulta),IF(A84&lt;&gt;"",CONCATENATE("-- ",A84),""))</f>
+        <v>-- receipt</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B85" s="2" t="str">
         <f>IF(A84&lt;&gt;"",CONCATENATE(A84,"Query"),"")</f>
         <v>receiptQuery</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <f>C82+1</f>
         <v>60</v>
       </c>
-      <c r="E85" t="str">
-        <f>IF(B85&lt;&gt;"",CONCATENATE(inicio_consulta,C85,mid_consulta,A85,B85,fin_consulta),"")</f>
+      <c r="E85" s="3" t="str">
+        <f>IF(B85&lt;&gt;"",CONCATENATE(inicio_consulta,C85,mid_consulta,A85,B85,fin_consulta),IF(A85&lt;&gt;"",CONCATENATE("-- ",A85),""))</f>
         <v>INSERT INTO tserver_permission VALUES (60,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptQuery');</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B86" s="2" t="str">
         <f>IF(A84&lt;&gt;"",CONCATENATE(A84,"Insert"),"")</f>
         <v>receiptInsert</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <f>C85+1</f>
         <v>61</v>
       </c>
-      <c r="E86" t="str">
-        <f>IF(B86&lt;&gt;"",CONCATENATE(inicio_consulta,C86,mid_consulta,A86,B86,fin_consulta),"")</f>
+      <c r="E86" s="3" t="str">
+        <f>IF(B86&lt;&gt;"",CONCATENATE(inicio_consulta,C86,mid_consulta,A86,B86,fin_consulta),IF(A86&lt;&gt;"",CONCATENATE("-- ",A86),""))</f>
         <v>INSERT INTO tserver_permission VALUES (61,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptInsert');</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <f t="shared" ref="C87:C88" si="9">C86+1</f>
         <v>62</v>
       </c>
-      <c r="E87" t="str">
-        <f>IF(B87&lt;&gt;"",CONCATENATE(inicio_consulta,C87,mid_consulta,A87,B87,fin_consulta),"")</f>
+      <c r="E87" s="3" t="str">
+        <f>IF(B87&lt;&gt;"",CONCATENATE(inicio_consulta,C87,mid_consulta,A87,B87,fin_consulta),IF(A87&lt;&gt;"",CONCATENATE("-- ",A87),""))</f>
         <v>INSERT INTO tserver_permission VALUES (62,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/completeReceiptQuery');</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B88" s="2" t="str">
         <f>IF(A84&lt;&gt;"",CONCATENATE(A84,"Delete"),"")</f>
         <v>receiptDelete</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="E88" t="str">
-        <f>IF(B88&lt;&gt;"",CONCATENATE(inicio_consulta,C88,mid_consulta,A88,B88,fin_consulta),"")</f>
+      <c r="E88" s="3" t="str">
+        <f>IF(B88&lt;&gt;"",CONCATENATE(inicio_consulta,C88,mid_consulta,A88,B88,fin_consulta),IF(A88&lt;&gt;"",CONCATENATE("-- ",A88),""))</f>
         <v>INSERT INTO tserver_permission VALUES (63,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptDelete');</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E89" t="str">
-        <f>IF(B89&lt;&gt;"",CONCATENATE(inicio_consulta,C89,mid_consulta,A89,B89,fin_consulta),"")</f>
+      <c r="E89" s="3" t="str">
+        <f>IF(B89&lt;&gt;"",CONCATENATE(inicio_consulta,C89,mid_consulta,A89,B89,fin_consulta),IF(A89&lt;&gt;"",CONCATENATE("-- ",A89),""))</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E90" t="str">
-        <f>IF(B90&lt;&gt;"",CONCATENATE(inicio_consulta,C90,mid_consulta,A90,B90,fin_consulta),"")</f>
-        <v/>
+      <c r="E90" s="3" t="str">
+        <f>IF(B90&lt;&gt;"",CONCATENATE(inicio_consulta,C90,mid_consulta,A90,B90,fin_consulta),IF(A90&lt;&gt;"",CONCATENATE("-- ",A90),""))</f>
+        <v>-- room</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B91" s="2" t="str">
         <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Query"),"")</f>
         <v>roomQuery</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <f>C88+1</f>
         <v>64</v>
       </c>
-      <c r="E91" t="str">
-        <f>IF(B91&lt;&gt;"",CONCATENATE(inicio_consulta,C91,mid_consulta,A91,B91,fin_consulta),"")</f>
+      <c r="E91" s="3" t="str">
+        <f>IF(B91&lt;&gt;"",CONCATENATE(inicio_consulta,C91,mid_consulta,A91,B91,fin_consulta),IF(A91&lt;&gt;"",CONCATENATE("-- ",A91),""))</f>
         <v>INSERT INTO tserver_permission VALUES (64,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomQuery');</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B92" s="2" t="str">
         <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Insert"),"")</f>
         <v>roomInsert</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <f>C91+1</f>
         <v>65</v>
       </c>
-      <c r="E92" t="str">
-        <f>IF(B92&lt;&gt;"",CONCATENATE(inicio_consulta,C92,mid_consulta,A92,B92,fin_consulta),"")</f>
+      <c r="E92" s="3" t="str">
+        <f>IF(B92&lt;&gt;"",CONCATENATE(inicio_consulta,C92,mid_consulta,A92,B92,fin_consulta),IF(A92&lt;&gt;"",CONCATENATE("-- ",A92),""))</f>
         <v>INSERT INTO tserver_permission VALUES (65,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInsert');</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B93" s="2" t="str">
         <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Update"),"")</f>
         <v>roomUpdate</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <f t="shared" ref="C93:C98" si="10">C92+1</f>
         <v>66</v>
       </c>
-      <c r="E93" t="str">
-        <f>IF(B93&lt;&gt;"",CONCATENATE(inicio_consulta,C93,mid_consulta,A93,B93,fin_consulta),"")</f>
+      <c r="E93" s="3" t="str">
+        <f>IF(B93&lt;&gt;"",CONCATENATE(inicio_consulta,C93,mid_consulta,A93,B93,fin_consulta),IF(A93&lt;&gt;"",CONCATENATE("-- ",A93),""))</f>
         <v>INSERT INTO tserver_permission VALUES (66,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomUpdate');</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B94" s="2" t="str">
         <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Delete"),"")</f>
         <v>roomDelete</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <f>C93+1</f>
         <v>67</v>
       </c>
-      <c r="E94" t="str">
-        <f>IF(B94&lt;&gt;"",CONCATENATE(inicio_consulta,C94,mid_consulta,A94,B94,fin_consulta),"")</f>
+      <c r="E94" s="3" t="str">
+        <f>IF(B94&lt;&gt;"",CONCATENATE(inicio_consulta,C94,mid_consulta,A94,B94,fin_consulta),IF(A94&lt;&gt;"",CONCATENATE("-- ",A94),""))</f>
         <v>INSERT INTO tserver_permission VALUES (67,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomDelete');</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="E95" t="str">
-        <f>IF(B95&lt;&gt;"",CONCATENATE(inicio_consulta,C95,mid_consulta,A95,B95,fin_consulta),"")</f>
+      <c r="E95" s="3" t="str">
+        <f>IF(B95&lt;&gt;"",CONCATENATE(inicio_consulta,C95,mid_consulta,A95,B95,fin_consulta),IF(A95&lt;&gt;"",CONCATENATE("-- ",A95),""))</f>
         <v>INSERT INTO tserver_permission VALUES (68,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomsUnbookedInRangeQuery');</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="E96" t="str">
-        <f>IF(B96&lt;&gt;"",CONCATENATE(inicio_consulta,C96,mid_consulta,A96,B96,fin_consulta),"")</f>
+      <c r="E96" s="3" t="str">
+        <f>IF(B96&lt;&gt;"",CONCATENATE(inicio_consulta,C96,mid_consulta,A96,B96,fin_consulta),IF(A96&lt;&gt;"",CONCATENATE("-- ",A96),""))</f>
         <v>INSERT INTO tserver_permission VALUES (69,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/isRoomUnbookedgInRange');</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="E97" t="str">
-        <f>IF(B97&lt;&gt;"",CONCATENATE(inicio_consulta,C97,mid_consulta,A97,B97,fin_consulta),"")</f>
+      <c r="E97" s="3" t="str">
+        <f>IF(B97&lt;&gt;"",CONCATENATE(inicio_consulta,C97,mid_consulta,A97,B97,fin_consulta),IF(A97&lt;&gt;"",CONCATENATE("-- ",A97),""))</f>
         <v>INSERT INTO tserver_permission VALUES (70,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInfoQuery');</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="E98" t="str">
-        <f>IF(B98&lt;&gt;"",CONCATENATE(inicio_consulta,C98,mid_consulta,A98,B98,fin_consulta),"")</f>
+      <c r="E98" s="3" t="str">
+        <f>IF(B98&lt;&gt;"",CONCATENATE(inicio_consulta,C98,mid_consulta,A98,B98,fin_consulta),IF(A98&lt;&gt;"",CONCATENATE("-- ",A98),""))</f>
         <v>INSERT INTO tserver_permission VALUES (71,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/infoHotelFeaturesQuery');</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E99" t="str">
-        <f>IF(B99&lt;&gt;"",CONCATENATE(inicio_consulta,C99,mid_consulta,A99,B99,fin_consulta),"")</f>
+      <c r="E99" s="3" t="str">
+        <f>IF(B99&lt;&gt;"",CONCATENATE(inicio_consulta,C99,mid_consulta,A99,B99,fin_consulta),IF(A99&lt;&gt;"",CONCATENATE("-- ",A99),""))</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E100" t="str">
-        <f>IF(B100&lt;&gt;"",CONCATENATE(inicio_consulta,C100,mid_consulta,A100,B100,fin_consulta),"")</f>
-        <v/>
+      <c r="E100" s="3" t="str">
+        <f>IF(B100&lt;&gt;"",CONCATENATE(inicio_consulta,C100,mid_consulta,A100,B100,fin_consulta),IF(A100&lt;&gt;"",CONCATENATE("-- ",A100),""))</f>
+        <v>-- roomTypeFeature</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B101" s="2" t="str">
         <f>IF(A100&lt;&gt;"",CONCATENATE(A100,"Query"),"")</f>
         <v>roomTypeFeatureQuery</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <f>C98+1</f>
         <v>72</v>
       </c>
-      <c r="E101" t="str">
-        <f>IF(B101&lt;&gt;"",CONCATENATE(inicio_consulta,C101,mid_consulta,A101,B101,fin_consulta),"")</f>
+      <c r="E101" s="3" t="str">
+        <f>IF(B101&lt;&gt;"",CONCATENATE(inicio_consulta,C101,mid_consulta,A101,B101,fin_consulta),IF(A101&lt;&gt;"",CONCATENATE("-- ",A101),""))</f>
         <v>INSERT INTO tserver_permission VALUES (72,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureQuery');</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B102" s="2" t="str">
         <f>IF(A100&lt;&gt;"",CONCATENATE(A100,"Insert"),"")</f>
         <v>roomTypeFeatureInsert</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <f>C101+1</f>
         <v>73</v>
       </c>
-      <c r="E102" t="str">
-        <f>IF(B102&lt;&gt;"",CONCATENATE(inicio_consulta,C102,mid_consulta,A102,B102,fin_consulta),"")</f>
+      <c r="E102" s="3" t="str">
+        <f>IF(B102&lt;&gt;"",CONCATENATE(inicio_consulta,C102,mid_consulta,A102,B102,fin_consulta),IF(A102&lt;&gt;"",CONCATENATE("-- ",A102),""))</f>
         <v>INSERT INTO tserver_permission VALUES (73,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureInsert');</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B103" s="2" t="str">
         <f>IF(A100&lt;&gt;"",CONCATENATE(A100,"Delete"),"")</f>
         <v>roomTypeFeatureDelete</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <f>C102+1</f>
         <v>74</v>
       </c>
-      <c r="E103" t="str">
-        <f>IF(B103&lt;&gt;"",CONCATENATE(inicio_consulta,C103,mid_consulta,A103,B103,fin_consulta),"")</f>
+      <c r="E103" s="3" t="str">
+        <f>IF(B103&lt;&gt;"",CONCATENATE(inicio_consulta,C103,mid_consulta,A103,B103,fin_consulta),IF(A103&lt;&gt;"",CONCATENATE("-- ",A103),""))</f>
         <v>INSERT INTO tserver_permission VALUES (74,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureDelete');</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E104" t="str">
-        <f>IF(B104&lt;&gt;"",CONCATENATE(inicio_consulta,C104,mid_consulta,A104,B104,fin_consulta),"")</f>
+      <c r="E104" s="3" t="str">
+        <f>IF(B104&lt;&gt;"",CONCATENATE(inicio_consulta,C104,mid_consulta,A104,B104,fin_consulta),IF(A104&lt;&gt;"",CONCATENATE("-- ",A104),""))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E105" t="str">
-        <f>IF(B105&lt;&gt;"",CONCATENATE(inicio_consulta,C105,mid_consulta,A105,B105,fin_consulta),"")</f>
-        <v/>
+      <c r="E105" s="3" t="str">
+        <f>IF(B105&lt;&gt;"",CONCATENATE(inicio_consulta,C105,mid_consulta,A105,B105,fin_consulta),IF(A105&lt;&gt;"",CONCATENATE("-- ",A105),""))</f>
+        <v>-- roomType</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B106" s="2" t="str">
         <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Query"),"")</f>
         <v>roomTypeQuery</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
         <f>C103+1</f>
         <v>75</v>
       </c>
-      <c r="E106" t="str">
-        <f>IF(B106&lt;&gt;"",CONCATENATE(inicio_consulta,C106,mid_consulta,A106,B106,fin_consulta),"")</f>
+      <c r="E106" s="3" t="str">
+        <f>IF(B106&lt;&gt;"",CONCATENATE(inicio_consulta,C106,mid_consulta,A106,B106,fin_consulta),IF(A106&lt;&gt;"",CONCATENATE("-- ",A106),""))</f>
         <v>INSERT INTO tserver_permission VALUES (75,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeQuery');</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B107" s="2" t="str">
         <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Insert"),"")</f>
         <v>roomTypeInsert</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
         <f>C106+1</f>
         <v>76</v>
       </c>
-      <c r="E107" t="str">
-        <f>IF(B107&lt;&gt;"",CONCATENATE(inicio_consulta,C107,mid_consulta,A107,B107,fin_consulta),"")</f>
+      <c r="E107" s="3" t="str">
+        <f>IF(B107&lt;&gt;"",CONCATENATE(inicio_consulta,C107,mid_consulta,A107,B107,fin_consulta),IF(A107&lt;&gt;"",CONCATENATE("-- ",A107),""))</f>
         <v>INSERT INTO tserver_permission VALUES (76,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeInsert');</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B108" s="2" t="str">
         <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Update"),"")</f>
         <v>roomTypeUpdate</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
         <f t="shared" ref="C108:C111" si="11">C107+1</f>
         <v>77</v>
       </c>
-      <c r="E108" t="str">
-        <f>IF(B108&lt;&gt;"",CONCATENATE(inicio_consulta,C108,mid_consulta,A108,B108,fin_consulta),"")</f>
+      <c r="E108" s="3" t="str">
+        <f>IF(B108&lt;&gt;"",CONCATENATE(inicio_consulta,C108,mid_consulta,A108,B108,fin_consulta),IF(A108&lt;&gt;"",CONCATENATE("-- ",A108),""))</f>
         <v>INSERT INTO tserver_permission VALUES (77,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeUpdate');</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B109" s="2" t="str">
         <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Delete"),"")</f>
         <v>roomTypeDelete</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
-      <c r="E109" t="str">
-        <f>IF(B109&lt;&gt;"",CONCATENATE(inicio_consulta,C109,mid_consulta,A109,B109,fin_consulta),"")</f>
+      <c r="E109" s="3" t="str">
+        <f>IF(B109&lt;&gt;"",CONCATENATE(inicio_consulta,C109,mid_consulta,A109,B109,fin_consulta),IF(A109&lt;&gt;"",CONCATENATE("-- ",A109),""))</f>
         <v>INSERT INTO tserver_permission VALUES (78,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeDelete');</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <f t="shared" si="11"/>
         <v>79</v>
       </c>
-      <c r="E110" t="str">
-        <f>IF(B110&lt;&gt;"",CONCATENATE(inicio_consulta,C110,mid_consulta,A110,B110,fin_consulta),"")</f>
+      <c r="E110" s="3" t="str">
+        <f>IF(B110&lt;&gt;"",CONCATENATE(inicio_consulta,C110,mid_consulta,A110,B110,fin_consulta),IF(A110&lt;&gt;"",CONCATENATE("-- ",A110),""))</f>
         <v>INSERT INTO tserver_permission VALUES (79,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoQuery');</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="E111" t="str">
-        <f>IF(B111&lt;&gt;"",CONCATENATE(inicio_consulta,C111,mid_consulta,A111,B111,fin_consulta),"")</f>
+      <c r="E111" s="3" t="str">
+        <f>IF(B111&lt;&gt;"",CONCATENATE(inicio_consulta,C111,mid_consulta,A111,B111,fin_consulta),IF(A111&lt;&gt;"",CONCATENATE("-- ",A111),""))</f>
         <v>INSERT INTO tserver_permission VALUES (80,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoRoomFeaturesQuery');</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E112" t="str">
-        <f>IF(B112&lt;&gt;"",CONCATENATE(inicio_consulta,C112,mid_consulta,A112,B112,fin_consulta),"")</f>
+      <c r="E112" s="3" t="str">
+        <f>IF(B112&lt;&gt;"",CONCATENATE(inicio_consulta,C112,mid_consulta,A112,B112,fin_consulta),IF(A112&lt;&gt;"",CONCATENATE("-- ",A112),""))</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E113" t="str">
-        <f>IF(B113&lt;&gt;"",CONCATENATE(inicio_consulta,C113,mid_consulta,A113,B113,fin_consulta),"")</f>
-        <v/>
+      <c r="E113" s="3" t="str">
+        <f>IF(B113&lt;&gt;"",CONCATENATE(inicio_consulta,C113,mid_consulta,A113,B113,fin_consulta),IF(A113&lt;&gt;"",CONCATENATE("-- ",A113),""))</f>
+        <v>-- service</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B114" s="2" t="str">
         <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Query"),"")</f>
         <v>serviceQuery</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
         <f>C111+1</f>
         <v>81</v>
       </c>
-      <c r="E114" t="str">
-        <f>IF(B114&lt;&gt;"",CONCATENATE(inicio_consulta,C114,mid_consulta,A114,B114,fin_consulta),"")</f>
+      <c r="E114" s="3" t="str">
+        <f>IF(B114&lt;&gt;"",CONCATENATE(inicio_consulta,C114,mid_consulta,A114,B114,fin_consulta),IF(A114&lt;&gt;"",CONCATENATE("-- ",A114),""))</f>
         <v>INSERT INTO tserver_permission VALUES (81,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceQuery');</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B115" s="2" t="str">
         <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Insert"),"")</f>
         <v>serviceInsert</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
         <f>C114+1</f>
         <v>82</v>
       </c>
-      <c r="E115" t="str">
-        <f>IF(B115&lt;&gt;"",CONCATENATE(inicio_consulta,C115,mid_consulta,A115,B115,fin_consulta),"")</f>
+      <c r="E115" s="3" t="str">
+        <f>IF(B115&lt;&gt;"",CONCATENATE(inicio_consulta,C115,mid_consulta,A115,B115,fin_consulta),IF(A115&lt;&gt;"",CONCATENATE("-- ",A115),""))</f>
         <v>INSERT INTO tserver_permission VALUES (82,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceInsert');</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B116" t="str">
+      <c r="B116" s="2" t="str">
         <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Update"),"")</f>
         <v>serviceUpdate</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
         <f t="shared" ref="C116:C117" si="12">C115+1</f>
         <v>83</v>
       </c>
-      <c r="E116" t="str">
-        <f>IF(B116&lt;&gt;"",CONCATENATE(inicio_consulta,C116,mid_consulta,A116,B116,fin_consulta),"")</f>
+      <c r="E116" s="3" t="str">
+        <f>IF(B116&lt;&gt;"",CONCATENATE(inicio_consulta,C116,mid_consulta,A116,B116,fin_consulta),IF(A116&lt;&gt;"",CONCATENATE("-- ",A116),""))</f>
         <v>INSERT INTO tserver_permission VALUES (83,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceUpdate');</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B117" t="str">
+      <c r="B117" s="2" t="str">
         <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Delete"),"")</f>
         <v>serviceDelete</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="E117" t="str">
-        <f>IF(B117&lt;&gt;"",CONCATENATE(inicio_consulta,C117,mid_consulta,A117,B117,fin_consulta),"")</f>
+      <c r="E117" s="3" t="str">
+        <f>IF(B117&lt;&gt;"",CONCATENATE(inicio_consulta,C117,mid_consulta,A117,B117,fin_consulta),IF(A117&lt;&gt;"",CONCATENATE("-- ",A117),""))</f>
         <v>INSERT INTO tserver_permission VALUES (84,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceDelete');</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E118" t="str">
-        <f>IF(B118&lt;&gt;"",CONCATENATE(inicio_consulta,C118,mid_consulta,A118,B118,fin_consulta),"")</f>
+      <c r="E118" s="3" t="str">
+        <f>IF(B118&lt;&gt;"",CONCATENATE(inicio_consulta,C118,mid_consulta,A118,B118,fin_consulta),IF(A118&lt;&gt;"",CONCATENATE("-- ",A118),""))</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E119" t="str">
-        <f>IF(B119&lt;&gt;"",CONCATENATE(inicio_consulta,C119,mid_consulta,A119,B119,fin_consulta),"")</f>
-        <v/>
+      <c r="E119" s="3" t="str">
+        <f>IF(B119&lt;&gt;"",CONCATENATE(inicio_consulta,C119,mid_consulta,A119,B119,fin_consulta),IF(A119&lt;&gt;"",CONCATENATE("-- ",A119),""))</f>
+        <v>-- servicesXtra</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B120" s="2" t="str">
         <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Query"),"")</f>
         <v>servicesXtraQuery</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="2">
         <f>C117+1</f>
         <v>85</v>
       </c>
-      <c r="E120" t="str">
-        <f>IF(B120&lt;&gt;"",CONCATENATE(inicio_consulta,C120,mid_consulta,A120,B120,fin_consulta),"")</f>
+      <c r="E120" s="3" t="str">
+        <f>IF(B120&lt;&gt;"",CONCATENATE(inicio_consulta,C120,mid_consulta,A120,B120,fin_consulta),IF(A120&lt;&gt;"",CONCATENATE("-- ",A120),""))</f>
         <v>INSERT INTO tserver_permission VALUES (85,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraQuery');</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B121" s="2" t="str">
         <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Insert"),"")</f>
         <v>servicesXtraInsert</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="2">
         <f>C120+1</f>
         <v>86</v>
       </c>
-      <c r="E121" t="str">
-        <f>IF(B121&lt;&gt;"",CONCATENATE(inicio_consulta,C121,mid_consulta,A121,B121,fin_consulta),"")</f>
+      <c r="E121" s="3" t="str">
+        <f>IF(B121&lt;&gt;"",CONCATENATE(inicio_consulta,C121,mid_consulta,A121,B121,fin_consulta),IF(A121&lt;&gt;"",CONCATENATE("-- ",A121),""))</f>
         <v>INSERT INTO tserver_permission VALUES (86,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraInsert');</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B122" t="str">
+      <c r="B122" s="2" t="str">
         <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Update"),"")</f>
         <v>servicesXtraUpdate</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
         <f t="shared" ref="C122:C123" si="13">C121+1</f>
         <v>87</v>
       </c>
-      <c r="E122" t="str">
-        <f>IF(B122&lt;&gt;"",CONCATENATE(inicio_consulta,C122,mid_consulta,A122,B122,fin_consulta),"")</f>
+      <c r="E122" s="3" t="str">
+        <f>IF(B122&lt;&gt;"",CONCATENATE(inicio_consulta,C122,mid_consulta,A122,B122,fin_consulta),IF(A122&lt;&gt;"",CONCATENATE("-- ",A122),""))</f>
         <v>INSERT INTO tserver_permission VALUES (87,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraUpdate');</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B123" s="2" t="str">
         <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Delete"),"")</f>
         <v>servicesXtraDelete</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
         <f t="shared" si="13"/>
         <v>88</v>
       </c>
-      <c r="E123" t="str">
-        <f>IF(B123&lt;&gt;"",CONCATENATE(inicio_consulta,C123,mid_consulta,A123,B123,fin_consulta),"")</f>
+      <c r="E123" s="3" t="str">
+        <f>IF(B123&lt;&gt;"",CONCATENATE(inicio_consulta,C123,mid_consulta,A123,B123,fin_consulta),IF(A123&lt;&gt;"",CONCATENATE("-- ",A123),""))</f>
         <v>INSERT INTO tserver_permission VALUES (88,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraDelete');</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E124" t="str">
-        <f>IF(B124&lt;&gt;"",CONCATENATE(inicio_consulta,C124,mid_consulta,A124,B124,fin_consulta),"")</f>
+      <c r="E124" s="3" t="str">
+        <f>IF(B124&lt;&gt;"",CONCATENATE(inicio_consulta,C124,mid_consulta,A124,B124,fin_consulta),IF(A124&lt;&gt;"",CONCATENATE("-- ",A124),""))</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E125" t="str">
-        <f>IF(B125&lt;&gt;"",CONCATENATE(inicio_consulta,C125,mid_consulta,A125,B125,fin_consulta),"")</f>
-        <v/>
+      <c r="E125" s="3" t="str">
+        <f>IF(B125&lt;&gt;"",CONCATENATE(inicio_consulta,C125,mid_consulta,A125,B125,fin_consulta),IF(A125&lt;&gt;"",CONCATENATE("-- ",A125),""))</f>
+        <v>-- user</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B126" t="str">
+      <c r="B126" s="2" t="str">
         <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Query"),"")</f>
         <v>userQuery</v>
       </c>
@@ -2326,16 +2363,16 @@
         <f>C123+1</f>
         <v>89</v>
       </c>
-      <c r="E126" t="str">
-        <f>IF(B126&lt;&gt;"",CONCATENATE(inicio_consulta,C126,mid_consulta,A126,B126,fin_consulta),"")</f>
+      <c r="E126" s="3" t="str">
+        <f>IF(B126&lt;&gt;"",CONCATENATE(inicio_consulta,C126,mid_consulta,A126,B126,fin_consulta),IF(A126&lt;&gt;"",CONCATENATE("-- ",A126),""))</f>
         <v>INSERT INTO tserver_permission VALUES (89,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userQuery');</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B127" t="str">
+      <c r="B127" s="2" t="str">
         <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Insert"),"")</f>
         <v>userInsert</v>
       </c>
@@ -2343,16 +2380,16 @@
         <f>C126+1</f>
         <v>90</v>
       </c>
-      <c r="E127" t="str">
-        <f>IF(B127&lt;&gt;"",CONCATENATE(inicio_consulta,C127,mid_consulta,A127,B127,fin_consulta),"")</f>
+      <c r="E127" s="3" t="str">
+        <f>IF(B127&lt;&gt;"",CONCATENATE(inicio_consulta,C127,mid_consulta,A127,B127,fin_consulta),IF(A127&lt;&gt;"",CONCATENATE("-- ",A127),""))</f>
         <v>INSERT INTO tserver_permission VALUES (90,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userInsert');</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B128" t="str">
+      <c r="B128" s="2" t="str">
         <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Update"),"")</f>
         <v>userUpdate</v>
       </c>
@@ -2360,16 +2397,16 @@
         <f t="shared" ref="C128:C129" si="14">C127+1</f>
         <v>91</v>
       </c>
-      <c r="E128" t="str">
-        <f>IF(B128&lt;&gt;"",CONCATENATE(inicio_consulta,C128,mid_consulta,A128,B128,fin_consulta),"")</f>
+      <c r="E128" s="3" t="str">
+        <f>IF(B128&lt;&gt;"",CONCATENATE(inicio_consulta,C128,mid_consulta,A128,B128,fin_consulta),IF(A128&lt;&gt;"",CONCATENATE("-- ",A128),""))</f>
         <v>INSERT INTO tserver_permission VALUES (91,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userUpdate');</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B129" t="str">
+      <c r="B129" s="2" t="str">
         <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Delete"),"")</f>
         <v>userDelete</v>
       </c>
@@ -2377,871 +2414,1009 @@
         <f t="shared" si="14"/>
         <v>92</v>
       </c>
-      <c r="E129" t="str">
-        <f>IF(B129&lt;&gt;"",CONCATENATE(inicio_consulta,C129,mid_consulta,A129,B129,fin_consulta),"")</f>
+      <c r="E129" s="3" t="str">
+        <f>IF(B129&lt;&gt;"",CONCATENATE(inicio_consulta,C129,mid_consulta,A129,B129,fin_consulta),IF(A129&lt;&gt;"",CONCATENATE("-- ",A129),""))</f>
         <v>INSERT INTO tserver_permission VALUES (92,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userDelete');</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E130" t="str">
-        <f>IF(B130&lt;&gt;"",CONCATENATE(inicio_consulta,C130,mid_consulta,A130,B130,fin_consulta),"")</f>
+      <c r="E130" s="3" t="str">
+        <f>IF(B130&lt;&gt;"",CONCATENATE(inicio_consulta,C130,mid_consulta,A130,B130,fin_consulta),IF(A130&lt;&gt;"",CONCATENATE("-- ",A130),""))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E131" t="str">
-        <f>IF(B131&lt;&gt;"",CONCATENATE(inicio_consulta,C131,mid_consulta,A131,B131,fin_consulta),"")</f>
-        <v/>
+      <c r="A131" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="3" t="str">
+        <f>IF(B131&lt;&gt;"",CONCATENATE(inicio_consulta,C131,mid_consulta,A131,B131,fin_consulta),IF(A131&lt;&gt;"",CONCATENATE("-- ",A131),""))</f>
+        <v>-- department</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E132" t="str">
-        <f>IF(B132&lt;&gt;"",CONCATENATE(inicio_consulta,C132,mid_consulta,A132,B132,fin_consulta),"")</f>
-        <v/>
+      <c r="A132" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B132" s="2" t="str">
+        <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Query"),"")</f>
+        <v>departmentQuery</v>
+      </c>
+      <c r="C132" s="2">
+        <f>C129+1</f>
+        <v>93</v>
+      </c>
+      <c r="E132" s="3" t="str">
+        <f>IF(B132&lt;&gt;"",CONCATENATE(inicio_consulta,C132,mid_consulta,A132,B132,fin_consulta),IF(A132&lt;&gt;"",CONCATENATE("-- ",A132),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (93,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentQuery');</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E133" t="str">
-        <f>IF(B133&lt;&gt;"",CONCATENATE(inicio_consulta,C133,mid_consulta,A133,B133,fin_consulta),"")</f>
-        <v/>
+      <c r="A133" s="2" t="str">
+        <f>A132</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
+      </c>
+      <c r="B133" s="2" t="str">
+        <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Insert"),"")</f>
+        <v>departmentInsert</v>
+      </c>
+      <c r="C133" s="2">
+        <f>C132+1</f>
+        <v>94</v>
+      </c>
+      <c r="E133" s="3" t="str">
+        <f>IF(B133&lt;&gt;"",CONCATENATE(inicio_consulta,C133,mid_consulta,A133,B133,fin_consulta),IF(A133&lt;&gt;"",CONCATENATE("-- ",A133),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (94,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentInsert');</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E134" t="str">
-        <f>IF(B134&lt;&gt;"",CONCATENATE(inicio_consulta,C134,mid_consulta,A134,B134,fin_consulta),"")</f>
-        <v/>
+      <c r="A134" s="2" t="str">
+        <f t="shared" ref="A134:A135" si="15">A133</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
+      </c>
+      <c r="B134" s="2" t="str">
+        <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Update"),"")</f>
+        <v>departmentUpdate</v>
+      </c>
+      <c r="C134" s="2">
+        <f t="shared" ref="C134:C135" si="16">C133+1</f>
+        <v>95</v>
+      </c>
+      <c r="E134" s="3" t="str">
+        <f>IF(B134&lt;&gt;"",CONCATENATE(inicio_consulta,C134,mid_consulta,A134,B134,fin_consulta),IF(A134&lt;&gt;"",CONCATENATE("-- ",A134),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (95,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentUpdate');</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E135" t="str">
-        <f>IF(B135&lt;&gt;"",CONCATENATE(inicio_consulta,C135,mid_consulta,A135,B135,fin_consulta),"")</f>
-        <v/>
+      <c r="A135" s="2" t="str">
+        <f t="shared" si="15"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
+      </c>
+      <c r="B135" s="2" t="str">
+        <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Delete"),"")</f>
+        <v>departmentDelete</v>
+      </c>
+      <c r="C135" s="2">
+        <f t="shared" si="16"/>
+        <v>96</v>
+      </c>
+      <c r="E135" s="3" t="str">
+        <f>IF(B135&lt;&gt;"",CONCATENATE(inicio_consulta,C135,mid_consulta,A135,B135,fin_consulta),IF(A135&lt;&gt;"",CONCATENATE("-- ",A135),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (96,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentDelete');</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E136" t="str">
-        <f>IF(B136&lt;&gt;"",CONCATENATE(inicio_consulta,C136,mid_consulta,A136,B136,fin_consulta),"")</f>
+      <c r="E136" s="3" t="str">
+        <f>IF(B136&lt;&gt;"",CONCATENATE(inicio_consulta,C136,mid_consulta,A136,B136,fin_consulta),IF(A136&lt;&gt;"",CONCATENATE("-- ",A136),""))</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E137" t="str">
-        <f>IF(B137&lt;&gt;"",CONCATENATE(inicio_consulta,C137,mid_consulta,A137,B137,fin_consulta),"")</f>
-        <v/>
+      <c r="A137" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E137" s="3" t="str">
+        <f>IF(B137&lt;&gt;"",CONCATENATE(inicio_consulta,C137,mid_consulta,A137,B137,fin_consulta),IF(A137&lt;&gt;"",CONCATENATE("-- ",A137),""))</f>
+        <v>-- employee</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E138" t="str">
-        <f>IF(B138&lt;&gt;"",CONCATENATE(inicio_consulta,C138,mid_consulta,A138,B138,fin_consulta),"")</f>
-        <v/>
+      <c r="A138" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Query"),"")</f>
+        <v>employeeQuery</v>
+      </c>
+      <c r="C138" s="2">
+        <f>C135+1</f>
+        <v>97</v>
+      </c>
+      <c r="E138" s="3" t="str">
+        <f>IF(B138&lt;&gt;"",CONCATENATE(inicio_consulta,C138,mid_consulta,A138,B138,fin_consulta),IF(A138&lt;&gt;"",CONCATENATE("-- ",A138),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (97,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeQuery');</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E139" t="str">
-        <f>IF(B139&lt;&gt;"",CONCATENATE(inicio_consulta,C139,mid_consulta,A139,B139,fin_consulta),"")</f>
-        <v/>
+      <c r="A139" s="2" t="str">
+        <f>A138</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
+      </c>
+      <c r="B139" s="2" t="str">
+        <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Insert"),"")</f>
+        <v>employeeInsert</v>
+      </c>
+      <c r="C139" s="2">
+        <f>C138+1</f>
+        <v>98</v>
+      </c>
+      <c r="E139" s="3" t="str">
+        <f>IF(B139&lt;&gt;"",CONCATENATE(inicio_consulta,C139,mid_consulta,A139,B139,fin_consulta),IF(A139&lt;&gt;"",CONCATENATE("-- ",A139),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (98,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeInsert');</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E140" t="str">
-        <f>IF(B140&lt;&gt;"",CONCATENATE(inicio_consulta,C140,mid_consulta,A140,B140,fin_consulta),"")</f>
-        <v/>
+      <c r="A140" s="2" t="str">
+        <f t="shared" ref="A140:A141" si="17">A139</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
+      </c>
+      <c r="B140" s="2" t="str">
+        <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Update"),"")</f>
+        <v>employeeUpdate</v>
+      </c>
+      <c r="C140" s="2">
+        <f t="shared" ref="C140:C141" si="18">C139+1</f>
+        <v>99</v>
+      </c>
+      <c r="E140" s="3" t="str">
+        <f>IF(B140&lt;&gt;"",CONCATENATE(inicio_consulta,C140,mid_consulta,A140,B140,fin_consulta),IF(A140&lt;&gt;"",CONCATENATE("-- ",A140),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (99,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeUpdate');</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E141" t="str">
-        <f>IF(B141&lt;&gt;"",CONCATENATE(inicio_consulta,C141,mid_consulta,A141,B141,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E142" t="str">
-        <f>IF(B142&lt;&gt;"",CONCATENATE(inicio_consulta,C142,mid_consulta,A142,B142,fin_consulta),"")</f>
-        <v/>
+      <c r="A141" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
+      </c>
+      <c r="B141" s="2" t="str">
+        <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Delete"),"")</f>
+        <v>employeeDelete</v>
+      </c>
+      <c r="C141" s="2">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="E141" s="3" t="str">
+        <f>IF(B141&lt;&gt;"",CONCATENATE(inicio_consulta,C141,mid_consulta,A141,B141,fin_consulta),IF(A141&lt;&gt;"",CONCATENATE("-- ",A141),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (100,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeDelete');</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E143" t="str">
-        <f>IF(B143&lt;&gt;"",CONCATENATE(inicio_consulta,C143,mid_consulta,A143,B143,fin_consulta),"")</f>
-        <v/>
+      <c r="A143" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E143" s="3" t="str">
+        <f>IF(B143&lt;&gt;"",CONCATENATE(inicio_consulta,C143,mid_consulta,A143,B143,fin_consulta),IF(A143&lt;&gt;"",CONCATENATE("-- ",A143),""))</f>
+        <v>-- bill</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E144" t="str">
-        <f>IF(B144&lt;&gt;"",CONCATENATE(inicio_consulta,C144,mid_consulta,A144,B144,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" t="str">
-        <f>IF(B145&lt;&gt;"",CONCATENATE(inicio_consulta,C145,mid_consulta,A145,B145,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" t="str">
-        <f>IF(B146&lt;&gt;"",CONCATENATE(inicio_consulta,C146,mid_consulta,A146,B146,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" t="str">
-        <f>IF(B147&lt;&gt;"",CONCATENATE(inicio_consulta,C147,mid_consulta,A147,B147,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" t="str">
-        <f>IF(B148&lt;&gt;"",CONCATENATE(inicio_consulta,C148,mid_consulta,A148,B148,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" t="str">
-        <f>IF(B149&lt;&gt;"",CONCATENATE(inicio_consulta,C149,mid_consulta,A149,B149,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" t="str">
-        <f>IF(B150&lt;&gt;"",CONCATENATE(inicio_consulta,C150,mid_consulta,A150,B150,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" t="str">
-        <f>IF(B151&lt;&gt;"",CONCATENATE(inicio_consulta,C151,mid_consulta,A151,B151,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" t="str">
-        <f>IF(B152&lt;&gt;"",CONCATENATE(inicio_consulta,C152,mid_consulta,A152,B152,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" t="str">
-        <f>IF(B153&lt;&gt;"",CONCATENATE(inicio_consulta,C153,mid_consulta,A153,B153,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" t="str">
-        <f>IF(B154&lt;&gt;"",CONCATENATE(inicio_consulta,C154,mid_consulta,A154,B154,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" t="str">
-        <f>IF(B155&lt;&gt;"",CONCATENATE(inicio_consulta,C155,mid_consulta,A155,B155,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" t="str">
-        <f>IF(B156&lt;&gt;"",CONCATENATE(inicio_consulta,C156,mid_consulta,A156,B156,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" t="str">
-        <f>IF(B157&lt;&gt;"",CONCATENATE(inicio_consulta,C157,mid_consulta,A157,B157,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" t="str">
-        <f>IF(B158&lt;&gt;"",CONCATENATE(inicio_consulta,C158,mid_consulta,A158,B158,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" t="str">
-        <f>IF(B159&lt;&gt;"",CONCATENATE(inicio_consulta,C159,mid_consulta,A159,B159,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" t="str">
-        <f>IF(B160&lt;&gt;"",CONCATENATE(inicio_consulta,C160,mid_consulta,A160,B160,fin_consulta),"")</f>
+      <c r="A144" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B144" s="2" t="str">
+        <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Query"),"")</f>
+        <v>billQuery</v>
+      </c>
+      <c r="C144" s="2">
+        <f>C141+1</f>
+        <v>101</v>
+      </c>
+      <c r="E144" s="3" t="str">
+        <f>IF(B144&lt;&gt;"",CONCATENATE(inicio_consulta,C144,mid_consulta,A144,B144,fin_consulta),IF(A144&lt;&gt;"",CONCATENATE("-- ",A144),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (101,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billQuery');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="str">
+        <f>A144</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B145" s="2" t="str">
+        <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Insert"),"")</f>
+        <v>billInsert</v>
+      </c>
+      <c r="C145" s="2">
+        <f>C144+1</f>
+        <v>102</v>
+      </c>
+      <c r="E145" s="3" t="str">
+        <f>IF(B145&lt;&gt;"",CONCATENATE(inicio_consulta,C145,mid_consulta,A145,B145,fin_consulta),IF(A145&lt;&gt;"",CONCATENATE("-- ",A145),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (102,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billInsert');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="str">
+        <f t="shared" ref="A146:A147" si="19">A145</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B146" s="2" t="str">
+        <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Update"),"")</f>
+        <v>billUpdate</v>
+      </c>
+      <c r="C146" s="2">
+        <f t="shared" ref="C146:C147" si="20">C145+1</f>
+        <v>103</v>
+      </c>
+      <c r="E146" s="3" t="str">
+        <f>IF(B146&lt;&gt;"",CONCATENATE(inicio_consulta,C146,mid_consulta,A146,B146,fin_consulta),IF(A146&lt;&gt;"",CONCATENATE("-- ",A146),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (103,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billUpdate');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B147" s="2" t="str">
+        <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Delete"),"")</f>
+        <v>billDelete</v>
+      </c>
+      <c r="C147" s="2">
+        <f t="shared" si="20"/>
+        <v>104</v>
+      </c>
+      <c r="E147" s="3" t="str">
+        <f>IF(B147&lt;&gt;"",CONCATENATE(inicio_consulta,C147,mid_consulta,A147,B147,fin_consulta),IF(A147&lt;&gt;"",CONCATENATE("-- ",A147),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (104,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billDelete');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E149" s="3" t="str">
+        <f>IF(B149&lt;&gt;"",CONCATENATE(inicio_consulta,C149,mid_consulta,A149,B149,fin_consulta),IF(A149&lt;&gt;"",CONCATENATE("-- ",A149),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E150" s="3" t="str">
+        <f>IF(B150&lt;&gt;"",CONCATENATE(inicio_consulta,C150,mid_consulta,A150,B150,fin_consulta),IF(A150&lt;&gt;"",CONCATENATE("-- ",A150),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E151" s="3" t="str">
+        <f>IF(B151&lt;&gt;"",CONCATENATE(inicio_consulta,C151,mid_consulta,A151,B151,fin_consulta),IF(A151&lt;&gt;"",CONCATENATE("-- ",A151),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E152" s="3" t="str">
+        <f>IF(B152&lt;&gt;"",CONCATENATE(inicio_consulta,C152,mid_consulta,A152,B152,fin_consulta),IF(A152&lt;&gt;"",CONCATENATE("-- ",A152),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E153" s="3" t="str">
+        <f>IF(B153&lt;&gt;"",CONCATENATE(inicio_consulta,C153,mid_consulta,A153,B153,fin_consulta),IF(A153&lt;&gt;"",CONCATENATE("-- ",A153),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E154" s="3" t="str">
+        <f>IF(B154&lt;&gt;"",CONCATENATE(inicio_consulta,C154,mid_consulta,A154,B154,fin_consulta),IF(A154&lt;&gt;"",CONCATENATE("-- ",A154),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E155" s="3" t="str">
+        <f>IF(B155&lt;&gt;"",CONCATENATE(inicio_consulta,C155,mid_consulta,A155,B155,fin_consulta),IF(A155&lt;&gt;"",CONCATENATE("-- ",A155),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E156" s="3" t="str">
+        <f>IF(B156&lt;&gt;"",CONCATENATE(inicio_consulta,C156,mid_consulta,A156,B156,fin_consulta),IF(A156&lt;&gt;"",CONCATENATE("-- ",A156),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E157" s="3" t="str">
+        <f>IF(B157&lt;&gt;"",CONCATENATE(inicio_consulta,C157,mid_consulta,A157,B157,fin_consulta),IF(A157&lt;&gt;"",CONCATENATE("-- ",A157),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E158" s="3" t="str">
+        <f>IF(B158&lt;&gt;"",CONCATENATE(inicio_consulta,C158,mid_consulta,A158,B158,fin_consulta),IF(A158&lt;&gt;"",CONCATENATE("-- ",A158),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E159" s="3" t="str">
+        <f>IF(B159&lt;&gt;"",CONCATENATE(inicio_consulta,C159,mid_consulta,A159,B159,fin_consulta),IF(A159&lt;&gt;"",CONCATENATE("-- ",A159),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E160" s="3" t="str">
+        <f>IF(B160&lt;&gt;"",CONCATENATE(inicio_consulta,C160,mid_consulta,A160,B160,fin_consulta),IF(A160&lt;&gt;"",CONCATENATE("-- ",A160),""))</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" t="str">
-        <f>IF(B161&lt;&gt;"",CONCATENATE(inicio_consulta,C161,mid_consulta,A161,B161,fin_consulta),"")</f>
+      <c r="E161" s="3" t="str">
+        <f>IF(B161&lt;&gt;"",CONCATENATE(inicio_consulta,C161,mid_consulta,A161,B161,fin_consulta),IF(A161&lt;&gt;"",CONCATENATE("-- ",A161),""))</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" t="str">
-        <f>IF(B162&lt;&gt;"",CONCATENATE(inicio_consulta,C162,mid_consulta,A162,B162,fin_consulta),"")</f>
+      <c r="E162" s="3" t="str">
+        <f>IF(B162&lt;&gt;"",CONCATENATE(inicio_consulta,C162,mid_consulta,A162,B162,fin_consulta),IF(A162&lt;&gt;"",CONCATENATE("-- ",A162),""))</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" t="str">
-        <f>IF(B163&lt;&gt;"",CONCATENATE(inicio_consulta,C163,mid_consulta,A163,B163,fin_consulta),"")</f>
+      <c r="E163" s="3" t="str">
+        <f>IF(B163&lt;&gt;"",CONCATENATE(inicio_consulta,C163,mid_consulta,A163,B163,fin_consulta),IF(A163&lt;&gt;"",CONCATENATE("-- ",A163),""))</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" t="str">
-        <f>IF(B164&lt;&gt;"",CONCATENATE(inicio_consulta,C164,mid_consulta,A164,B164,fin_consulta),"")</f>
+      <c r="E164" s="3" t="str">
+        <f>IF(B164&lt;&gt;"",CONCATENATE(inicio_consulta,C164,mid_consulta,A164,B164,fin_consulta),IF(A164&lt;&gt;"",CONCATENATE("-- ",A164),""))</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" t="str">
-        <f>IF(B165&lt;&gt;"",CONCATENATE(inicio_consulta,C165,mid_consulta,A165,B165,fin_consulta),"")</f>
+      <c r="E165" s="3" t="str">
+        <f>IF(B165&lt;&gt;"",CONCATENATE(inicio_consulta,C165,mid_consulta,A165,B165,fin_consulta),IF(A165&lt;&gt;"",CONCATENATE("-- ",A165),""))</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" t="str">
-        <f>IF(B166&lt;&gt;"",CONCATENATE(inicio_consulta,C166,mid_consulta,A166,B166,fin_consulta),"")</f>
+      <c r="E166" s="3" t="str">
+        <f>IF(B166&lt;&gt;"",CONCATENATE(inicio_consulta,C166,mid_consulta,A166,B166,fin_consulta),IF(A166&lt;&gt;"",CONCATENATE("-- ",A166),""))</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" t="str">
-        <f>IF(B167&lt;&gt;"",CONCATENATE(inicio_consulta,C167,mid_consulta,A167,B167,fin_consulta),"")</f>
+      <c r="E167" s="3" t="str">
+        <f>IF(B167&lt;&gt;"",CONCATENATE(inicio_consulta,C167,mid_consulta,A167,B167,fin_consulta),IF(A167&lt;&gt;"",CONCATENATE("-- ",A167),""))</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" t="str">
-        <f>IF(B168&lt;&gt;"",CONCATENATE(inicio_consulta,C168,mid_consulta,A168,B168,fin_consulta),"")</f>
+      <c r="E168" s="3" t="str">
+        <f>IF(B168&lt;&gt;"",CONCATENATE(inicio_consulta,C168,mid_consulta,A168,B168,fin_consulta),IF(A168&lt;&gt;"",CONCATENATE("-- ",A168),""))</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" t="str">
-        <f>IF(B169&lt;&gt;"",CONCATENATE(inicio_consulta,C169,mid_consulta,A169,B169,fin_consulta),"")</f>
+      <c r="E169" s="3" t="str">
+        <f>IF(B169&lt;&gt;"",CONCATENATE(inicio_consulta,C169,mid_consulta,A169,B169,fin_consulta),IF(A169&lt;&gt;"",CONCATENATE("-- ",A169),""))</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" t="str">
-        <f>IF(B170&lt;&gt;"",CONCATENATE(inicio_consulta,C170,mid_consulta,A170,B170,fin_consulta),"")</f>
+      <c r="E170" s="3" t="str">
+        <f>IF(B170&lt;&gt;"",CONCATENATE(inicio_consulta,C170,mid_consulta,A170,B170,fin_consulta),IF(A170&lt;&gt;"",CONCATENATE("-- ",A170),""))</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" t="str">
-        <f>IF(B171&lt;&gt;"",CONCATENATE(inicio_consulta,C171,mid_consulta,A171,B171,fin_consulta),"")</f>
+      <c r="E171" s="3" t="str">
+        <f>IF(B171&lt;&gt;"",CONCATENATE(inicio_consulta,C171,mid_consulta,A171,B171,fin_consulta),IF(A171&lt;&gt;"",CONCATENATE("-- ",A171),""))</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" t="str">
-        <f>IF(B172&lt;&gt;"",CONCATENATE(inicio_consulta,C172,mid_consulta,A172,B172,fin_consulta),"")</f>
+      <c r="E172" s="3" t="str">
+        <f>IF(B172&lt;&gt;"",CONCATENATE(inicio_consulta,C172,mid_consulta,A172,B172,fin_consulta),IF(A172&lt;&gt;"",CONCATENATE("-- ",A172),""))</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" t="str">
-        <f>IF(B173&lt;&gt;"",CONCATENATE(inicio_consulta,C173,mid_consulta,A173,B173,fin_consulta),"")</f>
+      <c r="E173" s="3" t="str">
+        <f>IF(B173&lt;&gt;"",CONCATENATE(inicio_consulta,C173,mid_consulta,A173,B173,fin_consulta),IF(A173&lt;&gt;"",CONCATENATE("-- ",A173),""))</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" t="str">
-        <f>IF(B174&lt;&gt;"",CONCATENATE(inicio_consulta,C174,mid_consulta,A174,B174,fin_consulta),"")</f>
+      <c r="E174" s="3" t="str">
+        <f>IF(B174&lt;&gt;"",CONCATENATE(inicio_consulta,C174,mid_consulta,A174,B174,fin_consulta),IF(A174&lt;&gt;"",CONCATENATE("-- ",A174),""))</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" t="str">
-        <f>IF(B175&lt;&gt;"",CONCATENATE(inicio_consulta,C175,mid_consulta,A175,B175,fin_consulta),"")</f>
+      <c r="E175" s="3" t="str">
+        <f>IF(B175&lt;&gt;"",CONCATENATE(inicio_consulta,C175,mid_consulta,A175,B175,fin_consulta),IF(A175&lt;&gt;"",CONCATENATE("-- ",A175),""))</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" t="str">
-        <f>IF(B176&lt;&gt;"",CONCATENATE(inicio_consulta,C176,mid_consulta,A176,B176,fin_consulta),"")</f>
+      <c r="E176" s="3" t="str">
+        <f>IF(B176&lt;&gt;"",CONCATENATE(inicio_consulta,C176,mid_consulta,A176,B176,fin_consulta),IF(A176&lt;&gt;"",CONCATENATE("-- ",A176),""))</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" t="str">
-        <f>IF(B177&lt;&gt;"",CONCATENATE(inicio_consulta,C177,mid_consulta,A177,B177,fin_consulta),"")</f>
+      <c r="E177" s="3" t="str">
+        <f>IF(B177&lt;&gt;"",CONCATENATE(inicio_consulta,C177,mid_consulta,A177,B177,fin_consulta),IF(A177&lt;&gt;"",CONCATENATE("-- ",A177),""))</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" t="str">
-        <f>IF(B178&lt;&gt;"",CONCATENATE(inicio_consulta,C178,mid_consulta,A178,B178,fin_consulta),"")</f>
+      <c r="E178" s="3" t="str">
+        <f>IF(B178&lt;&gt;"",CONCATENATE(inicio_consulta,C178,mid_consulta,A178,B178,fin_consulta),IF(A178&lt;&gt;"",CONCATENATE("-- ",A178),""))</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" t="str">
-        <f>IF(B179&lt;&gt;"",CONCATENATE(inicio_consulta,C179,mid_consulta,A179,B179,fin_consulta),"")</f>
+      <c r="E179" s="3" t="str">
+        <f>IF(B179&lt;&gt;"",CONCATENATE(inicio_consulta,C179,mid_consulta,A179,B179,fin_consulta),IF(A179&lt;&gt;"",CONCATENATE("-- ",A179),""))</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" t="str">
-        <f>IF(B180&lt;&gt;"",CONCATENATE(inicio_consulta,C180,mid_consulta,A180,B180,fin_consulta),"")</f>
+      <c r="E180" s="3" t="str">
+        <f>IF(B180&lt;&gt;"",CONCATENATE(inicio_consulta,C180,mid_consulta,A180,B180,fin_consulta),IF(A180&lt;&gt;"",CONCATENATE("-- ",A180),""))</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" t="str">
-        <f>IF(B181&lt;&gt;"",CONCATENATE(inicio_consulta,C181,mid_consulta,A181,B181,fin_consulta),"")</f>
+      <c r="E181" s="3" t="str">
+        <f>IF(B181&lt;&gt;"",CONCATENATE(inicio_consulta,C181,mid_consulta,A181,B181,fin_consulta),IF(A181&lt;&gt;"",CONCATENATE("-- ",A181),""))</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" t="str">
-        <f>IF(B182&lt;&gt;"",CONCATENATE(inicio_consulta,C182,mid_consulta,A182,B182,fin_consulta),"")</f>
+      <c r="E182" s="3" t="str">
+        <f>IF(B182&lt;&gt;"",CONCATENATE(inicio_consulta,C182,mid_consulta,A182,B182,fin_consulta),IF(A182&lt;&gt;"",CONCATENATE("-- ",A182),""))</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" t="str">
-        <f>IF(B183&lt;&gt;"",CONCATENATE(inicio_consulta,C183,mid_consulta,A183,B183,fin_consulta),"")</f>
+      <c r="E183" s="3" t="str">
+        <f>IF(B183&lt;&gt;"",CONCATENATE(inicio_consulta,C183,mid_consulta,A183,B183,fin_consulta),IF(A183&lt;&gt;"",CONCATENATE("-- ",A183),""))</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" t="str">
-        <f>IF(B184&lt;&gt;"",CONCATENATE(inicio_consulta,C184,mid_consulta,A184,B184,fin_consulta),"")</f>
+      <c r="E184" s="3" t="str">
+        <f>IF(B184&lt;&gt;"",CONCATENATE(inicio_consulta,C184,mid_consulta,A184,B184,fin_consulta),IF(A184&lt;&gt;"",CONCATENATE("-- ",A184),""))</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" t="str">
-        <f>IF(B185&lt;&gt;"",CONCATENATE(inicio_consulta,C185,mid_consulta,A185,B185,fin_consulta),"")</f>
+      <c r="E185" s="3" t="str">
+        <f>IF(B185&lt;&gt;"",CONCATENATE(inicio_consulta,C185,mid_consulta,A185,B185,fin_consulta),IF(A185&lt;&gt;"",CONCATENATE("-- ",A185),""))</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" t="str">
-        <f>IF(B186&lt;&gt;"",CONCATENATE(inicio_consulta,C186,mid_consulta,A186,B186,fin_consulta),"")</f>
+      <c r="E186" s="3" t="str">
+        <f>IF(B186&lt;&gt;"",CONCATENATE(inicio_consulta,C186,mid_consulta,A186,B186,fin_consulta),IF(A186&lt;&gt;"",CONCATENATE("-- ",A186),""))</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" t="str">
-        <f>IF(B187&lt;&gt;"",CONCATENATE(inicio_consulta,C187,mid_consulta,A187,B187,fin_consulta),"")</f>
+      <c r="E187" s="3" t="str">
+        <f>IF(B187&lt;&gt;"",CONCATENATE(inicio_consulta,C187,mid_consulta,A187,B187,fin_consulta),IF(A187&lt;&gt;"",CONCATENATE("-- ",A187),""))</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" t="str">
-        <f>IF(B188&lt;&gt;"",CONCATENATE(inicio_consulta,C188,mid_consulta,A188,B188,fin_consulta),"")</f>
+      <c r="E188" s="3" t="str">
+        <f>IF(B188&lt;&gt;"",CONCATENATE(inicio_consulta,C188,mid_consulta,A188,B188,fin_consulta),IF(A188&lt;&gt;"",CONCATENATE("-- ",A188),""))</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" t="str">
-        <f>IF(B189&lt;&gt;"",CONCATENATE(inicio_consulta,C189,mid_consulta,A189,B189,fin_consulta),"")</f>
+      <c r="E189" s="3" t="str">
+        <f>IF(B189&lt;&gt;"",CONCATENATE(inicio_consulta,C189,mid_consulta,A189,B189,fin_consulta),IF(A189&lt;&gt;"",CONCATENATE("-- ",A189),""))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" t="str">
-        <f>IF(B190&lt;&gt;"",CONCATENATE(inicio_consulta,C190,mid_consulta,A190,B190,fin_consulta),"")</f>
+      <c r="E190" s="3" t="str">
+        <f>IF(B190&lt;&gt;"",CONCATENATE(inicio_consulta,C190,mid_consulta,A190,B190,fin_consulta),IF(A190&lt;&gt;"",CONCATENATE("-- ",A190),""))</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" t="str">
-        <f>IF(B191&lt;&gt;"",CONCATENATE(inicio_consulta,C191,mid_consulta,A191,B191,fin_consulta),"")</f>
+      <c r="E191" s="3" t="str">
+        <f>IF(B191&lt;&gt;"",CONCATENATE(inicio_consulta,C191,mid_consulta,A191,B191,fin_consulta),IF(A191&lt;&gt;"",CONCATENATE("-- ",A191),""))</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" t="str">
-        <f>IF(B192&lt;&gt;"",CONCATENATE(inicio_consulta,C192,mid_consulta,A192,B192,fin_consulta),"")</f>
+      <c r="E192" s="3" t="str">
+        <f>IF(B192&lt;&gt;"",CONCATENATE(inicio_consulta,C192,mid_consulta,A192,B192,fin_consulta),IF(A192&lt;&gt;"",CONCATENATE("-- ",A192),""))</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" t="str">
-        <f>IF(B193&lt;&gt;"",CONCATENATE(inicio_consulta,C193,mid_consulta,A193,B193,fin_consulta),"")</f>
+      <c r="E193" s="3" t="str">
+        <f>IF(B193&lt;&gt;"",CONCATENATE(inicio_consulta,C193,mid_consulta,A193,B193,fin_consulta),IF(A193&lt;&gt;"",CONCATENATE("-- ",A193),""))</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" t="str">
-        <f>IF(B194&lt;&gt;"",CONCATENATE(inicio_consulta,C194,mid_consulta,A194,B194,fin_consulta),"")</f>
+      <c r="E194" s="3" t="str">
+        <f>IF(B194&lt;&gt;"",CONCATENATE(inicio_consulta,C194,mid_consulta,A194,B194,fin_consulta),IF(A194&lt;&gt;"",CONCATENATE("-- ",A194),""))</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" t="str">
-        <f>IF(B195&lt;&gt;"",CONCATENATE(inicio_consulta,C195,mid_consulta,A195,B195,fin_consulta),"")</f>
+      <c r="E195" s="3" t="str">
+        <f>IF(B195&lt;&gt;"",CONCATENATE(inicio_consulta,C195,mid_consulta,A195,B195,fin_consulta),IF(A195&lt;&gt;"",CONCATENATE("-- ",A195),""))</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" t="str">
-        <f>IF(B196&lt;&gt;"",CONCATENATE(inicio_consulta,C196,mid_consulta,A196,B196,fin_consulta),"")</f>
+      <c r="E196" s="3" t="str">
+        <f>IF(B196&lt;&gt;"",CONCATENATE(inicio_consulta,C196,mid_consulta,A196,B196,fin_consulta),IF(A196&lt;&gt;"",CONCATENATE("-- ",A196),""))</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" t="str">
-        <f>IF(B197&lt;&gt;"",CONCATENATE(inicio_consulta,C197,mid_consulta,A197,B197,fin_consulta),"")</f>
+      <c r="E197" s="3" t="str">
+        <f>IF(B197&lt;&gt;"",CONCATENATE(inicio_consulta,C197,mid_consulta,A197,B197,fin_consulta),IF(A197&lt;&gt;"",CONCATENATE("-- ",A197),""))</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" t="str">
-        <f>IF(B198&lt;&gt;"",CONCATENATE(inicio_consulta,C198,mid_consulta,A198,B198,fin_consulta),"")</f>
+      <c r="E198" s="3" t="str">
+        <f>IF(B198&lt;&gt;"",CONCATENATE(inicio_consulta,C198,mid_consulta,A198,B198,fin_consulta),IF(A198&lt;&gt;"",CONCATENATE("-- ",A198),""))</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" t="str">
-        <f>IF(B199&lt;&gt;"",CONCATENATE(inicio_consulta,C199,mid_consulta,A199,B199,fin_consulta),"")</f>
+      <c r="E199" s="3" t="str">
+        <f>IF(B199&lt;&gt;"",CONCATENATE(inicio_consulta,C199,mid_consulta,A199,B199,fin_consulta),IF(A199&lt;&gt;"",CONCATENATE("-- ",A199),""))</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" t="str">
-        <f>IF(B200&lt;&gt;"",CONCATENATE(inicio_consulta,C200,mid_consulta,A200,B200,fin_consulta),"")</f>
+      <c r="E200" s="3" t="str">
+        <f>IF(B200&lt;&gt;"",CONCATENATE(inicio_consulta,C200,mid_consulta,A200,B200,fin_consulta),IF(A200&lt;&gt;"",CONCATENATE("-- ",A200),""))</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" t="str">
-        <f>IF(B201&lt;&gt;"",CONCATENATE(inicio_consulta,C201,mid_consulta,A201,B201,fin_consulta),"")</f>
+      <c r="E201" s="3" t="str">
+        <f>IF(B201&lt;&gt;"",CONCATENATE(inicio_consulta,C201,mid_consulta,A201,B201,fin_consulta),IF(A201&lt;&gt;"",CONCATENATE("-- ",A201),""))</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" t="str">
-        <f>IF(B202&lt;&gt;"",CONCATENATE(inicio_consulta,C202,mid_consulta,A202,B202,fin_consulta),"")</f>
+      <c r="E202" s="3" t="str">
+        <f>IF(B202&lt;&gt;"",CONCATENATE(inicio_consulta,C202,mid_consulta,A202,B202,fin_consulta),IF(A202&lt;&gt;"",CONCATENATE("-- ",A202),""))</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" t="str">
-        <f>IF(B203&lt;&gt;"",CONCATENATE(inicio_consulta,C203,mid_consulta,A203,B203,fin_consulta),"")</f>
+      <c r="E203" s="3" t="str">
+        <f>IF(B203&lt;&gt;"",CONCATENATE(inicio_consulta,C203,mid_consulta,A203,B203,fin_consulta),IF(A203&lt;&gt;"",CONCATENATE("-- ",A203),""))</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" t="str">
-        <f>IF(B204&lt;&gt;"",CONCATENATE(inicio_consulta,C204,mid_consulta,A204,B204,fin_consulta),"")</f>
+      <c r="E204" s="3" t="str">
+        <f>IF(B204&lt;&gt;"",CONCATENATE(inicio_consulta,C204,mid_consulta,A204,B204,fin_consulta),IF(A204&lt;&gt;"",CONCATENATE("-- ",A204),""))</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205" t="str">
-        <f>IF(B205&lt;&gt;"",CONCATENATE(inicio_consulta,C205,mid_consulta,A205,B205,fin_consulta),"")</f>
+      <c r="E205" s="3" t="str">
+        <f>IF(B205&lt;&gt;"",CONCATENATE(inicio_consulta,C205,mid_consulta,A205,B205,fin_consulta),IF(A205&lt;&gt;"",CONCATENATE("-- ",A205),""))</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206" t="str">
-        <f>IF(B206&lt;&gt;"",CONCATENATE(inicio_consulta,C206,mid_consulta,A206,B206,fin_consulta),"")</f>
+      <c r="E206" s="3" t="str">
+        <f>IF(B206&lt;&gt;"",CONCATENATE(inicio_consulta,C206,mid_consulta,A206,B206,fin_consulta),IF(A206&lt;&gt;"",CONCATENATE("-- ",A206),""))</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207" t="str">
-        <f>IF(B207&lt;&gt;"",CONCATENATE(inicio_consulta,C207,mid_consulta,A207,B207,fin_consulta),"")</f>
+      <c r="E207" s="3" t="str">
+        <f>IF(B207&lt;&gt;"",CONCATENATE(inicio_consulta,C207,mid_consulta,A207,B207,fin_consulta),IF(A207&lt;&gt;"",CONCATENATE("-- ",A207),""))</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" t="str">
-        <f>IF(B208&lt;&gt;"",CONCATENATE(inicio_consulta,C208,mid_consulta,A208,B208,fin_consulta),"")</f>
+      <c r="E208" s="3" t="str">
+        <f>IF(B208&lt;&gt;"",CONCATENATE(inicio_consulta,C208,mid_consulta,A208,B208,fin_consulta),IF(A208&lt;&gt;"",CONCATENATE("-- ",A208),""))</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" t="str">
-        <f>IF(B209&lt;&gt;"",CONCATENATE(inicio_consulta,C209,mid_consulta,A209,B209,fin_consulta),"")</f>
+      <c r="E209" s="3" t="str">
+        <f>IF(B209&lt;&gt;"",CONCATENATE(inicio_consulta,C209,mid_consulta,A209,B209,fin_consulta),IF(A209&lt;&gt;"",CONCATENATE("-- ",A209),""))</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" t="str">
-        <f>IF(B210&lt;&gt;"",CONCATENATE(inicio_consulta,C210,mid_consulta,A210,B210,fin_consulta),"")</f>
+      <c r="E210" s="3" t="str">
+        <f>IF(B210&lt;&gt;"",CONCATENATE(inicio_consulta,C210,mid_consulta,A210,B210,fin_consulta),IF(A210&lt;&gt;"",CONCATENATE("-- ",A210),""))</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211" t="str">
-        <f>IF(B211&lt;&gt;"",CONCATENATE(inicio_consulta,C211,mid_consulta,A211,B211,fin_consulta),"")</f>
+      <c r="E211" s="3" t="str">
+        <f>IF(B211&lt;&gt;"",CONCATENATE(inicio_consulta,C211,mid_consulta,A211,B211,fin_consulta),IF(A211&lt;&gt;"",CONCATENATE("-- ",A211),""))</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212" t="str">
-        <f>IF(B212&lt;&gt;"",CONCATENATE(inicio_consulta,C212,mid_consulta,A212,B212,fin_consulta),"")</f>
+      <c r="E212" s="3" t="str">
+        <f>IF(B212&lt;&gt;"",CONCATENATE(inicio_consulta,C212,mid_consulta,A212,B212,fin_consulta),IF(A212&lt;&gt;"",CONCATENATE("-- ",A212),""))</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213" t="str">
-        <f>IF(B213&lt;&gt;"",CONCATENATE(inicio_consulta,C213,mid_consulta,A213,B213,fin_consulta),"")</f>
+      <c r="E213" s="3" t="str">
+        <f>IF(B213&lt;&gt;"",CONCATENATE(inicio_consulta,C213,mid_consulta,A213,B213,fin_consulta),IF(A213&lt;&gt;"",CONCATENATE("-- ",A213),""))</f>
         <v/>
       </c>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214" t="str">
-        <f>IF(B214&lt;&gt;"",CONCATENATE(inicio_consulta,C214,mid_consulta,A214,B214,fin_consulta),"")</f>
+      <c r="E214" s="3" t="str">
+        <f>IF(B214&lt;&gt;"",CONCATENATE(inicio_consulta,C214,mid_consulta,A214,B214,fin_consulta),IF(A214&lt;&gt;"",CONCATENATE("-- ",A214),""))</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215" t="str">
-        <f>IF(B215&lt;&gt;"",CONCATENATE(inicio_consulta,C215,mid_consulta,A215,B215,fin_consulta),"")</f>
+      <c r="E215" s="3" t="str">
+        <f>IF(B215&lt;&gt;"",CONCATENATE(inicio_consulta,C215,mid_consulta,A215,B215,fin_consulta),IF(A215&lt;&gt;"",CONCATENATE("-- ",A215),""))</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216" t="str">
-        <f>IF(B216&lt;&gt;"",CONCATENATE(inicio_consulta,C216,mid_consulta,A216,B216,fin_consulta),"")</f>
+      <c r="E216" s="3" t="str">
+        <f>IF(B216&lt;&gt;"",CONCATENATE(inicio_consulta,C216,mid_consulta,A216,B216,fin_consulta),IF(A216&lt;&gt;"",CONCATENATE("-- ",A216),""))</f>
         <v/>
       </c>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" t="str">
-        <f>IF(B217&lt;&gt;"",CONCATENATE(inicio_consulta,C217,mid_consulta,A217,B217,fin_consulta),"")</f>
+      <c r="E217" s="3" t="str">
+        <f>IF(B217&lt;&gt;"",CONCATENATE(inicio_consulta,C217,mid_consulta,A217,B217,fin_consulta),IF(A217&lt;&gt;"",CONCATENATE("-- ",A217),""))</f>
         <v/>
       </c>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" t="str">
-        <f>IF(B218&lt;&gt;"",CONCATENATE(inicio_consulta,C218,mid_consulta,A218,B218,fin_consulta),"")</f>
+      <c r="E218" s="3" t="str">
+        <f>IF(B218&lt;&gt;"",CONCATENATE(inicio_consulta,C218,mid_consulta,A218,B218,fin_consulta),IF(A218&lt;&gt;"",CONCATENATE("-- ",A218),""))</f>
         <v/>
       </c>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" t="str">
-        <f>IF(B219&lt;&gt;"",CONCATENATE(inicio_consulta,C219,mid_consulta,A219,B219,fin_consulta),"")</f>
+      <c r="E219" s="3" t="str">
+        <f>IF(B219&lt;&gt;"",CONCATENATE(inicio_consulta,C219,mid_consulta,A219,B219,fin_consulta),IF(A219&lt;&gt;"",CONCATENATE("-- ",A219),""))</f>
         <v/>
       </c>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" t="str">
-        <f>IF(B220&lt;&gt;"",CONCATENATE(inicio_consulta,C220,mid_consulta,A220,B220,fin_consulta),"")</f>
+      <c r="E220" s="3" t="str">
+        <f>IF(B220&lt;&gt;"",CONCATENATE(inicio_consulta,C220,mid_consulta,A220,B220,fin_consulta),IF(A220&lt;&gt;"",CONCATENATE("-- ",A220),""))</f>
         <v/>
       </c>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221" t="str">
-        <f>IF(B221&lt;&gt;"",CONCATENATE(inicio_consulta,C221,mid_consulta,A221,B221,fin_consulta),"")</f>
+      <c r="E221" s="3" t="str">
+        <f>IF(B221&lt;&gt;"",CONCATENATE(inicio_consulta,C221,mid_consulta,A221,B221,fin_consulta),IF(A221&lt;&gt;"",CONCATENATE("-- ",A221),""))</f>
         <v/>
       </c>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E222" t="str">
-        <f>IF(B222&lt;&gt;"",CONCATENATE(inicio_consulta,C222,mid_consulta,A222,B222,fin_consulta),"")</f>
+      <c r="E222" s="3" t="str">
+        <f>IF(B222&lt;&gt;"",CONCATENATE(inicio_consulta,C222,mid_consulta,A222,B222,fin_consulta),IF(A222&lt;&gt;"",CONCATENATE("-- ",A222),""))</f>
         <v/>
       </c>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E223" t="str">
-        <f>IF(B223&lt;&gt;"",CONCATENATE(inicio_consulta,C223,mid_consulta,A223,B223,fin_consulta),"")</f>
+      <c r="E223" s="3" t="str">
+        <f>IF(B223&lt;&gt;"",CONCATENATE(inicio_consulta,C223,mid_consulta,A223,B223,fin_consulta),IF(A223&lt;&gt;"",CONCATENATE("-- ",A223),""))</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E224" t="str">
-        <f>IF(B224&lt;&gt;"",CONCATENATE(inicio_consulta,C224,mid_consulta,A224,B224,fin_consulta),"")</f>
+      <c r="E224" s="3" t="str">
+        <f>IF(B224&lt;&gt;"",CONCATENATE(inicio_consulta,C224,mid_consulta,A224,B224,fin_consulta),IF(A224&lt;&gt;"",CONCATENATE("-- ",A224),""))</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E225" t="str">
-        <f>IF(B225&lt;&gt;"",CONCATENATE(inicio_consulta,C225,mid_consulta,A225,B225,fin_consulta),"")</f>
+      <c r="E225" s="3" t="str">
+        <f>IF(B225&lt;&gt;"",CONCATENATE(inicio_consulta,C225,mid_consulta,A225,B225,fin_consulta),IF(A225&lt;&gt;"",CONCATENATE("-- ",A225),""))</f>
         <v/>
       </c>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E226" t="str">
-        <f>IF(B226&lt;&gt;"",CONCATENATE(inicio_consulta,C226,mid_consulta,A226,B226,fin_consulta),"")</f>
+      <c r="E226" s="3" t="str">
+        <f>IF(B226&lt;&gt;"",CONCATENATE(inicio_consulta,C226,mid_consulta,A226,B226,fin_consulta),IF(A226&lt;&gt;"",CONCATENATE("-- ",A226),""))</f>
         <v/>
       </c>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E227" t="str">
-        <f>IF(B227&lt;&gt;"",CONCATENATE(inicio_consulta,C227,mid_consulta,A227,B227,fin_consulta),"")</f>
+      <c r="E227" s="3" t="str">
+        <f>IF(B227&lt;&gt;"",CONCATENATE(inicio_consulta,C227,mid_consulta,A227,B227,fin_consulta),IF(A227&lt;&gt;"",CONCATENATE("-- ",A227),""))</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E228" t="str">
-        <f>IF(B228&lt;&gt;"",CONCATENATE(inicio_consulta,C228,mid_consulta,A228,B228,fin_consulta),"")</f>
+      <c r="E228" s="3" t="str">
+        <f>IF(B228&lt;&gt;"",CONCATENATE(inicio_consulta,C228,mid_consulta,A228,B228,fin_consulta),IF(A228&lt;&gt;"",CONCATENATE("-- ",A228),""))</f>
         <v/>
       </c>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E229" t="str">
-        <f>IF(B229&lt;&gt;"",CONCATENATE(inicio_consulta,C229,mid_consulta,A229,B229,fin_consulta),"")</f>
+      <c r="E229" s="3" t="str">
+        <f>IF(B229&lt;&gt;"",CONCATENATE(inicio_consulta,C229,mid_consulta,A229,B229,fin_consulta),IF(A229&lt;&gt;"",CONCATENATE("-- ",A229),""))</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E230" t="str">
-        <f>IF(B230&lt;&gt;"",CONCATENATE(inicio_consulta,C230,mid_consulta,A230,B230,fin_consulta),"")</f>
+      <c r="E230" s="3" t="str">
+        <f>IF(B230&lt;&gt;"",CONCATENATE(inicio_consulta,C230,mid_consulta,A230,B230,fin_consulta),IF(A230&lt;&gt;"",CONCATENATE("-- ",A230),""))</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E231" t="str">
-        <f>IF(B231&lt;&gt;"",CONCATENATE(inicio_consulta,C231,mid_consulta,A231,B231,fin_consulta),"")</f>
+      <c r="E231" s="3" t="str">
+        <f>IF(B231&lt;&gt;"",CONCATENATE(inicio_consulta,C231,mid_consulta,A231,B231,fin_consulta),IF(A231&lt;&gt;"",CONCATENATE("-- ",A231),""))</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E232" t="str">
-        <f>IF(B232&lt;&gt;"",CONCATENATE(inicio_consulta,C232,mid_consulta,A232,B232,fin_consulta),"")</f>
+      <c r="E232" s="3" t="str">
+        <f>IF(B232&lt;&gt;"",CONCATENATE(inicio_consulta,C232,mid_consulta,A232,B232,fin_consulta),IF(A232&lt;&gt;"",CONCATENATE("-- ",A232),""))</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E233" t="str">
-        <f>IF(B233&lt;&gt;"",CONCATENATE(inicio_consulta,C233,mid_consulta,A233,B233,fin_consulta),"")</f>
+      <c r="E233" s="3" t="str">
+        <f>IF(B233&lt;&gt;"",CONCATENATE(inicio_consulta,C233,mid_consulta,A233,B233,fin_consulta),IF(A233&lt;&gt;"",CONCATENATE("-- ",A233),""))</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E234" t="str">
-        <f>IF(B234&lt;&gt;"",CONCATENATE(inicio_consulta,C234,mid_consulta,A234,B234,fin_consulta),"")</f>
+      <c r="E234" s="3" t="str">
+        <f>IF(B234&lt;&gt;"",CONCATENATE(inicio_consulta,C234,mid_consulta,A234,B234,fin_consulta),IF(A234&lt;&gt;"",CONCATENATE("-- ",A234),""))</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E235" t="str">
-        <f>IF(B235&lt;&gt;"",CONCATENATE(inicio_consulta,C235,mid_consulta,A235,B235,fin_consulta),"")</f>
+      <c r="E235" s="3" t="str">
+        <f>IF(B235&lt;&gt;"",CONCATENATE(inicio_consulta,C235,mid_consulta,A235,B235,fin_consulta),IF(A235&lt;&gt;"",CONCATENATE("-- ",A235),""))</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E236" t="str">
-        <f>IF(B236&lt;&gt;"",CONCATENATE(inicio_consulta,C236,mid_consulta,A236,B236,fin_consulta),"")</f>
+      <c r="E236" s="3" t="str">
+        <f>IF(B236&lt;&gt;"",CONCATENATE(inicio_consulta,C236,mid_consulta,A236,B236,fin_consulta),IF(A236&lt;&gt;"",CONCATENATE("-- ",A236),""))</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E237" t="str">
-        <f>IF(B237&lt;&gt;"",CONCATENATE(inicio_consulta,C237,mid_consulta,A237,B237,fin_consulta),"")</f>
+      <c r="E237" s="3" t="str">
+        <f>IF(B237&lt;&gt;"",CONCATENATE(inicio_consulta,C237,mid_consulta,A237,B237,fin_consulta),IF(A237&lt;&gt;"",CONCATENATE("-- ",A237),""))</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E238" t="str">
-        <f>IF(B238&lt;&gt;"",CONCATENATE(inicio_consulta,C238,mid_consulta,A238,B238,fin_consulta),"")</f>
+      <c r="E238" s="3" t="str">
+        <f>IF(B238&lt;&gt;"",CONCATENATE(inicio_consulta,C238,mid_consulta,A238,B238,fin_consulta),IF(A238&lt;&gt;"",CONCATENATE("-- ",A238),""))</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E239" t="str">
-        <f>IF(B239&lt;&gt;"",CONCATENATE(inicio_consulta,C239,mid_consulta,A239,B239,fin_consulta),"")</f>
+      <c r="E239" s="3" t="str">
+        <f>IF(B239&lt;&gt;"",CONCATENATE(inicio_consulta,C239,mid_consulta,A239,B239,fin_consulta),IF(A239&lt;&gt;"",CONCATENATE("-- ",A239),""))</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E240" t="str">
-        <f>IF(B240&lt;&gt;"",CONCATENATE(inicio_consulta,C240,mid_consulta,A240,B240,fin_consulta),"")</f>
+      <c r="E240" s="3" t="str">
+        <f>IF(B240&lt;&gt;"",CONCATENATE(inicio_consulta,C240,mid_consulta,A240,B240,fin_consulta),IF(A240&lt;&gt;"",CONCATENATE("-- ",A240),""))</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E241" t="str">
-        <f>IF(B241&lt;&gt;"",CONCATENATE(inicio_consulta,C241,mid_consulta,A241,B241,fin_consulta),"")</f>
+      <c r="E241" s="3" t="str">
+        <f>IF(B241&lt;&gt;"",CONCATENATE(inicio_consulta,C241,mid_consulta,A241,B241,fin_consulta),IF(A241&lt;&gt;"",CONCATENATE("-- ",A241),""))</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E242" t="str">
-        <f>IF(B242&lt;&gt;"",CONCATENATE(inicio_consulta,C242,mid_consulta,A242,B242,fin_consulta),"")</f>
+      <c r="E242" s="3" t="str">
+        <f>IF(B242&lt;&gt;"",CONCATENATE(inicio_consulta,C242,mid_consulta,A242,B242,fin_consulta),IF(A242&lt;&gt;"",CONCATENATE("-- ",A242),""))</f>
         <v/>
       </c>
     </row>
     <row r="243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E243" t="str">
-        <f>IF(B243&lt;&gt;"",CONCATENATE(inicio_consulta,C243,mid_consulta,A243,B243,fin_consulta),"")</f>
+      <c r="E243" s="3" t="str">
+        <f>IF(B243&lt;&gt;"",CONCATENATE(inicio_consulta,C243,mid_consulta,A243,B243,fin_consulta),IF(A243&lt;&gt;"",CONCATENATE("-- ",A243),""))</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E244" t="str">
-        <f>IF(B244&lt;&gt;"",CONCATENATE(inicio_consulta,C244,mid_consulta,A244,B244,fin_consulta),"")</f>
+      <c r="E244" s="3" t="str">
+        <f>IF(B244&lt;&gt;"",CONCATENATE(inicio_consulta,C244,mid_consulta,A244,B244,fin_consulta),IF(A244&lt;&gt;"",CONCATENATE("-- ",A244),""))</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E245" t="str">
-        <f>IF(B245&lt;&gt;"",CONCATENATE(inicio_consulta,C245,mid_consulta,A245,B245,fin_consulta),"")</f>
+      <c r="E245" s="3" t="str">
+        <f>IF(B245&lt;&gt;"",CONCATENATE(inicio_consulta,C245,mid_consulta,A245,B245,fin_consulta),IF(A245&lt;&gt;"",CONCATENATE("-- ",A245),""))</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E246" t="str">
-        <f>IF(B246&lt;&gt;"",CONCATENATE(inicio_consulta,C246,mid_consulta,A246,B246,fin_consulta),"")</f>
+      <c r="E246" s="3" t="str">
+        <f>IF(B246&lt;&gt;"",CONCATENATE(inicio_consulta,C246,mid_consulta,A246,B246,fin_consulta),IF(A246&lt;&gt;"",CONCATENATE("-- ",A246),""))</f>
         <v/>
       </c>
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E247" t="str">
-        <f>IF(B247&lt;&gt;"",CONCATENATE(inicio_consulta,C247,mid_consulta,A247,B247,fin_consulta),"")</f>
+      <c r="E247" s="3" t="str">
+        <f>IF(B247&lt;&gt;"",CONCATENATE(inicio_consulta,C247,mid_consulta,A247,B247,fin_consulta),IF(A247&lt;&gt;"",CONCATENATE("-- ",A247),""))</f>
         <v/>
       </c>
     </row>
     <row r="248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E248" t="str">
-        <f>IF(B248&lt;&gt;"",CONCATENATE(inicio_consulta,C248,mid_consulta,A248,B248,fin_consulta),"")</f>
+      <c r="E248" s="3" t="str">
+        <f>IF(B248&lt;&gt;"",CONCATENATE(inicio_consulta,C248,mid_consulta,A248,B248,fin_consulta),IF(A248&lt;&gt;"",CONCATENATE("-- ",A248),""))</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E249" t="str">
-        <f>IF(B249&lt;&gt;"",CONCATENATE(inicio_consulta,C249,mid_consulta,A249,B249,fin_consulta),"")</f>
+      <c r="E249" s="3" t="str">
+        <f>IF(B249&lt;&gt;"",CONCATENATE(inicio_consulta,C249,mid_consulta,A249,B249,fin_consulta),IF(A249&lt;&gt;"",CONCATENATE("-- ",A249),""))</f>
         <v/>
       </c>
     </row>
     <row r="250" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E250" t="str">
-        <f>IF(B250&lt;&gt;"",CONCATENATE(inicio_consulta,C250,mid_consulta,A250,B250,fin_consulta),"")</f>
+      <c r="E250" s="3" t="str">
+        <f>IF(B250&lt;&gt;"",CONCATENATE(inicio_consulta,C250,mid_consulta,A250,B250,fin_consulta),IF(A250&lt;&gt;"",CONCATENATE("-- ",A250),""))</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E251" t="str">
-        <f>IF(B251&lt;&gt;"",CONCATENATE(inicio_consulta,C251,mid_consulta,A251,B251,fin_consulta),"")</f>
+      <c r="E251" s="3" t="str">
+        <f>IF(B251&lt;&gt;"",CONCATENATE(inicio_consulta,C251,mid_consulta,A251,B251,fin_consulta),IF(A251&lt;&gt;"",CONCATENATE("-- ",A251),""))</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E252" t="str">
-        <f>IF(B252&lt;&gt;"",CONCATENATE(inicio_consulta,C252,mid_consulta,A252,B252,fin_consulta),"")</f>
+      <c r="E252" s="3" t="str">
+        <f>IF(B252&lt;&gt;"",CONCATENATE(inicio_consulta,C252,mid_consulta,A252,B252,fin_consulta),IF(A252&lt;&gt;"",CONCATENATE("-- ",A252),""))</f>
         <v/>
       </c>
     </row>
     <row r="253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E253" t="str">
-        <f>IF(B253&lt;&gt;"",CONCATENATE(inicio_consulta,C253,mid_consulta,A253,B253,fin_consulta),"")</f>
+      <c r="E253" s="3" t="str">
+        <f>IF(B253&lt;&gt;"",CONCATENATE(inicio_consulta,C253,mid_consulta,A253,B253,fin_consulta),IF(A253&lt;&gt;"",CONCATENATE("-- ",A253),""))</f>
         <v/>
       </c>
     </row>
     <row r="254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E254" t="str">
-        <f>IF(B254&lt;&gt;"",CONCATENATE(inicio_consulta,C254,mid_consulta,A254,B254,fin_consulta),"")</f>
+      <c r="E254" s="3" t="str">
+        <f>IF(B254&lt;&gt;"",CONCATENATE(inicio_consulta,C254,mid_consulta,A254,B254,fin_consulta),IF(A254&lt;&gt;"",CONCATENATE("-- ",A254),""))</f>
         <v/>
       </c>
     </row>
     <row r="255" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E255" t="str">
-        <f>IF(B255&lt;&gt;"",CONCATENATE(inicio_consulta,C255,mid_consulta,A255,B255,fin_consulta),"")</f>
+      <c r="E255" s="3" t="str">
+        <f>IF(B255&lt;&gt;"",CONCATENATE(inicio_consulta,C255,mid_consulta,A255,B255,fin_consulta),IF(A255&lt;&gt;"",CONCATENATE("-- ",A255),""))</f>
         <v/>
       </c>
     </row>
     <row r="256" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E256" t="str">
-        <f>IF(B256&lt;&gt;"",CONCATENATE(inicio_consulta,C256,mid_consulta,A256,B256,fin_consulta),"")</f>
+      <c r="E256" s="3" t="str">
+        <f>IF(B256&lt;&gt;"",CONCATENATE(inicio_consulta,C256,mid_consulta,A256,B256,fin_consulta),IF(A256&lt;&gt;"",CONCATENATE("-- ",A256),""))</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E257" t="str">
-        <f>IF(B257&lt;&gt;"",CONCATENATE(inicio_consulta,C257,mid_consulta,A257,B257,fin_consulta),"")</f>
+      <c r="E257" s="3" t="str">
+        <f>IF(B257&lt;&gt;"",CONCATENATE(inicio_consulta,C257,mid_consulta,A257,B257,fin_consulta),IF(A257&lt;&gt;"",CONCATENATE("-- ",A257),""))</f>
         <v/>
       </c>
     </row>
     <row r="258" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E258" t="str">
-        <f>IF(B258&lt;&gt;"",CONCATENATE(inicio_consulta,C258,mid_consulta,A258,B258,fin_consulta),"")</f>
+      <c r="E258" s="3" t="str">
+        <f>IF(B258&lt;&gt;"",CONCATENATE(inicio_consulta,C258,mid_consulta,A258,B258,fin_consulta),IF(A258&lt;&gt;"",CONCATENATE("-- ",A258),""))</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E259" t="str">
-        <f>IF(B259&lt;&gt;"",CONCATENATE(inicio_consulta,C259,mid_consulta,A259,B259,fin_consulta),"")</f>
+      <c r="E259" s="3" t="str">
+        <f>IF(B259&lt;&gt;"",CONCATENATE(inicio_consulta,C259,mid_consulta,A259,B259,fin_consulta),IF(A259&lt;&gt;"",CONCATENATE("-- ",A259),""))</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E260" t="str">
-        <f>IF(B260&lt;&gt;"",CONCATENATE(inicio_consulta,C260,mid_consulta,A260,B260,fin_consulta),"")</f>
+      <c r="E260" s="3" t="str">
+        <f>IF(B260&lt;&gt;"",CONCATENATE(inicio_consulta,C260,mid_consulta,A260,B260,fin_consulta),IF(A260&lt;&gt;"",CONCATENATE("-- ",A260),""))</f>
         <v/>
       </c>
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E261" t="str">
-        <f>IF(B261&lt;&gt;"",CONCATENATE(inicio_consulta,C261,mid_consulta,A261,B261,fin_consulta),"")</f>
+      <c r="E261" s="3" t="str">
+        <f>IF(B261&lt;&gt;"",CONCATENATE(inicio_consulta,C261,mid_consulta,A261,B261,fin_consulta),IF(A261&lt;&gt;"",CONCATENATE("-- ",A261),""))</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E262" t="str">
-        <f>IF(B262&lt;&gt;"",CONCATENATE(inicio_consulta,C262,mid_consulta,A262,B262,fin_consulta),"")</f>
+      <c r="E262" s="3" t="str">
+        <f>IF(B262&lt;&gt;"",CONCATENATE(inicio_consulta,C262,mid_consulta,A262,B262,fin_consulta),IF(A262&lt;&gt;"",CONCATENATE("-- ",A262),""))</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E263" t="str">
-        <f>IF(B263&lt;&gt;"",CONCATENATE(inicio_consulta,C263,mid_consulta,A263,B263,fin_consulta),"")</f>
+      <c r="E263" s="3" t="str">
+        <f>IF(B263&lt;&gt;"",CONCATENATE(inicio_consulta,C263,mid_consulta,A263,B263,fin_consulta),IF(A263&lt;&gt;"",CONCATENATE("-- ",A263),""))</f>
         <v/>
       </c>
     </row>
     <row r="264" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E264" t="str">
-        <f>IF(B264&lt;&gt;"",CONCATENATE(inicio_consulta,C264,mid_consulta,A264,B264,fin_consulta),"")</f>
+      <c r="E264" s="3" t="str">
+        <f>IF(B264&lt;&gt;"",CONCATENATE(inicio_consulta,C264,mid_consulta,A264,B264,fin_consulta),IF(A264&lt;&gt;"",CONCATENATE("-- ",A264),""))</f>
         <v/>
       </c>
     </row>
     <row r="265" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E265" t="str">
-        <f>IF(B265&lt;&gt;"",CONCATENATE(inicio_consulta,C265,mid_consulta,A265,B265,fin_consulta),"")</f>
+      <c r="E265" s="3" t="str">
+        <f>IF(B265&lt;&gt;"",CONCATENATE(inicio_consulta,C265,mid_consulta,A265,B265,fin_consulta),IF(A265&lt;&gt;"",CONCATENATE("-- ",A265),""))</f>
         <v/>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E266" t="str">
-        <f>IF(B266&lt;&gt;"",CONCATENATE(inicio_consulta,C266,mid_consulta,A266,B266,fin_consulta),"")</f>
+      <c r="E266" s="3" t="str">
+        <f>IF(B266&lt;&gt;"",CONCATENATE(inicio_consulta,C266,mid_consulta,A266,B266,fin_consulta),IF(A266&lt;&gt;"",CONCATENATE("-- ",A266),""))</f>
         <v/>
       </c>
     </row>
     <row r="267" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E267" t="str">
-        <f>IF(B267&lt;&gt;"",CONCATENATE(inicio_consulta,C267,mid_consulta,A267,B267,fin_consulta),"")</f>
+      <c r="E267" s="3" t="str">
+        <f>IF(B267&lt;&gt;"",CONCATENATE(inicio_consulta,C267,mid_consulta,A267,B267,fin_consulta),IF(A267&lt;&gt;"",CONCATENATE("-- ",A267),""))</f>
         <v/>
       </c>
     </row>
     <row r="268" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E268" t="str">
-        <f>IF(B268&lt;&gt;"",CONCATENATE(inicio_consulta,C268,mid_consulta,A268,B268,fin_consulta),"")</f>
+      <c r="E268" s="3" t="str">
+        <f t="shared" ref="E234:E269" si="21">IF(B268&lt;&gt;"",CONCATENATE(inicio_consulta,C268,mid_consulta,A268,B268,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="269" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E269" t="str">
-        <f>IF(B269&lt;&gt;"",CONCATENATE(inicio_consulta,C269,mid_consulta,A269,B269,fin_consulta),"")</f>
+      <c r="E269" s="3" t="str">
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E270" t="str">
+      <c r="E270" s="3" t="str">
         <f>IF(B270&lt;&gt;"",CONCATENATE(inicio_consulta,A270,B270,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="271" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E271" t="str">
+      <c r="E271" s="3" t="str">
         <f>IF(B271&lt;&gt;"",CONCATENATE(inicio_consulta,A271,B271,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="272" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E272" t="str">
+      <c r="E272" s="3" t="str">
         <f>IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,A272,B272,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E273" t="str">
+      <c r="E273" s="3" t="str">
         <f>IF(B273&lt;&gt;"",CONCATENATE(inicio_consulta,A273,B273,fin_consulta),"")</f>
         <v/>
       </c>
@@ -3253,6 +3428,981 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>CONCATENATE($A$4,$B$7,",",C7,");")</f>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,1);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" ref="E8:E71" si="0">CONCATENATE($A$4,$B$7,",",C8,");")</f>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,3);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,4);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,5);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,6);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,7);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,8);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,9);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,10);</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,11);</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,12);</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,13);</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,15);</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,16);</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,17);</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,18);</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,19);</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,20);</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,21);</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,22);</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,23);</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,24);</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,25);</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,26);</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,27);</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,28);</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>29</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,29);</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,30);</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>31</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,31);</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,32);</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>33</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,33);</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,34);</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,35);</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>36</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,36);</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,37);</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>38</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,38);</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>39</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,39);</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>40</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,40);</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>41</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,41);</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>42</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,42);</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>43</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,43);</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>44</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,44);</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>45</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,45);</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,46);</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>47</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,47);</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>48</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,48);</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>49</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,49);</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>50</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,50);</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>51</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,51);</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>52</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,52);</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>53</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,53);</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>54</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,54);</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>55</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,55);</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>56</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,56);</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>57</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,57);</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>58</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,58);</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>59</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,59);</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>60</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,60);</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>61</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,61);</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>62</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,62);</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>63</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,63);</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,64);</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>65</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,65);</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>66</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" ref="E72:E110" si="1">CONCATENATE($A$4,$B$7,",",C72,");")</f>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,66);</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>67</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,67);</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>68</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,68);</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,69);</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>70</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,70);</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>71</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,71);</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>72</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,72);</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>73</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,73);</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>74</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,74);</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>75</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,75);</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>76</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,76);</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>77</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,77);</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,78);</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>79</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,79);</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>80</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,80);</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>81</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,81);</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,82);</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>83</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,83);</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>84</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,84);</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>85</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,85);</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>86</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,86);</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>87</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,87);</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>88</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,88);</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>89</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,89);</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>90</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,90);</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>91</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,91);</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>92</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,92);</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>93</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,93);</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>94</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,94);</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>95</v>
+      </c>
+      <c r="E101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,95);</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>96</v>
+      </c>
+      <c r="E102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,96);</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>97</v>
+      </c>
+      <c r="E103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,97);</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>98</v>
+      </c>
+      <c r="E104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,98);</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>99</v>
+      </c>
+      <c r="E105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,99);</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>100</v>
+      </c>
+      <c r="E106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,100);</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>101</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,101);</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>102</v>
+      </c>
+      <c r="E108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,102);</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>103</v>
+      </c>
+      <c r="E109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,103);</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>104</v>
+      </c>
+      <c r="E110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,104);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
+++ b/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ar\Documents\proyectos git\workspace_atomicHotelsApiRest\BBE-2022-G3\Herramientas y Documentacion\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12315" activeTab="1"/>
+    <workbookView windowWidth="16545" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,76 +16,239 @@
     <definedName name="inicio_consulta">Hoja2!$A$1</definedName>
     <definedName name="mid_consulta">Hoja2!$A$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
+  <si>
+    <t>hotel</t>
+  </si>
   <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/</t>
   </si>
   <si>
+    <t>bedCombo</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/</t>
   </si>
   <si>
+    <t>bookingGuest</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/</t>
   </si>
   <si>
+    <t>guestCountQuery</t>
+  </si>
+  <si>
+    <t>bookingGuestsInfoQuery</t>
+  </si>
+  <si>
+    <t>booking</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/</t>
   </si>
   <si>
+    <t>bookingActionUpdate</t>
+  </si>
+  <si>
+    <t>bookingInfoQuery</t>
+  </si>
+  <si>
+    <t>bookingsInRangeQuery</t>
+  </si>
+  <si>
+    <t>bookingsInRangeInfoQuery</t>
+  </si>
+  <si>
+    <t>bookingDaysUnitaryRoomPriceQuery</t>
+  </si>
+  <si>
+    <t>bookingsHotelsQuery</t>
+  </si>
+  <si>
+    <t>booking_now_by_room_numberQuery</t>
+  </si>
+  <si>
+    <t>bookingSlotsInfoQuery</t>
+  </si>
+  <si>
+    <t>bookingCompleteInfoQuery</t>
+  </si>
+  <si>
+    <t>bookingHotelRoomRoomTypeQuery</t>
+  </si>
+  <si>
+    <t>bookingServiceExtra</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/</t>
   </si>
   <si>
+    <t>bookingExtraServicePriceUnitsTotalQuery</t>
+  </si>
+  <si>
+    <t>extraServicesNameDescriptionUnitsPriceDateQuery</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.ICountryService/</t>
   </si>
   <si>
+    <t>creditCard</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/</t>
   </si>
   <si>
+    <t>customerCreditCard</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/</t>
   </si>
   <si>
+    <t>customer</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/</t>
   </si>
   <si>
+    <t>mailAgreementQuery</t>
+  </si>
+  <si>
+    <t>isCustomerValidBookingHolder</t>
+  </si>
+  <si>
+    <t>businessCustomerInsert</t>
+  </si>
+  <si>
+    <t>regularCustomerInsert</t>
+  </si>
+  <si>
+    <t>customerCancelUpdate</t>
+  </si>
+  <si>
+    <t>customerBusinessUpdate</t>
+  </si>
+  <si>
+    <t>customerRegularUpdate</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/</t>
   </si>
   <si>
+    <t>hotelServiceExtra</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/</t>
   </si>
   <si>
+    <t>hotelService</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/</t>
   </si>
   <si>
+    <t>receipt</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/</t>
   </si>
   <si>
+    <t>completeReceiptQuery</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/</t>
   </si>
   <si>
+    <t>roomsUnbookedInRangeQuery</t>
+  </si>
+  <si>
+    <t>isRoomUnbookedgInRange</t>
+  </si>
+  <si>
+    <t>roomInfoQuery</t>
+  </si>
+  <si>
+    <t>infoHotelFeaturesQuery</t>
+  </si>
+  <si>
+    <t>roomTypeFeature</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/</t>
   </si>
   <si>
+    <t>roomType</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/</t>
   </si>
   <si>
+    <t>infoQuery</t>
+  </si>
+  <si>
+    <t>infoRoomFeaturesQuery</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/</t>
   </si>
   <si>
+    <t>servicesXtra</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/</t>
   </si>
   <si>
+    <t>user</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/</t>
   </si>
   <si>
-    <t>hotel</t>
+    <t>department</t>
+  </si>
+  <si>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</t>
+  </si>
+  <si>
+    <t>userRole</t>
+  </si>
+  <si>
+    <t>userRoleDelete</t>
+  </si>
+  <si>
+    <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</t>
+  </si>
+  <si>
+    <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (</t>
   </si>
   <si>
     <t>INSERT INTO tserver_permission VALUES (</t>
@@ -100,199 +258,380 @@
   </si>
   <si>
     <t>,'</t>
-  </si>
-  <si>
-    <t>bedCombo</t>
-  </si>
-  <si>
-    <t>guestCountQuery</t>
-  </si>
-  <si>
-    <t>bookingGuest</t>
-  </si>
-  <si>
-    <t>bookingGuestsInfoQuery</t>
-  </si>
-  <si>
-    <t>booking</t>
-  </si>
-  <si>
-    <t>bookingInfoQuery</t>
-  </si>
-  <si>
-    <t>bookingActionUpdate</t>
-  </si>
-  <si>
-    <t>bookingsInRangeQuery</t>
-  </si>
-  <si>
-    <t>bookingsInRangeInfoQuery</t>
-  </si>
-  <si>
-    <t>bookingDaysUnitaryRoomPriceQuery</t>
-  </si>
-  <si>
-    <t>bookingsHotelsQuery</t>
-  </si>
-  <si>
-    <t>booking_now_by_room_numberQuery</t>
-  </si>
-  <si>
-    <t>bookingSlotsInfoQuery</t>
-  </si>
-  <si>
-    <t>bookingCompleteInfoQuery</t>
-  </si>
-  <si>
-    <t>bookingHotelRoomRoomTypeQuery</t>
-  </si>
-  <si>
-    <t>bookingServiceExtra</t>
-  </si>
-  <si>
-    <t>bookingExtraServicePriceUnitsTotalQuery</t>
-  </si>
-  <si>
-    <t>extraServicesNameDescriptionUnitsPriceDateQuery</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>creditCard</t>
-  </si>
-  <si>
-    <t>customerCreditCard</t>
-  </si>
-  <si>
-    <t>customer</t>
-  </si>
-  <si>
-    <t>mailAgreementQuery</t>
-  </si>
-  <si>
-    <t>businessCustomerInsert</t>
-  </si>
-  <si>
-    <t>isCustomerValidBookingHolder</t>
-  </si>
-  <si>
-    <t>regularCustomerInsert</t>
-  </si>
-  <si>
-    <t>customerCancelUpdate</t>
-  </si>
-  <si>
-    <t>customerBusinessUpdate</t>
-  </si>
-  <si>
-    <t>customerRegularUpdate</t>
-  </si>
-  <si>
-    <t>feature</t>
-  </si>
-  <si>
-    <t>hotelServiceExtra</t>
-  </si>
-  <si>
-    <t>hotelService</t>
-  </si>
-  <si>
-    <t>receipt</t>
-  </si>
-  <si>
-    <t>completeReceiptQuery</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>roomsUnbookedInRangeQuery</t>
-  </si>
-  <si>
-    <t>isRoomUnbookedgInRange</t>
-  </si>
-  <si>
-    <t>roomInfoQuery</t>
-  </si>
-  <si>
-    <t>infoHotelFeaturesQuery</t>
-  </si>
-  <si>
-    <t>roomType</t>
-  </si>
-  <si>
-    <t>roomTypeFeature</t>
-  </si>
-  <si>
-    <t>infoQuery</t>
-  </si>
-  <si>
-    <t>infoRoomFeaturesQuery</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>servicesXtra</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</t>
-  </si>
-  <si>
-    <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</t>
-  </si>
-  <si>
-    <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (</t>
-  </si>
-  <si>
-    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</t>
-  </si>
-  <si>
-    <t>bill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -300,27 +639,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Título 3" xfId="1" builtinId="18"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% - Énfasis1" xfId="3" builtinId="31"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
+    <cellStyle name="Coma" xfId="6" builtinId="3"/>
+    <cellStyle name="Porcentaje" xfId="7" builtinId="5"/>
+    <cellStyle name="Hipervínculo" xfId="8" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21"/>
+    <cellStyle name="Nota" xfId="11" builtinId="10"/>
+    <cellStyle name="Título 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Texto de advertencia" xfId="13" builtinId="11"/>
+    <cellStyle name="Título" xfId="14" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="16" builtinId="16"/>
+    <cellStyle name="Título 4" xfId="17" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="18" builtinId="20"/>
+    <cellStyle name="Cálculo" xfId="19" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="20" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="21" builtinId="24"/>
+    <cellStyle name="Total" xfId="22" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="23" builtinId="26"/>
+    <cellStyle name="40% - Énfasis5" xfId="24" builtinId="47"/>
+    <cellStyle name="Incorrecto" xfId="25" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="26" builtinId="28"/>
+    <cellStyle name="20% - Énfasis5" xfId="27" builtinId="46"/>
+    <cellStyle name="Énfasis1" xfId="28" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="29" builtinId="30"/>
+    <cellStyle name="60% - Énfasis1" xfId="30" builtinId="32"/>
+    <cellStyle name="20% - Énfasis6" xfId="31" builtinId="50"/>
+    <cellStyle name="Énfasis2" xfId="32" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="33" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="34" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="35" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="36" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="37" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="38" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="39" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="42" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="43" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="44" builtinId="45"/>
+    <cellStyle name="60% - Énfasis5" xfId="45" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -369,7 +994,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,7 +1029,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,2874 +1203,2896 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E273"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143:E147"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149:E152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="77.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="2"/>
-    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="77.2857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.14285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4285714285714" style="1"/>
+    <col min="5" max="5" width="11.8571428571429" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.4285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="3" t="str">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="str">
         <f>IF(B1&lt;&gt;"",CONCATENATE(inicio_consulta,C1,mid_consulta,A1,B1,fin_consulta),IF(A1&lt;&gt;"",CONCATENATE("-- ",A1),""))</f>
         <v>-- hotel</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="str">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Query"),"")</f>
         <v>hotelQuery</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="2" t="str">
         <f>IF(B2&lt;&gt;"",CONCATENATE(inicio_consulta,C2,mid_consulta,A2,B2,fin_consulta),IF(A2&lt;&gt;"",CONCATENATE("-- ",A2),""))</f>
         <v>INSERT INTO tserver_permission VALUES (1,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelQuery');</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="str">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="str">
         <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Insert"),"")</f>
         <v>hotelInsert</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f>C2+1</f>
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="2" t="str">
         <f>IF(B3&lt;&gt;"",CONCATENATE(inicio_consulta,C3,mid_consulta,A3,B3,fin_consulta),IF(A3&lt;&gt;"",CONCATENATE("-- ",A3),""))</f>
         <v>INSERT INTO tserver_permission VALUES (2,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelInsert');</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="str">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="str">
         <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Update"),"")</f>
         <v>hotelUpdate</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f t="shared" ref="C4:C5" si="0">C3+1</f>
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="2" t="str">
         <f>IF(B4&lt;&gt;"",CONCATENATE(inicio_consulta,C4,mid_consulta,A4,B4,fin_consulta),IF(A4&lt;&gt;"",CONCATENATE("-- ",A4),""))</f>
         <v>INSERT INTO tserver_permission VALUES (3,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelUpdate');</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="str">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="str">
         <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Delete"),"")</f>
         <v>hotelDelete</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="E5" s="2" t="str">
         <f>IF(B5&lt;&gt;"",CONCATENATE(inicio_consulta,C5,mid_consulta,A5,B5,fin_consulta),IF(A5&lt;&gt;"",CONCATENATE("-- ",A5),""))</f>
         <v>INSERT INTO tserver_permission VALUES (4,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelDelete');</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="3" t="str">
+    <row r="6" spans="5:5">
+      <c r="E6" s="2" t="str">
         <f>IF(B6&lt;&gt;"",CONCATENATE(inicio_consulta,C6,mid_consulta,A6,B6,fin_consulta),IF(A6&lt;&gt;"",CONCATENATE("-- ",A6),""))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3" t="str">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="str">
         <f>IF(B7&lt;&gt;"",CONCATENATE(inicio_consulta,C7,mid_consulta,A7,B7,fin_consulta),IF(A7&lt;&gt;"",CONCATENATE("-- ",A7),""))</f>
         <v>-- bedCombo</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="str">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="str">
         <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Query"),"")</f>
         <v>bedComboQuery</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>C5+1</f>
         <v>5</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" s="2" t="str">
         <f>IF(B8&lt;&gt;"",CONCATENATE(inicio_consulta,C8,mid_consulta,A8,B8,fin_consulta),IF(A8&lt;&gt;"",CONCATENATE("-- ",A8),""))</f>
         <v>INSERT INTO tserver_permission VALUES (5,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboQuery');</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="str">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="str">
         <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Insert"),"")</f>
         <v>bedComboInsert</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f>C8+1</f>
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" s="2" t="str">
         <f>IF(B9&lt;&gt;"",CONCATENATE(inicio_consulta,C9,mid_consulta,A9,B9,fin_consulta),IF(A9&lt;&gt;"",CONCATENATE("-- ",A9),""))</f>
         <v>INSERT INTO tserver_permission VALUES (6,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboInsert');</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="str">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="str">
         <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Update"),"")</f>
         <v>bedComboUpdate</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <f t="shared" ref="C10:C11" si="1">C9+1</f>
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="2" t="str">
         <f>IF(B10&lt;&gt;"",CONCATENATE(inicio_consulta,C10,mid_consulta,A10,B10,fin_consulta),IF(A10&lt;&gt;"",CONCATENATE("-- ",A10),""))</f>
         <v>INSERT INTO tserver_permission VALUES (7,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboUpdate');</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="str">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="str">
         <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Delete"),"")</f>
         <v>bedComboDelete</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="2" t="str">
         <f>IF(B11&lt;&gt;"",CONCATENATE(inicio_consulta,C11,mid_consulta,A11,B11,fin_consulta),IF(A11&lt;&gt;"",CONCATENATE("-- ",A11),""))</f>
         <v>INSERT INTO tserver_permission VALUES (8,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboDelete');</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="3" t="str">
+    <row r="12" spans="5:5">
+      <c r="E12" s="2" t="str">
         <f>IF(B12&lt;&gt;"",CONCATENATE(inicio_consulta,C12,mid_consulta,A12,B12,fin_consulta),IF(A12&lt;&gt;"",CONCATENATE("-- ",A12),""))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="str">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2" t="str">
         <f>IF(B13&lt;&gt;"",CONCATENATE(inicio_consulta,C13,mid_consulta,A13,B13,fin_consulta),IF(A13&lt;&gt;"",CONCATENATE("-- ",A13),""))</f>
         <v>-- bookingGuest</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="str">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="str">
         <f>IF(A13&lt;&gt;"",CONCATENATE(A13,"Query"),"")</f>
         <v>bookingGuestQuery</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f>C11+1</f>
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="2" t="str">
         <f>IF(B14&lt;&gt;"",CONCATENATE(inicio_consulta,C14,mid_consulta,A14,B14,fin_consulta),IF(A14&lt;&gt;"",CONCATENATE("-- ",A14),""))</f>
         <v>INSERT INTO tserver_permission VALUES (9,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestQuery');</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="str">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="str">
         <f>IF(A13&lt;&gt;"",CONCATENATE(A13,"Insert"),"")</f>
         <v>bookingGuestInsert</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f>C14+1</f>
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" s="2" t="str">
         <f>IF(B15&lt;&gt;"",CONCATENATE(inicio_consulta,C15,mid_consulta,A15,B15,fin_consulta),IF(A15&lt;&gt;"",CONCATENATE("-- ",A15),""))</f>
         <v>INSERT INTO tserver_permission VALUES (10,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestInsert');</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" ref="C16" si="2">C15+1</f>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" ref="C16:C18" si="2">C15+1</f>
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" s="2" t="str">
         <f>IF(B16&lt;&gt;"",CONCATENATE(inicio_consulta,C16,mid_consulta,A16,B16,fin_consulta),IF(A16&lt;&gt;"",CONCATENATE("-- ",A16),""))</f>
         <v>INSERT INTO tserver_permission VALUES (11,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/guestCountQuery');</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="str">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="str">
         <f>IF(A13&lt;&gt;"",CONCATENATE(A13,"Delete"),"")</f>
         <v>bookingGuestDelete</v>
       </c>
-      <c r="C17" s="2">
-        <f>C16+1</f>
+      <c r="C17" s="1">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="str">
+      <c r="E17" s="2" t="str">
         <f>IF(B17&lt;&gt;"",CONCATENATE(inicio_consulta,C17,mid_consulta,A17,B17,fin_consulta),IF(A17&lt;&gt;"",CONCATENATE("-- ",A17),""))</f>
         <v>INSERT INTO tserver_permission VALUES (12,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestDelete');</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2">
-        <f>C17+1</f>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E18" s="2" t="str">
         <f>IF(B18&lt;&gt;"",CONCATENATE(inicio_consulta,C18,mid_consulta,A18,B18,fin_consulta),IF(A18&lt;&gt;"",CONCATENATE("-- ",A18),""))</f>
         <v>INSERT INTO tserver_permission VALUES (13,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestsInfoQuery');</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="3" t="str">
+    <row r="19" spans="5:5">
+      <c r="E19" s="2" t="str">
         <f>IF(B19&lt;&gt;"",CONCATENATE(inicio_consulta,C19,mid_consulta,A19,B19,fin_consulta),IF(A19&lt;&gt;"",CONCATENATE("-- ",A19),""))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="3" t="str">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",CONCATENATE(inicio_consulta,C20,mid_consulta,A20,B20,fin_consulta),IF(A20&lt;&gt;"",CONCATENATE("-- ",A20),""))</f>
         <v>-- booking</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="2" t="str">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="str">
         <f>IF(A20&lt;&gt;"",CONCATENATE(A20,"Query"),"")</f>
         <v>bookingQuery</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <f>C18+1</f>
         <v>14</v>
       </c>
-      <c r="E21" s="3" t="str">
+      <c r="E21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",CONCATENATE(inicio_consulta,C21,mid_consulta,A21,B21,fin_consulta),IF(A21&lt;&gt;"",CONCATENATE("-- ",A21),""))</f>
         <v>INSERT INTO tserver_permission VALUES (14,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingQuery');</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="2" t="str">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1" t="str">
         <f>IF(A20&lt;&gt;"",CONCATENATE(A20,"Insert"),"")</f>
         <v>bookingInsert</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f>C21+1</f>
         <v>15</v>
       </c>
-      <c r="E22" s="3" t="str">
+      <c r="E22" s="2" t="str">
         <f>IF(B22&lt;&gt;"",CONCATENATE(inicio_consulta,C22,mid_consulta,A22,B22,fin_consulta),IF(A22&lt;&gt;"",CONCATENATE("-- ",A22),""))</f>
         <v>INSERT INTO tserver_permission VALUES (15,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInsert');</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="2">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
         <f t="shared" ref="C23:C33" si="3">C22+1</f>
         <v>16</v>
       </c>
-      <c r="E23" s="3" t="str">
+      <c r="E23" s="2" t="str">
         <f>IF(B23&lt;&gt;"",CONCATENATE(inicio_consulta,C23,mid_consulta,A23,B23,fin_consulta),IF(A23&lt;&gt;"",CONCATENATE("-- ",A23),""))</f>
         <v>INSERT INTO tserver_permission VALUES (16,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingActionUpdate');</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2" t="str">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="str">
         <f>IF(A20&lt;&gt;"",CONCATENATE(A20,"Delete"),"")</f>
         <v>bookingDelete</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E24" s="3" t="str">
+      <c r="E24" s="2" t="str">
         <f>IF(B24&lt;&gt;"",CONCATENATE(inicio_consulta,C24,mid_consulta,A24,B24,fin_consulta),IF(A24&lt;&gt;"",CONCATENATE("-- ",A24),""))</f>
         <v>INSERT INTO tserver_permission VALUES (17,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDelete');</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="2">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="E25" s="3" t="str">
+      <c r="E25" s="2" t="str">
         <f>IF(B25&lt;&gt;"",CONCATENATE(inicio_consulta,C25,mid_consulta,A25,B25,fin_consulta),IF(A25&lt;&gt;"",CONCATENATE("-- ",A25),""))</f>
         <v>INSERT INTO tserver_permission VALUES (18,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInfoQuery');</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="2">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="E26" s="3" t="str">
+      <c r="E26" s="2" t="str">
         <f>IF(B26&lt;&gt;"",CONCATENATE(inicio_consulta,C26,mid_consulta,A26,B26,fin_consulta),IF(A26&lt;&gt;"",CONCATENATE("-- ",A26),""))</f>
         <v>INSERT INTO tserver_permission VALUES (19,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeQuery');</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="2">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E27" s="3" t="str">
+      <c r="E27" s="2" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE(inicio_consulta,C27,mid_consulta,A27,B27,fin_consulta),IF(A27&lt;&gt;"",CONCATENATE("-- ",A27),""))</f>
         <v>INSERT INTO tserver_permission VALUES (20,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeInfoQuery');</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="2">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="E28" s="3" t="str">
+      <c r="E28" s="2" t="str">
         <f>IF(B28&lt;&gt;"",CONCATENATE(inicio_consulta,C28,mid_consulta,A28,B28,fin_consulta),IF(A28&lt;&gt;"",CONCATENATE("-- ",A28),""))</f>
         <v>INSERT INTO tserver_permission VALUES (21,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDaysUnitaryRoomPriceQuery');</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="2">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="E29" s="3" t="str">
+      <c r="E29" s="2" t="str">
         <f>IF(B29&lt;&gt;"",CONCATENATE(inicio_consulta,C29,mid_consulta,A29,B29,fin_consulta),IF(A29&lt;&gt;"",CONCATENATE("-- ",A29),""))</f>
         <v>INSERT INTO tserver_permission VALUES (22,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsHotelsQuery');</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="2">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="E30" s="3" t="str">
+      <c r="E30" s="2" t="str">
         <f>IF(B30&lt;&gt;"",CONCATENATE(inicio_consulta,C30,mid_consulta,A30,B30,fin_consulta),IF(A30&lt;&gt;"",CONCATENATE("-- ",A30),""))</f>
         <v>INSERT INTO tserver_permission VALUES (23,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/booking_now_by_room_numberQuery');</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="2">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="E31" s="3" t="str">
+      <c r="E31" s="2" t="str">
         <f>IF(B31&lt;&gt;"",CONCATENATE(inicio_consulta,C31,mid_consulta,A31,B31,fin_consulta),IF(A31&lt;&gt;"",CONCATENATE("-- ",A31),""))</f>
         <v>INSERT INTO tserver_permission VALUES (24,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingSlotsInfoQuery');</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="2">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="E32" s="3" t="str">
+      <c r="E32" s="2" t="str">
         <f>IF(B32&lt;&gt;"",CONCATENATE(inicio_consulta,C32,mid_consulta,A32,B32,fin_consulta),IF(A32&lt;&gt;"",CONCATENATE("-- ",A32),""))</f>
         <v>INSERT INTO tserver_permission VALUES (25,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingCompleteInfoQuery');</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="E33" s="3" t="str">
+      <c r="E33" s="2" t="str">
         <f>IF(B33&lt;&gt;"",CONCATENATE(inicio_consulta,C33,mid_consulta,A33,B33,fin_consulta),IF(A33&lt;&gt;"",CONCATENATE("-- ",A33),""))</f>
         <v>INSERT INTO tserver_permission VALUES (26,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingHotelRoomRoomTypeQuery');</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="3" t="str">
+    <row r="34" spans="5:5">
+      <c r="E34" s="2" t="str">
         <f>IF(B34&lt;&gt;"",CONCATENATE(inicio_consulta,C34,mid_consulta,A34,B34,fin_consulta),IF(A34&lt;&gt;"",CONCATENATE("-- ",A34),""))</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="3" t="str">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="2" t="str">
         <f>IF(B35&lt;&gt;"",CONCATENATE(inicio_consulta,C35,mid_consulta,A35,B35,fin_consulta),IF(A35&lt;&gt;"",CONCATENATE("-- ",A35),""))</f>
         <v>-- bookingServiceExtra</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="str">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="1" t="str">
         <f>IF(A35&lt;&gt;"",CONCATENATE(A35,"Query"),"")</f>
         <v>bookingServiceExtraQuery</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <f>C33+1</f>
         <v>27</v>
       </c>
-      <c r="E36" s="3" t="str">
+      <c r="E36" s="2" t="str">
         <f>IF(B36&lt;&gt;"",CONCATENATE(inicio_consulta,C36,mid_consulta,A36,B36,fin_consulta),IF(A36&lt;&gt;"",CONCATENATE("-- ",A36),""))</f>
         <v>INSERT INTO tserver_permission VALUES (27,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraQuery');</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="str">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1" t="str">
         <f>IF(A35&lt;&gt;"",CONCATENATE(A35,"Insert"),"")</f>
         <v>bookingServiceExtraInsert</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <f>C36+1</f>
         <v>28</v>
       </c>
-      <c r="E37" s="3" t="str">
+      <c r="E37" s="2" t="str">
         <f>IF(B37&lt;&gt;"",CONCATENATE(inicio_consulta,C37,mid_consulta,A37,B37,fin_consulta),IF(A37&lt;&gt;"",CONCATENATE("-- ",A37),""))</f>
         <v>INSERT INTO tserver_permission VALUES (28,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraInsert');</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2" t="str">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="1" t="str">
         <f>IF(A35&lt;&gt;"",CONCATENATE(A35,"Delete"),"")</f>
         <v>bookingServiceExtraDelete</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <f t="shared" ref="C38:C40" si="4">C37+1</f>
         <v>29</v>
       </c>
-      <c r="E38" s="3" t="str">
+      <c r="E38" s="2" t="str">
         <f>IF(B38&lt;&gt;"",CONCATENATE(inicio_consulta,C38,mid_consulta,A38,B38,fin_consulta),IF(A38&lt;&gt;"",CONCATENATE("-- ",A38),""))</f>
         <v>INSERT INTO tserver_permission VALUES (29,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraDelete');</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="2">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="1">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E39" s="3" t="str">
+      <c r="E39" s="2" t="str">
         <f>IF(B39&lt;&gt;"",CONCATENATE(inicio_consulta,C39,mid_consulta,A39,B39,fin_consulta),IF(A39&lt;&gt;"",CONCATENATE("-- ",A39),""))</f>
         <v>INSERT INTO tserver_permission VALUES (30,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingExtraServicePriceUnitsTotalQuery');</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="E40" s="3" t="str">
+      <c r="E40" s="2" t="str">
         <f>IF(B40&lt;&gt;"",CONCATENATE(inicio_consulta,C40,mid_consulta,A40,B40,fin_consulta),IF(A40&lt;&gt;"",CONCATENATE("-- ",A40),""))</f>
         <v>INSERT INTO tserver_permission VALUES (31,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/extraServicesNameDescriptionUnitsPriceDateQuery');</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="3" t="str">
+    <row r="41" spans="5:5">
+      <c r="E41" s="2" t="str">
         <f>IF(B41&lt;&gt;"",CONCATENATE(inicio_consulta,C41,mid_consulta,A41,B41,fin_consulta),IF(A41&lt;&gt;"",CONCATENATE("-- ",A41),""))</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="3" t="str">
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2" t="str">
         <f>IF(B42&lt;&gt;"",CONCATENATE(inicio_consulta,C42,mid_consulta,A42,B42,fin_consulta),IF(A42&lt;&gt;"",CONCATENATE("-- ",A42),""))</f>
         <v>-- country</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="2" t="str">
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1" t="str">
         <f>IF(A42&lt;&gt;"",CONCATENATE(A42,"Query"),"")</f>
         <v>countryQuery</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <f>C40+1</f>
         <v>32</v>
       </c>
-      <c r="E43" s="3" t="str">
+      <c r="E43" s="2" t="str">
         <f>IF(B43&lt;&gt;"",CONCATENATE(inicio_consulta,C43,mid_consulta,A43,B43,fin_consulta),IF(A43&lt;&gt;"",CONCATENATE("-- ",A43),""))</f>
         <v>INSERT INTO tserver_permission VALUES (32,'com.ontimize.atomicHotelsApiRest.api.core.service.ICountryService/countryQuery');</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="3" t="str">
+    <row r="44" ht="14.25" customHeight="1" spans="5:5">
+      <c r="E44" s="2" t="str">
         <f>IF(B44&lt;&gt;"",CONCATENATE(inicio_consulta,C44,mid_consulta,A44,B44,fin_consulta),IF(A44&lt;&gt;"",CONCATENATE("-- ",A44),""))</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="3" t="str">
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2" t="str">
         <f>IF(B45&lt;&gt;"",CONCATENATE(inicio_consulta,C45,mid_consulta,A45,B45,fin_consulta),IF(A45&lt;&gt;"",CONCATENATE("-- ",A45),""))</f>
         <v>-- creditCard</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B46" s="2" t="str">
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="str">
         <f>IF(A45&lt;&gt;"",CONCATENATE(A45,"Query"),"")</f>
         <v>creditCardQuery</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <f>C43+1</f>
         <v>33</v>
       </c>
-      <c r="E46" s="3" t="str">
+      <c r="E46" s="2" t="str">
         <f>IF(B46&lt;&gt;"",CONCATENATE(inicio_consulta,C46,mid_consulta,A46,B46,fin_consulta),IF(A46&lt;&gt;"",CONCATENATE("-- ",A46),""))</f>
         <v>INSERT INTO tserver_permission VALUES (33,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardQuery');</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="2" t="str">
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1" t="str">
         <f>IF(A45&lt;&gt;"",CONCATENATE(A45,"Insert"),"")</f>
         <v>creditCardInsert</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <f>C46+1</f>
         <v>34</v>
       </c>
-      <c r="E47" s="3" t="str">
+      <c r="E47" s="2" t="str">
         <f>IF(B47&lt;&gt;"",CONCATENATE(inicio_consulta,C47,mid_consulta,A47,B47,fin_consulta),IF(A47&lt;&gt;"",CONCATENATE("-- ",A47),""))</f>
         <v>INSERT INTO tserver_permission VALUES (34,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardInsert');</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" s="2" t="str">
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="1" t="str">
         <f>IF(A45&lt;&gt;"",CONCATENATE(A45,"Delete"),"")</f>
         <v>creditCardDelete</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <f>C47+1</f>
         <v>35</v>
       </c>
-      <c r="E48" s="3" t="str">
+      <c r="E48" s="2" t="str">
         <f>IF(B48&lt;&gt;"",CONCATENATE(inicio_consulta,C48,mid_consulta,A48,B48,fin_consulta),IF(A48&lt;&gt;"",CONCATENATE("-- ",A48),""))</f>
         <v>INSERT INTO tserver_permission VALUES (35,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardDelete');</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="3" t="str">
+    <row r="49" spans="5:5">
+      <c r="E49" s="2" t="str">
         <f>IF(B49&lt;&gt;"",CONCATENATE(inicio_consulta,C49,mid_consulta,A49,B49,fin_consulta),IF(A49&lt;&gt;"",CONCATENATE("-- ",A49),""))</f>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="3" t="str">
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="2" t="str">
         <f>IF(B50&lt;&gt;"",CONCATENATE(inicio_consulta,C50,mid_consulta,A50,B50,fin_consulta),IF(A50&lt;&gt;"",CONCATENATE("-- ",A50),""))</f>
         <v>-- customerCreditCard</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="2" t="str">
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1" t="str">
         <f>IF(A50&lt;&gt;"",CONCATENATE(A50,"Query"),"")</f>
         <v>customerCreditCardQuery</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <f>C48+1</f>
         <v>36</v>
       </c>
-      <c r="E51" s="3" t="str">
+      <c r="E51" s="2" t="str">
         <f>IF(B51&lt;&gt;"",CONCATENATE(inicio_consulta,C51,mid_consulta,A51,B51,fin_consulta),IF(A51&lt;&gt;"",CONCATENATE("-- ",A51),""))</f>
         <v>INSERT INTO tserver_permission VALUES (36,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardQuery');</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="2" t="str">
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="1" t="str">
         <f>IF(A50&lt;&gt;"",CONCATENATE(A50,"Insert"),"")</f>
         <v>customerCreditCardInsert</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <f>C51+1</f>
         <v>37</v>
       </c>
-      <c r="E52" s="3" t="str">
+      <c r="E52" s="2" t="str">
         <f>IF(B52&lt;&gt;"",CONCATENATE(inicio_consulta,C52,mid_consulta,A52,B52,fin_consulta),IF(A52&lt;&gt;"",CONCATENATE("-- ",A52),""))</f>
         <v>INSERT INTO tserver_permission VALUES (37,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardInsert');</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="2" t="str">
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1" t="str">
         <f>IF(A50&lt;&gt;"",CONCATENATE(A50,"Delete"),"")</f>
         <v>customerCreditCardDelete</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <f>C52+1</f>
         <v>38</v>
       </c>
-      <c r="E53" s="3" t="str">
+      <c r="E53" s="2" t="str">
         <f>IF(B53&lt;&gt;"",CONCATENATE(inicio_consulta,C53,mid_consulta,A53,B53,fin_consulta),IF(A53&lt;&gt;"",CONCATENATE("-- ",A53),""))</f>
         <v>INSERT INTO tserver_permission VALUES (38,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardDelete');</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="3" t="str">
+    <row r="54" spans="5:5">
+      <c r="E54" s="2" t="str">
         <f>IF(B54&lt;&gt;"",CONCATENATE(inicio_consulta,C54,mid_consulta,A54,B54,fin_consulta),IF(A54&lt;&gt;"",CONCATENATE("-- ",A54),""))</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="3" t="str">
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="2" t="str">
         <f>IF(B55&lt;&gt;"",CONCATENATE(inicio_consulta,C55,mid_consulta,A55,B55,fin_consulta),IF(A55&lt;&gt;"",CONCATENATE("-- ",A55),""))</f>
         <v>-- customer</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" s="2" t="str">
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="1" t="str">
         <f>IF(A55&lt;&gt;"",CONCATENATE(A55,"Query"),"")</f>
         <v>customerQuery</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <f>C53+1</f>
         <v>39</v>
       </c>
-      <c r="E56" s="3" t="str">
+      <c r="E56" s="2" t="str">
         <f>IF(B56&lt;&gt;"",CONCATENATE(inicio_consulta,C56,mid_consulta,A56,B56,fin_consulta),IF(A56&lt;&gt;"",CONCATENATE("-- ",A56),""))</f>
         <v>INSERT INTO tserver_permission VALUES (39,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerQuery');</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="2">
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="1">
         <f>C56+1</f>
         <v>40</v>
       </c>
-      <c r="E57" s="3" t="str">
+      <c r="E57" s="2" t="str">
         <f>IF(B57&lt;&gt;"",CONCATENATE(inicio_consulta,C57,mid_consulta,A57,B57,fin_consulta),IF(A57&lt;&gt;"",CONCATENATE("-- ",A57),""))</f>
         <v>INSERT INTO tserver_permission VALUES (40,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/mailAgreementQuery');</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="2">
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="1">
         <f t="shared" ref="C58:C64" si="5">C57+1</f>
         <v>41</v>
       </c>
-      <c r="E58" s="3" t="str">
+      <c r="E58" s="2" t="str">
         <f>IF(B58&lt;&gt;"",CONCATENATE(inicio_consulta,C58,mid_consulta,A58,B58,fin_consulta),IF(A58&lt;&gt;"",CONCATENATE("-- ",A58),""))</f>
         <v>INSERT INTO tserver_permission VALUES (41,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/isCustomerValidBookingHolder');</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="2" t="str">
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="1" t="str">
         <f>IF(A55&lt;&gt;"",CONCATENATE(A55,"Delete"),"")</f>
         <v>customerDelete</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="E59" s="3" t="str">
+      <c r="E59" s="2" t="str">
         <f>IF(B59&lt;&gt;"",CONCATENATE(inicio_consulta,C59,mid_consulta,A59,B59,fin_consulta),IF(A59&lt;&gt;"",CONCATENATE("-- ",A59),""))</f>
         <v>INSERT INTO tserver_permission VALUES (42,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerDelete');</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C60" s="2">
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="1">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="E60" s="3" t="str">
+      <c r="E60" s="2" t="str">
         <f>IF(B60&lt;&gt;"",CONCATENATE(inicio_consulta,C60,mid_consulta,A60,B60,fin_consulta),IF(A60&lt;&gt;"",CONCATENATE("-- ",A60),""))</f>
         <v>INSERT INTO tserver_permission VALUES (43,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/businessCustomerInsert');</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="2">
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="1">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="E61" s="3" t="str">
+      <c r="E61" s="2" t="str">
         <f>IF(B61&lt;&gt;"",CONCATENATE(inicio_consulta,C61,mid_consulta,A61,B61,fin_consulta),IF(A61&lt;&gt;"",CONCATENATE("-- ",A61),""))</f>
         <v>INSERT INTO tserver_permission VALUES (44,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/regularCustomerInsert');</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="2">
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="1">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="E62" s="3" t="str">
+      <c r="E62" s="2" t="str">
         <f>IF(B62&lt;&gt;"",CONCATENATE(inicio_consulta,C62,mid_consulta,A62,B62,fin_consulta),IF(A62&lt;&gt;"",CONCATENATE("-- ",A62),""))</f>
         <v>INSERT INTO tserver_permission VALUES (45,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerCancelUpdate');</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="2">
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="1">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="E63" s="3" t="str">
+      <c r="E63" s="2" t="str">
         <f>IF(B63&lt;&gt;"",CONCATENATE(inicio_consulta,C63,mid_consulta,A63,B63,fin_consulta),IF(A63&lt;&gt;"",CONCATENATE("-- ",A63),""))</f>
         <v>INSERT INTO tserver_permission VALUES (46,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerBusinessUpdate');</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="2">
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="1">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="E64" s="3" t="str">
+      <c r="E64" s="2" t="str">
         <f>IF(B64&lt;&gt;"",CONCATENATE(inicio_consulta,C64,mid_consulta,A64,B64,fin_consulta),IF(A64&lt;&gt;"",CONCATENATE("-- ",A64),""))</f>
         <v>INSERT INTO tserver_permission VALUES (47,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerRegularUpdate');</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="3" t="str">
+    <row r="65" spans="5:5">
+      <c r="E65" s="2" t="str">
         <f>IF(B65&lt;&gt;"",CONCATENATE(inicio_consulta,C65,mid_consulta,A65,B65,fin_consulta),IF(A65&lt;&gt;"",CONCATENATE("-- ",A65),""))</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" s="3" t="str">
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="2" t="str">
         <f>IF(B66&lt;&gt;"",CONCATENATE(inicio_consulta,C66,mid_consulta,A66,B66,fin_consulta),IF(A66&lt;&gt;"",CONCATENATE("-- ",A66),""))</f>
         <v>-- feature</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="2" t="str">
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="1" t="str">
         <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Query"),"")</f>
         <v>featureQuery</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="1">
         <f>C64+1</f>
         <v>48</v>
       </c>
-      <c r="E67" s="3" t="str">
+      <c r="E67" s="2" t="str">
         <f>IF(B67&lt;&gt;"",CONCATENATE(inicio_consulta,C67,mid_consulta,A67,B67,fin_consulta),IF(A67&lt;&gt;"",CONCATENATE("-- ",A67),""))</f>
         <v>INSERT INTO tserver_permission VALUES (48,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureQuery');</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="2" t="str">
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="1" t="str">
         <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Insert"),"")</f>
         <v>featureInsert</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <f>C67+1</f>
         <v>49</v>
       </c>
-      <c r="E68" s="3" t="str">
+      <c r="E68" s="2" t="str">
         <f>IF(B68&lt;&gt;"",CONCATENATE(inicio_consulta,C68,mid_consulta,A68,B68,fin_consulta),IF(A68&lt;&gt;"",CONCATENATE("-- ",A68),""))</f>
         <v>INSERT INTO tserver_permission VALUES (49,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureInsert');</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="2" t="str">
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="1" t="str">
         <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Update"),"")</f>
         <v>featureUpdate</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <f t="shared" ref="C69:C70" si="6">C68+1</f>
         <v>50</v>
       </c>
-      <c r="E69" s="3" t="str">
+      <c r="E69" s="2" t="str">
         <f>IF(B69&lt;&gt;"",CONCATENATE(inicio_consulta,C69,mid_consulta,A69,B69,fin_consulta),IF(A69&lt;&gt;"",CONCATENATE("-- ",A69),""))</f>
         <v>INSERT INTO tserver_permission VALUES (50,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureUpdate');</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="2" t="str">
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="1" t="str">
         <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Delete"),"")</f>
         <v>featureDelete</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="1">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="E70" s="3" t="str">
+      <c r="E70" s="2" t="str">
         <f>IF(B70&lt;&gt;"",CONCATENATE(inicio_consulta,C70,mid_consulta,A70,B70,fin_consulta),IF(A70&lt;&gt;"",CONCATENATE("-- ",A70),""))</f>
         <v>INSERT INTO tserver_permission VALUES (51,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureDelete');</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="3" t="str">
+    <row r="71" spans="5:5">
+      <c r="E71" s="2" t="str">
         <f>IF(B71&lt;&gt;"",CONCATENATE(inicio_consulta,C71,mid_consulta,A71,B71,fin_consulta),IF(A71&lt;&gt;"",CONCATENATE("-- ",A71),""))</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="3" t="str">
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="2" t="str">
         <f>IF(B72&lt;&gt;"",CONCATENATE(inicio_consulta,C72,mid_consulta,A72,B72,fin_consulta),IF(A72&lt;&gt;"",CONCATENATE("-- ",A72),""))</f>
         <v>-- hotelServiceExtra</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="2" t="str">
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="1" t="str">
         <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Query"),"")</f>
         <v>hotelServiceExtraQuery</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="1">
         <f>C70+1</f>
         <v>52</v>
       </c>
-      <c r="E73" s="3" t="str">
+      <c r="E73" s="2" t="str">
         <f>IF(B73&lt;&gt;"",CONCATENATE(inicio_consulta,C73,mid_consulta,A73,B73,fin_consulta),IF(A73&lt;&gt;"",CONCATENATE("-- ",A73),""))</f>
         <v>INSERT INTO tserver_permission VALUES (52,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraQuery');</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="2" t="str">
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="1" t="str">
         <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Insert"),"")</f>
         <v>hotelServiceExtraInsert</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="1">
         <f>C73+1</f>
         <v>53</v>
       </c>
-      <c r="E74" s="3" t="str">
+      <c r="E74" s="2" t="str">
         <f>IF(B74&lt;&gt;"",CONCATENATE(inicio_consulta,C74,mid_consulta,A74,B74,fin_consulta),IF(A74&lt;&gt;"",CONCATENATE("-- ",A74),""))</f>
         <v>INSERT INTO tserver_permission VALUES (53,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraInsert');</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="2" t="str">
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="1" t="str">
         <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Update"),"")</f>
         <v>hotelServiceExtraUpdate</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="1">
         <f t="shared" ref="C75:C76" si="7">C74+1</f>
         <v>54</v>
       </c>
-      <c r="E75" s="3" t="str">
+      <c r="E75" s="2" t="str">
         <f>IF(B75&lt;&gt;"",CONCATENATE(inicio_consulta,C75,mid_consulta,A75,B75,fin_consulta),IF(A75&lt;&gt;"",CONCATENATE("-- ",A75),""))</f>
         <v>INSERT INTO tserver_permission VALUES (54,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraUpdate');</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="2" t="str">
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="1" t="str">
         <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Delete"),"")</f>
         <v>hotelServiceExtraDelete</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="1">
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="E76" s="3" t="str">
+      <c r="E76" s="2" t="str">
         <f>IF(B76&lt;&gt;"",CONCATENATE(inicio_consulta,C76,mid_consulta,A76,B76,fin_consulta),IF(A76&lt;&gt;"",CONCATENATE("-- ",A76),""))</f>
         <v>INSERT INTO tserver_permission VALUES (55,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraDelete');</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="3" t="str">
+    <row r="77" spans="5:5">
+      <c r="E77" s="2" t="str">
         <f>IF(B77&lt;&gt;"",CONCATENATE(inicio_consulta,C77,mid_consulta,A77,B77,fin_consulta),IF(A77&lt;&gt;"",CONCATENATE("-- ",A77),""))</f>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E78" s="3" t="str">
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E78" s="2" t="str">
         <f>IF(B78&lt;&gt;"",CONCATENATE(inicio_consulta,C78,mid_consulta,A78,B78,fin_consulta),IF(A78&lt;&gt;"",CONCATENATE("-- ",A78),""))</f>
         <v>-- hotelService</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="2" t="str">
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="1" t="str">
         <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Query"),"")</f>
         <v>hotelServiceQuery</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <f>C76+1</f>
         <v>56</v>
       </c>
-      <c r="E79" s="3" t="str">
+      <c r="E79" s="2" t="str">
         <f>IF(B79&lt;&gt;"",CONCATENATE(inicio_consulta,C79,mid_consulta,A79,B79,fin_consulta),IF(A79&lt;&gt;"",CONCATENATE("-- ",A79),""))</f>
         <v>INSERT INTO tserver_permission VALUES (56,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceQuery');</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" s="2" t="str">
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="1" t="str">
         <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Insert"),"")</f>
         <v>hotelServiceInsert</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <f>C79+1</f>
         <v>57</v>
       </c>
-      <c r="E80" s="3" t="str">
+      <c r="E80" s="2" t="str">
         <f>IF(B80&lt;&gt;"",CONCATENATE(inicio_consulta,C80,mid_consulta,A80,B80,fin_consulta),IF(A80&lt;&gt;"",CONCATENATE("-- ",A80),""))</f>
         <v>INSERT INTO tserver_permission VALUES (57,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceInsert');</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" s="2" t="str">
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" s="1" t="str">
         <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Update"),"")</f>
         <v>hotelServiceUpdate</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <f t="shared" ref="C81:C82" si="8">C80+1</f>
         <v>58</v>
       </c>
-      <c r="E81" s="3" t="str">
+      <c r="E81" s="2" t="str">
         <f>IF(B81&lt;&gt;"",CONCATENATE(inicio_consulta,C81,mid_consulta,A81,B81,fin_consulta),IF(A81&lt;&gt;"",CONCATENATE("-- ",A81),""))</f>
         <v>INSERT INTO tserver_permission VALUES (58,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceUpdate');</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B82" s="2" t="str">
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" s="1" t="str">
         <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Delete"),"")</f>
         <v>hotelServiceDelete</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="1">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="E82" s="3" t="str">
+      <c r="E82" s="2" t="str">
         <f>IF(B82&lt;&gt;"",CONCATENATE(inicio_consulta,C82,mid_consulta,A82,B82,fin_consulta),IF(A82&lt;&gt;"",CONCATENATE("-- ",A82),""))</f>
         <v>INSERT INTO tserver_permission VALUES (59,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceDelete');</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="3" t="str">
+    <row r="83" spans="5:5">
+      <c r="E83" s="2" t="str">
         <f>IF(B83&lt;&gt;"",CONCATENATE(inicio_consulta,C83,mid_consulta,A83,B83,fin_consulta),IF(A83&lt;&gt;"",CONCATENATE("-- ",A83),""))</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" s="3" t="str">
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="2" t="str">
         <f>IF(B84&lt;&gt;"",CONCATENATE(inicio_consulta,C84,mid_consulta,A84,B84,fin_consulta),IF(A84&lt;&gt;"",CONCATENATE("-- ",A84),""))</f>
         <v>-- receipt</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="2" t="str">
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="1" t="str">
         <f>IF(A84&lt;&gt;"",CONCATENATE(A84,"Query"),"")</f>
         <v>receiptQuery</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <f>C82+1</f>
         <v>60</v>
       </c>
-      <c r="E85" s="3" t="str">
+      <c r="E85" s="2" t="str">
         <f>IF(B85&lt;&gt;"",CONCATENATE(inicio_consulta,C85,mid_consulta,A85,B85,fin_consulta),IF(A85&lt;&gt;"",CONCATENATE("-- ",A85),""))</f>
         <v>INSERT INTO tserver_permission VALUES (60,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptQuery');</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="2" t="str">
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="1" t="str">
         <f>IF(A84&lt;&gt;"",CONCATENATE(A84,"Insert"),"")</f>
         <v>receiptInsert</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="1">
         <f>C85+1</f>
         <v>61</v>
       </c>
-      <c r="E86" s="3" t="str">
+      <c r="E86" s="2" t="str">
         <f>IF(B86&lt;&gt;"",CONCATENATE(inicio_consulta,C86,mid_consulta,A86,B86,fin_consulta),IF(A86&lt;&gt;"",CONCATENATE("-- ",A86),""))</f>
         <v>INSERT INTO tserver_permission VALUES (61,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptInsert');</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C87" s="2">
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="1">
         <f t="shared" ref="C87:C88" si="9">C86+1</f>
         <v>62</v>
       </c>
-      <c r="E87" s="3" t="str">
+      <c r="E87" s="2" t="str">
         <f>IF(B87&lt;&gt;"",CONCATENATE(inicio_consulta,C87,mid_consulta,A87,B87,fin_consulta),IF(A87&lt;&gt;"",CONCATENATE("-- ",A87),""))</f>
         <v>INSERT INTO tserver_permission VALUES (62,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/completeReceiptQuery');</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="2" t="str">
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="1" t="str">
         <f>IF(A84&lt;&gt;"",CONCATENATE(A84,"Delete"),"")</f>
         <v>receiptDelete</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="1">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="E88" s="3" t="str">
+      <c r="E88" s="2" t="str">
         <f>IF(B88&lt;&gt;"",CONCATENATE(inicio_consulta,C88,mid_consulta,A88,B88,fin_consulta),IF(A88&lt;&gt;"",CONCATENATE("-- ",A88),""))</f>
         <v>INSERT INTO tserver_permission VALUES (63,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptDelete');</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="3" t="str">
+    <row r="89" spans="5:5">
+      <c r="E89" s="2" t="str">
         <f>IF(B89&lt;&gt;"",CONCATENATE(inicio_consulta,C89,mid_consulta,A89,B89,fin_consulta),IF(A89&lt;&gt;"",CONCATENATE("-- ",A89),""))</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E90" s="3" t="str">
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" s="2" t="str">
         <f>IF(B90&lt;&gt;"",CONCATENATE(inicio_consulta,C90,mid_consulta,A90,B90,fin_consulta),IF(A90&lt;&gt;"",CONCATENATE("-- ",A90),""))</f>
         <v>-- room</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="2" t="str">
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="1" t="str">
         <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Query"),"")</f>
         <v>roomQuery</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="1">
         <f>C88+1</f>
         <v>64</v>
       </c>
-      <c r="E91" s="3" t="str">
+      <c r="E91" s="2" t="str">
         <f>IF(B91&lt;&gt;"",CONCATENATE(inicio_consulta,C91,mid_consulta,A91,B91,fin_consulta),IF(A91&lt;&gt;"",CONCATENATE("-- ",A91),""))</f>
         <v>INSERT INTO tserver_permission VALUES (64,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomQuery');</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="2" t="str">
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="1" t="str">
         <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Insert"),"")</f>
         <v>roomInsert</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <f>C91+1</f>
         <v>65</v>
       </c>
-      <c r="E92" s="3" t="str">
+      <c r="E92" s="2" t="str">
         <f>IF(B92&lt;&gt;"",CONCATENATE(inicio_consulta,C92,mid_consulta,A92,B92,fin_consulta),IF(A92&lt;&gt;"",CONCATENATE("-- ",A92),""))</f>
         <v>INSERT INTO tserver_permission VALUES (65,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInsert');</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="2" t="str">
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="1" t="str">
         <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Update"),"")</f>
         <v>roomUpdate</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="1">
         <f t="shared" ref="C93:C98" si="10">C92+1</f>
         <v>66</v>
       </c>
-      <c r="E93" s="3" t="str">
+      <c r="E93" s="2" t="str">
         <f>IF(B93&lt;&gt;"",CONCATENATE(inicio_consulta,C93,mid_consulta,A93,B93,fin_consulta),IF(A93&lt;&gt;"",CONCATENATE("-- ",A93),""))</f>
         <v>INSERT INTO tserver_permission VALUES (66,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomUpdate');</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="2" t="str">
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" s="1" t="str">
         <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Delete"),"")</f>
         <v>roomDelete</v>
       </c>
-      <c r="C94" s="2">
-        <f>C93+1</f>
+      <c r="C94" s="1">
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="E94" s="3" t="str">
+      <c r="E94" s="2" t="str">
         <f>IF(B94&lt;&gt;"",CONCATENATE(inicio_consulta,C94,mid_consulta,A94,B94,fin_consulta),IF(A94&lt;&gt;"",CONCATENATE("-- ",A94),""))</f>
         <v>INSERT INTO tserver_permission VALUES (67,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomDelete');</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95" s="2">
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="1">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="E95" s="3" t="str">
+      <c r="E95" s="2" t="str">
         <f>IF(B95&lt;&gt;"",CONCATENATE(inicio_consulta,C95,mid_consulta,A95,B95,fin_consulta),IF(A95&lt;&gt;"",CONCATENATE("-- ",A95),""))</f>
         <v>INSERT INTO tserver_permission VALUES (68,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomsUnbookedInRangeQuery');</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C96" s="2">
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C96" s="1">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="E96" s="3" t="str">
+      <c r="E96" s="2" t="str">
         <f>IF(B96&lt;&gt;"",CONCATENATE(inicio_consulta,C96,mid_consulta,A96,B96,fin_consulta),IF(A96&lt;&gt;"",CONCATENATE("-- ",A96),""))</f>
         <v>INSERT INTO tserver_permission VALUES (69,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/isRoomUnbookedgInRange');</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="2">
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="1">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="E97" s="3" t="str">
+      <c r="E97" s="2" t="str">
         <f>IF(B97&lt;&gt;"",CONCATENATE(inicio_consulta,C97,mid_consulta,A97,B97,fin_consulta),IF(A97&lt;&gt;"",CONCATENATE("-- ",A97),""))</f>
         <v>INSERT INTO tserver_permission VALUES (70,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInfoQuery');</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C98" s="2">
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="1">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="E98" s="3" t="str">
+      <c r="E98" s="2" t="str">
         <f>IF(B98&lt;&gt;"",CONCATENATE(inicio_consulta,C98,mid_consulta,A98,B98,fin_consulta),IF(A98&lt;&gt;"",CONCATENATE("-- ",A98),""))</f>
         <v>INSERT INTO tserver_permission VALUES (71,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/infoHotelFeaturesQuery');</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="3" t="str">
+    <row r="99" spans="5:5">
+      <c r="E99" s="2" t="str">
         <f>IF(B99&lt;&gt;"",CONCATENATE(inicio_consulta,C99,mid_consulta,A99,B99,fin_consulta),IF(A99&lt;&gt;"",CONCATENATE("-- ",A99),""))</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E100" s="3" t="str">
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="2" t="str">
         <f>IF(B100&lt;&gt;"",CONCATENATE(inicio_consulta,C100,mid_consulta,A100,B100,fin_consulta),IF(A100&lt;&gt;"",CONCATENATE("-- ",A100),""))</f>
         <v>-- roomTypeFeature</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="2" t="str">
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B101" s="1" t="str">
         <f>IF(A100&lt;&gt;"",CONCATENATE(A100,"Query"),"")</f>
         <v>roomTypeFeatureQuery</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="1">
         <f>C98+1</f>
         <v>72</v>
       </c>
-      <c r="E101" s="3" t="str">
+      <c r="E101" s="2" t="str">
         <f>IF(B101&lt;&gt;"",CONCATENATE(inicio_consulta,C101,mid_consulta,A101,B101,fin_consulta),IF(A101&lt;&gt;"",CONCATENATE("-- ",A101),""))</f>
         <v>INSERT INTO tserver_permission VALUES (72,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureQuery');</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" s="2" t="str">
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B102" s="1" t="str">
         <f>IF(A100&lt;&gt;"",CONCATENATE(A100,"Insert"),"")</f>
         <v>roomTypeFeatureInsert</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="1">
         <f>C101+1</f>
         <v>73</v>
       </c>
-      <c r="E102" s="3" t="str">
+      <c r="E102" s="2" t="str">
         <f>IF(B102&lt;&gt;"",CONCATENATE(inicio_consulta,C102,mid_consulta,A102,B102,fin_consulta),IF(A102&lt;&gt;"",CONCATENATE("-- ",A102),""))</f>
         <v>INSERT INTO tserver_permission VALUES (73,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureInsert');</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" s="2" t="str">
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B103" s="1" t="str">
         <f>IF(A100&lt;&gt;"",CONCATENATE(A100,"Delete"),"")</f>
         <v>roomTypeFeatureDelete</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="1">
         <f>C102+1</f>
         <v>74</v>
       </c>
-      <c r="E103" s="3" t="str">
+      <c r="E103" s="2" t="str">
         <f>IF(B103&lt;&gt;"",CONCATENATE(inicio_consulta,C103,mid_consulta,A103,B103,fin_consulta),IF(A103&lt;&gt;"",CONCATENATE("-- ",A103),""))</f>
         <v>INSERT INTO tserver_permission VALUES (74,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureDelete');</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="3" t="str">
+    <row r="104" spans="5:5">
+      <c r="E104" s="2" t="str">
         <f>IF(B104&lt;&gt;"",CONCATENATE(inicio_consulta,C104,mid_consulta,A104,B104,fin_consulta),IF(A104&lt;&gt;"",CONCATENATE("-- ",A104),""))</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E105" s="3" t="str">
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E105" s="2" t="str">
         <f>IF(B105&lt;&gt;"",CONCATENATE(inicio_consulta,C105,mid_consulta,A105,B105,fin_consulta),IF(A105&lt;&gt;"",CONCATENATE("-- ",A105),""))</f>
         <v>-- roomType</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B106" s="2" t="str">
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106" s="1" t="str">
         <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Query"),"")</f>
         <v>roomTypeQuery</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="1">
         <f>C103+1</f>
         <v>75</v>
       </c>
-      <c r="E106" s="3" t="str">
+      <c r="E106" s="2" t="str">
         <f>IF(B106&lt;&gt;"",CONCATENATE(inicio_consulta,C106,mid_consulta,A106,B106,fin_consulta),IF(A106&lt;&gt;"",CONCATENATE("-- ",A106),""))</f>
         <v>INSERT INTO tserver_permission VALUES (75,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeQuery');</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="2" t="str">
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" s="1" t="str">
         <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Insert"),"")</f>
         <v>roomTypeInsert</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="1">
         <f>C106+1</f>
         <v>76</v>
       </c>
-      <c r="E107" s="3" t="str">
+      <c r="E107" s="2" t="str">
         <f>IF(B107&lt;&gt;"",CONCATENATE(inicio_consulta,C107,mid_consulta,A107,B107,fin_consulta),IF(A107&lt;&gt;"",CONCATENATE("-- ",A107),""))</f>
         <v>INSERT INTO tserver_permission VALUES (76,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeInsert');</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108" s="2" t="str">
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B108" s="1" t="str">
         <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Update"),"")</f>
         <v>roomTypeUpdate</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="1">
         <f t="shared" ref="C108:C111" si="11">C107+1</f>
         <v>77</v>
       </c>
-      <c r="E108" s="3" t="str">
+      <c r="E108" s="2" t="str">
         <f>IF(B108&lt;&gt;"",CONCATENATE(inicio_consulta,C108,mid_consulta,A108,B108,fin_consulta),IF(A108&lt;&gt;"",CONCATENATE("-- ",A108),""))</f>
         <v>INSERT INTO tserver_permission VALUES (77,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeUpdate');</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" s="2" t="str">
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B109" s="1" t="str">
         <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Delete"),"")</f>
         <v>roomTypeDelete</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="1">
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
-      <c r="E109" s="3" t="str">
+      <c r="E109" s="2" t="str">
         <f>IF(B109&lt;&gt;"",CONCATENATE(inicio_consulta,C109,mid_consulta,A109,B109,fin_consulta),IF(A109&lt;&gt;"",CONCATENATE("-- ",A109),""))</f>
         <v>INSERT INTO tserver_permission VALUES (78,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeDelete');</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C110" s="2">
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" s="1">
         <f t="shared" si="11"/>
         <v>79</v>
       </c>
-      <c r="E110" s="3" t="str">
+      <c r="E110" s="2" t="str">
         <f>IF(B110&lt;&gt;"",CONCATENATE(inicio_consulta,C110,mid_consulta,A110,B110,fin_consulta),IF(A110&lt;&gt;"",CONCATENATE("-- ",A110),""))</f>
         <v>INSERT INTO tserver_permission VALUES (79,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoQuery');</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C111" s="2">
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="1">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="E111" s="3" t="str">
+      <c r="E111" s="2" t="str">
         <f>IF(B111&lt;&gt;"",CONCATENATE(inicio_consulta,C111,mid_consulta,A111,B111,fin_consulta),IF(A111&lt;&gt;"",CONCATENATE("-- ",A111),""))</f>
         <v>INSERT INTO tserver_permission VALUES (80,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoRoomFeaturesQuery');</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="3" t="str">
+    <row r="112" spans="5:5">
+      <c r="E112" s="2" t="str">
         <f>IF(B112&lt;&gt;"",CONCATENATE(inicio_consulta,C112,mid_consulta,A112,B112,fin_consulta),IF(A112&lt;&gt;"",CONCATENATE("-- ",A112),""))</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E113" s="3" t="str">
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E113" s="2" t="str">
         <f>IF(B113&lt;&gt;"",CONCATENATE(inicio_consulta,C113,mid_consulta,A113,B113,fin_consulta),IF(A113&lt;&gt;"",CONCATENATE("-- ",A113),""))</f>
         <v>-- service</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" s="2" t="str">
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" s="1" t="str">
         <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Query"),"")</f>
         <v>serviceQuery</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="1">
         <f>C111+1</f>
         <v>81</v>
       </c>
-      <c r="E114" s="3" t="str">
+      <c r="E114" s="2" t="str">
         <f>IF(B114&lt;&gt;"",CONCATENATE(inicio_consulta,C114,mid_consulta,A114,B114,fin_consulta),IF(A114&lt;&gt;"",CONCATENATE("-- ",A114),""))</f>
         <v>INSERT INTO tserver_permission VALUES (81,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceQuery');</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" s="2" t="str">
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" s="1" t="str">
         <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Insert"),"")</f>
         <v>serviceInsert</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="1">
         <f>C114+1</f>
         <v>82</v>
       </c>
-      <c r="E115" s="3" t="str">
+      <c r="E115" s="2" t="str">
         <f>IF(B115&lt;&gt;"",CONCATENATE(inicio_consulta,C115,mid_consulta,A115,B115,fin_consulta),IF(A115&lt;&gt;"",CONCATENATE("-- ",A115),""))</f>
         <v>INSERT INTO tserver_permission VALUES (82,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceInsert');</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B116" s="2" t="str">
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" s="1" t="str">
         <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Update"),"")</f>
         <v>serviceUpdate</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="1">
         <f t="shared" ref="C116:C117" si="12">C115+1</f>
         <v>83</v>
       </c>
-      <c r="E116" s="3" t="str">
+      <c r="E116" s="2" t="str">
         <f>IF(B116&lt;&gt;"",CONCATENATE(inicio_consulta,C116,mid_consulta,A116,B116,fin_consulta),IF(A116&lt;&gt;"",CONCATENATE("-- ",A116),""))</f>
         <v>INSERT INTO tserver_permission VALUES (83,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceUpdate');</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B117" s="2" t="str">
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" s="1" t="str">
         <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Delete"),"")</f>
         <v>serviceDelete</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="1">
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="E117" s="3" t="str">
+      <c r="E117" s="2" t="str">
         <f>IF(B117&lt;&gt;"",CONCATENATE(inicio_consulta,C117,mid_consulta,A117,B117,fin_consulta),IF(A117&lt;&gt;"",CONCATENATE("-- ",A117),""))</f>
         <v>INSERT INTO tserver_permission VALUES (84,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceDelete');</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="3" t="str">
+    <row r="118" spans="5:5">
+      <c r="E118" s="2" t="str">
         <f>IF(B118&lt;&gt;"",CONCATENATE(inicio_consulta,C118,mid_consulta,A118,B118,fin_consulta),IF(A118&lt;&gt;"",CONCATENATE("-- ",A118),""))</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E119" s="3" t="str">
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E119" s="2" t="str">
         <f>IF(B119&lt;&gt;"",CONCATENATE(inicio_consulta,C119,mid_consulta,A119,B119,fin_consulta),IF(A119&lt;&gt;"",CONCATENATE("-- ",A119),""))</f>
         <v>-- servicesXtra</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="2" t="str">
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" s="1" t="str">
         <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Query"),"")</f>
         <v>servicesXtraQuery</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="1">
         <f>C117+1</f>
         <v>85</v>
       </c>
-      <c r="E120" s="3" t="str">
+      <c r="E120" s="2" t="str">
         <f>IF(B120&lt;&gt;"",CONCATENATE(inicio_consulta,C120,mid_consulta,A120,B120,fin_consulta),IF(A120&lt;&gt;"",CONCATENATE("-- ",A120),""))</f>
         <v>INSERT INTO tserver_permission VALUES (85,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraQuery');</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B121" s="2" t="str">
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B121" s="1" t="str">
         <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Insert"),"")</f>
         <v>servicesXtraInsert</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="1">
         <f>C120+1</f>
         <v>86</v>
       </c>
-      <c r="E121" s="3" t="str">
+      <c r="E121" s="2" t="str">
         <f>IF(B121&lt;&gt;"",CONCATENATE(inicio_consulta,C121,mid_consulta,A121,B121,fin_consulta),IF(A121&lt;&gt;"",CONCATENATE("-- ",A121),""))</f>
         <v>INSERT INTO tserver_permission VALUES (86,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraInsert');</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B122" s="2" t="str">
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122" s="1" t="str">
         <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Update"),"")</f>
         <v>servicesXtraUpdate</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="1">
         <f t="shared" ref="C122:C123" si="13">C121+1</f>
         <v>87</v>
       </c>
-      <c r="E122" s="3" t="str">
+      <c r="E122" s="2" t="str">
         <f>IF(B122&lt;&gt;"",CONCATENATE(inicio_consulta,C122,mid_consulta,A122,B122,fin_consulta),IF(A122&lt;&gt;"",CONCATENATE("-- ",A122),""))</f>
         <v>INSERT INTO tserver_permission VALUES (87,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraUpdate');</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B123" s="2" t="str">
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" s="1" t="str">
         <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Delete"),"")</f>
         <v>servicesXtraDelete</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="1">
         <f t="shared" si="13"/>
         <v>88</v>
       </c>
-      <c r="E123" s="3" t="str">
+      <c r="E123" s="2" t="str">
         <f>IF(B123&lt;&gt;"",CONCATENATE(inicio_consulta,C123,mid_consulta,A123,B123,fin_consulta),IF(A123&lt;&gt;"",CONCATENATE("-- ",A123),""))</f>
         <v>INSERT INTO tserver_permission VALUES (88,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraDelete');</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="3" t="str">
+    <row r="124" spans="5:5">
+      <c r="E124" s="2" t="str">
         <f>IF(B124&lt;&gt;"",CONCATENATE(inicio_consulta,C124,mid_consulta,A124,B124,fin_consulta),IF(A124&lt;&gt;"",CONCATENATE("-- ",A124),""))</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E125" s="3" t="str">
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2" t="str">
         <f>IF(B125&lt;&gt;"",CONCATENATE(inicio_consulta,C125,mid_consulta,A125,B125,fin_consulta),IF(A125&lt;&gt;"",CONCATENATE("-- ",A125),""))</f>
         <v>-- user</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B126" s="2" t="str">
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126" s="1" t="str">
         <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Query"),"")</f>
         <v>userQuery</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="1">
         <f>C123+1</f>
         <v>89</v>
       </c>
-      <c r="E126" s="3" t="str">
+      <c r="E126" s="2" t="str">
         <f>IF(B126&lt;&gt;"",CONCATENATE(inicio_consulta,C126,mid_consulta,A126,B126,fin_consulta),IF(A126&lt;&gt;"",CONCATENATE("-- ",A126),""))</f>
         <v>INSERT INTO tserver_permission VALUES (89,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userQuery');</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B127" s="2" t="str">
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B127" s="1" t="str">
         <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Insert"),"")</f>
         <v>userInsert</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="1">
         <f>C126+1</f>
         <v>90</v>
       </c>
-      <c r="E127" s="3" t="str">
+      <c r="E127" s="2" t="str">
         <f>IF(B127&lt;&gt;"",CONCATENATE(inicio_consulta,C127,mid_consulta,A127,B127,fin_consulta),IF(A127&lt;&gt;"",CONCATENATE("-- ",A127),""))</f>
         <v>INSERT INTO tserver_permission VALUES (90,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userInsert');</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B128" s="2" t="str">
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" s="1" t="str">
         <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Update"),"")</f>
         <v>userUpdate</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="1">
         <f t="shared" ref="C128:C129" si="14">C127+1</f>
         <v>91</v>
       </c>
-      <c r="E128" s="3" t="str">
+      <c r="E128" s="2" t="str">
         <f>IF(B128&lt;&gt;"",CONCATENATE(inicio_consulta,C128,mid_consulta,A128,B128,fin_consulta),IF(A128&lt;&gt;"",CONCATENATE("-- ",A128),""))</f>
         <v>INSERT INTO tserver_permission VALUES (91,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userUpdate');</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B129" s="2" t="str">
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B129" s="1" t="str">
         <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Delete"),"")</f>
         <v>userDelete</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="1">
         <f t="shared" si="14"/>
         <v>92</v>
       </c>
-      <c r="E129" s="3" t="str">
+      <c r="E129" s="2" t="str">
         <f>IF(B129&lt;&gt;"",CONCATENATE(inicio_consulta,C129,mid_consulta,A129,B129,fin_consulta),IF(A129&lt;&gt;"",CONCATENATE("-- ",A129),""))</f>
         <v>INSERT INTO tserver_permission VALUES (92,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userDelete');</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="3" t="str">
+    <row r="130" spans="5:5">
+      <c r="E130" s="2" t="str">
         <f>IF(B130&lt;&gt;"",CONCATENATE(inicio_consulta,C130,mid_consulta,A130,B130,fin_consulta),IF(A130&lt;&gt;"",CONCATENATE("-- ",A130),""))</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E131" s="3" t="str">
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E131" s="2" t="str">
         <f>IF(B131&lt;&gt;"",CONCATENATE(inicio_consulta,C131,mid_consulta,A131,B131,fin_consulta),IF(A131&lt;&gt;"",CONCATENATE("-- ",A131),""))</f>
         <v>-- department</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132" s="2" t="str">
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B132" s="1" t="str">
         <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Query"),"")</f>
         <v>departmentQuery</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="1">
         <f>C129+1</f>
         <v>93</v>
       </c>
-      <c r="E132" s="3" t="str">
+      <c r="E132" s="2" t="str">
         <f>IF(B132&lt;&gt;"",CONCATENATE(inicio_consulta,C132,mid_consulta,A132,B132,fin_consulta),IF(A132&lt;&gt;"",CONCATENATE("-- ",A132),""))</f>
         <v>INSERT INTO tserver_permission VALUES (93,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentQuery');</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="str">
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="str">
         <f>A132</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
       </c>
-      <c r="B133" s="2" t="str">
+      <c r="B133" s="1" t="str">
         <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Insert"),"")</f>
         <v>departmentInsert</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="1">
         <f>C132+1</f>
         <v>94</v>
       </c>
-      <c r="E133" s="3" t="str">
+      <c r="E133" s="2" t="str">
         <f>IF(B133&lt;&gt;"",CONCATENATE(inicio_consulta,C133,mid_consulta,A133,B133,fin_consulta),IF(A133&lt;&gt;"",CONCATENATE("-- ",A133),""))</f>
         <v>INSERT INTO tserver_permission VALUES (94,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentInsert');</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="str">
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="str">
         <f t="shared" ref="A134:A135" si="15">A133</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
       </c>
-      <c r="B134" s="2" t="str">
+      <c r="B134" s="1" t="str">
         <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Update"),"")</f>
         <v>departmentUpdate</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="1">
         <f t="shared" ref="C134:C135" si="16">C133+1</f>
         <v>95</v>
       </c>
-      <c r="E134" s="3" t="str">
+      <c r="E134" s="2" t="str">
         <f>IF(B134&lt;&gt;"",CONCATENATE(inicio_consulta,C134,mid_consulta,A134,B134,fin_consulta),IF(A134&lt;&gt;"",CONCATENATE("-- ",A134),""))</f>
         <v>INSERT INTO tserver_permission VALUES (95,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentUpdate');</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="str">
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="str">
         <f t="shared" si="15"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
       </c>
-      <c r="B135" s="2" t="str">
+      <c r="B135" s="1" t="str">
         <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Delete"),"")</f>
         <v>departmentDelete</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="1">
         <f t="shared" si="16"/>
         <v>96</v>
       </c>
-      <c r="E135" s="3" t="str">
+      <c r="E135" s="2" t="str">
         <f>IF(B135&lt;&gt;"",CONCATENATE(inicio_consulta,C135,mid_consulta,A135,B135,fin_consulta),IF(A135&lt;&gt;"",CONCATENATE("-- ",A135),""))</f>
         <v>INSERT INTO tserver_permission VALUES (96,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentDelete');</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="3" t="str">
+    <row r="136" spans="5:5">
+      <c r="E136" s="2" t="str">
         <f>IF(B136&lt;&gt;"",CONCATENATE(inicio_consulta,C136,mid_consulta,A136,B136,fin_consulta),IF(A136&lt;&gt;"",CONCATENATE("-- ",A136),""))</f>
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E137" s="3" t="str">
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E137" s="2" t="str">
         <f>IF(B137&lt;&gt;"",CONCATENATE(inicio_consulta,C137,mid_consulta,A137,B137,fin_consulta),IF(A137&lt;&gt;"",CONCATENATE("-- ",A137),""))</f>
         <v>-- employee</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B138" s="2" t="str">
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138" s="1" t="str">
         <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Query"),"")</f>
         <v>employeeQuery</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="1">
         <f>C135+1</f>
         <v>97</v>
       </c>
-      <c r="E138" s="3" t="str">
+      <c r="E138" s="2" t="str">
         <f>IF(B138&lt;&gt;"",CONCATENATE(inicio_consulta,C138,mid_consulta,A138,B138,fin_consulta),IF(A138&lt;&gt;"",CONCATENATE("-- ",A138),""))</f>
         <v>INSERT INTO tserver_permission VALUES (97,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeQuery');</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="str">
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="str">
         <f>A138</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
       </c>
-      <c r="B139" s="2" t="str">
+      <c r="B139" s="1" t="str">
         <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Insert"),"")</f>
         <v>employeeInsert</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="1">
         <f>C138+1</f>
         <v>98</v>
       </c>
-      <c r="E139" s="3" t="str">
+      <c r="E139" s="2" t="str">
         <f>IF(B139&lt;&gt;"",CONCATENATE(inicio_consulta,C139,mid_consulta,A139,B139,fin_consulta),IF(A139&lt;&gt;"",CONCATENATE("-- ",A139),""))</f>
         <v>INSERT INTO tserver_permission VALUES (98,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeInsert');</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="str">
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="str">
         <f t="shared" ref="A140:A141" si="17">A139</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
       </c>
-      <c r="B140" s="2" t="str">
+      <c r="B140" s="1" t="str">
         <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Update"),"")</f>
         <v>employeeUpdate</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="1">
         <f t="shared" ref="C140:C141" si="18">C139+1</f>
         <v>99</v>
       </c>
-      <c r="E140" s="3" t="str">
+      <c r="E140" s="2" t="str">
         <f>IF(B140&lt;&gt;"",CONCATENATE(inicio_consulta,C140,mid_consulta,A140,B140,fin_consulta),IF(A140&lt;&gt;"",CONCATENATE("-- ",A140),""))</f>
         <v>INSERT INTO tserver_permission VALUES (99,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeUpdate');</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="str">
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="str">
         <f t="shared" si="17"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
       </c>
-      <c r="B141" s="2" t="str">
+      <c r="B141" s="1" t="str">
         <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Delete"),"")</f>
         <v>employeeDelete</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="1">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="E141" s="3" t="str">
+      <c r="E141" s="2" t="str">
         <f>IF(B141&lt;&gt;"",CONCATENATE(inicio_consulta,C141,mid_consulta,A141,B141,fin_consulta),IF(A141&lt;&gt;"",CONCATENATE("-- ",A141),""))</f>
         <v>INSERT INTO tserver_permission VALUES (100,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeDelete');</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E143" s="3" t="str">
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E143" s="2" t="str">
         <f>IF(B143&lt;&gt;"",CONCATENATE(inicio_consulta,C143,mid_consulta,A143,B143,fin_consulta),IF(A143&lt;&gt;"",CONCATENATE("-- ",A143),""))</f>
         <v>-- bill</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B144" s="2" t="str">
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B144" s="1" t="str">
         <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Query"),"")</f>
         <v>billQuery</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="1">
         <f>C141+1</f>
         <v>101</v>
       </c>
-      <c r="E144" s="3" t="str">
+      <c r="E144" s="2" t="str">
         <f>IF(B144&lt;&gt;"",CONCATENATE(inicio_consulta,C144,mid_consulta,A144,B144,fin_consulta),IF(A144&lt;&gt;"",CONCATENATE("-- ",A144),""))</f>
         <v>INSERT INTO tserver_permission VALUES (101,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billQuery');</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="str">
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="str">
         <f>A144</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
-      <c r="B145" s="2" t="str">
+      <c r="B145" s="1" t="str">
         <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Insert"),"")</f>
         <v>billInsert</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="1">
         <f>C144+1</f>
         <v>102</v>
       </c>
-      <c r="E145" s="3" t="str">
+      <c r="E145" s="2" t="str">
         <f>IF(B145&lt;&gt;"",CONCATENATE(inicio_consulta,C145,mid_consulta,A145,B145,fin_consulta),IF(A145&lt;&gt;"",CONCATENATE("-- ",A145),""))</f>
         <v>INSERT INTO tserver_permission VALUES (102,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billInsert');</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="str">
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="str">
         <f t="shared" ref="A146:A147" si="19">A145</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
-      <c r="B146" s="2" t="str">
+      <c r="B146" s="1" t="str">
         <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Update"),"")</f>
         <v>billUpdate</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="1">
         <f t="shared" ref="C146:C147" si="20">C145+1</f>
         <v>103</v>
       </c>
-      <c r="E146" s="3" t="str">
+      <c r="E146" s="2" t="str">
         <f>IF(B146&lt;&gt;"",CONCATENATE(inicio_consulta,C146,mid_consulta,A146,B146,fin_consulta),IF(A146&lt;&gt;"",CONCATENATE("-- ",A146),""))</f>
         <v>INSERT INTO tserver_permission VALUES (103,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billUpdate');</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="str">
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="str">
         <f t="shared" si="19"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
-      <c r="B147" s="2" t="str">
+      <c r="B147" s="1" t="str">
         <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Delete"),"")</f>
         <v>billDelete</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="1">
         <f t="shared" si="20"/>
         <v>104</v>
       </c>
-      <c r="E147" s="3" t="str">
+      <c r="E147" s="2" t="str">
         <f>IF(B147&lt;&gt;"",CONCATENATE(inicio_consulta,C147,mid_consulta,A147,B147,fin_consulta),IF(A147&lt;&gt;"",CONCATENATE("-- ",A147),""))</f>
         <v>INSERT INTO tserver_permission VALUES (104,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billDelete');</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="3" t="str">
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E149" s="2" t="str">
         <f>IF(B149&lt;&gt;"",CONCATENATE(inicio_consulta,C149,mid_consulta,A149,B149,fin_consulta),IF(A149&lt;&gt;"",CONCATENATE("-- ",A149),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="3" t="str">
+        <v>-- userRole</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <f>IF(A149&lt;&gt;"",CONCATENATE(A149,"Query"),"")</f>
+        <v>userRoleQuery</v>
+      </c>
+      <c r="C150" s="1">
+        <f>C147+1</f>
+        <v>105</v>
+      </c>
+      <c r="E150" s="2" t="str">
         <f>IF(B150&lt;&gt;"",CONCATENATE(inicio_consulta,C150,mid_consulta,A150,B150,fin_consulta),IF(A150&lt;&gt;"",CONCATENATE("-- ",A150),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="3" t="str">
+        <v>INSERT INTO tserver_permission VALUES (105,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/userRoleQuery');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1" t="str">
+        <f t="shared" ref="A151:A153" si="21">A150</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B151" s="1" t="str">
+        <f>IF(A149&lt;&gt;"",CONCATENATE(A149,"Insert"),"")</f>
+        <v>userRoleInsert</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" ref="C151:C153" si="22">C150+1</f>
+        <v>106</v>
+      </c>
+      <c r="E151" s="2" t="str">
         <f>IF(B151&lt;&gt;"",CONCATENATE(inicio_consulta,C151,mid_consulta,A151,B151,fin_consulta),IF(A151&lt;&gt;"",CONCATENATE("-- ",A151),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="3" t="str">
+        <v>INSERT INTO tserver_permission VALUES (106,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/userRoleInsert');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="22"/>
+        <v>107</v>
+      </c>
+      <c r="E152" s="2" t="str">
         <f>IF(B152&lt;&gt;"",CONCATENATE(inicio_consulta,C152,mid_consulta,A152,B152,fin_consulta),IF(A152&lt;&gt;"",CONCATENATE("-- ",A152),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="3" t="str">
-        <f>IF(B153&lt;&gt;"",CONCATENATE(inicio_consulta,C153,mid_consulta,A153,B153,fin_consulta),IF(A153&lt;&gt;"",CONCATENATE("-- ",A153),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="3" t="str">
+        <v>INSERT INTO tserver_permission VALUES (107,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/userRoleDelete');</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="2" t="str">
         <f>IF(B154&lt;&gt;"",CONCATENATE(inicio_consulta,C154,mid_consulta,A154,B154,fin_consulta),IF(A154&lt;&gt;"",CONCATENATE("-- ",A154),""))</f>
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="3" t="str">
+    <row r="155" spans="5:5">
+      <c r="E155" s="2" t="str">
         <f>IF(B155&lt;&gt;"",CONCATENATE(inicio_consulta,C155,mid_consulta,A155,B155,fin_consulta),IF(A155&lt;&gt;"",CONCATENATE("-- ",A155),""))</f>
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="3" t="str">
+    <row r="156" spans="5:5">
+      <c r="E156" s="2" t="str">
         <f>IF(B156&lt;&gt;"",CONCATENATE(inicio_consulta,C156,mid_consulta,A156,B156,fin_consulta),IF(A156&lt;&gt;"",CONCATENATE("-- ",A156),""))</f>
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="3" t="str">
+    <row r="157" spans="5:5">
+      <c r="E157" s="2" t="str">
         <f>IF(B157&lt;&gt;"",CONCATENATE(inicio_consulta,C157,mid_consulta,A157,B157,fin_consulta),IF(A157&lt;&gt;"",CONCATENATE("-- ",A157),""))</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="3" t="str">
+    <row r="158" spans="5:5">
+      <c r="E158" s="2" t="str">
         <f>IF(B158&lt;&gt;"",CONCATENATE(inicio_consulta,C158,mid_consulta,A158,B158,fin_consulta),IF(A158&lt;&gt;"",CONCATENATE("-- ",A158),""))</f>
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="3" t="str">
+    <row r="159" spans="5:5">
+      <c r="E159" s="2" t="str">
         <f>IF(B159&lt;&gt;"",CONCATENATE(inicio_consulta,C159,mid_consulta,A159,B159,fin_consulta),IF(A159&lt;&gt;"",CONCATENATE("-- ",A159),""))</f>
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E160" s="3" t="str">
+    <row r="160" spans="5:5">
+      <c r="E160" s="2" t="str">
         <f>IF(B160&lt;&gt;"",CONCATENATE(inicio_consulta,C160,mid_consulta,A160,B160,fin_consulta),IF(A160&lt;&gt;"",CONCATENATE("-- ",A160),""))</f>
         <v/>
       </c>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="3" t="str">
+    <row r="161" spans="5:5">
+      <c r="E161" s="2" t="str">
         <f>IF(B161&lt;&gt;"",CONCATENATE(inicio_consulta,C161,mid_consulta,A161,B161,fin_consulta),IF(A161&lt;&gt;"",CONCATENATE("-- ",A161),""))</f>
         <v/>
       </c>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="3" t="str">
+    <row r="162" spans="5:5">
+      <c r="E162" s="2" t="str">
         <f>IF(B162&lt;&gt;"",CONCATENATE(inicio_consulta,C162,mid_consulta,A162,B162,fin_consulta),IF(A162&lt;&gt;"",CONCATENATE("-- ",A162),""))</f>
         <v/>
       </c>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="3" t="str">
+    <row r="163" spans="5:5">
+      <c r="E163" s="2" t="str">
         <f>IF(B163&lt;&gt;"",CONCATENATE(inicio_consulta,C163,mid_consulta,A163,B163,fin_consulta),IF(A163&lt;&gt;"",CONCATENATE("-- ",A163),""))</f>
         <v/>
       </c>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="3" t="str">
+    <row r="164" spans="5:5">
+      <c r="E164" s="2" t="str">
         <f>IF(B164&lt;&gt;"",CONCATENATE(inicio_consulta,C164,mid_consulta,A164,B164,fin_consulta),IF(A164&lt;&gt;"",CONCATENATE("-- ",A164),""))</f>
         <v/>
       </c>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="3" t="str">
+    <row r="165" spans="5:5">
+      <c r="E165" s="2" t="str">
         <f>IF(B165&lt;&gt;"",CONCATENATE(inicio_consulta,C165,mid_consulta,A165,B165,fin_consulta),IF(A165&lt;&gt;"",CONCATENATE("-- ",A165),""))</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="3" t="str">
+    <row r="166" spans="5:5">
+      <c r="E166" s="2" t="str">
         <f>IF(B166&lt;&gt;"",CONCATENATE(inicio_consulta,C166,mid_consulta,A166,B166,fin_consulta),IF(A166&lt;&gt;"",CONCATENATE("-- ",A166),""))</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="3" t="str">
+    <row r="167" spans="5:5">
+      <c r="E167" s="2" t="str">
         <f>IF(B167&lt;&gt;"",CONCATENATE(inicio_consulta,C167,mid_consulta,A167,B167,fin_consulta),IF(A167&lt;&gt;"",CONCATENATE("-- ",A167),""))</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="3" t="str">
+    <row r="168" spans="5:5">
+      <c r="E168" s="2" t="str">
         <f>IF(B168&lt;&gt;"",CONCATENATE(inicio_consulta,C168,mid_consulta,A168,B168,fin_consulta),IF(A168&lt;&gt;"",CONCATENATE("-- ",A168),""))</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="3" t="str">
+    <row r="169" spans="5:5">
+      <c r="E169" s="2" t="str">
         <f>IF(B169&lt;&gt;"",CONCATENATE(inicio_consulta,C169,mid_consulta,A169,B169,fin_consulta),IF(A169&lt;&gt;"",CONCATENATE("-- ",A169),""))</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="3" t="str">
+    <row r="170" spans="5:5">
+      <c r="E170" s="2" t="str">
         <f>IF(B170&lt;&gt;"",CONCATENATE(inicio_consulta,C170,mid_consulta,A170,B170,fin_consulta),IF(A170&lt;&gt;"",CONCATENATE("-- ",A170),""))</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="3" t="str">
+    <row r="171" spans="5:5">
+      <c r="E171" s="2" t="str">
         <f>IF(B171&lt;&gt;"",CONCATENATE(inicio_consulta,C171,mid_consulta,A171,B171,fin_consulta),IF(A171&lt;&gt;"",CONCATENATE("-- ",A171),""))</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="3" t="str">
+    <row r="172" spans="5:5">
+      <c r="E172" s="2" t="str">
         <f>IF(B172&lt;&gt;"",CONCATENATE(inicio_consulta,C172,mid_consulta,A172,B172,fin_consulta),IF(A172&lt;&gt;"",CONCATENATE("-- ",A172),""))</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" s="3" t="str">
+    <row r="173" spans="5:5">
+      <c r="E173" s="2" t="str">
         <f>IF(B173&lt;&gt;"",CONCATENATE(inicio_consulta,C173,mid_consulta,A173,B173,fin_consulta),IF(A173&lt;&gt;"",CONCATENATE("-- ",A173),""))</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" s="3" t="str">
+    <row r="174" spans="5:5">
+      <c r="E174" s="2" t="str">
         <f>IF(B174&lt;&gt;"",CONCATENATE(inicio_consulta,C174,mid_consulta,A174,B174,fin_consulta),IF(A174&lt;&gt;"",CONCATENATE("-- ",A174),""))</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" s="3" t="str">
+    <row r="175" spans="5:5">
+      <c r="E175" s="2" t="str">
         <f>IF(B175&lt;&gt;"",CONCATENATE(inicio_consulta,C175,mid_consulta,A175,B175,fin_consulta),IF(A175&lt;&gt;"",CONCATENATE("-- ",A175),""))</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" s="3" t="str">
+    <row r="176" spans="5:5">
+      <c r="E176" s="2" t="str">
         <f>IF(B176&lt;&gt;"",CONCATENATE(inicio_consulta,C176,mid_consulta,A176,B176,fin_consulta),IF(A176&lt;&gt;"",CONCATENATE("-- ",A176),""))</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" s="3" t="str">
+    <row r="177" spans="5:5">
+      <c r="E177" s="2" t="str">
         <f>IF(B177&lt;&gt;"",CONCATENATE(inicio_consulta,C177,mid_consulta,A177,B177,fin_consulta),IF(A177&lt;&gt;"",CONCATENATE("-- ",A177),""))</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" s="3" t="str">
+    <row r="178" spans="5:5">
+      <c r="E178" s="2" t="str">
         <f>IF(B178&lt;&gt;"",CONCATENATE(inicio_consulta,C178,mid_consulta,A178,B178,fin_consulta),IF(A178&lt;&gt;"",CONCATENATE("-- ",A178),""))</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" s="3" t="str">
+    <row r="179" spans="5:5">
+      <c r="E179" s="2" t="str">
         <f>IF(B179&lt;&gt;"",CONCATENATE(inicio_consulta,C179,mid_consulta,A179,B179,fin_consulta),IF(A179&lt;&gt;"",CONCATENATE("-- ",A179),""))</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="3" t="str">
+    <row r="180" spans="5:5">
+      <c r="E180" s="2" t="str">
         <f>IF(B180&lt;&gt;"",CONCATENATE(inicio_consulta,C180,mid_consulta,A180,B180,fin_consulta),IF(A180&lt;&gt;"",CONCATENATE("-- ",A180),""))</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="3" t="str">
+    <row r="181" spans="5:5">
+      <c r="E181" s="2" t="str">
         <f>IF(B181&lt;&gt;"",CONCATENATE(inicio_consulta,C181,mid_consulta,A181,B181,fin_consulta),IF(A181&lt;&gt;"",CONCATENATE("-- ",A181),""))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="3" t="str">
+    <row r="182" spans="5:5">
+      <c r="E182" s="2" t="str">
         <f>IF(B182&lt;&gt;"",CONCATENATE(inicio_consulta,C182,mid_consulta,A182,B182,fin_consulta),IF(A182&lt;&gt;"",CONCATENATE("-- ",A182),""))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="3" t="str">
+    <row r="183" spans="5:5">
+      <c r="E183" s="2" t="str">
         <f>IF(B183&lt;&gt;"",CONCATENATE(inicio_consulta,C183,mid_consulta,A183,B183,fin_consulta),IF(A183&lt;&gt;"",CONCATENATE("-- ",A183),""))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" s="3" t="str">
+    <row r="184" spans="5:5">
+      <c r="E184" s="2" t="str">
         <f>IF(B184&lt;&gt;"",CONCATENATE(inicio_consulta,C184,mid_consulta,A184,B184,fin_consulta),IF(A184&lt;&gt;"",CONCATENATE("-- ",A184),""))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="3" t="str">
+    <row r="185" spans="5:5">
+      <c r="E185" s="2" t="str">
         <f>IF(B185&lt;&gt;"",CONCATENATE(inicio_consulta,C185,mid_consulta,A185,B185,fin_consulta),IF(A185&lt;&gt;"",CONCATENATE("-- ",A185),""))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" s="3" t="str">
+    <row r="186" spans="5:5">
+      <c r="E186" s="2" t="str">
         <f>IF(B186&lt;&gt;"",CONCATENATE(inicio_consulta,C186,mid_consulta,A186,B186,fin_consulta),IF(A186&lt;&gt;"",CONCATENATE("-- ",A186),""))</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" s="3" t="str">
+    <row r="187" spans="5:5">
+      <c r="E187" s="2" t="str">
         <f>IF(B187&lt;&gt;"",CONCATENATE(inicio_consulta,C187,mid_consulta,A187,B187,fin_consulta),IF(A187&lt;&gt;"",CONCATENATE("-- ",A187),""))</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" s="3" t="str">
+    <row r="188" spans="5:5">
+      <c r="E188" s="2" t="str">
         <f>IF(B188&lt;&gt;"",CONCATENATE(inicio_consulta,C188,mid_consulta,A188,B188,fin_consulta),IF(A188&lt;&gt;"",CONCATENATE("-- ",A188),""))</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" s="3" t="str">
+    <row r="189" spans="5:5">
+      <c r="E189" s="2" t="str">
         <f>IF(B189&lt;&gt;"",CONCATENATE(inicio_consulta,C189,mid_consulta,A189,B189,fin_consulta),IF(A189&lt;&gt;"",CONCATENATE("-- ",A189),""))</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" s="3" t="str">
+    <row r="190" spans="5:5">
+      <c r="E190" s="2" t="str">
         <f>IF(B190&lt;&gt;"",CONCATENATE(inicio_consulta,C190,mid_consulta,A190,B190,fin_consulta),IF(A190&lt;&gt;"",CONCATENATE("-- ",A190),""))</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" s="3" t="str">
+    <row r="191" spans="5:5">
+      <c r="E191" s="2" t="str">
         <f>IF(B191&lt;&gt;"",CONCATENATE(inicio_consulta,C191,mid_consulta,A191,B191,fin_consulta),IF(A191&lt;&gt;"",CONCATENATE("-- ",A191),""))</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" s="3" t="str">
+    <row r="192" spans="5:5">
+      <c r="E192" s="2" t="str">
         <f>IF(B192&lt;&gt;"",CONCATENATE(inicio_consulta,C192,mid_consulta,A192,B192,fin_consulta),IF(A192&lt;&gt;"",CONCATENATE("-- ",A192),""))</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" s="3" t="str">
+    <row r="193" spans="5:5">
+      <c r="E193" s="2" t="str">
         <f>IF(B193&lt;&gt;"",CONCATENATE(inicio_consulta,C193,mid_consulta,A193,B193,fin_consulta),IF(A193&lt;&gt;"",CONCATENATE("-- ",A193),""))</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" s="3" t="str">
+    <row r="194" spans="5:5">
+      <c r="E194" s="2" t="str">
         <f>IF(B194&lt;&gt;"",CONCATENATE(inicio_consulta,C194,mid_consulta,A194,B194,fin_consulta),IF(A194&lt;&gt;"",CONCATENATE("-- ",A194),""))</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" s="3" t="str">
+    <row r="195" spans="5:5">
+      <c r="E195" s="2" t="str">
         <f>IF(B195&lt;&gt;"",CONCATENATE(inicio_consulta,C195,mid_consulta,A195,B195,fin_consulta),IF(A195&lt;&gt;"",CONCATENATE("-- ",A195),""))</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" s="3" t="str">
+    <row r="196" spans="5:5">
+      <c r="E196" s="2" t="str">
         <f>IF(B196&lt;&gt;"",CONCATENATE(inicio_consulta,C196,mid_consulta,A196,B196,fin_consulta),IF(A196&lt;&gt;"",CONCATENATE("-- ",A196),""))</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" s="3" t="str">
+    <row r="197" spans="5:5">
+      <c r="E197" s="2" t="str">
         <f>IF(B197&lt;&gt;"",CONCATENATE(inicio_consulta,C197,mid_consulta,A197,B197,fin_consulta),IF(A197&lt;&gt;"",CONCATENATE("-- ",A197),""))</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" s="3" t="str">
+    <row r="198" spans="5:5">
+      <c r="E198" s="2" t="str">
         <f>IF(B198&lt;&gt;"",CONCATENATE(inicio_consulta,C198,mid_consulta,A198,B198,fin_consulta),IF(A198&lt;&gt;"",CONCATENATE("-- ",A198),""))</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" s="3" t="str">
+    <row r="199" spans="5:5">
+      <c r="E199" s="2" t="str">
         <f>IF(B199&lt;&gt;"",CONCATENATE(inicio_consulta,C199,mid_consulta,A199,B199,fin_consulta),IF(A199&lt;&gt;"",CONCATENATE("-- ",A199),""))</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" s="3" t="str">
+    <row r="200" spans="5:5">
+      <c r="E200" s="2" t="str">
         <f>IF(B200&lt;&gt;"",CONCATENATE(inicio_consulta,C200,mid_consulta,A200,B200,fin_consulta),IF(A200&lt;&gt;"",CONCATENATE("-- ",A200),""))</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" s="3" t="str">
+    <row r="201" spans="5:5">
+      <c r="E201" s="2" t="str">
         <f>IF(B201&lt;&gt;"",CONCATENATE(inicio_consulta,C201,mid_consulta,A201,B201,fin_consulta),IF(A201&lt;&gt;"",CONCATENATE("-- ",A201),""))</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" s="3" t="str">
+    <row r="202" spans="5:5">
+      <c r="E202" s="2" t="str">
         <f>IF(B202&lt;&gt;"",CONCATENATE(inicio_consulta,C202,mid_consulta,A202,B202,fin_consulta),IF(A202&lt;&gt;"",CONCATENATE("-- ",A202),""))</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" s="3" t="str">
+    <row r="203" spans="5:5">
+      <c r="E203" s="2" t="str">
         <f>IF(B203&lt;&gt;"",CONCATENATE(inicio_consulta,C203,mid_consulta,A203,B203,fin_consulta),IF(A203&lt;&gt;"",CONCATENATE("-- ",A203),""))</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" s="3" t="str">
+    <row r="204" spans="5:5">
+      <c r="E204" s="2" t="str">
         <f>IF(B204&lt;&gt;"",CONCATENATE(inicio_consulta,C204,mid_consulta,A204,B204,fin_consulta),IF(A204&lt;&gt;"",CONCATENATE("-- ",A204),""))</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205" s="3" t="str">
+    <row r="205" spans="5:5">
+      <c r="E205" s="2" t="str">
         <f>IF(B205&lt;&gt;"",CONCATENATE(inicio_consulta,C205,mid_consulta,A205,B205,fin_consulta),IF(A205&lt;&gt;"",CONCATENATE("-- ",A205),""))</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206" s="3" t="str">
+    <row r="206" spans="5:5">
+      <c r="E206" s="2" t="str">
         <f>IF(B206&lt;&gt;"",CONCATENATE(inicio_consulta,C206,mid_consulta,A206,B206,fin_consulta),IF(A206&lt;&gt;"",CONCATENATE("-- ",A206),""))</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207" s="3" t="str">
+    <row r="207" spans="5:5">
+      <c r="E207" s="2" t="str">
         <f>IF(B207&lt;&gt;"",CONCATENATE(inicio_consulta,C207,mid_consulta,A207,B207,fin_consulta),IF(A207&lt;&gt;"",CONCATENATE("-- ",A207),""))</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" s="3" t="str">
+    <row r="208" spans="5:5">
+      <c r="E208" s="2" t="str">
         <f>IF(B208&lt;&gt;"",CONCATENATE(inicio_consulta,C208,mid_consulta,A208,B208,fin_consulta),IF(A208&lt;&gt;"",CONCATENATE("-- ",A208),""))</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" s="3" t="str">
+    <row r="209" spans="5:5">
+      <c r="E209" s="2" t="str">
         <f>IF(B209&lt;&gt;"",CONCATENATE(inicio_consulta,C209,mid_consulta,A209,B209,fin_consulta),IF(A209&lt;&gt;"",CONCATENATE("-- ",A209),""))</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" s="3" t="str">
+    <row r="210" spans="5:5">
+      <c r="E210" s="2" t="str">
         <f>IF(B210&lt;&gt;"",CONCATENATE(inicio_consulta,C210,mid_consulta,A210,B210,fin_consulta),IF(A210&lt;&gt;"",CONCATENATE("-- ",A210),""))</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211" s="3" t="str">
+    <row r="211" spans="5:5">
+      <c r="E211" s="2" t="str">
         <f>IF(B211&lt;&gt;"",CONCATENATE(inicio_consulta,C211,mid_consulta,A211,B211,fin_consulta),IF(A211&lt;&gt;"",CONCATENATE("-- ",A211),""))</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212" s="3" t="str">
+    <row r="212" spans="5:5">
+      <c r="E212" s="2" t="str">
         <f>IF(B212&lt;&gt;"",CONCATENATE(inicio_consulta,C212,mid_consulta,A212,B212,fin_consulta),IF(A212&lt;&gt;"",CONCATENATE("-- ",A212),""))</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213" s="3" t="str">
+    <row r="213" spans="5:5">
+      <c r="E213" s="2" t="str">
         <f>IF(B213&lt;&gt;"",CONCATENATE(inicio_consulta,C213,mid_consulta,A213,B213,fin_consulta),IF(A213&lt;&gt;"",CONCATENATE("-- ",A213),""))</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214" s="3" t="str">
+    <row r="214" spans="5:5">
+      <c r="E214" s="2" t="str">
         <f>IF(B214&lt;&gt;"",CONCATENATE(inicio_consulta,C214,mid_consulta,A214,B214,fin_consulta),IF(A214&lt;&gt;"",CONCATENATE("-- ",A214),""))</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215" s="3" t="str">
+    <row r="215" spans="5:5">
+      <c r="E215" s="2" t="str">
         <f>IF(B215&lt;&gt;"",CONCATENATE(inicio_consulta,C215,mid_consulta,A215,B215,fin_consulta),IF(A215&lt;&gt;"",CONCATENATE("-- ",A215),""))</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216" s="3" t="str">
+    <row r="216" spans="5:5">
+      <c r="E216" s="2" t="str">
         <f>IF(B216&lt;&gt;"",CONCATENATE(inicio_consulta,C216,mid_consulta,A216,B216,fin_consulta),IF(A216&lt;&gt;"",CONCATENATE("-- ",A216),""))</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" s="3" t="str">
+    <row r="217" spans="5:5">
+      <c r="E217" s="2" t="str">
         <f>IF(B217&lt;&gt;"",CONCATENATE(inicio_consulta,C217,mid_consulta,A217,B217,fin_consulta),IF(A217&lt;&gt;"",CONCATENATE("-- ",A217),""))</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" s="3" t="str">
+    <row r="218" spans="5:5">
+      <c r="E218" s="2" t="str">
         <f>IF(B218&lt;&gt;"",CONCATENATE(inicio_consulta,C218,mid_consulta,A218,B218,fin_consulta),IF(A218&lt;&gt;"",CONCATENATE("-- ",A218),""))</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" s="3" t="str">
+    <row r="219" spans="5:5">
+      <c r="E219" s="2" t="str">
         <f>IF(B219&lt;&gt;"",CONCATENATE(inicio_consulta,C219,mid_consulta,A219,B219,fin_consulta),IF(A219&lt;&gt;"",CONCATENATE("-- ",A219),""))</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" s="3" t="str">
+    <row r="220" spans="5:5">
+      <c r="E220" s="2" t="str">
         <f>IF(B220&lt;&gt;"",CONCATENATE(inicio_consulta,C220,mid_consulta,A220,B220,fin_consulta),IF(A220&lt;&gt;"",CONCATENATE("-- ",A220),""))</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221" s="3" t="str">
+    <row r="221" spans="5:5">
+      <c r="E221" s="2" t="str">
         <f>IF(B221&lt;&gt;"",CONCATENATE(inicio_consulta,C221,mid_consulta,A221,B221,fin_consulta),IF(A221&lt;&gt;"",CONCATENATE("-- ",A221),""))</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E222" s="3" t="str">
+    <row r="222" spans="5:5">
+      <c r="E222" s="2" t="str">
         <f>IF(B222&lt;&gt;"",CONCATENATE(inicio_consulta,C222,mid_consulta,A222,B222,fin_consulta),IF(A222&lt;&gt;"",CONCATENATE("-- ",A222),""))</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E223" s="3" t="str">
+    <row r="223" spans="5:5">
+      <c r="E223" s="2" t="str">
         <f>IF(B223&lt;&gt;"",CONCATENATE(inicio_consulta,C223,mid_consulta,A223,B223,fin_consulta),IF(A223&lt;&gt;"",CONCATENATE("-- ",A223),""))</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E224" s="3" t="str">
+    <row r="224" spans="5:5">
+      <c r="E224" s="2" t="str">
         <f>IF(B224&lt;&gt;"",CONCATENATE(inicio_consulta,C224,mid_consulta,A224,B224,fin_consulta),IF(A224&lt;&gt;"",CONCATENATE("-- ",A224),""))</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E225" s="3" t="str">
+    <row r="225" spans="5:5">
+      <c r="E225" s="2" t="str">
         <f>IF(B225&lt;&gt;"",CONCATENATE(inicio_consulta,C225,mid_consulta,A225,B225,fin_consulta),IF(A225&lt;&gt;"",CONCATENATE("-- ",A225),""))</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E226" s="3" t="str">
+    <row r="226" spans="5:5">
+      <c r="E226" s="2" t="str">
         <f>IF(B226&lt;&gt;"",CONCATENATE(inicio_consulta,C226,mid_consulta,A226,B226,fin_consulta),IF(A226&lt;&gt;"",CONCATENATE("-- ",A226),""))</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E227" s="3" t="str">
+    <row r="227" spans="5:5">
+      <c r="E227" s="2" t="str">
         <f>IF(B227&lt;&gt;"",CONCATENATE(inicio_consulta,C227,mid_consulta,A227,B227,fin_consulta),IF(A227&lt;&gt;"",CONCATENATE("-- ",A227),""))</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E228" s="3" t="str">
+    <row r="228" spans="5:5">
+      <c r="E228" s="2" t="str">
         <f>IF(B228&lt;&gt;"",CONCATENATE(inicio_consulta,C228,mid_consulta,A228,B228,fin_consulta),IF(A228&lt;&gt;"",CONCATENATE("-- ",A228),""))</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E229" s="3" t="str">
+    <row r="229" spans="5:5">
+      <c r="E229" s="2" t="str">
         <f>IF(B229&lt;&gt;"",CONCATENATE(inicio_consulta,C229,mid_consulta,A229,B229,fin_consulta),IF(A229&lt;&gt;"",CONCATENATE("-- ",A229),""))</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E230" s="3" t="str">
+    <row r="230" spans="5:5">
+      <c r="E230" s="2" t="str">
         <f>IF(B230&lt;&gt;"",CONCATENATE(inicio_consulta,C230,mid_consulta,A230,B230,fin_consulta),IF(A230&lt;&gt;"",CONCATENATE("-- ",A230),""))</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E231" s="3" t="str">
+    <row r="231" spans="5:5">
+      <c r="E231" s="2" t="str">
         <f>IF(B231&lt;&gt;"",CONCATENATE(inicio_consulta,C231,mid_consulta,A231,B231,fin_consulta),IF(A231&lt;&gt;"",CONCATENATE("-- ",A231),""))</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E232" s="3" t="str">
+    <row r="232" spans="5:5">
+      <c r="E232" s="2" t="str">
         <f>IF(B232&lt;&gt;"",CONCATENATE(inicio_consulta,C232,mid_consulta,A232,B232,fin_consulta),IF(A232&lt;&gt;"",CONCATENATE("-- ",A232),""))</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E233" s="3" t="str">
+    <row r="233" spans="5:5">
+      <c r="E233" s="2" t="str">
         <f>IF(B233&lt;&gt;"",CONCATENATE(inicio_consulta,C233,mid_consulta,A233,B233,fin_consulta),IF(A233&lt;&gt;"",CONCATENATE("-- ",A233),""))</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E234" s="3" t="str">
+    <row r="234" spans="5:5">
+      <c r="E234" s="2" t="str">
         <f>IF(B234&lt;&gt;"",CONCATENATE(inicio_consulta,C234,mid_consulta,A234,B234,fin_consulta),IF(A234&lt;&gt;"",CONCATENATE("-- ",A234),""))</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E235" s="3" t="str">
+    <row r="235" spans="5:5">
+      <c r="E235" s="2" t="str">
         <f>IF(B235&lt;&gt;"",CONCATENATE(inicio_consulta,C235,mid_consulta,A235,B235,fin_consulta),IF(A235&lt;&gt;"",CONCATENATE("-- ",A235),""))</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E236" s="3" t="str">
+    <row r="236" spans="5:5">
+      <c r="E236" s="2" t="str">
         <f>IF(B236&lt;&gt;"",CONCATENATE(inicio_consulta,C236,mid_consulta,A236,B236,fin_consulta),IF(A236&lt;&gt;"",CONCATENATE("-- ",A236),""))</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E237" s="3" t="str">
+    <row r="237" spans="5:5">
+      <c r="E237" s="2" t="str">
         <f>IF(B237&lt;&gt;"",CONCATENATE(inicio_consulta,C237,mid_consulta,A237,B237,fin_consulta),IF(A237&lt;&gt;"",CONCATENATE("-- ",A237),""))</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E238" s="3" t="str">
+    <row r="238" spans="5:5">
+      <c r="E238" s="2" t="str">
         <f>IF(B238&lt;&gt;"",CONCATENATE(inicio_consulta,C238,mid_consulta,A238,B238,fin_consulta),IF(A238&lt;&gt;"",CONCATENATE("-- ",A238),""))</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E239" s="3" t="str">
+    <row r="239" spans="5:5">
+      <c r="E239" s="2" t="str">
         <f>IF(B239&lt;&gt;"",CONCATENATE(inicio_consulta,C239,mid_consulta,A239,B239,fin_consulta),IF(A239&lt;&gt;"",CONCATENATE("-- ",A239),""))</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E240" s="3" t="str">
+    <row r="240" spans="5:5">
+      <c r="E240" s="2" t="str">
         <f>IF(B240&lt;&gt;"",CONCATENATE(inicio_consulta,C240,mid_consulta,A240,B240,fin_consulta),IF(A240&lt;&gt;"",CONCATENATE("-- ",A240),""))</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E241" s="3" t="str">
+    <row r="241" spans="5:5">
+      <c r="E241" s="2" t="str">
         <f>IF(B241&lt;&gt;"",CONCATENATE(inicio_consulta,C241,mid_consulta,A241,B241,fin_consulta),IF(A241&lt;&gt;"",CONCATENATE("-- ",A241),""))</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E242" s="3" t="str">
+    <row r="242" spans="5:5">
+      <c r="E242" s="2" t="str">
         <f>IF(B242&lt;&gt;"",CONCATENATE(inicio_consulta,C242,mid_consulta,A242,B242,fin_consulta),IF(A242&lt;&gt;"",CONCATENATE("-- ",A242),""))</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E243" s="3" t="str">
+    <row r="243" spans="5:5">
+      <c r="E243" s="2" t="str">
         <f>IF(B243&lt;&gt;"",CONCATENATE(inicio_consulta,C243,mid_consulta,A243,B243,fin_consulta),IF(A243&lt;&gt;"",CONCATENATE("-- ",A243),""))</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E244" s="3" t="str">
+    <row r="244" spans="5:5">
+      <c r="E244" s="2" t="str">
         <f>IF(B244&lt;&gt;"",CONCATENATE(inicio_consulta,C244,mid_consulta,A244,B244,fin_consulta),IF(A244&lt;&gt;"",CONCATENATE("-- ",A244),""))</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E245" s="3" t="str">
+    <row r="245" spans="5:5">
+      <c r="E245" s="2" t="str">
         <f>IF(B245&lt;&gt;"",CONCATENATE(inicio_consulta,C245,mid_consulta,A245,B245,fin_consulta),IF(A245&lt;&gt;"",CONCATENATE("-- ",A245),""))</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E246" s="3" t="str">
+    <row r="246" spans="5:5">
+      <c r="E246" s="2" t="str">
         <f>IF(B246&lt;&gt;"",CONCATENATE(inicio_consulta,C246,mid_consulta,A246,B246,fin_consulta),IF(A246&lt;&gt;"",CONCATENATE("-- ",A246),""))</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E247" s="3" t="str">
+    <row r="247" spans="5:5">
+      <c r="E247" s="2" t="str">
         <f>IF(B247&lt;&gt;"",CONCATENATE(inicio_consulta,C247,mid_consulta,A247,B247,fin_consulta),IF(A247&lt;&gt;"",CONCATENATE("-- ",A247),""))</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E248" s="3" t="str">
+    <row r="248" spans="5:5">
+      <c r="E248" s="2" t="str">
         <f>IF(B248&lt;&gt;"",CONCATENATE(inicio_consulta,C248,mid_consulta,A248,B248,fin_consulta),IF(A248&lt;&gt;"",CONCATENATE("-- ",A248),""))</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E249" s="3" t="str">
+    <row r="249" spans="5:5">
+      <c r="E249" s="2" t="str">
         <f>IF(B249&lt;&gt;"",CONCATENATE(inicio_consulta,C249,mid_consulta,A249,B249,fin_consulta),IF(A249&lt;&gt;"",CONCATENATE("-- ",A249),""))</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E250" s="3" t="str">
+    <row r="250" spans="5:5">
+      <c r="E250" s="2" t="str">
         <f>IF(B250&lt;&gt;"",CONCATENATE(inicio_consulta,C250,mid_consulta,A250,B250,fin_consulta),IF(A250&lt;&gt;"",CONCATENATE("-- ",A250),""))</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E251" s="3" t="str">
+    <row r="251" spans="5:5">
+      <c r="E251" s="2" t="str">
         <f>IF(B251&lt;&gt;"",CONCATENATE(inicio_consulta,C251,mid_consulta,A251,B251,fin_consulta),IF(A251&lt;&gt;"",CONCATENATE("-- ",A251),""))</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E252" s="3" t="str">
+    <row r="252" spans="5:5">
+      <c r="E252" s="2" t="str">
         <f>IF(B252&lt;&gt;"",CONCATENATE(inicio_consulta,C252,mid_consulta,A252,B252,fin_consulta),IF(A252&lt;&gt;"",CONCATENATE("-- ",A252),""))</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E253" s="3" t="str">
+    <row r="253" spans="5:5">
+      <c r="E253" s="2" t="str">
         <f>IF(B253&lt;&gt;"",CONCATENATE(inicio_consulta,C253,mid_consulta,A253,B253,fin_consulta),IF(A253&lt;&gt;"",CONCATENATE("-- ",A253),""))</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E254" s="3" t="str">
+    <row r="254" spans="5:5">
+      <c r="E254" s="2" t="str">
         <f>IF(B254&lt;&gt;"",CONCATENATE(inicio_consulta,C254,mid_consulta,A254,B254,fin_consulta),IF(A254&lt;&gt;"",CONCATENATE("-- ",A254),""))</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E255" s="3" t="str">
+    <row r="255" spans="5:5">
+      <c r="E255" s="2" t="str">
         <f>IF(B255&lt;&gt;"",CONCATENATE(inicio_consulta,C255,mid_consulta,A255,B255,fin_consulta),IF(A255&lt;&gt;"",CONCATENATE("-- ",A255),""))</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E256" s="3" t="str">
+    <row r="256" spans="5:5">
+      <c r="E256" s="2" t="str">
         <f>IF(B256&lt;&gt;"",CONCATENATE(inicio_consulta,C256,mid_consulta,A256,B256,fin_consulta),IF(A256&lt;&gt;"",CONCATENATE("-- ",A256),""))</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E257" s="3" t="str">
+    <row r="257" spans="5:5">
+      <c r="E257" s="2" t="str">
         <f>IF(B257&lt;&gt;"",CONCATENATE(inicio_consulta,C257,mid_consulta,A257,B257,fin_consulta),IF(A257&lt;&gt;"",CONCATENATE("-- ",A257),""))</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E258" s="3" t="str">
+    <row r="258" spans="5:5">
+      <c r="E258" s="2" t="str">
         <f>IF(B258&lt;&gt;"",CONCATENATE(inicio_consulta,C258,mid_consulta,A258,B258,fin_consulta),IF(A258&lt;&gt;"",CONCATENATE("-- ",A258),""))</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E259" s="3" t="str">
+    <row r="259" spans="5:5">
+      <c r="E259" s="2" t="str">
         <f>IF(B259&lt;&gt;"",CONCATENATE(inicio_consulta,C259,mid_consulta,A259,B259,fin_consulta),IF(A259&lt;&gt;"",CONCATENATE("-- ",A259),""))</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E260" s="3" t="str">
+    <row r="260" spans="5:5">
+      <c r="E260" s="2" t="str">
         <f>IF(B260&lt;&gt;"",CONCATENATE(inicio_consulta,C260,mid_consulta,A260,B260,fin_consulta),IF(A260&lt;&gt;"",CONCATENATE("-- ",A260),""))</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E261" s="3" t="str">
+    <row r="261" spans="5:5">
+      <c r="E261" s="2" t="str">
         <f>IF(B261&lt;&gt;"",CONCATENATE(inicio_consulta,C261,mid_consulta,A261,B261,fin_consulta),IF(A261&lt;&gt;"",CONCATENATE("-- ",A261),""))</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E262" s="3" t="str">
+    <row r="262" spans="5:5">
+      <c r="E262" s="2" t="str">
         <f>IF(B262&lt;&gt;"",CONCATENATE(inicio_consulta,C262,mid_consulta,A262,B262,fin_consulta),IF(A262&lt;&gt;"",CONCATENATE("-- ",A262),""))</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E263" s="3" t="str">
+    <row r="263" spans="5:5">
+      <c r="E263" s="2" t="str">
         <f>IF(B263&lt;&gt;"",CONCATENATE(inicio_consulta,C263,mid_consulta,A263,B263,fin_consulta),IF(A263&lt;&gt;"",CONCATENATE("-- ",A263),""))</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E264" s="3" t="str">
+    <row r="264" spans="5:5">
+      <c r="E264" s="2" t="str">
         <f>IF(B264&lt;&gt;"",CONCATENATE(inicio_consulta,C264,mid_consulta,A264,B264,fin_consulta),IF(A264&lt;&gt;"",CONCATENATE("-- ",A264),""))</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E265" s="3" t="str">
+    <row r="265" spans="5:5">
+      <c r="E265" s="2" t="str">
         <f>IF(B265&lt;&gt;"",CONCATENATE(inicio_consulta,C265,mid_consulta,A265,B265,fin_consulta),IF(A265&lt;&gt;"",CONCATENATE("-- ",A265),""))</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E266" s="3" t="str">
+    <row r="266" spans="5:5">
+      <c r="E266" s="2" t="str">
         <f>IF(B266&lt;&gt;"",CONCATENATE(inicio_consulta,C266,mid_consulta,A266,B266,fin_consulta),IF(A266&lt;&gt;"",CONCATENATE("-- ",A266),""))</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E267" s="3" t="str">
-        <f>IF(B267&lt;&gt;"",CONCATENATE(inicio_consulta,C267,mid_consulta,A267,B267,fin_consulta),IF(A267&lt;&gt;"",CONCATENATE("-- ",A267),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E268" s="3" t="str">
-        <f t="shared" ref="E234:E269" si="21">IF(B268&lt;&gt;"",CONCATENATE(inicio_consulta,C268,mid_consulta,A268,B268,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E269" s="3" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E270" s="3" t="str">
+    <row r="267" spans="5:5">
+      <c r="E267" s="2" t="str">
+        <f t="shared" ref="E233:E268" si="23">IF(B267&lt;&gt;"",CONCATENATE(inicio_consulta,C267,mid_consulta,A267,B267,fin_consulta),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="5:5">
+      <c r="E268" s="2" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="5:5">
+      <c r="E269" s="2" t="str">
+        <f>IF(B269&lt;&gt;"",CONCATENATE(inicio_consulta,A269,B269,fin_consulta),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="5:5">
+      <c r="E270" s="2" t="str">
         <f>IF(B270&lt;&gt;"",CONCATENATE(inicio_consulta,A270,B270,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E271" s="3" t="str">
+    <row r="271" spans="5:5">
+      <c r="E271" s="2" t="str">
         <f>IF(B271&lt;&gt;"",CONCATENATE(inicio_consulta,A271,B271,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E272" s="3" t="str">
+    <row r="272" spans="5:5">
+      <c r="E272" s="2" t="str">
         <f>IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,A272,B272,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E273" s="3" t="str">
-        <f>IF(B273&lt;&gt;"",CONCATENATE(inicio_consulta,A273,B273,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7:E110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2">
         <v>4</v>
       </c>
@@ -3453,981 +4100,984 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <f>CONCATENATE($A$4,$B$7,",",C7,");")</f>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,1);</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:5">
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <f t="shared" ref="E8:E71" si="0">CONCATENATE($A$4,$B$7,",",C8,");")</f>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,2);</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:5">
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,3);</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:5">
       <c r="C10">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,4);</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:5">
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,5);</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:5">
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,6);</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:5">
       <c r="C13">
         <v>7</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,7);</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5">
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,8);</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:5">
       <c r="C15">
         <v>9</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,9);</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:5">
       <c r="C16">
         <v>10</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,10);</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="C17">
         <v>11</v>
       </c>
-      <c r="E17" s="2" t="str">
+      <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,11);</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18">
         <v>12</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,12);</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19">
         <v>13</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,13);</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5">
       <c r="C20">
         <v>14</v>
       </c>
-      <c r="E20" s="2" t="str">
+      <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5">
       <c r="C21">
         <v>15</v>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,15);</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5">
       <c r="C22">
         <v>16</v>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,16);</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5">
       <c r="C23">
         <v>17</v>
       </c>
-      <c r="E23" s="2" t="str">
+      <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,17);</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5">
       <c r="C24">
         <v>18</v>
       </c>
-      <c r="E24" s="2" t="str">
+      <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,18);</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5">
       <c r="C25">
         <v>19</v>
       </c>
-      <c r="E25" s="2" t="str">
+      <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,19);</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5">
       <c r="C26">
         <v>20</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,20);</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5">
       <c r="C27">
         <v>21</v>
       </c>
-      <c r="E27" s="2" t="str">
+      <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,21);</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5">
       <c r="C28">
         <v>22</v>
       </c>
-      <c r="E28" s="2" t="str">
+      <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,22);</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5">
       <c r="C29">
         <v>23</v>
       </c>
-      <c r="E29" s="2" t="str">
+      <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,23);</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5">
       <c r="C30">
         <v>24</v>
       </c>
-      <c r="E30" s="2" t="str">
+      <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,24);</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5">
       <c r="C31">
         <v>25</v>
       </c>
-      <c r="E31" s="2" t="str">
+      <c r="E31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,25);</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5">
       <c r="C32">
         <v>26</v>
       </c>
-      <c r="E32" s="2" t="str">
+      <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,26);</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5">
       <c r="C33">
         <v>27</v>
       </c>
-      <c r="E33" s="2" t="str">
+      <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,27);</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5">
       <c r="C34">
         <v>28</v>
       </c>
-      <c r="E34" s="2" t="str">
+      <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,28);</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5">
       <c r="C35">
         <v>29</v>
       </c>
-      <c r="E35" s="2" t="str">
+      <c r="E35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,29);</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5">
       <c r="C36">
         <v>30</v>
       </c>
-      <c r="E36" s="2" t="str">
+      <c r="E36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,30);</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5">
       <c r="C37">
         <v>31</v>
       </c>
-      <c r="E37" s="2" t="str">
+      <c r="E37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,31);</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5">
       <c r="C38">
         <v>32</v>
       </c>
-      <c r="E38" s="2" t="str">
+      <c r="E38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,32);</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5">
       <c r="C39">
         <v>33</v>
       </c>
-      <c r="E39" s="2" t="str">
+      <c r="E39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,33);</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5">
       <c r="C40">
         <v>34</v>
       </c>
-      <c r="E40" s="2" t="str">
+      <c r="E40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,34);</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5">
       <c r="C41">
         <v>35</v>
       </c>
-      <c r="E41" s="2" t="str">
+      <c r="E41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,35);</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5">
       <c r="C42">
         <v>36</v>
       </c>
-      <c r="E42" s="2" t="str">
+      <c r="E42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,36);</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5">
       <c r="C43">
         <v>37</v>
       </c>
-      <c r="E43" s="2" t="str">
+      <c r="E43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,37);</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5">
       <c r="C44">
         <v>38</v>
       </c>
-      <c r="E44" s="2" t="str">
+      <c r="E44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,38);</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5">
       <c r="C45">
         <v>39</v>
       </c>
-      <c r="E45" s="2" t="str">
+      <c r="E45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,39);</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5">
       <c r="C46">
         <v>40</v>
       </c>
-      <c r="E46" s="2" t="str">
+      <c r="E46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,40);</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5">
       <c r="C47">
         <v>41</v>
       </c>
-      <c r="E47" s="2" t="str">
+      <c r="E47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,41);</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5">
       <c r="C48">
         <v>42</v>
       </c>
-      <c r="E48" s="2" t="str">
+      <c r="E48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,42);</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5">
       <c r="C49">
         <v>43</v>
       </c>
-      <c r="E49" s="2" t="str">
+      <c r="E49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,43);</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5">
       <c r="C50">
         <v>44</v>
       </c>
-      <c r="E50" s="2" t="str">
+      <c r="E50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,44);</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5">
       <c r="C51">
         <v>45</v>
       </c>
-      <c r="E51" s="2" t="str">
+      <c r="E51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,45);</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5">
       <c r="C52">
         <v>46</v>
       </c>
-      <c r="E52" s="2" t="str">
+      <c r="E52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,46);</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5">
       <c r="C53">
         <v>47</v>
       </c>
-      <c r="E53" s="2" t="str">
+      <c r="E53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,47);</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5">
       <c r="C54">
         <v>48</v>
       </c>
-      <c r="E54" s="2" t="str">
+      <c r="E54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,48);</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5">
       <c r="C55">
         <v>49</v>
       </c>
-      <c r="E55" s="2" t="str">
+      <c r="E55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,49);</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5">
       <c r="C56">
         <v>50</v>
       </c>
-      <c r="E56" s="2" t="str">
+      <c r="E56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,50);</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5">
       <c r="C57">
         <v>51</v>
       </c>
-      <c r="E57" s="2" t="str">
+      <c r="E57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,51);</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5">
       <c r="C58">
         <v>52</v>
       </c>
-      <c r="E58" s="2" t="str">
+      <c r="E58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,52);</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5">
       <c r="C59">
         <v>53</v>
       </c>
-      <c r="E59" s="2" t="str">
+      <c r="E59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,53);</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5">
       <c r="C60">
         <v>54</v>
       </c>
-      <c r="E60" s="2" t="str">
+      <c r="E60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,54);</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5">
       <c r="C61">
         <v>55</v>
       </c>
-      <c r="E61" s="2" t="str">
+      <c r="E61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,55);</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5">
       <c r="C62">
         <v>56</v>
       </c>
-      <c r="E62" s="2" t="str">
+      <c r="E62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,56);</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5">
       <c r="C63">
         <v>57</v>
       </c>
-      <c r="E63" s="2" t="str">
+      <c r="E63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,57);</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5">
       <c r="C64">
         <v>58</v>
       </c>
-      <c r="E64" s="2" t="str">
+      <c r="E64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,58);</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5">
       <c r="C65">
         <v>59</v>
       </c>
-      <c r="E65" s="2" t="str">
+      <c r="E65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,59);</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5">
       <c r="C66">
         <v>60</v>
       </c>
-      <c r="E66" s="2" t="str">
+      <c r="E66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,60);</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5">
       <c r="C67">
         <v>61</v>
       </c>
-      <c r="E67" s="2" t="str">
+      <c r="E67" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,61);</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5">
       <c r="C68">
         <v>62</v>
       </c>
-      <c r="E68" s="2" t="str">
+      <c r="E68" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,62);</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5">
       <c r="C69">
         <v>63</v>
       </c>
-      <c r="E69" s="2" t="str">
+      <c r="E69" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,63);</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5">
       <c r="C70">
         <v>64</v>
       </c>
-      <c r="E70" s="2" t="str">
+      <c r="E70" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,64);</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5">
       <c r="C71">
         <v>65</v>
       </c>
-      <c r="E71" s="2" t="str">
+      <c r="E71" s="1" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,65);</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5">
       <c r="C72">
         <v>66</v>
       </c>
-      <c r="E72" s="2" t="str">
+      <c r="E72" s="1" t="str">
         <f t="shared" ref="E72:E110" si="1">CONCATENATE($A$4,$B$7,",",C72,");")</f>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,66);</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5">
       <c r="C73">
         <v>67</v>
       </c>
-      <c r="E73" s="2" t="str">
+      <c r="E73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,67);</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5">
       <c r="C74">
         <v>68</v>
       </c>
-      <c r="E74" s="2" t="str">
+      <c r="E74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,68);</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5">
       <c r="C75">
         <v>69</v>
       </c>
-      <c r="E75" s="2" t="str">
+      <c r="E75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,69);</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5">
       <c r="C76">
         <v>70</v>
       </c>
-      <c r="E76" s="2" t="str">
+      <c r="E76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,70);</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5">
       <c r="C77">
         <v>71</v>
       </c>
-      <c r="E77" s="2" t="str">
+      <c r="E77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,71);</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5">
       <c r="C78">
         <v>72</v>
       </c>
-      <c r="E78" s="2" t="str">
+      <c r="E78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,72);</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5">
       <c r="C79">
         <v>73</v>
       </c>
-      <c r="E79" s="2" t="str">
+      <c r="E79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,73);</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5">
       <c r="C80">
         <v>74</v>
       </c>
-      <c r="E80" s="2" t="str">
+      <c r="E80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,74);</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5">
       <c r="C81">
         <v>75</v>
       </c>
-      <c r="E81" s="2" t="str">
+      <c r="E81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,75);</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5">
       <c r="C82">
         <v>76</v>
       </c>
-      <c r="E82" s="2" t="str">
+      <c r="E82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,76);</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5">
       <c r="C83">
         <v>77</v>
       </c>
-      <c r="E83" s="2" t="str">
+      <c r="E83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,77);</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5">
       <c r="C84">
         <v>78</v>
       </c>
-      <c r="E84" s="2" t="str">
+      <c r="E84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,78);</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5">
       <c r="C85">
         <v>79</v>
       </c>
-      <c r="E85" s="2" t="str">
+      <c r="E85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,79);</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:5">
       <c r="C86">
         <v>80</v>
       </c>
-      <c r="E86" s="2" t="str">
+      <c r="E86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,80);</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5">
       <c r="C87">
         <v>81</v>
       </c>
-      <c r="E87" s="2" t="str">
+      <c r="E87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,81);</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5">
       <c r="C88">
         <v>82</v>
       </c>
-      <c r="E88" s="2" t="str">
+      <c r="E88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,82);</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5">
       <c r="C89">
         <v>83</v>
       </c>
-      <c r="E89" s="2" t="str">
+      <c r="E89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,83);</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5">
       <c r="C90">
         <v>84</v>
       </c>
-      <c r="E90" s="2" t="str">
+      <c r="E90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,84);</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5">
       <c r="C91">
         <v>85</v>
       </c>
-      <c r="E91" s="2" t="str">
+      <c r="E91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,85);</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:5">
       <c r="C92">
         <v>86</v>
       </c>
-      <c r="E92" s="2" t="str">
+      <c r="E92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,86);</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:5">
       <c r="C93">
         <v>87</v>
       </c>
-      <c r="E93" s="2" t="str">
+      <c r="E93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,87);</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5">
       <c r="C94">
         <v>88</v>
       </c>
-      <c r="E94" s="2" t="str">
+      <c r="E94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,88);</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5">
       <c r="C95">
         <v>89</v>
       </c>
-      <c r="E95" s="2" t="str">
+      <c r="E95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,89);</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5">
       <c r="C96">
         <v>90</v>
       </c>
-      <c r="E96" s="2" t="str">
+      <c r="E96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,90);</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5">
       <c r="C97">
         <v>91</v>
       </c>
-      <c r="E97" s="2" t="str">
+      <c r="E97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,91);</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5">
       <c r="C98">
         <v>92</v>
       </c>
-      <c r="E98" s="2" t="str">
+      <c r="E98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,92);</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5">
       <c r="C99">
         <v>93</v>
       </c>
-      <c r="E99" s="2" t="str">
+      <c r="E99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,93);</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5">
       <c r="C100">
         <v>94</v>
       </c>
-      <c r="E100" s="2" t="str">
+      <c r="E100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,94);</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5">
       <c r="C101">
         <v>95</v>
       </c>
-      <c r="E101" s="2" t="str">
+      <c r="E101" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,95);</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5">
       <c r="C102">
         <v>96</v>
       </c>
-      <c r="E102" s="2" t="str">
+      <c r="E102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,96);</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5">
       <c r="C103">
         <v>97</v>
       </c>
-      <c r="E103" s="2" t="str">
+      <c r="E103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,97);</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5">
       <c r="C104">
         <v>98</v>
       </c>
-      <c r="E104" s="2" t="str">
+      <c r="E104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,98);</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5">
       <c r="C105">
         <v>99</v>
       </c>
-      <c r="E105" s="2" t="str">
+      <c r="E105" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,99);</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5">
       <c r="C106">
         <v>100</v>
       </c>
-      <c r="E106" s="2" t="str">
+      <c r="E106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,100);</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5">
       <c r="C107">
         <v>101</v>
       </c>
-      <c r="E107" s="2" t="str">
+      <c r="E107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,101);</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5">
       <c r="C108">
         <v>102</v>
       </c>
-      <c r="E108" s="2" t="str">
+      <c r="E108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,102);</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:5">
       <c r="C109">
         <v>103</v>
       </c>
-      <c r="E109" s="2" t="str">
+      <c r="E109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,103);</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:5">
       <c r="C110">
         <v>104</v>
       </c>
-      <c r="E110" s="2" t="str">
+      <c r="E110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,104);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
+++ b/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16545" windowHeight="12345"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>hotel</t>
   </si>
@@ -233,16 +233,34 @@
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</t>
   </si>
   <si>
+    <t>employeeFiredUpdate</t>
+  </si>
+  <si>
     <t>bill</t>
   </si>
   <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</t>
   </si>
   <si>
+    <t>gastosDepartamentoQuery</t>
+  </si>
+  <si>
+    <t>gastosDepartamentoHotelQuery</t>
+  </si>
+  <si>
+    <t>billsByHotelDepartmentQuery</t>
+  </si>
+  <si>
     <t>userRole</t>
   </si>
   <si>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/</t>
+  </si>
+  <si>
     <t>userRoleDelete</t>
+  </si>
+  <si>
+    <t>poiQuery</t>
   </si>
   <si>
     <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</t>
@@ -265,12 +283,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,23 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -316,29 +320,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,47 +388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,7 +405,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,9 +434,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,31 +457,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,37 +541,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,73 +577,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +619,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,13 +637,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,30 +656,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,6 +699,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -726,39 +748,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,121 +793,106 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149:E152"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3198,9 +3209,8 @@
         <f t="shared" si="17"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
       </c>
-      <c r="B141" s="1" t="str">
-        <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Delete"),"")</f>
-        <v>employeeDelete</v>
+      <c r="B141" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C141" s="1">
         <f t="shared" si="18"/>
@@ -3208,12 +3218,12 @@
       </c>
       <c r="E141" s="2" t="str">
         <f>IF(B141&lt;&gt;"",CONCATENATE(inicio_consulta,C141,mid_consulta,A141,B141,fin_consulta),IF(A141&lt;&gt;"",CONCATENATE("-- ",A141),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (100,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeDelete');</v>
+        <v>INSERT INTO tserver_permission VALUES (100,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeFiredUpdate');</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E143" s="2" t="str">
         <f>IF(B143&lt;&gt;"",CONCATENATE(inicio_consulta,C143,mid_consulta,A143,B143,fin_consulta),IF(A143&lt;&gt;"",CONCATENATE("-- ",A143),""))</f>
@@ -3222,7 +3232,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B144" s="1" t="str">
         <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Query"),"")</f>
@@ -3257,7 +3267,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="1" t="str">
-        <f t="shared" ref="A146:A147" si="19">A145</f>
+        <f t="shared" ref="A146:A150" si="19">A145</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
       <c r="B146" s="1" t="str">
@@ -3265,7 +3275,7 @@
         <v>billUpdate</v>
       </c>
       <c r="C146" s="1">
-        <f t="shared" ref="C146:C147" si="20">C145+1</f>
+        <f t="shared" ref="C146:C150" si="20">C145+1</f>
         <v>103</v>
       </c>
       <c r="E146" s="2" t="str">
@@ -3291,101 +3301,143 @@
         <v>INSERT INTO tserver_permission VALUES (104,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billDelete');</v>
       </c>
     </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C148" s="1">
+        <f t="shared" si="20"/>
+        <v>105</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f>IF(B148&lt;&gt;"",CONCATENATE(inicio_consulta,C148,mid_consulta,A148,B148,fin_consulta),IF(A148&lt;&gt;"",CONCATENATE("-- ",A148),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (105,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoQuery');</v>
+      </c>
+    </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="1" t="s">
-        <v>72</v>
+      <c r="A149" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" s="1">
+        <f t="shared" si="20"/>
+        <v>106</v>
       </c>
       <c r="E149" s="2" t="str">
         <f>IF(B149&lt;&gt;"",CONCATENATE(inicio_consulta,C149,mid_consulta,A149,B149,fin_consulta),IF(A149&lt;&gt;"",CONCATENATE("-- ",A149),""))</f>
-        <v>-- userRole</v>
+        <v>INSERT INTO tserver_permission VALUES (106,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoHotelQuery');</v>
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B150" s="1" t="str">
-        <f>IF(A149&lt;&gt;"",CONCATENATE(A149,"Query"),"")</f>
-        <v>userRoleQuery</v>
+      <c r="A150" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C150" s="1">
-        <f>C147+1</f>
-        <v>105</v>
+        <f t="shared" si="20"/>
+        <v>107</v>
       </c>
       <c r="E150" s="2" t="str">
         <f>IF(B150&lt;&gt;"",CONCATENATE(inicio_consulta,C150,mid_consulta,A150,B150,fin_consulta),IF(A150&lt;&gt;"",CONCATENATE("-- ",A150),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (105,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/userRoleQuery');</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="1" t="str">
-        <f t="shared" ref="A151:A153" si="21">A150</f>
-        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
-      </c>
-      <c r="B151" s="1" t="str">
-        <f>IF(A149&lt;&gt;"",CONCATENATE(A149,"Insert"),"")</f>
-        <v>userRoleInsert</v>
-      </c>
-      <c r="C151" s="1">
-        <f t="shared" ref="C151:C153" si="22">C150+1</f>
-        <v>106</v>
-      </c>
-      <c r="E151" s="2" t="str">
-        <f>IF(B151&lt;&gt;"",CONCATENATE(inicio_consulta,C151,mid_consulta,A151,B151,fin_consulta),IF(A151&lt;&gt;"",CONCATENATE("-- ",A151),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (106,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/userRoleInsert');</v>
+        <v>INSERT INTO tserver_permission VALUES (107,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billsByHotelDepartmentQuery');</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C152" s="1">
-        <f t="shared" si="22"/>
-        <v>107</v>
+      <c r="A152" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E152" s="2" t="str">
         <f>IF(B152&lt;&gt;"",CONCATENATE(inicio_consulta,C152,mid_consulta,A152,B152,fin_consulta),IF(A152&lt;&gt;"",CONCATENATE("-- ",A152),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (107,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/userRoleDelete');</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5">
+        <v>-- userRole</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B153" s="1" t="str">
+        <f>IF(A152&lt;&gt;"",CONCATENATE(A152,"Query"),"")</f>
+        <v>userRoleQuery</v>
+      </c>
+      <c r="C153" s="1">
+        <f>C150+1</f>
+        <v>108</v>
+      </c>
+      <c r="E153" s="2" t="str">
+        <f>IF(B153&lt;&gt;"",CONCATENATE(inicio_consulta,C153,mid_consulta,A153,B153,fin_consulta),IF(A153&lt;&gt;"",CONCATENATE("-- ",A153),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (108,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleQuery');</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="str">
+        <f>A153</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/</v>
+      </c>
+      <c r="B154" s="1" t="str">
+        <f>IF(A152&lt;&gt;"",CONCATENATE(A152,"Insert"),"")</f>
+        <v>userRoleInsert</v>
+      </c>
+      <c r="C154" s="1">
+        <f t="shared" ref="C154:C156" si="21">C153+1</f>
+        <v>109</v>
+      </c>
       <c r="E154" s="2" t="str">
         <f>IF(B154&lt;&gt;"",CONCATENATE(inicio_consulta,C154,mid_consulta,A154,B154,fin_consulta),IF(A154&lt;&gt;"",CONCATENATE("-- ",A154),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="5:5">
+        <v>INSERT INTO tserver_permission VALUES (109,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleInsert');</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1" t="str">
+        <f>A154</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C155" s="1">
+        <f t="shared" si="21"/>
+        <v>110</v>
+      </c>
       <c r="E155" s="2" t="str">
         <f>IF(B155&lt;&gt;"",CONCATENATE(inicio_consulta,C155,mid_consulta,A155,B155,fin_consulta),IF(A155&lt;&gt;"",CONCATENATE("-- ",A155),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="5:5">
-      <c r="E156" s="2" t="str">
-        <f>IF(B156&lt;&gt;"",CONCATENATE(inicio_consulta,C156,mid_consulta,A156,B156,fin_consulta),IF(A156&lt;&gt;"",CONCATENATE("-- ",A156),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="5:5">
+        <v>INSERT INTO tserver_permission VALUES (110,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleDelete');</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
       <c r="E157" s="2" t="str">
         <f>IF(B157&lt;&gt;"",CONCATENATE(inicio_consulta,C157,mid_consulta,A157,B157,fin_consulta),IF(A157&lt;&gt;"",CONCATENATE("-- ",A157),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="5:5">
+        <v>-- hotel</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C158" s="1">
+        <f>C155+1</f>
+        <v>111</v>
+      </c>
       <c r="E158" s="2" t="str">
         <f>IF(B158&lt;&gt;"",CONCATENATE(inicio_consulta,C158,mid_consulta,A158,B158,fin_consulta),IF(A158&lt;&gt;"",CONCATENATE("-- ",A158),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" spans="5:5">
-      <c r="E159" s="2" t="str">
-        <f>IF(B159&lt;&gt;"",CONCATENATE(inicio_consulta,C159,mid_consulta,A159,B159,fin_consulta),IF(A159&lt;&gt;"",CONCATENATE("-- ",A159),""))</f>
-        <v/>
+        <v>INSERT INTO tserver_permission VALUES (111,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/poiQuery');</v>
       </c>
     </row>
     <row r="160" spans="5:5">
@@ -4032,37 +4084,55 @@
     </row>
     <row r="267" spans="5:5">
       <c r="E267" s="2" t="str">
-        <f t="shared" ref="E233:E268" si="23">IF(B267&lt;&gt;"",CONCATENATE(inicio_consulta,C267,mid_consulta,A267,B267,fin_consulta),"")</f>
+        <f>IF(B267&lt;&gt;"",CONCATENATE(inicio_consulta,C267,mid_consulta,A267,B267,fin_consulta),IF(A267&lt;&gt;"",CONCATENATE("-- ",A267),""))</f>
         <v/>
       </c>
     </row>
     <row r="268" spans="5:5">
       <c r="E268" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f>IF(B268&lt;&gt;"",CONCATENATE(inicio_consulta,C268,mid_consulta,A268,B268,fin_consulta),IF(A268&lt;&gt;"",CONCATENATE("-- ",A268),""))</f>
         <v/>
       </c>
     </row>
     <row r="269" spans="5:5">
       <c r="E269" s="2" t="str">
-        <f>IF(B269&lt;&gt;"",CONCATENATE(inicio_consulta,A269,B269,fin_consulta),"")</f>
+        <f>IF(B269&lt;&gt;"",CONCATENATE(inicio_consulta,C269,mid_consulta,A269,B269,fin_consulta),IF(A269&lt;&gt;"",CONCATENATE("-- ",A269),""))</f>
         <v/>
       </c>
     </row>
     <row r="270" spans="5:5">
       <c r="E270" s="2" t="str">
-        <f>IF(B270&lt;&gt;"",CONCATENATE(inicio_consulta,A270,B270,fin_consulta),"")</f>
+        <f t="shared" ref="E236:E271" si="22">IF(B270&lt;&gt;"",CONCATENATE(inicio_consulta,C270,mid_consulta,A270,B270,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="271" spans="5:5">
       <c r="E271" s="2" t="str">
-        <f>IF(B271&lt;&gt;"",CONCATENATE(inicio_consulta,A271,B271,fin_consulta),"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="5:5">
       <c r="E272" s="2" t="str">
         <f>IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,A272,B272,fin_consulta),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="5:5">
+      <c r="E273" s="2" t="str">
+        <f>IF(B273&lt;&gt;"",CONCATENATE(inicio_consulta,A273,B273,fin_consulta),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="5:5">
+      <c r="E274" s="2" t="str">
+        <f>IF(B274&lt;&gt;"",CONCATENATE(inicio_consulta,A274,B274,fin_consulta),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="5:5">
+      <c r="E275" s="2" t="str">
+        <f>IF(B275&lt;&gt;"",CONCATENATE(inicio_consulta,A275,B275,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
@@ -4089,7 +4159,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -4102,7 +4172,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -5063,17 +5133,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
+++ b/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowHeight="18045"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="100">
+  <si>
+    <t>Servicio / Interfaz</t>
+  </si>
+  <si>
+    <t>METODO</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Roles Permitidos</t>
+  </si>
+  <si>
+    <t>Restricción en código</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Inserción Sql</t>
+  </si>
   <si>
     <t>hotel</t>
   </si>
@@ -29,18 +50,36 @@
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/</t>
   </si>
   <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Ceo</t>
+  </si>
+  <si>
+    <t>Ceo, HotelManager</t>
+  </si>
+  <si>
     <t>bedCombo</t>
   </si>
   <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/</t>
   </si>
   <si>
+    <t>Ceo, HotelManager, Staff, Customer</t>
+  </si>
+  <si>
     <t>bookingGuest</t>
   </si>
   <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/</t>
   </si>
   <si>
+    <t>Ceo, HotelManager, Staff</t>
+  </si>
+  <si>
+    <t>HotelManager y Staff por idHotel</t>
+  </si>
+  <si>
     <t>guestCountQuery</t>
   </si>
   <si>
@@ -53,6 +92,9 @@
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/</t>
   </si>
   <si>
+    <t>HotelManager y Staff por idHotel, Customer por user_</t>
+  </si>
+  <si>
     <t>bookingActionUpdate</t>
   </si>
   <si>
@@ -261,6 +303,9 @@
   </si>
   <si>
     <t>poiQuery</t>
+  </si>
+  <si>
+    <t>userCancelUpdate</t>
   </si>
   <si>
     <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</t>
@@ -283,14 +328,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -304,11 +357,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -320,7 +372,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,9 +380,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,8 +402,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,18 +419,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,17 +441,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,14 +465,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,23 +494,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,7 +510,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +606,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,25 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,109 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,19 +690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,8 +707,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,21 +748,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,15 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -751,19 +804,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,134 +825,144 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1220,2919 +1283,3021 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:G277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="J152" sqref="J152"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="77.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.4285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.14285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.4285714285714" style="1"/>
-    <col min="5" max="5" width="11.8571428571429" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11.4285714285714" style="1"/>
+    <col min="3" max="3" width="4.52380952380952" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.7809523809524" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.0761904761905" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.0761904761905" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.0285714285714" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="11.4285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" ht="15.75" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="str">
-        <f>IF(B1&lt;&gt;"",CONCATENATE(inicio_consulta,C1,mid_consulta,A1,B1,fin_consulta),IF(A1&lt;&gt;"",CONCATENATE("-- ",A1),""))</f>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="15.75" spans="3:3">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>IF(B3&lt;&gt;"",CONCATENATE(inicio_consulta,C3,mid_consulta,A3,B3,fin_consulta),IF(A3&lt;&gt;"",CONCATENATE("-- ",A3),""))</f>
         <v>-- hotel</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Query"),"")</f>
+        <v>hotelQuery</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Query"),"")</f>
-        <v>hotelQuery</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f>IF(B2&lt;&gt;"",CONCATENATE(inicio_consulta,C2,mid_consulta,A2,B2,fin_consulta),IF(A2&lt;&gt;"",CONCATENATE("-- ",A2),""))</f>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f>IF(B4&lt;&gt;"",CONCATENATE(inicio_consulta,C4,mid_consulta,A4,B4,fin_consulta),IF(A4&lt;&gt;"",CONCATENATE("-- ",A4),""))</f>
         <v>INSERT INTO tserver_permission VALUES (1,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelQuery');</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Insert"),"")</f>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Insert"),"")</f>
         <v>hotelInsert</v>
       </c>
-      <c r="C3" s="1">
-        <f>C2+1</f>
+      <c r="C5" s="4">
+        <f>C4+1</f>
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="str">
-        <f>IF(B3&lt;&gt;"",CONCATENATE(inicio_consulta,C3,mid_consulta,A3,B3,fin_consulta),IF(A3&lt;&gt;"",CONCATENATE("-- ",A3),""))</f>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>IF(B5&lt;&gt;"",CONCATENATE(inicio_consulta,C5,mid_consulta,A5,B5,fin_consulta),IF(A5&lt;&gt;"",CONCATENATE("-- ",A5),""))</f>
         <v>INSERT INTO tserver_permission VALUES (2,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelInsert');</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Update"),"")</f>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Update"),"")</f>
         <v>hotelUpdate</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:C5" si="0">C3+1</f>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C7" si="0">C5+1</f>
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="str">
-        <f>IF(B4&lt;&gt;"",CONCATENATE(inicio_consulta,C4,mid_consulta,A4,B4,fin_consulta),IF(A4&lt;&gt;"",CONCATENATE("-- ",A4),""))</f>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f>IF(B6&lt;&gt;"",CONCATENATE(inicio_consulta,C6,mid_consulta,A6,B6,fin_consulta),IF(A6&lt;&gt;"",CONCATENATE("-- ",A6),""))</f>
         <v>INSERT INTO tserver_permission VALUES (3,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelUpdate');</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f>IF(A1&lt;&gt;"",CONCATENATE(A1,"Delete"),"")</f>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Delete"),"")</f>
         <v>hotelDelete</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="str">
-        <f>IF(B5&lt;&gt;"",CONCATENATE(inicio_consulta,C5,mid_consulta,A5,B5,fin_consulta),IF(A5&lt;&gt;"",CONCATENATE("-- ",A5),""))</f>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>IF(B7&lt;&gt;"",CONCATENATE(inicio_consulta,C7,mid_consulta,A7,B7,fin_consulta),IF(A7&lt;&gt;"",CONCATENATE("-- ",A7),""))</f>
         <v>INSERT INTO tserver_permission VALUES (4,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelDelete');</v>
       </c>
     </row>
-    <row r="6" spans="5:5">
-      <c r="E6" s="2" t="str">
-        <f>IF(B6&lt;&gt;"",CONCATENATE(inicio_consulta,C6,mid_consulta,A6,B6,fin_consulta),IF(A6&lt;&gt;"",CONCATENATE("-- ",A6),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>IF(B7&lt;&gt;"",CONCATENATE(inicio_consulta,C7,mid_consulta,A7,B7,fin_consulta),IF(A7&lt;&gt;"",CONCATENATE("-- ",A7),""))</f>
+    <row r="8" spans="7:7">
+      <c r="G8" s="5" t="str">
+        <f>IF(B8&lt;&gt;"",CONCATENATE(inicio_consulta,C8,mid_consulta,A8,B8,fin_consulta),IF(A8&lt;&gt;"",CONCATENATE("-- ",A8),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f>IF(B9&lt;&gt;"",CONCATENATE(inicio_consulta,C9,mid_consulta,A9,B9,fin_consulta),IF(A9&lt;&gt;"",CONCATENATE("-- ",A9),""))</f>
         <v>-- bedCombo</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Query"),"")</f>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Query"),"")</f>
         <v>bedComboQuery</v>
       </c>
-      <c r="C8" s="1">
-        <f>C5+1</f>
+      <c r="C10" s="4">
+        <f>C7+1</f>
         <v>5</v>
       </c>
-      <c r="E8" s="2" t="str">
-        <f>IF(B8&lt;&gt;"",CONCATENATE(inicio_consulta,C8,mid_consulta,A8,B8,fin_consulta),IF(A8&lt;&gt;"",CONCATENATE("-- ",A8),""))</f>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f>IF(B10&lt;&gt;"",CONCATENATE(inicio_consulta,C10,mid_consulta,A10,B10,fin_consulta),IF(A10&lt;&gt;"",CONCATENATE("-- ",A10),""))</f>
         <v>INSERT INTO tserver_permission VALUES (5,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboQuery');</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Insert"),"")</f>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Insert"),"")</f>
         <v>bedComboInsert</v>
       </c>
-      <c r="C9" s="1">
-        <f>C8+1</f>
+      <c r="C11" s="4">
+        <f>C10+1</f>
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="str">
-        <f>IF(B9&lt;&gt;"",CONCATENATE(inicio_consulta,C9,mid_consulta,A9,B9,fin_consulta),IF(A9&lt;&gt;"",CONCATENATE("-- ",A9),""))</f>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f>IF(B11&lt;&gt;"",CONCATENATE(inicio_consulta,C11,mid_consulta,A11,B11,fin_consulta),IF(A11&lt;&gt;"",CONCATENATE("-- ",A11),""))</f>
         <v>INSERT INTO tserver_permission VALUES (6,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboInsert');</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Update"),"")</f>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Update"),"")</f>
         <v>bedComboUpdate</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10:C11" si="1">C9+1</f>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:C13" si="1">C11+1</f>
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="str">
-        <f>IF(B10&lt;&gt;"",CONCATENATE(inicio_consulta,C10,mid_consulta,A10,B10,fin_consulta),IF(A10&lt;&gt;"",CONCATENATE("-- ",A10),""))</f>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f>IF(B12&lt;&gt;"",CONCATENATE(inicio_consulta,C12,mid_consulta,A12,B12,fin_consulta),IF(A12&lt;&gt;"",CONCATENATE("-- ",A12),""))</f>
         <v>INSERT INTO tserver_permission VALUES (7,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboUpdate');</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="str">
-        <f>IF(A7&lt;&gt;"",CONCATENATE(A7,"Delete"),"")</f>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Delete"),"")</f>
         <v>bedComboDelete</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="str">
-        <f>IF(B11&lt;&gt;"",CONCATENATE(inicio_consulta,C11,mid_consulta,A11,B11,fin_consulta),IF(A11&lt;&gt;"",CONCATENATE("-- ",A11),""))</f>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f>IF(B13&lt;&gt;"",CONCATENATE(inicio_consulta,C13,mid_consulta,A13,B13,fin_consulta),IF(A13&lt;&gt;"",CONCATENATE("-- ",A13),""))</f>
         <v>INSERT INTO tserver_permission VALUES (8,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboDelete');</v>
       </c>
     </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="2" t="str">
-        <f>IF(B12&lt;&gt;"",CONCATENATE(inicio_consulta,C12,mid_consulta,A12,B12,fin_consulta),IF(A12&lt;&gt;"",CONCATENATE("-- ",A12),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f>IF(B13&lt;&gt;"",CONCATENATE(inicio_consulta,C13,mid_consulta,A13,B13,fin_consulta),IF(A13&lt;&gt;"",CONCATENATE("-- ",A13),""))</f>
+    <row r="14" spans="7:7">
+      <c r="G14" s="5" t="str">
+        <f>IF(B14&lt;&gt;"",CONCATENATE(inicio_consulta,C14,mid_consulta,A14,B14,fin_consulta),IF(A14&lt;&gt;"",CONCATENATE("-- ",A14),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f>IF(B15&lt;&gt;"",CONCATENATE(inicio_consulta,C15,mid_consulta,A15,B15,fin_consulta),IF(A15&lt;&gt;"",CONCATENATE("-- ",A15),""))</f>
         <v>-- bookingGuest</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f>IF(A13&lt;&gt;"",CONCATENATE(A13,"Query"),"")</f>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>IF(A15&lt;&gt;"",CONCATENATE(A15,"Query"),"")</f>
         <v>bookingGuestQuery</v>
       </c>
-      <c r="C14" s="1">
-        <f>C11+1</f>
+      <c r="C16" s="4">
+        <f>C13+1</f>
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="str">
-        <f>IF(B14&lt;&gt;"",CONCATENATE(inicio_consulta,C14,mid_consulta,A14,B14,fin_consulta),IF(A14&lt;&gt;"",CONCATENATE("-- ",A14),""))</f>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f>IF(B16&lt;&gt;"",CONCATENATE(inicio_consulta,C16,mid_consulta,A16,B16,fin_consulta),IF(A16&lt;&gt;"",CONCATENATE("-- ",A16),""))</f>
         <v>INSERT INTO tserver_permission VALUES (9,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestQuery');</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f>IF(A13&lt;&gt;"",CONCATENATE(A13,"Insert"),"")</f>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>IF(A15&lt;&gt;"",CONCATENATE(A15,"Insert"),"")</f>
         <v>bookingGuestInsert</v>
       </c>
-      <c r="C15" s="1">
-        <f>C14+1</f>
+      <c r="C17" s="4">
+        <f>C16+1</f>
         <v>10</v>
       </c>
-      <c r="E15" s="2" t="str">
-        <f>IF(B15&lt;&gt;"",CONCATENATE(inicio_consulta,C15,mid_consulta,A15,B15,fin_consulta),IF(A15&lt;&gt;"",CONCATENATE("-- ",A15),""))</f>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f>IF(B17&lt;&gt;"",CONCATENATE(inicio_consulta,C17,mid_consulta,A17,B17,fin_consulta),IF(A17&lt;&gt;"",CONCATENATE("-- ",A17),""))</f>
         <v>INSERT INTO tserver_permission VALUES (10,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestInsert');</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" ref="C16:C18" si="2">C15+1</f>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" ref="C18:C20" si="2">C17+1</f>
         <v>11</v>
       </c>
-      <c r="E16" s="2" t="str">
-        <f>IF(B16&lt;&gt;"",CONCATENATE(inicio_consulta,C16,mid_consulta,A16,B16,fin_consulta),IF(A16&lt;&gt;"",CONCATENATE("-- ",A16),""))</f>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>IF(B18&lt;&gt;"",CONCATENATE(inicio_consulta,C18,mid_consulta,A18,B18,fin_consulta),IF(A18&lt;&gt;"",CONCATENATE("-- ",A18),""))</f>
         <v>INSERT INTO tserver_permission VALUES (11,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/guestCountQuery');</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f>IF(A13&lt;&gt;"",CONCATENATE(A13,"Delete"),"")</f>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>IF(A15&lt;&gt;"",CONCATENATE(A15,"Delete"),"")</f>
         <v>bookingGuestDelete</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="4">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f>IF(B17&lt;&gt;"",CONCATENATE(inicio_consulta,C17,mid_consulta,A17,B17,fin_consulta),IF(A17&lt;&gt;"",CONCATENATE("-- ",A17),""))</f>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f>IF(B19&lt;&gt;"",CONCATENATE(inicio_consulta,C19,mid_consulta,A19,B19,fin_consulta),IF(A19&lt;&gt;"",CONCATENATE("-- ",A19),""))</f>
         <v>INSERT INTO tserver_permission VALUES (12,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestDelete');</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E18" s="2" t="str">
-        <f>IF(B18&lt;&gt;"",CONCATENATE(inicio_consulta,C18,mid_consulta,A18,B18,fin_consulta),IF(A18&lt;&gt;"",CONCATENATE("-- ",A18),""))</f>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>IF(B20&lt;&gt;"",CONCATENATE(inicio_consulta,C20,mid_consulta,A20,B20,fin_consulta),IF(A20&lt;&gt;"",CONCATENATE("-- ",A20),""))</f>
         <v>INSERT INTO tserver_permission VALUES (13,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestsInfoQuery');</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="2" t="str">
-        <f>IF(B19&lt;&gt;"",CONCATENATE(inicio_consulta,C19,mid_consulta,A19,B19,fin_consulta),IF(A19&lt;&gt;"",CONCATENATE("-- ",A19),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="str">
-        <f>IF(B20&lt;&gt;"",CONCATENATE(inicio_consulta,C20,mid_consulta,A20,B20,fin_consulta),IF(A20&lt;&gt;"",CONCATENATE("-- ",A20),""))</f>
+    <row r="21" spans="7:7">
+      <c r="G21" s="5" t="str">
+        <f>IF(B21&lt;&gt;"",CONCATENATE(inicio_consulta,C21,mid_consulta,A21,B21,fin_consulta),IF(A21&lt;&gt;"",CONCATENATE("-- ",A21),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="5" t="str">
+        <f>IF(B22&lt;&gt;"",CONCATENATE(inicio_consulta,C22,mid_consulta,A22,B22,fin_consulta),IF(A22&lt;&gt;"",CONCATENATE("-- ",A22),""))</f>
         <v>-- booking</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="1" t="str">
-        <f>IF(A20&lt;&gt;"",CONCATENATE(A20,"Query"),"")</f>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>IF(A22&lt;&gt;"",CONCATENATE(A22,"Query"),"")</f>
         <v>bookingQuery</v>
       </c>
-      <c r="C21" s="1">
-        <f>C18+1</f>
+      <c r="C23" s="4">
+        <f>C20+1</f>
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="str">
-        <f>IF(B21&lt;&gt;"",CONCATENATE(inicio_consulta,C21,mid_consulta,A21,B21,fin_consulta),IF(A21&lt;&gt;"",CONCATENATE("-- ",A21),""))</f>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="5" t="str">
+        <f>IF(B23&lt;&gt;"",CONCATENATE(inicio_consulta,C23,mid_consulta,A23,B23,fin_consulta),IF(A23&lt;&gt;"",CONCATENATE("-- ",A23),""))</f>
         <v>INSERT INTO tserver_permission VALUES (14,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingQuery');</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1" t="str">
-        <f>IF(A20&lt;&gt;"",CONCATENATE(A20,"Insert"),"")</f>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>IF(A22&lt;&gt;"",CONCATENATE(A22,"Insert"),"")</f>
         <v>bookingInsert</v>
       </c>
-      <c r="C22" s="1">
-        <f>C21+1</f>
+      <c r="C24" s="4">
+        <f>C23+1</f>
         <v>15</v>
       </c>
-      <c r="E22" s="2" t="str">
-        <f>IF(B22&lt;&gt;"",CONCATENATE(inicio_consulta,C22,mid_consulta,A22,B22,fin_consulta),IF(A22&lt;&gt;"",CONCATENATE("-- ",A22),""))</f>
+      <c r="D24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="5" t="str">
+        <f>IF(B24&lt;&gt;"",CONCATENATE(inicio_consulta,C24,mid_consulta,A24,B24,fin_consulta),IF(A24&lt;&gt;"",CONCATENATE("-- ",A24),""))</f>
         <v>INSERT INTO tserver_permission VALUES (15,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInsert');</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23:C33" si="3">C22+1</f>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" ref="C25:C35" si="3">C24+1</f>
         <v>16</v>
       </c>
-      <c r="E23" s="2" t="str">
-        <f>IF(B23&lt;&gt;"",CONCATENATE(inicio_consulta,C23,mid_consulta,A23,B23,fin_consulta),IF(A23&lt;&gt;"",CONCATENATE("-- ",A23),""))</f>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="5" t="str">
+        <f>IF(B25&lt;&gt;"",CONCATENATE(inicio_consulta,C25,mid_consulta,A25,B25,fin_consulta),IF(A25&lt;&gt;"",CONCATENATE("-- ",A25),""))</f>
         <v>INSERT INTO tserver_permission VALUES (16,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingActionUpdate');</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="str">
-        <f>IF(A20&lt;&gt;"",CONCATENATE(A20,"Delete"),"")</f>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>IF(A22&lt;&gt;"",CONCATENATE(A22,"Delete"),"")</f>
         <v>bookingDelete</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C26" s="4">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="E24" s="2" t="str">
-        <f>IF(B24&lt;&gt;"",CONCATENATE(inicio_consulta,C24,mid_consulta,A24,B24,fin_consulta),IF(A24&lt;&gt;"",CONCATENATE("-- ",A24),""))</f>
+      <c r="G26" s="5" t="str">
+        <f>IF(B26&lt;&gt;"",CONCATENATE(inicio_consulta,C26,mid_consulta,A26,B26,fin_consulta),IF(A26&lt;&gt;"",CONCATENATE("-- ",A26),""))</f>
         <v>INSERT INTO tserver_permission VALUES (17,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDelete');</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="1">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="E25" s="2" t="str">
-        <f>IF(B25&lt;&gt;"",CONCATENATE(inicio_consulta,C25,mid_consulta,A25,B25,fin_consulta),IF(A25&lt;&gt;"",CONCATENATE("-- ",A25),""))</f>
+      <c r="G27" s="5" t="str">
+        <f>IF(B27&lt;&gt;"",CONCATENATE(inicio_consulta,C27,mid_consulta,A27,B27,fin_consulta),IF(A27&lt;&gt;"",CONCATENATE("-- ",A27),""))</f>
         <v>INSERT INTO tserver_permission VALUES (18,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInfoQuery');</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="E26" s="2" t="str">
-        <f>IF(B26&lt;&gt;"",CONCATENATE(inicio_consulta,C26,mid_consulta,A26,B26,fin_consulta),IF(A26&lt;&gt;"",CONCATENATE("-- ",A26),""))</f>
+      <c r="G28" s="5" t="str">
+        <f>IF(B28&lt;&gt;"",CONCATENATE(inicio_consulta,C28,mid_consulta,A28,B28,fin_consulta),IF(A28&lt;&gt;"",CONCATENATE("-- ",A28),""))</f>
         <v>INSERT INTO tserver_permission VALUES (19,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeQuery');</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E27" s="2" t="str">
-        <f>IF(B27&lt;&gt;"",CONCATENATE(inicio_consulta,C27,mid_consulta,A27,B27,fin_consulta),IF(A27&lt;&gt;"",CONCATENATE("-- ",A27),""))</f>
+      <c r="G29" s="5" t="str">
+        <f>IF(B29&lt;&gt;"",CONCATENATE(inicio_consulta,C29,mid_consulta,A29,B29,fin_consulta),IF(A29&lt;&gt;"",CONCATENATE("-- ",A29),""))</f>
         <v>INSERT INTO tserver_permission VALUES (20,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeInfoQuery');</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="E28" s="2" t="str">
-        <f>IF(B28&lt;&gt;"",CONCATENATE(inicio_consulta,C28,mid_consulta,A28,B28,fin_consulta),IF(A28&lt;&gt;"",CONCATENATE("-- ",A28),""))</f>
+      <c r="G30" s="5" t="str">
+        <f>IF(B30&lt;&gt;"",CONCATENATE(inicio_consulta,C30,mid_consulta,A30,B30,fin_consulta),IF(A30&lt;&gt;"",CONCATENATE("-- ",A30),""))</f>
         <v>INSERT INTO tserver_permission VALUES (21,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDaysUnitaryRoomPriceQuery');</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="E29" s="2" t="str">
-        <f>IF(B29&lt;&gt;"",CONCATENATE(inicio_consulta,C29,mid_consulta,A29,B29,fin_consulta),IF(A29&lt;&gt;"",CONCATENATE("-- ",A29),""))</f>
+      <c r="G31" s="5" t="str">
+        <f>IF(B31&lt;&gt;"",CONCATENATE(inicio_consulta,C31,mid_consulta,A31,B31,fin_consulta),IF(A31&lt;&gt;"",CONCATENATE("-- ",A31),""))</f>
         <v>INSERT INTO tserver_permission VALUES (22,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsHotelsQuery');</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="1">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="E30" s="2" t="str">
-        <f>IF(B30&lt;&gt;"",CONCATENATE(inicio_consulta,C30,mid_consulta,A30,B30,fin_consulta),IF(A30&lt;&gt;"",CONCATENATE("-- ",A30),""))</f>
+      <c r="G32" s="5" t="str">
+        <f>IF(B32&lt;&gt;"",CONCATENATE(inicio_consulta,C32,mid_consulta,A32,B32,fin_consulta),IF(A32&lt;&gt;"",CONCATENATE("-- ",A32),""))</f>
         <v>INSERT INTO tserver_permission VALUES (23,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/booking_now_by_room_numberQuery');</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="E31" s="2" t="str">
-        <f>IF(B31&lt;&gt;"",CONCATENATE(inicio_consulta,C31,mid_consulta,A31,B31,fin_consulta),IF(A31&lt;&gt;"",CONCATENATE("-- ",A31),""))</f>
+      <c r="G33" s="5" t="str">
+        <f>IF(B33&lt;&gt;"",CONCATENATE(inicio_consulta,C33,mid_consulta,A33,B33,fin_consulta),IF(A33&lt;&gt;"",CONCATENATE("-- ",A33),""))</f>
         <v>INSERT INTO tserver_permission VALUES (24,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingSlotsInfoQuery');</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="E32" s="2" t="str">
-        <f>IF(B32&lt;&gt;"",CONCATENATE(inicio_consulta,C32,mid_consulta,A32,B32,fin_consulta),IF(A32&lt;&gt;"",CONCATENATE("-- ",A32),""))</f>
+      <c r="G34" s="5" t="str">
+        <f>IF(B34&lt;&gt;"",CONCATENATE(inicio_consulta,C34,mid_consulta,A34,B34,fin_consulta),IF(A34&lt;&gt;"",CONCATENATE("-- ",A34),""))</f>
         <v>INSERT INTO tserver_permission VALUES (25,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingCompleteInfoQuery');</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="1">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="E33" s="2" t="str">
-        <f>IF(B33&lt;&gt;"",CONCATENATE(inicio_consulta,C33,mid_consulta,A33,B33,fin_consulta),IF(A33&lt;&gt;"",CONCATENATE("-- ",A33),""))</f>
+      <c r="G35" s="5" t="str">
+        <f>IF(B35&lt;&gt;"",CONCATENATE(inicio_consulta,C35,mid_consulta,A35,B35,fin_consulta),IF(A35&lt;&gt;"",CONCATENATE("-- ",A35),""))</f>
         <v>INSERT INTO tserver_permission VALUES (26,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingHotelRoomRoomTypeQuery');</v>
       </c>
     </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="2" t="str">
-        <f>IF(B34&lt;&gt;"",CONCATENATE(inicio_consulta,C34,mid_consulta,A34,B34,fin_consulta),IF(A34&lt;&gt;"",CONCATENATE("-- ",A34),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="2" t="str">
-        <f>IF(B35&lt;&gt;"",CONCATENATE(inicio_consulta,C35,mid_consulta,A35,B35,fin_consulta),IF(A35&lt;&gt;"",CONCATENATE("-- ",A35),""))</f>
+    <row r="36" spans="7:7">
+      <c r="G36" s="5" t="str">
+        <f>IF(B36&lt;&gt;"",CONCATENATE(inicio_consulta,C36,mid_consulta,A36,B36,fin_consulta),IF(A36&lt;&gt;"",CONCATENATE("-- ",A36),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="5" t="str">
+        <f>IF(B37&lt;&gt;"",CONCATENATE(inicio_consulta,C37,mid_consulta,A37,B37,fin_consulta),IF(A37&lt;&gt;"",CONCATENATE("-- ",A37),""))</f>
         <v>-- bookingServiceExtra</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <f>IF(A35&lt;&gt;"",CONCATENATE(A35,"Query"),"")</f>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="1" t="str">
+        <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Query"),"")</f>
         <v>bookingServiceExtraQuery</v>
       </c>
-      <c r="C36" s="1">
-        <f>C33+1</f>
+      <c r="C38" s="4">
+        <f>C35+1</f>
         <v>27</v>
       </c>
-      <c r="E36" s="2" t="str">
-        <f>IF(B36&lt;&gt;"",CONCATENATE(inicio_consulta,C36,mid_consulta,A36,B36,fin_consulta),IF(A36&lt;&gt;"",CONCATENATE("-- ",A36),""))</f>
+      <c r="G38" s="5" t="str">
+        <f>IF(B38&lt;&gt;"",CONCATENATE(inicio_consulta,C38,mid_consulta,A38,B38,fin_consulta),IF(A38&lt;&gt;"",CONCATENATE("-- ",A38),""))</f>
         <v>INSERT INTO tserver_permission VALUES (27,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraQuery');</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1" t="str">
-        <f>IF(A35&lt;&gt;"",CONCATENATE(A35,"Insert"),"")</f>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1" t="str">
+        <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Insert"),"")</f>
         <v>bookingServiceExtraInsert</v>
       </c>
-      <c r="C37" s="1">
-        <f>C36+1</f>
+      <c r="C39" s="4">
+        <f>C38+1</f>
         <v>28</v>
       </c>
-      <c r="E37" s="2" t="str">
-        <f>IF(B37&lt;&gt;"",CONCATENATE(inicio_consulta,C37,mid_consulta,A37,B37,fin_consulta),IF(A37&lt;&gt;"",CONCATENATE("-- ",A37),""))</f>
+      <c r="G39" s="5" t="str">
+        <f>IF(B39&lt;&gt;"",CONCATENATE(inicio_consulta,C39,mid_consulta,A39,B39,fin_consulta),IF(A39&lt;&gt;"",CONCATENATE("-- ",A39),""))</f>
         <v>INSERT INTO tserver_permission VALUES (28,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraInsert');</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="1" t="str">
-        <f>IF(A35&lt;&gt;"",CONCATENATE(A35,"Delete"),"")</f>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Delete"),"")</f>
         <v>bookingServiceExtraDelete</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" ref="C38:C40" si="4">C37+1</f>
+      <c r="C40" s="4">
+        <f t="shared" ref="C40:C42" si="4">C39+1</f>
         <v>29</v>
       </c>
-      <c r="E38" s="2" t="str">
-        <f>IF(B38&lt;&gt;"",CONCATENATE(inicio_consulta,C38,mid_consulta,A38,B38,fin_consulta),IF(A38&lt;&gt;"",CONCATENATE("-- ",A38),""))</f>
+      <c r="G40" s="5" t="str">
+        <f>IF(B40&lt;&gt;"",CONCATENATE(inicio_consulta,C40,mid_consulta,A40,B40,fin_consulta),IF(A40&lt;&gt;"",CONCATENATE("-- ",A40),""))</f>
         <v>INSERT INTO tserver_permission VALUES (29,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraDelete');</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="1">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="4">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="E39" s="2" t="str">
-        <f>IF(B39&lt;&gt;"",CONCATENATE(inicio_consulta,C39,mid_consulta,A39,B39,fin_consulta),IF(A39&lt;&gt;"",CONCATENATE("-- ",A39),""))</f>
+      <c r="G41" s="5" t="str">
+        <f>IF(B41&lt;&gt;"",CONCATENATE(inicio_consulta,C41,mid_consulta,A41,B41,fin_consulta),IF(A41&lt;&gt;"",CONCATENATE("-- ",A41),""))</f>
         <v>INSERT INTO tserver_permission VALUES (30,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingExtraServicePriceUnitsTotalQuery');</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="1">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="E40" s="2" t="str">
-        <f>IF(B40&lt;&gt;"",CONCATENATE(inicio_consulta,C40,mid_consulta,A40,B40,fin_consulta),IF(A40&lt;&gt;"",CONCATENATE("-- ",A40),""))</f>
+      <c r="G42" s="5" t="str">
+        <f>IF(B42&lt;&gt;"",CONCATENATE(inicio_consulta,C42,mid_consulta,A42,B42,fin_consulta),IF(A42&lt;&gt;"",CONCATENATE("-- ",A42),""))</f>
         <v>INSERT INTO tserver_permission VALUES (31,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/extraServicesNameDescriptionUnitsPriceDateQuery');</v>
       </c>
     </row>
-    <row r="41" spans="5:5">
-      <c r="E41" s="2" t="str">
-        <f>IF(B41&lt;&gt;"",CONCATENATE(inicio_consulta,C41,mid_consulta,A41,B41,fin_consulta),IF(A41&lt;&gt;"",CONCATENATE("-- ",A41),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="2" t="str">
-        <f>IF(B42&lt;&gt;"",CONCATENATE(inicio_consulta,C42,mid_consulta,A42,B42,fin_consulta),IF(A42&lt;&gt;"",CONCATENATE("-- ",A42),""))</f>
+    <row r="43" spans="7:7">
+      <c r="G43" s="5" t="str">
+        <f>IF(B43&lt;&gt;"",CONCATENATE(inicio_consulta,C43,mid_consulta,A43,B43,fin_consulta),IF(A43&lt;&gt;"",CONCATENATE("-- ",A43),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="5" t="str">
+        <f>IF(B44&lt;&gt;"",CONCATENATE(inicio_consulta,C44,mid_consulta,A44,B44,fin_consulta),IF(A44&lt;&gt;"",CONCATENATE("-- ",A44),""))</f>
         <v>-- country</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1" t="str">
-        <f>IF(A42&lt;&gt;"",CONCATENATE(A42,"Query"),"")</f>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>IF(A44&lt;&gt;"",CONCATENATE(A44,"Query"),"")</f>
         <v>countryQuery</v>
       </c>
-      <c r="C43" s="1">
-        <f>C40+1</f>
+      <c r="C45" s="4">
+        <f>C42+1</f>
         <v>32</v>
       </c>
-      <c r="E43" s="2" t="str">
-        <f>IF(B43&lt;&gt;"",CONCATENATE(inicio_consulta,C43,mid_consulta,A43,B43,fin_consulta),IF(A43&lt;&gt;"",CONCATENATE("-- ",A43),""))</f>
+      <c r="G45" s="5" t="str">
+        <f>IF(B45&lt;&gt;"",CONCATENATE(inicio_consulta,C45,mid_consulta,A45,B45,fin_consulta),IF(A45&lt;&gt;"",CONCATENATE("-- ",A45),""))</f>
         <v>INSERT INTO tserver_permission VALUES (32,'com.ontimize.atomicHotelsApiRest.api.core.service.ICountryService/countryQuery');</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" spans="5:5">
-      <c r="E44" s="2" t="str">
-        <f>IF(B44&lt;&gt;"",CONCATENATE(inicio_consulta,C44,mid_consulta,A44,B44,fin_consulta),IF(A44&lt;&gt;"",CONCATENATE("-- ",A44),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="2" t="str">
-        <f>IF(B45&lt;&gt;"",CONCATENATE(inicio_consulta,C45,mid_consulta,A45,B45,fin_consulta),IF(A45&lt;&gt;"",CONCATENATE("-- ",A45),""))</f>
+    <row r="46" ht="14.25" customHeight="1" spans="7:7">
+      <c r="G46" s="5" t="str">
+        <f>IF(B46&lt;&gt;"",CONCATENATE(inicio_consulta,C46,mid_consulta,A46,B46,fin_consulta),IF(A46&lt;&gt;"",CONCATENATE("-- ",A46),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="5" t="str">
+        <f>IF(B47&lt;&gt;"",CONCATENATE(inicio_consulta,C47,mid_consulta,A47,B47,fin_consulta),IF(A47&lt;&gt;"",CONCATENATE("-- ",A47),""))</f>
         <v>-- creditCard</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="1" t="str">
-        <f>IF(A45&lt;&gt;"",CONCATENATE(A45,"Query"),"")</f>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Query"),"")</f>
         <v>creditCardQuery</v>
       </c>
-      <c r="C46" s="1">
-        <f>C43+1</f>
+      <c r="C48" s="4">
+        <f>C45+1</f>
         <v>33</v>
       </c>
-      <c r="E46" s="2" t="str">
-        <f>IF(B46&lt;&gt;"",CONCATENATE(inicio_consulta,C46,mid_consulta,A46,B46,fin_consulta),IF(A46&lt;&gt;"",CONCATENATE("-- ",A46),""))</f>
+      <c r="G48" s="5" t="str">
+        <f>IF(B48&lt;&gt;"",CONCATENATE(inicio_consulta,C48,mid_consulta,A48,B48,fin_consulta),IF(A48&lt;&gt;"",CONCATENATE("-- ",A48),""))</f>
         <v>INSERT INTO tserver_permission VALUES (33,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardQuery');</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="1" t="str">
-        <f>IF(A45&lt;&gt;"",CONCATENATE(A45,"Insert"),"")</f>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Insert"),"")</f>
         <v>creditCardInsert</v>
       </c>
-      <c r="C47" s="1">
-        <f>C46+1</f>
+      <c r="C49" s="4">
+        <f>C48+1</f>
         <v>34</v>
       </c>
-      <c r="E47" s="2" t="str">
-        <f>IF(B47&lt;&gt;"",CONCATENATE(inicio_consulta,C47,mid_consulta,A47,B47,fin_consulta),IF(A47&lt;&gt;"",CONCATENATE("-- ",A47),""))</f>
+      <c r="G49" s="5" t="str">
+        <f>IF(B49&lt;&gt;"",CONCATENATE(inicio_consulta,C49,mid_consulta,A49,B49,fin_consulta),IF(A49&lt;&gt;"",CONCATENATE("-- ",A49),""))</f>
         <v>INSERT INTO tserver_permission VALUES (34,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardInsert');</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="1" t="str">
-        <f>IF(A45&lt;&gt;"",CONCATENATE(A45,"Delete"),"")</f>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Delete"),"")</f>
         <v>creditCardDelete</v>
       </c>
-      <c r="C48" s="1">
-        <f>C47+1</f>
+      <c r="C50" s="4">
+        <f>C49+1</f>
         <v>35</v>
       </c>
-      <c r="E48" s="2" t="str">
-        <f>IF(B48&lt;&gt;"",CONCATENATE(inicio_consulta,C48,mid_consulta,A48,B48,fin_consulta),IF(A48&lt;&gt;"",CONCATENATE("-- ",A48),""))</f>
+      <c r="G50" s="5" t="str">
+        <f>IF(B50&lt;&gt;"",CONCATENATE(inicio_consulta,C50,mid_consulta,A50,B50,fin_consulta),IF(A50&lt;&gt;"",CONCATENATE("-- ",A50),""))</f>
         <v>INSERT INTO tserver_permission VALUES (35,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardDelete');</v>
       </c>
     </row>
-    <row r="49" spans="5:5">
-      <c r="E49" s="2" t="str">
-        <f>IF(B49&lt;&gt;"",CONCATENATE(inicio_consulta,C49,mid_consulta,A49,B49,fin_consulta),IF(A49&lt;&gt;"",CONCATENATE("-- ",A49),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="2" t="str">
-        <f>IF(B50&lt;&gt;"",CONCATENATE(inicio_consulta,C50,mid_consulta,A50,B50,fin_consulta),IF(A50&lt;&gt;"",CONCATENATE("-- ",A50),""))</f>
+    <row r="51" spans="7:7">
+      <c r="G51" s="5" t="str">
+        <f>IF(B51&lt;&gt;"",CONCATENATE(inicio_consulta,C51,mid_consulta,A51,B51,fin_consulta),IF(A51&lt;&gt;"",CONCATENATE("-- ",A51),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="5" t="str">
+        <f>IF(B52&lt;&gt;"",CONCATENATE(inicio_consulta,C52,mid_consulta,A52,B52,fin_consulta),IF(A52&lt;&gt;"",CONCATENATE("-- ",A52),""))</f>
         <v>-- customerCreditCard</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="1" t="str">
-        <f>IF(A50&lt;&gt;"",CONCATENATE(A50,"Query"),"")</f>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Query"),"")</f>
         <v>customerCreditCardQuery</v>
       </c>
-      <c r="C51" s="1">
-        <f>C48+1</f>
+      <c r="C53" s="4">
+        <f>C50+1</f>
         <v>36</v>
       </c>
-      <c r="E51" s="2" t="str">
-        <f>IF(B51&lt;&gt;"",CONCATENATE(inicio_consulta,C51,mid_consulta,A51,B51,fin_consulta),IF(A51&lt;&gt;"",CONCATENATE("-- ",A51),""))</f>
+      <c r="G53" s="5" t="str">
+        <f>IF(B53&lt;&gt;"",CONCATENATE(inicio_consulta,C53,mid_consulta,A53,B53,fin_consulta),IF(A53&lt;&gt;"",CONCATENATE("-- ",A53),""))</f>
         <v>INSERT INTO tserver_permission VALUES (36,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardQuery');</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="1" t="str">
-        <f>IF(A50&lt;&gt;"",CONCATENATE(A50,"Insert"),"")</f>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Insert"),"")</f>
         <v>customerCreditCardInsert</v>
       </c>
-      <c r="C52" s="1">
-        <f>C51+1</f>
+      <c r="C54" s="4">
+        <f>C53+1</f>
         <v>37</v>
       </c>
-      <c r="E52" s="2" t="str">
-        <f>IF(B52&lt;&gt;"",CONCATENATE(inicio_consulta,C52,mid_consulta,A52,B52,fin_consulta),IF(A52&lt;&gt;"",CONCATENATE("-- ",A52),""))</f>
+      <c r="G54" s="5" t="str">
+        <f>IF(B54&lt;&gt;"",CONCATENATE(inicio_consulta,C54,mid_consulta,A54,B54,fin_consulta),IF(A54&lt;&gt;"",CONCATENATE("-- ",A54),""))</f>
         <v>INSERT INTO tserver_permission VALUES (37,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardInsert');</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <f>IF(A50&lt;&gt;"",CONCATENATE(A50,"Delete"),"")</f>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Delete"),"")</f>
         <v>customerCreditCardDelete</v>
       </c>
-      <c r="C53" s="1">
-        <f>C52+1</f>
+      <c r="C55" s="4">
+        <f>C54+1</f>
         <v>38</v>
       </c>
-      <c r="E53" s="2" t="str">
-        <f>IF(B53&lt;&gt;"",CONCATENATE(inicio_consulta,C53,mid_consulta,A53,B53,fin_consulta),IF(A53&lt;&gt;"",CONCATENATE("-- ",A53),""))</f>
+      <c r="G55" s="5" t="str">
+        <f>IF(B55&lt;&gt;"",CONCATENATE(inicio_consulta,C55,mid_consulta,A55,B55,fin_consulta),IF(A55&lt;&gt;"",CONCATENATE("-- ",A55),""))</f>
         <v>INSERT INTO tserver_permission VALUES (38,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardDelete');</v>
       </c>
     </row>
-    <row r="54" spans="5:5">
-      <c r="E54" s="2" t="str">
-        <f>IF(B54&lt;&gt;"",CONCATENATE(inicio_consulta,C54,mid_consulta,A54,B54,fin_consulta),IF(A54&lt;&gt;"",CONCATENATE("-- ",A54),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="2" t="str">
-        <f>IF(B55&lt;&gt;"",CONCATENATE(inicio_consulta,C55,mid_consulta,A55,B55,fin_consulta),IF(A55&lt;&gt;"",CONCATENATE("-- ",A55),""))</f>
+    <row r="56" spans="7:7">
+      <c r="G56" s="5" t="str">
+        <f>IF(B56&lt;&gt;"",CONCATENATE(inicio_consulta,C56,mid_consulta,A56,B56,fin_consulta),IF(A56&lt;&gt;"",CONCATENATE("-- ",A56),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="5" t="str">
+        <f>IF(B57&lt;&gt;"",CONCATENATE(inicio_consulta,C57,mid_consulta,A57,B57,fin_consulta),IF(A57&lt;&gt;"",CONCATENATE("-- ",A57),""))</f>
         <v>-- customer</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="1" t="str">
-        <f>IF(A55&lt;&gt;"",CONCATENATE(A55,"Query"),"")</f>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f>IF(A57&lt;&gt;"",CONCATENATE(A57,"Query"),"")</f>
         <v>customerQuery</v>
       </c>
-      <c r="C56" s="1">
-        <f>C53+1</f>
+      <c r="C58" s="4">
+        <f>C55+1</f>
         <v>39</v>
       </c>
-      <c r="E56" s="2" t="str">
-        <f>IF(B56&lt;&gt;"",CONCATENATE(inicio_consulta,C56,mid_consulta,A56,B56,fin_consulta),IF(A56&lt;&gt;"",CONCATENATE("-- ",A56),""))</f>
+      <c r="G58" s="5" t="str">
+        <f>IF(B58&lt;&gt;"",CONCATENATE(inicio_consulta,C58,mid_consulta,A58,B58,fin_consulta),IF(A58&lt;&gt;"",CONCATENATE("-- ",A58),""))</f>
         <v>INSERT INTO tserver_permission VALUES (39,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerQuery');</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="1">
-        <f>C56+1</f>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="4">
+        <f>C58+1</f>
         <v>40</v>
       </c>
-      <c r="E57" s="2" t="str">
-        <f>IF(B57&lt;&gt;"",CONCATENATE(inicio_consulta,C57,mid_consulta,A57,B57,fin_consulta),IF(A57&lt;&gt;"",CONCATENATE("-- ",A57),""))</f>
+      <c r="G59" s="5" t="str">
+        <f>IF(B59&lt;&gt;"",CONCATENATE(inicio_consulta,C59,mid_consulta,A59,B59,fin_consulta),IF(A59&lt;&gt;"",CONCATENATE("-- ",A59),""))</f>
         <v>INSERT INTO tserver_permission VALUES (40,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/mailAgreementQuery');</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="1">
-        <f t="shared" ref="C58:C64" si="5">C57+1</f>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" ref="C60:C66" si="5">C59+1</f>
         <v>41</v>
       </c>
-      <c r="E58" s="2" t="str">
-        <f>IF(B58&lt;&gt;"",CONCATENATE(inicio_consulta,C58,mid_consulta,A58,B58,fin_consulta),IF(A58&lt;&gt;"",CONCATENATE("-- ",A58),""))</f>
+      <c r="G60" s="5" t="str">
+        <f>IF(B60&lt;&gt;"",CONCATENATE(inicio_consulta,C60,mid_consulta,A60,B60,fin_consulta),IF(A60&lt;&gt;"",CONCATENATE("-- ",A60),""))</f>
         <v>INSERT INTO tserver_permission VALUES (41,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/isCustomerValidBookingHolder');</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="1" t="str">
-        <f>IF(A55&lt;&gt;"",CONCATENATE(A55,"Delete"),"")</f>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f>IF(A57&lt;&gt;"",CONCATENATE(A57,"Delete"),"")</f>
         <v>customerDelete</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C61" s="4">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="E59" s="2" t="str">
-        <f>IF(B59&lt;&gt;"",CONCATENATE(inicio_consulta,C59,mid_consulta,A59,B59,fin_consulta),IF(A59&lt;&gt;"",CONCATENATE("-- ",A59),""))</f>
+      <c r="G61" s="5" t="str">
+        <f>IF(B61&lt;&gt;"",CONCATENATE(inicio_consulta,C61,mid_consulta,A61,B61,fin_consulta),IF(A61&lt;&gt;"",CONCATENATE("-- ",A61),""))</f>
         <v>INSERT INTO tserver_permission VALUES (42,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerDelete');</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="1">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="4">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="E60" s="2" t="str">
-        <f>IF(B60&lt;&gt;"",CONCATENATE(inicio_consulta,C60,mid_consulta,A60,B60,fin_consulta),IF(A60&lt;&gt;"",CONCATENATE("-- ",A60),""))</f>
+      <c r="G62" s="5" t="str">
+        <f>IF(B62&lt;&gt;"",CONCATENATE(inicio_consulta,C62,mid_consulta,A62,B62,fin_consulta),IF(A62&lt;&gt;"",CONCATENATE("-- ",A62),""))</f>
         <v>INSERT INTO tserver_permission VALUES (43,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/businessCustomerInsert');</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="1">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="4">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="E61" s="2" t="str">
-        <f>IF(B61&lt;&gt;"",CONCATENATE(inicio_consulta,C61,mid_consulta,A61,B61,fin_consulta),IF(A61&lt;&gt;"",CONCATENATE("-- ",A61),""))</f>
+      <c r="G63" s="5" t="str">
+        <f>IF(B63&lt;&gt;"",CONCATENATE(inicio_consulta,C63,mid_consulta,A63,B63,fin_consulta),IF(A63&lt;&gt;"",CONCATENATE("-- ",A63),""))</f>
         <v>INSERT INTO tserver_permission VALUES (44,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/regularCustomerInsert');</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="1">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="4">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="E62" s="2" t="str">
-        <f>IF(B62&lt;&gt;"",CONCATENATE(inicio_consulta,C62,mid_consulta,A62,B62,fin_consulta),IF(A62&lt;&gt;"",CONCATENATE("-- ",A62),""))</f>
+      <c r="G64" s="5" t="str">
+        <f>IF(B64&lt;&gt;"",CONCATENATE(inicio_consulta,C64,mid_consulta,A64,B64,fin_consulta),IF(A64&lt;&gt;"",CONCATENATE("-- ",A64),""))</f>
         <v>INSERT INTO tserver_permission VALUES (45,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerCancelUpdate');</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="1">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="4">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="E63" s="2" t="str">
-        <f>IF(B63&lt;&gt;"",CONCATENATE(inicio_consulta,C63,mid_consulta,A63,B63,fin_consulta),IF(A63&lt;&gt;"",CONCATENATE("-- ",A63),""))</f>
+      <c r="G65" s="5" t="str">
+        <f>IF(B65&lt;&gt;"",CONCATENATE(inicio_consulta,C65,mid_consulta,A65,B65,fin_consulta),IF(A65&lt;&gt;"",CONCATENATE("-- ",A65),""))</f>
         <v>INSERT INTO tserver_permission VALUES (46,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerBusinessUpdate');</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="1">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="4">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="E64" s="2" t="str">
-        <f>IF(B64&lt;&gt;"",CONCATENATE(inicio_consulta,C64,mid_consulta,A64,B64,fin_consulta),IF(A64&lt;&gt;"",CONCATENATE("-- ",A64),""))</f>
+      <c r="G66" s="5" t="str">
+        <f>IF(B66&lt;&gt;"",CONCATENATE(inicio_consulta,C66,mid_consulta,A66,B66,fin_consulta),IF(A66&lt;&gt;"",CONCATENATE("-- ",A66),""))</f>
         <v>INSERT INTO tserver_permission VALUES (47,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerRegularUpdate');</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="2" t="str">
-        <f>IF(B65&lt;&gt;"",CONCATENATE(inicio_consulta,C65,mid_consulta,A65,B65,fin_consulta),IF(A65&lt;&gt;"",CONCATENATE("-- ",A65),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66" s="2" t="str">
-        <f>IF(B66&lt;&gt;"",CONCATENATE(inicio_consulta,C66,mid_consulta,A66,B66,fin_consulta),IF(A66&lt;&gt;"",CONCATENATE("-- ",A66),""))</f>
+    <row r="67" spans="7:7">
+      <c r="G67" s="5" t="str">
+        <f>IF(B67&lt;&gt;"",CONCATENATE(inicio_consulta,C67,mid_consulta,A67,B67,fin_consulta),IF(A67&lt;&gt;"",CONCATENATE("-- ",A67),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="5" t="str">
+        <f>IF(B68&lt;&gt;"",CONCATENATE(inicio_consulta,C68,mid_consulta,A68,B68,fin_consulta),IF(A68&lt;&gt;"",CONCATENATE("-- ",A68),""))</f>
         <v>-- feature</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" s="1" t="str">
-        <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Query"),"")</f>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Query"),"")</f>
         <v>featureQuery</v>
       </c>
-      <c r="C67" s="1">
-        <f>C64+1</f>
+      <c r="C69" s="4">
+        <f>C66+1</f>
         <v>48</v>
       </c>
-      <c r="E67" s="2" t="str">
-        <f>IF(B67&lt;&gt;"",CONCATENATE(inicio_consulta,C67,mid_consulta,A67,B67,fin_consulta),IF(A67&lt;&gt;"",CONCATENATE("-- ",A67),""))</f>
+      <c r="G69" s="5" t="str">
+        <f>IF(B69&lt;&gt;"",CONCATENATE(inicio_consulta,C69,mid_consulta,A69,B69,fin_consulta),IF(A69&lt;&gt;"",CONCATENATE("-- ",A69),""))</f>
         <v>INSERT INTO tserver_permission VALUES (48,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureQuery');</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Insert"),"")</f>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Insert"),"")</f>
         <v>featureInsert</v>
       </c>
-      <c r="C68" s="1">
-        <f>C67+1</f>
+      <c r="C70" s="4">
+        <f>C69+1</f>
         <v>49</v>
       </c>
-      <c r="E68" s="2" t="str">
-        <f>IF(B68&lt;&gt;"",CONCATENATE(inicio_consulta,C68,mid_consulta,A68,B68,fin_consulta),IF(A68&lt;&gt;"",CONCATENATE("-- ",A68),""))</f>
+      <c r="G70" s="5" t="str">
+        <f>IF(B70&lt;&gt;"",CONCATENATE(inicio_consulta,C70,mid_consulta,A70,B70,fin_consulta),IF(A70&lt;&gt;"",CONCATENATE("-- ",A70),""))</f>
         <v>INSERT INTO tserver_permission VALUES (49,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureInsert');</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="1" t="str">
-        <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Update"),"")</f>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Update"),"")</f>
         <v>featureUpdate</v>
       </c>
-      <c r="C69" s="1">
-        <f t="shared" ref="C69:C70" si="6">C68+1</f>
+      <c r="C71" s="4">
+        <f t="shared" ref="C71:C72" si="6">C70+1</f>
         <v>50</v>
       </c>
-      <c r="E69" s="2" t="str">
-        <f>IF(B69&lt;&gt;"",CONCATENATE(inicio_consulta,C69,mid_consulta,A69,B69,fin_consulta),IF(A69&lt;&gt;"",CONCATENATE("-- ",A69),""))</f>
+      <c r="G71" s="5" t="str">
+        <f>IF(B71&lt;&gt;"",CONCATENATE(inicio_consulta,C71,mid_consulta,A71,B71,fin_consulta),IF(A71&lt;&gt;"",CONCATENATE("-- ",A71),""))</f>
         <v>INSERT INTO tserver_permission VALUES (50,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureUpdate');</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="1" t="str">
-        <f>IF(A66&lt;&gt;"",CONCATENATE(A66,"Delete"),"")</f>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Delete"),"")</f>
         <v>featureDelete</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C72" s="4">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="E70" s="2" t="str">
-        <f>IF(B70&lt;&gt;"",CONCATENATE(inicio_consulta,C70,mid_consulta,A70,B70,fin_consulta),IF(A70&lt;&gt;"",CONCATENATE("-- ",A70),""))</f>
+      <c r="G72" s="5" t="str">
+        <f>IF(B72&lt;&gt;"",CONCATENATE(inicio_consulta,C72,mid_consulta,A72,B72,fin_consulta),IF(A72&lt;&gt;"",CONCATENATE("-- ",A72),""))</f>
         <v>INSERT INTO tserver_permission VALUES (51,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureDelete');</v>
       </c>
     </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="2" t="str">
-        <f>IF(B71&lt;&gt;"",CONCATENATE(inicio_consulta,C71,mid_consulta,A71,B71,fin_consulta),IF(A71&lt;&gt;"",CONCATENATE("-- ",A71),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E72" s="2" t="str">
-        <f>IF(B72&lt;&gt;"",CONCATENATE(inicio_consulta,C72,mid_consulta,A72,B72,fin_consulta),IF(A72&lt;&gt;"",CONCATENATE("-- ",A72),""))</f>
+    <row r="73" spans="7:7">
+      <c r="G73" s="5" t="str">
+        <f>IF(B73&lt;&gt;"",CONCATENATE(inicio_consulta,C73,mid_consulta,A73,B73,fin_consulta),IF(A73&lt;&gt;"",CONCATENATE("-- ",A73),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="5" t="str">
+        <f>IF(B74&lt;&gt;"",CONCATENATE(inicio_consulta,C74,mid_consulta,A74,B74,fin_consulta),IF(A74&lt;&gt;"",CONCATENATE("-- ",A74),""))</f>
         <v>-- hotelServiceExtra</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B73" s="1" t="str">
-        <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Query"),"")</f>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Query"),"")</f>
         <v>hotelServiceExtraQuery</v>
       </c>
-      <c r="C73" s="1">
-        <f>C70+1</f>
+      <c r="C75" s="4">
+        <f>C72+1</f>
         <v>52</v>
       </c>
-      <c r="E73" s="2" t="str">
-        <f>IF(B73&lt;&gt;"",CONCATENATE(inicio_consulta,C73,mid_consulta,A73,B73,fin_consulta),IF(A73&lt;&gt;"",CONCATENATE("-- ",A73),""))</f>
+      <c r="G75" s="5" t="str">
+        <f>IF(B75&lt;&gt;"",CONCATENATE(inicio_consulta,C75,mid_consulta,A75,B75,fin_consulta),IF(A75&lt;&gt;"",CONCATENATE("-- ",A75),""))</f>
         <v>INSERT INTO tserver_permission VALUES (52,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraQuery');</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B74" s="1" t="str">
-        <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Insert"),"")</f>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Insert"),"")</f>
         <v>hotelServiceExtraInsert</v>
       </c>
-      <c r="C74" s="1">
-        <f>C73+1</f>
+      <c r="C76" s="4">
+        <f>C75+1</f>
         <v>53</v>
       </c>
-      <c r="E74" s="2" t="str">
-        <f>IF(B74&lt;&gt;"",CONCATENATE(inicio_consulta,C74,mid_consulta,A74,B74,fin_consulta),IF(A74&lt;&gt;"",CONCATENATE("-- ",A74),""))</f>
+      <c r="G76" s="5" t="str">
+        <f>IF(B76&lt;&gt;"",CONCATENATE(inicio_consulta,C76,mid_consulta,A76,B76,fin_consulta),IF(A76&lt;&gt;"",CONCATENATE("-- ",A76),""))</f>
         <v>INSERT INTO tserver_permission VALUES (53,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraInsert');</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="1" t="str">
-        <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Update"),"")</f>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" s="1" t="str">
+        <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Update"),"")</f>
         <v>hotelServiceExtraUpdate</v>
       </c>
-      <c r="C75" s="1">
-        <f t="shared" ref="C75:C76" si="7">C74+1</f>
+      <c r="C77" s="4">
+        <f t="shared" ref="C77:C78" si="7">C76+1</f>
         <v>54</v>
       </c>
-      <c r="E75" s="2" t="str">
-        <f>IF(B75&lt;&gt;"",CONCATENATE(inicio_consulta,C75,mid_consulta,A75,B75,fin_consulta),IF(A75&lt;&gt;"",CONCATENATE("-- ",A75),""))</f>
+      <c r="G77" s="5" t="str">
+        <f>IF(B77&lt;&gt;"",CONCATENATE(inicio_consulta,C77,mid_consulta,A77,B77,fin_consulta),IF(A77&lt;&gt;"",CONCATENATE("-- ",A77),""))</f>
         <v>INSERT INTO tserver_permission VALUES (54,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraUpdate');</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="1" t="str">
-        <f>IF(A72&lt;&gt;"",CONCATENATE(A72,"Delete"),"")</f>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Delete"),"")</f>
         <v>hotelServiceExtraDelete</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C78" s="4">
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="E76" s="2" t="str">
-        <f>IF(B76&lt;&gt;"",CONCATENATE(inicio_consulta,C76,mid_consulta,A76,B76,fin_consulta),IF(A76&lt;&gt;"",CONCATENATE("-- ",A76),""))</f>
+      <c r="G78" s="5" t="str">
+        <f>IF(B78&lt;&gt;"",CONCATENATE(inicio_consulta,C78,mid_consulta,A78,B78,fin_consulta),IF(A78&lt;&gt;"",CONCATENATE("-- ",A78),""))</f>
         <v>INSERT INTO tserver_permission VALUES (55,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraDelete');</v>
       </c>
     </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="2" t="str">
-        <f>IF(B77&lt;&gt;"",CONCATENATE(inicio_consulta,C77,mid_consulta,A77,B77,fin_consulta),IF(A77&lt;&gt;"",CONCATENATE("-- ",A77),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E78" s="2" t="str">
-        <f>IF(B78&lt;&gt;"",CONCATENATE(inicio_consulta,C78,mid_consulta,A78,B78,fin_consulta),IF(A78&lt;&gt;"",CONCATENATE("-- ",A78),""))</f>
+    <row r="79" spans="7:7">
+      <c r="G79" s="5" t="str">
+        <f>IF(B79&lt;&gt;"",CONCATENATE(inicio_consulta,C79,mid_consulta,A79,B79,fin_consulta),IF(A79&lt;&gt;"",CONCATENATE("-- ",A79),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G80" s="5" t="str">
+        <f>IF(B80&lt;&gt;"",CONCATENATE(inicio_consulta,C80,mid_consulta,A80,B80,fin_consulta),IF(A80&lt;&gt;"",CONCATENATE("-- ",A80),""))</f>
         <v>-- hotelService</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" s="1" t="str">
-        <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Query"),"")</f>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Query"),"")</f>
         <v>hotelServiceQuery</v>
       </c>
-      <c r="C79" s="1">
-        <f>C76+1</f>
+      <c r="C81" s="4">
+        <f>C78+1</f>
         <v>56</v>
       </c>
-      <c r="E79" s="2" t="str">
-        <f>IF(B79&lt;&gt;"",CONCATENATE(inicio_consulta,C79,mid_consulta,A79,B79,fin_consulta),IF(A79&lt;&gt;"",CONCATENATE("-- ",A79),""))</f>
+      <c r="G81" s="5" t="str">
+        <f>IF(B81&lt;&gt;"",CONCATENATE(inicio_consulta,C81,mid_consulta,A81,B81,fin_consulta),IF(A81&lt;&gt;"",CONCATENATE("-- ",A81),""))</f>
         <v>INSERT INTO tserver_permission VALUES (56,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceQuery');</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="1" t="str">
-        <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Insert"),"")</f>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Insert"),"")</f>
         <v>hotelServiceInsert</v>
       </c>
-      <c r="C80" s="1">
-        <f>C79+1</f>
+      <c r="C82" s="4">
+        <f>C81+1</f>
         <v>57</v>
       </c>
-      <c r="E80" s="2" t="str">
-        <f>IF(B80&lt;&gt;"",CONCATENATE(inicio_consulta,C80,mid_consulta,A80,B80,fin_consulta),IF(A80&lt;&gt;"",CONCATENATE("-- ",A80),""))</f>
+      <c r="G82" s="5" t="str">
+        <f>IF(B82&lt;&gt;"",CONCATENATE(inicio_consulta,C82,mid_consulta,A82,B82,fin_consulta),IF(A82&lt;&gt;"",CONCATENATE("-- ",A82),""))</f>
         <v>INSERT INTO tserver_permission VALUES (57,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceInsert');</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81" s="1" t="str">
-        <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Update"),"")</f>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Update"),"")</f>
         <v>hotelServiceUpdate</v>
       </c>
-      <c r="C81" s="1">
-        <f t="shared" ref="C81:C82" si="8">C80+1</f>
+      <c r="C83" s="4">
+        <f t="shared" ref="C83:C84" si="8">C82+1</f>
         <v>58</v>
       </c>
-      <c r="E81" s="2" t="str">
-        <f>IF(B81&lt;&gt;"",CONCATENATE(inicio_consulta,C81,mid_consulta,A81,B81,fin_consulta),IF(A81&lt;&gt;"",CONCATENATE("-- ",A81),""))</f>
+      <c r="G83" s="5" t="str">
+        <f>IF(B83&lt;&gt;"",CONCATENATE(inicio_consulta,C83,mid_consulta,A83,B83,fin_consulta),IF(A83&lt;&gt;"",CONCATENATE("-- ",A83),""))</f>
         <v>INSERT INTO tserver_permission VALUES (58,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceUpdate');</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="1" t="str">
-        <f>IF(A78&lt;&gt;"",CONCATENATE(A78,"Delete"),"")</f>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Delete"),"")</f>
         <v>hotelServiceDelete</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C84" s="4">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="E82" s="2" t="str">
-        <f>IF(B82&lt;&gt;"",CONCATENATE(inicio_consulta,C82,mid_consulta,A82,B82,fin_consulta),IF(A82&lt;&gt;"",CONCATENATE("-- ",A82),""))</f>
+      <c r="G84" s="5" t="str">
+        <f>IF(B84&lt;&gt;"",CONCATENATE(inicio_consulta,C84,mid_consulta,A84,B84,fin_consulta),IF(A84&lt;&gt;"",CONCATENATE("-- ",A84),""))</f>
         <v>INSERT INTO tserver_permission VALUES (59,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceDelete');</v>
       </c>
     </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="2" t="str">
-        <f>IF(B83&lt;&gt;"",CONCATENATE(inicio_consulta,C83,mid_consulta,A83,B83,fin_consulta),IF(A83&lt;&gt;"",CONCATENATE("-- ",A83),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" s="2" t="str">
-        <f>IF(B84&lt;&gt;"",CONCATENATE(inicio_consulta,C84,mid_consulta,A84,B84,fin_consulta),IF(A84&lt;&gt;"",CONCATENATE("-- ",A84),""))</f>
+    <row r="85" spans="7:7">
+      <c r="G85" s="5" t="str">
+        <f>IF(B85&lt;&gt;"",CONCATENATE(inicio_consulta,C85,mid_consulta,A85,B85,fin_consulta),IF(A85&lt;&gt;"",CONCATENATE("-- ",A85),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G86" s="5" t="str">
+        <f>IF(B86&lt;&gt;"",CONCATENATE(inicio_consulta,C86,mid_consulta,A86,B86,fin_consulta),IF(A86&lt;&gt;"",CONCATENATE("-- ",A86),""))</f>
         <v>-- receipt</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" s="1" t="str">
-        <f>IF(A84&lt;&gt;"",CONCATENATE(A84,"Query"),"")</f>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Query"),"")</f>
         <v>receiptQuery</v>
       </c>
-      <c r="C85" s="1">
-        <f>C82+1</f>
+      <c r="C87" s="4">
+        <f>C84+1</f>
         <v>60</v>
       </c>
-      <c r="E85" s="2" t="str">
-        <f>IF(B85&lt;&gt;"",CONCATENATE(inicio_consulta,C85,mid_consulta,A85,B85,fin_consulta),IF(A85&lt;&gt;"",CONCATENATE("-- ",A85),""))</f>
+      <c r="G87" s="5" t="str">
+        <f>IF(B87&lt;&gt;"",CONCATENATE(inicio_consulta,C87,mid_consulta,A87,B87,fin_consulta),IF(A87&lt;&gt;"",CONCATENATE("-- ",A87),""))</f>
         <v>INSERT INTO tserver_permission VALUES (60,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptQuery');</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="1" t="str">
-        <f>IF(A84&lt;&gt;"",CONCATENATE(A84,"Insert"),"")</f>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Insert"),"")</f>
         <v>receiptInsert</v>
       </c>
-      <c r="C86" s="1">
-        <f>C85+1</f>
+      <c r="C88" s="4">
+        <f>C87+1</f>
         <v>61</v>
       </c>
-      <c r="E86" s="2" t="str">
-        <f>IF(B86&lt;&gt;"",CONCATENATE(inicio_consulta,C86,mid_consulta,A86,B86,fin_consulta),IF(A86&lt;&gt;"",CONCATENATE("-- ",A86),""))</f>
+      <c r="G88" s="5" t="str">
+        <f>IF(B88&lt;&gt;"",CONCATENATE(inicio_consulta,C88,mid_consulta,A88,B88,fin_consulta),IF(A88&lt;&gt;"",CONCATENATE("-- ",A88),""))</f>
         <v>INSERT INTO tserver_permission VALUES (61,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptInsert');</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C87" s="1">
-        <f t="shared" ref="C87:C88" si="9">C86+1</f>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" ref="C89:C90" si="9">C88+1</f>
         <v>62</v>
       </c>
-      <c r="E87" s="2" t="str">
-        <f>IF(B87&lt;&gt;"",CONCATENATE(inicio_consulta,C87,mid_consulta,A87,B87,fin_consulta),IF(A87&lt;&gt;"",CONCATENATE("-- ",A87),""))</f>
+      <c r="G89" s="5" t="str">
+        <f>IF(B89&lt;&gt;"",CONCATENATE(inicio_consulta,C89,mid_consulta,A89,B89,fin_consulta),IF(A89&lt;&gt;"",CONCATENATE("-- ",A89),""))</f>
         <v>INSERT INTO tserver_permission VALUES (62,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/completeReceiptQuery');</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="1" t="str">
-        <f>IF(A84&lt;&gt;"",CONCATENATE(A84,"Delete"),"")</f>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="1" t="str">
+        <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Delete"),"")</f>
         <v>receiptDelete</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C90" s="4">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="E88" s="2" t="str">
-        <f>IF(B88&lt;&gt;"",CONCATENATE(inicio_consulta,C88,mid_consulta,A88,B88,fin_consulta),IF(A88&lt;&gt;"",CONCATENATE("-- ",A88),""))</f>
+      <c r="G90" s="5" t="str">
+        <f>IF(B90&lt;&gt;"",CONCATENATE(inicio_consulta,C90,mid_consulta,A90,B90,fin_consulta),IF(A90&lt;&gt;"",CONCATENATE("-- ",A90),""))</f>
         <v>INSERT INTO tserver_permission VALUES (63,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptDelete');</v>
       </c>
     </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="2" t="str">
-        <f>IF(B89&lt;&gt;"",CONCATENATE(inicio_consulta,C89,mid_consulta,A89,B89,fin_consulta),IF(A89&lt;&gt;"",CONCATENATE("-- ",A89),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E90" s="2" t="str">
-        <f>IF(B90&lt;&gt;"",CONCATENATE(inicio_consulta,C90,mid_consulta,A90,B90,fin_consulta),IF(A90&lt;&gt;"",CONCATENATE("-- ",A90),""))</f>
+    <row r="91" spans="7:7">
+      <c r="G91" s="5" t="str">
+        <f>IF(B91&lt;&gt;"",CONCATENATE(inicio_consulta,C91,mid_consulta,A91,B91,fin_consulta),IF(A91&lt;&gt;"",CONCATENATE("-- ",A91),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G92" s="5" t="str">
+        <f>IF(B92&lt;&gt;"",CONCATENATE(inicio_consulta,C92,mid_consulta,A92,B92,fin_consulta),IF(A92&lt;&gt;"",CONCATENATE("-- ",A92),""))</f>
         <v>-- room</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="1" t="str">
-        <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Query"),"")</f>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="1" t="str">
+        <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Query"),"")</f>
         <v>roomQuery</v>
       </c>
-      <c r="C91" s="1">
-        <f>C88+1</f>
+      <c r="C93" s="4">
+        <f>C90+1</f>
         <v>64</v>
       </c>
-      <c r="E91" s="2" t="str">
-        <f>IF(B91&lt;&gt;"",CONCATENATE(inicio_consulta,C91,mid_consulta,A91,B91,fin_consulta),IF(A91&lt;&gt;"",CONCATENATE("-- ",A91),""))</f>
+      <c r="G93" s="5" t="str">
+        <f>IF(B93&lt;&gt;"",CONCATENATE(inicio_consulta,C93,mid_consulta,A93,B93,fin_consulta),IF(A93&lt;&gt;"",CONCATENATE("-- ",A93),""))</f>
         <v>INSERT INTO tserver_permission VALUES (64,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomQuery');</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92" s="1" t="str">
-        <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Insert"),"")</f>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="1" t="str">
+        <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Insert"),"")</f>
         <v>roomInsert</v>
       </c>
-      <c r="C92" s="1">
-        <f>C91+1</f>
+      <c r="C94" s="4">
+        <f>C93+1</f>
         <v>65</v>
       </c>
-      <c r="E92" s="2" t="str">
-        <f>IF(B92&lt;&gt;"",CONCATENATE(inicio_consulta,C92,mid_consulta,A92,B92,fin_consulta),IF(A92&lt;&gt;"",CONCATENATE("-- ",A92),""))</f>
+      <c r="G94" s="5" t="str">
+        <f>IF(B94&lt;&gt;"",CONCATENATE(inicio_consulta,C94,mid_consulta,A94,B94,fin_consulta),IF(A94&lt;&gt;"",CONCATENATE("-- ",A94),""))</f>
         <v>INSERT INTO tserver_permission VALUES (65,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInsert');</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" s="1" t="str">
-        <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Update"),"")</f>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="1" t="str">
+        <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Update"),"")</f>
         <v>roomUpdate</v>
       </c>
-      <c r="C93" s="1">
-        <f t="shared" ref="C93:C98" si="10">C92+1</f>
+      <c r="C95" s="4">
+        <f t="shared" ref="C95:C100" si="10">C94+1</f>
         <v>66</v>
       </c>
-      <c r="E93" s="2" t="str">
-        <f>IF(B93&lt;&gt;"",CONCATENATE(inicio_consulta,C93,mid_consulta,A93,B93,fin_consulta),IF(A93&lt;&gt;"",CONCATENATE("-- ",A93),""))</f>
+      <c r="G95" s="5" t="str">
+        <f>IF(B95&lt;&gt;"",CONCATENATE(inicio_consulta,C95,mid_consulta,A95,B95,fin_consulta),IF(A95&lt;&gt;"",CONCATENATE("-- ",A95),""))</f>
         <v>INSERT INTO tserver_permission VALUES (66,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomUpdate');</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" s="1" t="str">
-        <f>IF(A90&lt;&gt;"",CONCATENATE(A90,"Delete"),"")</f>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Delete"),"")</f>
         <v>roomDelete</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C96" s="4">
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="E94" s="2" t="str">
-        <f>IF(B94&lt;&gt;"",CONCATENATE(inicio_consulta,C94,mid_consulta,A94,B94,fin_consulta),IF(A94&lt;&gt;"",CONCATENATE("-- ",A94),""))</f>
+      <c r="G96" s="5" t="str">
+        <f>IF(B96&lt;&gt;"",CONCATENATE(inicio_consulta,C96,mid_consulta,A96,B96,fin_consulta),IF(A96&lt;&gt;"",CONCATENATE("-- ",A96),""))</f>
         <v>INSERT INTO tserver_permission VALUES (67,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomDelete');</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95" s="1">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="4">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="E95" s="2" t="str">
-        <f>IF(B95&lt;&gt;"",CONCATENATE(inicio_consulta,C95,mid_consulta,A95,B95,fin_consulta),IF(A95&lt;&gt;"",CONCATENATE("-- ",A95),""))</f>
+      <c r="G97" s="5" t="str">
+        <f>IF(B97&lt;&gt;"",CONCATENATE(inicio_consulta,C97,mid_consulta,A97,B97,fin_consulta),IF(A97&lt;&gt;"",CONCATENATE("-- ",A97),""))</f>
         <v>INSERT INTO tserver_permission VALUES (68,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomsUnbookedInRangeQuery');</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C96" s="1">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" s="4">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="E96" s="2" t="str">
-        <f>IF(B96&lt;&gt;"",CONCATENATE(inicio_consulta,C96,mid_consulta,A96,B96,fin_consulta),IF(A96&lt;&gt;"",CONCATENATE("-- ",A96),""))</f>
+      <c r="G98" s="5" t="str">
+        <f>IF(B98&lt;&gt;"",CONCATENATE(inicio_consulta,C98,mid_consulta,A98,B98,fin_consulta),IF(A98&lt;&gt;"",CONCATENATE("-- ",A98),""))</f>
         <v>INSERT INTO tserver_permission VALUES (69,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/isRoomUnbookedgInRange');</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" s="1">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C99" s="4">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="E97" s="2" t="str">
-        <f>IF(B97&lt;&gt;"",CONCATENATE(inicio_consulta,C97,mid_consulta,A97,B97,fin_consulta),IF(A97&lt;&gt;"",CONCATENATE("-- ",A97),""))</f>
+      <c r="G99" s="5" t="str">
+        <f>IF(B99&lt;&gt;"",CONCATENATE(inicio_consulta,C99,mid_consulta,A99,B99,fin_consulta),IF(A99&lt;&gt;"",CONCATENATE("-- ",A99),""))</f>
         <v>INSERT INTO tserver_permission VALUES (70,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInfoQuery');</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" s="1">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="4">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="E98" s="2" t="str">
-        <f>IF(B98&lt;&gt;"",CONCATENATE(inicio_consulta,C98,mid_consulta,A98,B98,fin_consulta),IF(A98&lt;&gt;"",CONCATENATE("-- ",A98),""))</f>
+      <c r="G100" s="5" t="str">
+        <f>IF(B100&lt;&gt;"",CONCATENATE(inicio_consulta,C100,mid_consulta,A100,B100,fin_consulta),IF(A100&lt;&gt;"",CONCATENATE("-- ",A100),""))</f>
         <v>INSERT INTO tserver_permission VALUES (71,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/infoHotelFeaturesQuery');</v>
       </c>
     </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="2" t="str">
-        <f>IF(B99&lt;&gt;"",CONCATENATE(inicio_consulta,C99,mid_consulta,A99,B99,fin_consulta),IF(A99&lt;&gt;"",CONCATENATE("-- ",A99),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E100" s="2" t="str">
-        <f>IF(B100&lt;&gt;"",CONCATENATE(inicio_consulta,C100,mid_consulta,A100,B100,fin_consulta),IF(A100&lt;&gt;"",CONCATENATE("-- ",A100),""))</f>
+    <row r="101" spans="7:7">
+      <c r="G101" s="5" t="str">
+        <f>IF(B101&lt;&gt;"",CONCATENATE(inicio_consulta,C101,mid_consulta,A101,B101,fin_consulta),IF(A101&lt;&gt;"",CONCATENATE("-- ",A101),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" s="5" t="str">
+        <f>IF(B102&lt;&gt;"",CONCATENATE(inicio_consulta,C102,mid_consulta,A102,B102,fin_consulta),IF(A102&lt;&gt;"",CONCATENATE("-- ",A102),""))</f>
         <v>-- roomTypeFeature</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B101" s="1" t="str">
-        <f>IF(A100&lt;&gt;"",CONCATENATE(A100,"Query"),"")</f>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B103" s="1" t="str">
+        <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Query"),"")</f>
         <v>roomTypeFeatureQuery</v>
       </c>
-      <c r="C101" s="1">
-        <f>C98+1</f>
+      <c r="C103" s="4">
+        <f>C100+1</f>
         <v>72</v>
       </c>
-      <c r="E101" s="2" t="str">
-        <f>IF(B101&lt;&gt;"",CONCATENATE(inicio_consulta,C101,mid_consulta,A101,B101,fin_consulta),IF(A101&lt;&gt;"",CONCATENATE("-- ",A101),""))</f>
+      <c r="G103" s="5" t="str">
+        <f>IF(B103&lt;&gt;"",CONCATENATE(inicio_consulta,C103,mid_consulta,A103,B103,fin_consulta),IF(A103&lt;&gt;"",CONCATENATE("-- ",A103),""))</f>
         <v>INSERT INTO tserver_permission VALUES (72,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureQuery');</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102" s="1" t="str">
-        <f>IF(A100&lt;&gt;"",CONCATENATE(A100,"Insert"),"")</f>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="1" t="str">
+        <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Insert"),"")</f>
         <v>roomTypeFeatureInsert</v>
       </c>
-      <c r="C102" s="1">
-        <f>C101+1</f>
+      <c r="C104" s="4">
+        <f>C103+1</f>
         <v>73</v>
       </c>
-      <c r="E102" s="2" t="str">
-        <f>IF(B102&lt;&gt;"",CONCATENATE(inicio_consulta,C102,mid_consulta,A102,B102,fin_consulta),IF(A102&lt;&gt;"",CONCATENATE("-- ",A102),""))</f>
+      <c r="G104" s="5" t="str">
+        <f>IF(B104&lt;&gt;"",CONCATENATE(inicio_consulta,C104,mid_consulta,A104,B104,fin_consulta),IF(A104&lt;&gt;"",CONCATENATE("-- ",A104),""))</f>
         <v>INSERT INTO tserver_permission VALUES (73,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureInsert');</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103" s="1" t="str">
-        <f>IF(A100&lt;&gt;"",CONCATENATE(A100,"Delete"),"")</f>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" s="1" t="str">
+        <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Delete"),"")</f>
         <v>roomTypeFeatureDelete</v>
       </c>
-      <c r="C103" s="1">
-        <f>C102+1</f>
+      <c r="C105" s="4">
+        <f>C104+1</f>
         <v>74</v>
       </c>
-      <c r="E103" s="2" t="str">
-        <f>IF(B103&lt;&gt;"",CONCATENATE(inicio_consulta,C103,mid_consulta,A103,B103,fin_consulta),IF(A103&lt;&gt;"",CONCATENATE("-- ",A103),""))</f>
+      <c r="G105" s="5" t="str">
+        <f>IF(B105&lt;&gt;"",CONCATENATE(inicio_consulta,C105,mid_consulta,A105,B105,fin_consulta),IF(A105&lt;&gt;"",CONCATENATE("-- ",A105),""))</f>
         <v>INSERT INTO tserver_permission VALUES (74,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureDelete');</v>
       </c>
     </row>
-    <row r="104" spans="5:5">
-      <c r="E104" s="2" t="str">
-        <f>IF(B104&lt;&gt;"",CONCATENATE(inicio_consulta,C104,mid_consulta,A104,B104,fin_consulta),IF(A104&lt;&gt;"",CONCATENATE("-- ",A104),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E105" s="2" t="str">
-        <f>IF(B105&lt;&gt;"",CONCATENATE(inicio_consulta,C105,mid_consulta,A105,B105,fin_consulta),IF(A105&lt;&gt;"",CONCATENATE("-- ",A105),""))</f>
+    <row r="106" spans="7:7">
+      <c r="G106" s="5" t="str">
+        <f>IF(B106&lt;&gt;"",CONCATENATE(inicio_consulta,C106,mid_consulta,A106,B106,fin_consulta),IF(A106&lt;&gt;"",CONCATENATE("-- ",A106),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G107" s="5" t="str">
+        <f>IF(B107&lt;&gt;"",CONCATENATE(inicio_consulta,C107,mid_consulta,A107,B107,fin_consulta),IF(A107&lt;&gt;"",CONCATENATE("-- ",A107),""))</f>
         <v>-- roomType</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106" s="1" t="str">
-        <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Query"),"")</f>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B108" s="1" t="str">
+        <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Query"),"")</f>
         <v>roomTypeQuery</v>
       </c>
-      <c r="C106" s="1">
-        <f>C103+1</f>
+      <c r="C108" s="4">
+        <f>C105+1</f>
         <v>75</v>
       </c>
-      <c r="E106" s="2" t="str">
-        <f>IF(B106&lt;&gt;"",CONCATENATE(inicio_consulta,C106,mid_consulta,A106,B106,fin_consulta),IF(A106&lt;&gt;"",CONCATENATE("-- ",A106),""))</f>
+      <c r="G108" s="5" t="str">
+        <f>IF(B108&lt;&gt;"",CONCATENATE(inicio_consulta,C108,mid_consulta,A108,B108,fin_consulta),IF(A108&lt;&gt;"",CONCATENATE("-- ",A108),""))</f>
         <v>INSERT INTO tserver_permission VALUES (75,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeQuery');</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107" s="1" t="str">
-        <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Insert"),"")</f>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="1" t="str">
+        <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Insert"),"")</f>
         <v>roomTypeInsert</v>
       </c>
-      <c r="C107" s="1">
-        <f>C106+1</f>
+      <c r="C109" s="4">
+        <f>C108+1</f>
         <v>76</v>
       </c>
-      <c r="E107" s="2" t="str">
-        <f>IF(B107&lt;&gt;"",CONCATENATE(inicio_consulta,C107,mid_consulta,A107,B107,fin_consulta),IF(A107&lt;&gt;"",CONCATENATE("-- ",A107),""))</f>
+      <c r="G109" s="5" t="str">
+        <f>IF(B109&lt;&gt;"",CONCATENATE(inicio_consulta,C109,mid_consulta,A109,B109,fin_consulta),IF(A109&lt;&gt;"",CONCATENATE("-- ",A109),""))</f>
         <v>INSERT INTO tserver_permission VALUES (76,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeInsert');</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B108" s="1" t="str">
-        <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Update"),"")</f>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B110" s="1" t="str">
+        <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Update"),"")</f>
         <v>roomTypeUpdate</v>
       </c>
-      <c r="C108" s="1">
-        <f t="shared" ref="C108:C111" si="11">C107+1</f>
+      <c r="C110" s="4">
+        <f t="shared" ref="C110:C113" si="11">C109+1</f>
         <v>77</v>
       </c>
-      <c r="E108" s="2" t="str">
-        <f>IF(B108&lt;&gt;"",CONCATENATE(inicio_consulta,C108,mid_consulta,A108,B108,fin_consulta),IF(A108&lt;&gt;"",CONCATENATE("-- ",A108),""))</f>
+      <c r="G110" s="5" t="str">
+        <f>IF(B110&lt;&gt;"",CONCATENATE(inicio_consulta,C110,mid_consulta,A110,B110,fin_consulta),IF(A110&lt;&gt;"",CONCATENATE("-- ",A110),""))</f>
         <v>INSERT INTO tserver_permission VALUES (77,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeUpdate');</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B109" s="1" t="str">
-        <f>IF(A105&lt;&gt;"",CONCATENATE(A105,"Delete"),"")</f>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B111" s="1" t="str">
+        <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Delete"),"")</f>
         <v>roomTypeDelete</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C111" s="4">
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
-      <c r="E109" s="2" t="str">
-        <f>IF(B109&lt;&gt;"",CONCATENATE(inicio_consulta,C109,mid_consulta,A109,B109,fin_consulta),IF(A109&lt;&gt;"",CONCATENATE("-- ",A109),""))</f>
+      <c r="G111" s="5" t="str">
+        <f>IF(B111&lt;&gt;"",CONCATENATE(inicio_consulta,C111,mid_consulta,A111,B111,fin_consulta),IF(A111&lt;&gt;"",CONCATENATE("-- ",A111),""))</f>
         <v>INSERT INTO tserver_permission VALUES (78,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeDelete');</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C110" s="1">
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="4">
         <f t="shared" si="11"/>
         <v>79</v>
       </c>
-      <c r="E110" s="2" t="str">
-        <f>IF(B110&lt;&gt;"",CONCATENATE(inicio_consulta,C110,mid_consulta,A110,B110,fin_consulta),IF(A110&lt;&gt;"",CONCATENATE("-- ",A110),""))</f>
+      <c r="G112" s="5" t="str">
+        <f>IF(B112&lt;&gt;"",CONCATENATE(inicio_consulta,C112,mid_consulta,A112,B112,fin_consulta),IF(A112&lt;&gt;"",CONCATENATE("-- ",A112),""))</f>
         <v>INSERT INTO tserver_permission VALUES (79,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoQuery');</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" s="1">
+    <row r="113" spans="1:7">
+      <c r="A113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="4">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="E111" s="2" t="str">
-        <f>IF(B111&lt;&gt;"",CONCATENATE(inicio_consulta,C111,mid_consulta,A111,B111,fin_consulta),IF(A111&lt;&gt;"",CONCATENATE("-- ",A111),""))</f>
+      <c r="G113" s="5" t="str">
+        <f>IF(B113&lt;&gt;"",CONCATENATE(inicio_consulta,C113,mid_consulta,A113,B113,fin_consulta),IF(A113&lt;&gt;"",CONCATENATE("-- ",A113),""))</f>
         <v>INSERT INTO tserver_permission VALUES (80,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoRoomFeaturesQuery');</v>
       </c>
     </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="2" t="str">
-        <f>IF(B112&lt;&gt;"",CONCATENATE(inicio_consulta,C112,mid_consulta,A112,B112,fin_consulta),IF(A112&lt;&gt;"",CONCATENATE("-- ",A112),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E113" s="2" t="str">
-        <f>IF(B113&lt;&gt;"",CONCATENATE(inicio_consulta,C113,mid_consulta,A113,B113,fin_consulta),IF(A113&lt;&gt;"",CONCATENATE("-- ",A113),""))</f>
+    <row r="114" spans="7:7">
+      <c r="G114" s="5" t="str">
+        <f>IF(B114&lt;&gt;"",CONCATENATE(inicio_consulta,C114,mid_consulta,A114,B114,fin_consulta),IF(A114&lt;&gt;"",CONCATENATE("-- ",A114),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G115" s="5" t="str">
+        <f>IF(B115&lt;&gt;"",CONCATENATE(inicio_consulta,C115,mid_consulta,A115,B115,fin_consulta),IF(A115&lt;&gt;"",CONCATENATE("-- ",A115),""))</f>
         <v>-- service</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B114" s="1" t="str">
-        <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Query"),"")</f>
+    <row r="116" spans="1:7">
+      <c r="A116" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116" s="1" t="str">
+        <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Query"),"")</f>
         <v>serviceQuery</v>
       </c>
-      <c r="C114" s="1">
-        <f>C111+1</f>
+      <c r="C116" s="4">
+        <f>C113+1</f>
         <v>81</v>
       </c>
-      <c r="E114" s="2" t="str">
-        <f>IF(B114&lt;&gt;"",CONCATENATE(inicio_consulta,C114,mid_consulta,A114,B114,fin_consulta),IF(A114&lt;&gt;"",CONCATENATE("-- ",A114),""))</f>
+      <c r="G116" s="5" t="str">
+        <f>IF(B116&lt;&gt;"",CONCATENATE(inicio_consulta,C116,mid_consulta,A116,B116,fin_consulta),IF(A116&lt;&gt;"",CONCATENATE("-- ",A116),""))</f>
         <v>INSERT INTO tserver_permission VALUES (81,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceQuery');</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115" s="1" t="str">
-        <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Insert"),"")</f>
+    <row r="117" spans="1:7">
+      <c r="A117" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B117" s="1" t="str">
+        <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Insert"),"")</f>
         <v>serviceInsert</v>
       </c>
-      <c r="C115" s="1">
-        <f>C114+1</f>
+      <c r="C117" s="4">
+        <f>C116+1</f>
         <v>82</v>
       </c>
-      <c r="E115" s="2" t="str">
-        <f>IF(B115&lt;&gt;"",CONCATENATE(inicio_consulta,C115,mid_consulta,A115,B115,fin_consulta),IF(A115&lt;&gt;"",CONCATENATE("-- ",A115),""))</f>
+      <c r="G117" s="5" t="str">
+        <f>IF(B117&lt;&gt;"",CONCATENATE(inicio_consulta,C117,mid_consulta,A117,B117,fin_consulta),IF(A117&lt;&gt;"",CONCATENATE("-- ",A117),""))</f>
         <v>INSERT INTO tserver_permission VALUES (82,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceInsert');</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B116" s="1" t="str">
-        <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Update"),"")</f>
+    <row r="118" spans="1:7">
+      <c r="A118" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B118" s="1" t="str">
+        <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Update"),"")</f>
         <v>serviceUpdate</v>
       </c>
-      <c r="C116" s="1">
-        <f t="shared" ref="C116:C117" si="12">C115+1</f>
+      <c r="C118" s="4">
+        <f t="shared" ref="C118:C119" si="12">C117+1</f>
         <v>83</v>
       </c>
-      <c r="E116" s="2" t="str">
-        <f>IF(B116&lt;&gt;"",CONCATENATE(inicio_consulta,C116,mid_consulta,A116,B116,fin_consulta),IF(A116&lt;&gt;"",CONCATENATE("-- ",A116),""))</f>
+      <c r="G118" s="5" t="str">
+        <f>IF(B118&lt;&gt;"",CONCATENATE(inicio_consulta,C118,mid_consulta,A118,B118,fin_consulta),IF(A118&lt;&gt;"",CONCATENATE("-- ",A118),""))</f>
         <v>INSERT INTO tserver_permission VALUES (83,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceUpdate');</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B117" s="1" t="str">
-        <f>IF(A113&lt;&gt;"",CONCATENATE(A113,"Delete"),"")</f>
+    <row r="119" spans="1:7">
+      <c r="A119" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" s="1" t="str">
+        <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Delete"),"")</f>
         <v>serviceDelete</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C119" s="4">
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="E117" s="2" t="str">
-        <f>IF(B117&lt;&gt;"",CONCATENATE(inicio_consulta,C117,mid_consulta,A117,B117,fin_consulta),IF(A117&lt;&gt;"",CONCATENATE("-- ",A117),""))</f>
+      <c r="G119" s="5" t="str">
+        <f>IF(B119&lt;&gt;"",CONCATENATE(inicio_consulta,C119,mid_consulta,A119,B119,fin_consulta),IF(A119&lt;&gt;"",CONCATENATE("-- ",A119),""))</f>
         <v>INSERT INTO tserver_permission VALUES (84,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceDelete');</v>
       </c>
     </row>
-    <row r="118" spans="5:5">
-      <c r="E118" s="2" t="str">
-        <f>IF(B118&lt;&gt;"",CONCATENATE(inicio_consulta,C118,mid_consulta,A118,B118,fin_consulta),IF(A118&lt;&gt;"",CONCATENATE("-- ",A118),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E119" s="2" t="str">
-        <f>IF(B119&lt;&gt;"",CONCATENATE(inicio_consulta,C119,mid_consulta,A119,B119,fin_consulta),IF(A119&lt;&gt;"",CONCATENATE("-- ",A119),""))</f>
+    <row r="120" spans="7:7">
+      <c r="G120" s="5" t="str">
+        <f>IF(B120&lt;&gt;"",CONCATENATE(inicio_consulta,C120,mid_consulta,A120,B120,fin_consulta),IF(A120&lt;&gt;"",CONCATENATE("-- ",A120),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G121" s="5" t="str">
+        <f>IF(B121&lt;&gt;"",CONCATENATE(inicio_consulta,C121,mid_consulta,A121,B121,fin_consulta),IF(A121&lt;&gt;"",CONCATENATE("-- ",A121),""))</f>
         <v>-- servicesXtra</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B120" s="1" t="str">
-        <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Query"),"")</f>
+    <row r="122" spans="1:7">
+      <c r="A122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="1" t="str">
+        <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Query"),"")</f>
         <v>servicesXtraQuery</v>
       </c>
-      <c r="C120" s="1">
-        <f>C117+1</f>
+      <c r="C122" s="4">
+        <f>C119+1</f>
         <v>85</v>
       </c>
-      <c r="E120" s="2" t="str">
-        <f>IF(B120&lt;&gt;"",CONCATENATE(inicio_consulta,C120,mid_consulta,A120,B120,fin_consulta),IF(A120&lt;&gt;"",CONCATENATE("-- ",A120),""))</f>
+      <c r="G122" s="5" t="str">
+        <f>IF(B122&lt;&gt;"",CONCATENATE(inicio_consulta,C122,mid_consulta,A122,B122,fin_consulta),IF(A122&lt;&gt;"",CONCATENATE("-- ",A122),""))</f>
         <v>INSERT INTO tserver_permission VALUES (85,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraQuery');</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B121" s="1" t="str">
-        <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Insert"),"")</f>
+    <row r="123" spans="1:7">
+      <c r="A123" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" s="1" t="str">
+        <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Insert"),"")</f>
         <v>servicesXtraInsert</v>
       </c>
-      <c r="C121" s="1">
-        <f>C120+1</f>
+      <c r="C123" s="4">
+        <f>C122+1</f>
         <v>86</v>
       </c>
-      <c r="E121" s="2" t="str">
-        <f>IF(B121&lt;&gt;"",CONCATENATE(inicio_consulta,C121,mid_consulta,A121,B121,fin_consulta),IF(A121&lt;&gt;"",CONCATENATE("-- ",A121),""))</f>
+      <c r="G123" s="5" t="str">
+        <f>IF(B123&lt;&gt;"",CONCATENATE(inicio_consulta,C123,mid_consulta,A123,B123,fin_consulta),IF(A123&lt;&gt;"",CONCATENATE("-- ",A123),""))</f>
         <v>INSERT INTO tserver_permission VALUES (86,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraInsert');</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B122" s="1" t="str">
-        <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Update"),"")</f>
+    <row r="124" spans="1:7">
+      <c r="A124" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" s="1" t="str">
+        <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Update"),"")</f>
         <v>servicesXtraUpdate</v>
       </c>
-      <c r="C122" s="1">
-        <f t="shared" ref="C122:C123" si="13">C121+1</f>
+      <c r="C124" s="4">
+        <f t="shared" ref="C124:C125" si="13">C123+1</f>
         <v>87</v>
       </c>
-      <c r="E122" s="2" t="str">
-        <f>IF(B122&lt;&gt;"",CONCATENATE(inicio_consulta,C122,mid_consulta,A122,B122,fin_consulta),IF(A122&lt;&gt;"",CONCATENATE("-- ",A122),""))</f>
+      <c r="G124" s="5" t="str">
+        <f>IF(B124&lt;&gt;"",CONCATENATE(inicio_consulta,C124,mid_consulta,A124,B124,fin_consulta),IF(A124&lt;&gt;"",CONCATENATE("-- ",A124),""))</f>
         <v>INSERT INTO tserver_permission VALUES (87,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraUpdate');</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B123" s="1" t="str">
-        <f>IF(A119&lt;&gt;"",CONCATENATE(A119,"Delete"),"")</f>
+    <row r="125" spans="1:7">
+      <c r="A125" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125" s="1" t="str">
+        <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Delete"),"")</f>
         <v>servicesXtraDelete</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C125" s="4">
         <f t="shared" si="13"/>
         <v>88</v>
       </c>
-      <c r="E123" s="2" t="str">
-        <f>IF(B123&lt;&gt;"",CONCATENATE(inicio_consulta,C123,mid_consulta,A123,B123,fin_consulta),IF(A123&lt;&gt;"",CONCATENATE("-- ",A123),""))</f>
+      <c r="G125" s="5" t="str">
+        <f>IF(B125&lt;&gt;"",CONCATENATE(inicio_consulta,C125,mid_consulta,A125,B125,fin_consulta),IF(A125&lt;&gt;"",CONCATENATE("-- ",A125),""))</f>
         <v>INSERT INTO tserver_permission VALUES (88,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraDelete');</v>
       </c>
     </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="2" t="str">
-        <f>IF(B124&lt;&gt;"",CONCATENATE(inicio_consulta,C124,mid_consulta,A124,B124,fin_consulta),IF(A124&lt;&gt;"",CONCATENATE("-- ",A124),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E125" s="2" t="str">
-        <f>IF(B125&lt;&gt;"",CONCATENATE(inicio_consulta,C125,mid_consulta,A125,B125,fin_consulta),IF(A125&lt;&gt;"",CONCATENATE("-- ",A125),""))</f>
+    <row r="126" spans="7:7">
+      <c r="G126" s="5" t="str">
+        <f>IF(B126&lt;&gt;"",CONCATENATE(inicio_consulta,C126,mid_consulta,A126,B126,fin_consulta),IF(A126&lt;&gt;"",CONCATENATE("-- ",A126),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G127" s="5" t="str">
+        <f>IF(B127&lt;&gt;"",CONCATENATE(inicio_consulta,C127,mid_consulta,A127,B127,fin_consulta),IF(A127&lt;&gt;"",CONCATENATE("-- ",A127),""))</f>
         <v>-- user</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B126" s="1" t="str">
-        <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Query"),"")</f>
+    <row r="128" spans="1:7">
+      <c r="A128" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" s="1" t="str">
+        <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Query"),"")</f>
         <v>userQuery</v>
       </c>
-      <c r="C126" s="1">
-        <f>C123+1</f>
+      <c r="C128" s="4">
+        <f>C125+1</f>
         <v>89</v>
       </c>
-      <c r="E126" s="2" t="str">
-        <f>IF(B126&lt;&gt;"",CONCATENATE(inicio_consulta,C126,mid_consulta,A126,B126,fin_consulta),IF(A126&lt;&gt;"",CONCATENATE("-- ",A126),""))</f>
+      <c r="G128" s="5" t="str">
+        <f>IF(B128&lt;&gt;"",CONCATENATE(inicio_consulta,C128,mid_consulta,A128,B128,fin_consulta),IF(A128&lt;&gt;"",CONCATENATE("-- ",A128),""))</f>
         <v>INSERT INTO tserver_permission VALUES (89,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userQuery');</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B127" s="1" t="str">
-        <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Insert"),"")</f>
+    <row r="129" spans="1:7">
+      <c r="A129" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="1" t="str">
+        <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Insert"),"")</f>
         <v>userInsert</v>
       </c>
-      <c r="C127" s="1">
-        <f>C126+1</f>
+      <c r="C129" s="4">
+        <f>C128+1</f>
         <v>90</v>
       </c>
-      <c r="E127" s="2" t="str">
-        <f>IF(B127&lt;&gt;"",CONCATENATE(inicio_consulta,C127,mid_consulta,A127,B127,fin_consulta),IF(A127&lt;&gt;"",CONCATENATE("-- ",A127),""))</f>
+      <c r="G129" s="5" t="str">
+        <f>IF(B129&lt;&gt;"",CONCATENATE(inicio_consulta,C129,mid_consulta,A129,B129,fin_consulta),IF(A129&lt;&gt;"",CONCATENATE("-- ",A129),""))</f>
         <v>INSERT INTO tserver_permission VALUES (90,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userInsert');</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B128" s="1" t="str">
-        <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Update"),"")</f>
+    <row r="130" spans="1:7">
+      <c r="A130" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B130" s="1" t="str">
+        <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Update"),"")</f>
         <v>userUpdate</v>
       </c>
-      <c r="C128" s="1">
-        <f t="shared" ref="C128:C129" si="14">C127+1</f>
+      <c r="C130" s="4">
+        <f t="shared" ref="C130:C131" si="14">C129+1</f>
         <v>91</v>
       </c>
-      <c r="E128" s="2" t="str">
-        <f>IF(B128&lt;&gt;"",CONCATENATE(inicio_consulta,C128,mid_consulta,A128,B128,fin_consulta),IF(A128&lt;&gt;"",CONCATENATE("-- ",A128),""))</f>
+      <c r="G130" s="5" t="str">
+        <f>IF(B130&lt;&gt;"",CONCATENATE(inicio_consulta,C130,mid_consulta,A130,B130,fin_consulta),IF(A130&lt;&gt;"",CONCATENATE("-- ",A130),""))</f>
         <v>INSERT INTO tserver_permission VALUES (91,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userUpdate');</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B129" s="1" t="str">
-        <f>IF(A125&lt;&gt;"",CONCATENATE(A125,"Delete"),"")</f>
+    <row r="131" spans="1:7">
+      <c r="A131" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" s="1" t="str">
+        <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Delete"),"")</f>
         <v>userDelete</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C131" s="4">
         <f t="shared" si="14"/>
         <v>92</v>
       </c>
-      <c r="E129" s="2" t="str">
-        <f>IF(B129&lt;&gt;"",CONCATENATE(inicio_consulta,C129,mid_consulta,A129,B129,fin_consulta),IF(A129&lt;&gt;"",CONCATENATE("-- ",A129),""))</f>
+      <c r="G131" s="5" t="str">
+        <f>IF(B131&lt;&gt;"",CONCATENATE(inicio_consulta,C131,mid_consulta,A131,B131,fin_consulta),IF(A131&lt;&gt;"",CONCATENATE("-- ",A131),""))</f>
         <v>INSERT INTO tserver_permission VALUES (92,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userDelete');</v>
       </c>
     </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="2" t="str">
-        <f>IF(B130&lt;&gt;"",CONCATENATE(inicio_consulta,C130,mid_consulta,A130,B130,fin_consulta),IF(A130&lt;&gt;"",CONCATENATE("-- ",A130),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E131" s="2" t="str">
-        <f>IF(B131&lt;&gt;"",CONCATENATE(inicio_consulta,C131,mid_consulta,A131,B131,fin_consulta),IF(A131&lt;&gt;"",CONCATENATE("-- ",A131),""))</f>
+    <row r="132" spans="7:7">
+      <c r="G132" s="5" t="str">
+        <f>IF(B132&lt;&gt;"",CONCATENATE(inicio_consulta,C132,mid_consulta,A132,B132,fin_consulta),IF(A132&lt;&gt;"",CONCATENATE("-- ",A132),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G133" s="5" t="str">
+        <f>IF(B133&lt;&gt;"",CONCATENATE(inicio_consulta,C133,mid_consulta,A133,B133,fin_consulta),IF(A133&lt;&gt;"",CONCATENATE("-- ",A133),""))</f>
         <v>-- department</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B132" s="1" t="str">
-        <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Query"),"")</f>
+    <row r="134" spans="1:7">
+      <c r="A134" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Query"),"")</f>
         <v>departmentQuery</v>
       </c>
-      <c r="C132" s="1">
-        <f>C129+1</f>
+      <c r="C134" s="4">
+        <f>C131+1</f>
         <v>93</v>
       </c>
-      <c r="E132" s="2" t="str">
-        <f>IF(B132&lt;&gt;"",CONCATENATE(inicio_consulta,C132,mid_consulta,A132,B132,fin_consulta),IF(A132&lt;&gt;"",CONCATENATE("-- ",A132),""))</f>
+      <c r="G134" s="5" t="str">
+        <f>IF(B134&lt;&gt;"",CONCATENATE(inicio_consulta,C134,mid_consulta,A134,B134,fin_consulta),IF(A134&lt;&gt;"",CONCATENATE("-- ",A134),""))</f>
         <v>INSERT INTO tserver_permission VALUES (93,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentQuery');</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="1" t="str">
-        <f>A132</f>
+    <row r="135" spans="1:7">
+      <c r="A135" s="1" t="str">
+        <f>A134</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
       </c>
-      <c r="B133" s="1" t="str">
-        <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Insert"),"")</f>
+      <c r="B135" s="1" t="str">
+        <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Insert"),"")</f>
         <v>departmentInsert</v>
       </c>
-      <c r="C133" s="1">
-        <f>C132+1</f>
+      <c r="C135" s="4">
+        <f>C134+1</f>
         <v>94</v>
       </c>
-      <c r="E133" s="2" t="str">
-        <f>IF(B133&lt;&gt;"",CONCATENATE(inicio_consulta,C133,mid_consulta,A133,B133,fin_consulta),IF(A133&lt;&gt;"",CONCATENATE("-- ",A133),""))</f>
+      <c r="G135" s="5" t="str">
+        <f>IF(B135&lt;&gt;"",CONCATENATE(inicio_consulta,C135,mid_consulta,A135,B135,fin_consulta),IF(A135&lt;&gt;"",CONCATENATE("-- ",A135),""))</f>
         <v>INSERT INTO tserver_permission VALUES (94,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentInsert');</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1" t="str">
-        <f t="shared" ref="A134:A135" si="15">A133</f>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="str">
+        <f t="shared" ref="A136:A137" si="15">A135</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
       </c>
-      <c r="B134" s="1" t="str">
-        <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Update"),"")</f>
+      <c r="B136" s="1" t="str">
+        <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Update"),"")</f>
         <v>departmentUpdate</v>
       </c>
-      <c r="C134" s="1">
-        <f t="shared" ref="C134:C135" si="16">C133+1</f>
+      <c r="C136" s="4">
+        <f t="shared" ref="C136:C137" si="16">C135+1</f>
         <v>95</v>
       </c>
-      <c r="E134" s="2" t="str">
-        <f>IF(B134&lt;&gt;"",CONCATENATE(inicio_consulta,C134,mid_consulta,A134,B134,fin_consulta),IF(A134&lt;&gt;"",CONCATENATE("-- ",A134),""))</f>
+      <c r="G136" s="5" t="str">
+        <f>IF(B136&lt;&gt;"",CONCATENATE(inicio_consulta,C136,mid_consulta,A136,B136,fin_consulta),IF(A136&lt;&gt;"",CONCATENATE("-- ",A136),""))</f>
         <v>INSERT INTO tserver_permission VALUES (95,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentUpdate');</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="1" t="str">
+    <row r="137" spans="1:7">
+      <c r="A137" s="1" t="str">
         <f t="shared" si="15"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
       </c>
-      <c r="B135" s="1" t="str">
-        <f>IF(A131&lt;&gt;"",CONCATENATE(A131,"Delete"),"")</f>
+      <c r="B137" s="1" t="str">
+        <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Delete"),"")</f>
         <v>departmentDelete</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C137" s="4">
         <f t="shared" si="16"/>
         <v>96</v>
       </c>
-      <c r="E135" s="2" t="str">
-        <f>IF(B135&lt;&gt;"",CONCATENATE(inicio_consulta,C135,mid_consulta,A135,B135,fin_consulta),IF(A135&lt;&gt;"",CONCATENATE("-- ",A135),""))</f>
+      <c r="G137" s="5" t="str">
+        <f>IF(B137&lt;&gt;"",CONCATENATE(inicio_consulta,C137,mid_consulta,A137,B137,fin_consulta),IF(A137&lt;&gt;"",CONCATENATE("-- ",A137),""))</f>
         <v>INSERT INTO tserver_permission VALUES (96,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentDelete');</v>
       </c>
     </row>
-    <row r="136" spans="5:5">
-      <c r="E136" s="2" t="str">
-        <f>IF(B136&lt;&gt;"",CONCATENATE(inicio_consulta,C136,mid_consulta,A136,B136,fin_consulta),IF(A136&lt;&gt;"",CONCATENATE("-- ",A136),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E137" s="2" t="str">
-        <f>IF(B137&lt;&gt;"",CONCATENATE(inicio_consulta,C137,mid_consulta,A137,B137,fin_consulta),IF(A137&lt;&gt;"",CONCATENATE("-- ",A137),""))</f>
+    <row r="138" spans="7:7">
+      <c r="G138" s="5" t="str">
+        <f>IF(B138&lt;&gt;"",CONCATENATE(inicio_consulta,C138,mid_consulta,A138,B138,fin_consulta),IF(A138&lt;&gt;"",CONCATENATE("-- ",A138),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G139" s="5" t="str">
+        <f>IF(B139&lt;&gt;"",CONCATENATE(inicio_consulta,C139,mid_consulta,A139,B139,fin_consulta),IF(A139&lt;&gt;"",CONCATENATE("-- ",A139),""))</f>
         <v>-- employee</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B138" s="1" t="str">
-        <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Query"),"")</f>
+    <row r="140" spans="1:7">
+      <c r="A140" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Query"),"")</f>
         <v>employeeQuery</v>
       </c>
-      <c r="C138" s="1">
-        <f>C135+1</f>
+      <c r="C140" s="4">
+        <f>C137+1</f>
         <v>97</v>
       </c>
-      <c r="E138" s="2" t="str">
-        <f>IF(B138&lt;&gt;"",CONCATENATE(inicio_consulta,C138,mid_consulta,A138,B138,fin_consulta),IF(A138&lt;&gt;"",CONCATENATE("-- ",A138),""))</f>
+      <c r="G140" s="5" t="str">
+        <f>IF(B140&lt;&gt;"",CONCATENATE(inicio_consulta,C140,mid_consulta,A140,B140,fin_consulta),IF(A140&lt;&gt;"",CONCATENATE("-- ",A140),""))</f>
         <v>INSERT INTO tserver_permission VALUES (97,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeQuery');</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1" t="str">
-        <f>A138</f>
+    <row r="141" spans="1:7">
+      <c r="A141" s="1" t="str">
+        <f>A140</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
       </c>
-      <c r="B139" s="1" t="str">
-        <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Insert"),"")</f>
+      <c r="B141" s="1" t="str">
+        <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Insert"),"")</f>
         <v>employeeInsert</v>
       </c>
-      <c r="C139" s="1">
-        <f>C138+1</f>
+      <c r="C141" s="4">
+        <f>C140+1</f>
         <v>98</v>
       </c>
-      <c r="E139" s="2" t="str">
-        <f>IF(B139&lt;&gt;"",CONCATENATE(inicio_consulta,C139,mid_consulta,A139,B139,fin_consulta),IF(A139&lt;&gt;"",CONCATENATE("-- ",A139),""))</f>
+      <c r="G141" s="5" t="str">
+        <f>IF(B141&lt;&gt;"",CONCATENATE(inicio_consulta,C141,mid_consulta,A141,B141,fin_consulta),IF(A141&lt;&gt;"",CONCATENATE("-- ",A141),""))</f>
         <v>INSERT INTO tserver_permission VALUES (98,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeInsert');</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1" t="str">
-        <f t="shared" ref="A140:A141" si="17">A139</f>
+    <row r="142" spans="1:7">
+      <c r="A142" s="1" t="str">
+        <f t="shared" ref="A142:A143" si="17">A141</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
       </c>
-      <c r="B140" s="1" t="str">
-        <f>IF(A137&lt;&gt;"",CONCATENATE(A137,"Update"),"")</f>
+      <c r="B142" s="1" t="str">
+        <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Update"),"")</f>
         <v>employeeUpdate</v>
       </c>
-      <c r="C140" s="1">
-        <f t="shared" ref="C140:C141" si="18">C139+1</f>
+      <c r="C142" s="4">
+        <f t="shared" ref="C142:C143" si="18">C141+1</f>
         <v>99</v>
       </c>
-      <c r="E140" s="2" t="str">
-        <f>IF(B140&lt;&gt;"",CONCATENATE(inicio_consulta,C140,mid_consulta,A140,B140,fin_consulta),IF(A140&lt;&gt;"",CONCATENATE("-- ",A140),""))</f>
+      <c r="G142" s="5" t="str">
+        <f>IF(B142&lt;&gt;"",CONCATENATE(inicio_consulta,C142,mid_consulta,A142,B142,fin_consulta),IF(A142&lt;&gt;"",CONCATENATE("-- ",A142),""))</f>
         <v>INSERT INTO tserver_permission VALUES (99,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeUpdate');</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1" t="str">
+    <row r="143" spans="1:7">
+      <c r="A143" s="1" t="str">
         <f t="shared" si="17"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C141" s="1">
+      <c r="B143" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="4">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="E141" s="2" t="str">
-        <f>IF(B141&lt;&gt;"",CONCATENATE(inicio_consulta,C141,mid_consulta,A141,B141,fin_consulta),IF(A141&lt;&gt;"",CONCATENATE("-- ",A141),""))</f>
+      <c r="G143" s="5" t="str">
+        <f>IF(B143&lt;&gt;"",CONCATENATE(inicio_consulta,C143,mid_consulta,A143,B143,fin_consulta),IF(A143&lt;&gt;"",CONCATENATE("-- ",A143),""))</f>
         <v>INSERT INTO tserver_permission VALUES (100,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeFiredUpdate');</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E143" s="2" t="str">
-        <f>IF(B143&lt;&gt;"",CONCATENATE(inicio_consulta,C143,mid_consulta,A143,B143,fin_consulta),IF(A143&lt;&gt;"",CONCATENATE("-- ",A143),""))</f>
+    <row r="145" spans="1:7">
+      <c r="A145" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G145" s="5" t="str">
+        <f>IF(B145&lt;&gt;"",CONCATENATE(inicio_consulta,C145,mid_consulta,A145,B145,fin_consulta),IF(A145&lt;&gt;"",CONCATENATE("-- ",A145),""))</f>
         <v>-- bill</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B144" s="1" t="str">
-        <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Query"),"")</f>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" s="1" t="str">
+        <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Query"),"")</f>
         <v>billQuery</v>
       </c>
-      <c r="C144" s="1">
-        <f>C141+1</f>
+      <c r="C146" s="4">
+        <f>C143+1</f>
         <v>101</v>
       </c>
-      <c r="E144" s="2" t="str">
-        <f>IF(B144&lt;&gt;"",CONCATENATE(inicio_consulta,C144,mid_consulta,A144,B144,fin_consulta),IF(A144&lt;&gt;"",CONCATENATE("-- ",A144),""))</f>
+      <c r="G146" s="5" t="str">
+        <f>IF(B146&lt;&gt;"",CONCATENATE(inicio_consulta,C146,mid_consulta,A146,B146,fin_consulta),IF(A146&lt;&gt;"",CONCATENATE("-- ",A146),""))</f>
         <v>INSERT INTO tserver_permission VALUES (101,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billQuery');</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="1" t="str">
-        <f>A144</f>
+    <row r="147" spans="1:7">
+      <c r="A147" s="1" t="str">
+        <f>A146</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
-      <c r="B145" s="1" t="str">
-        <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Insert"),"")</f>
+      <c r="B147" s="1" t="str">
+        <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Insert"),"")</f>
         <v>billInsert</v>
       </c>
-      <c r="C145" s="1">
-        <f>C144+1</f>
+      <c r="C147" s="4">
+        <f>C146+1</f>
         <v>102</v>
       </c>
-      <c r="E145" s="2" t="str">
-        <f>IF(B145&lt;&gt;"",CONCATENATE(inicio_consulta,C145,mid_consulta,A145,B145,fin_consulta),IF(A145&lt;&gt;"",CONCATENATE("-- ",A145),""))</f>
+      <c r="G147" s="5" t="str">
+        <f>IF(B147&lt;&gt;"",CONCATENATE(inicio_consulta,C147,mid_consulta,A147,B147,fin_consulta),IF(A147&lt;&gt;"",CONCATENATE("-- ",A147),""))</f>
         <v>INSERT INTO tserver_permission VALUES (102,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billInsert');</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="1" t="str">
-        <f t="shared" ref="A146:A150" si="19">A145</f>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="str">
+        <f t="shared" ref="A148:A152" si="19">A147</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
-      <c r="B146" s="1" t="str">
-        <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Update"),"")</f>
+      <c r="B148" s="1" t="str">
+        <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Update"),"")</f>
         <v>billUpdate</v>
       </c>
-      <c r="C146" s="1">
-        <f t="shared" ref="C146:C150" si="20">C145+1</f>
+      <c r="C148" s="4">
+        <f t="shared" ref="C148:C152" si="20">C147+1</f>
         <v>103</v>
       </c>
-      <c r="E146" s="2" t="str">
-        <f>IF(B146&lt;&gt;"",CONCATENATE(inicio_consulta,C146,mid_consulta,A146,B146,fin_consulta),IF(A146&lt;&gt;"",CONCATENATE("-- ",A146),""))</f>
+      <c r="G148" s="5" t="str">
+        <f>IF(B148&lt;&gt;"",CONCATENATE(inicio_consulta,C148,mid_consulta,A148,B148,fin_consulta),IF(A148&lt;&gt;"",CONCATENATE("-- ",A148),""))</f>
         <v>INSERT INTO tserver_permission VALUES (103,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billUpdate');</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
-      </c>
-      <c r="B147" s="1" t="str">
-        <f>IF(A143&lt;&gt;"",CONCATENATE(A143,"Delete"),"")</f>
-        <v>billDelete</v>
-      </c>
-      <c r="C147" s="1">
-        <f t="shared" si="20"/>
-        <v>104</v>
-      </c>
-      <c r="E147" s="2" t="str">
-        <f>IF(B147&lt;&gt;"",CONCATENATE(inicio_consulta,C147,mid_consulta,A147,B147,fin_consulta),IF(A147&lt;&gt;"",CONCATENATE("-- ",A147),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (104,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billDelete');</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C148" s="1">
-        <f t="shared" si="20"/>
-        <v>105</v>
-      </c>
-      <c r="E148" s="2" t="str">
-        <f>IF(B148&lt;&gt;"",CONCATENATE(inicio_consulta,C148,mid_consulta,A148,B148,fin_consulta),IF(A148&lt;&gt;"",CONCATENATE("-- ",A148),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (105,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoQuery');</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:7">
       <c r="A149" s="1" t="str">
         <f t="shared" si="19"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C149" s="1">
+      <c r="B149" s="1" t="str">
+        <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Delete"),"")</f>
+        <v>billDelete</v>
+      </c>
+      <c r="C149" s="4">
         <f t="shared" si="20"/>
-        <v>106</v>
-      </c>
-      <c r="E149" s="2" t="str">
+        <v>104</v>
+      </c>
+      <c r="G149" s="5" t="str">
         <f>IF(B149&lt;&gt;"",CONCATENATE(inicio_consulta,C149,mid_consulta,A149,B149,fin_consulta),IF(A149&lt;&gt;"",CONCATENATE("-- ",A149),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (106,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoHotelQuery');</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>INSERT INTO tserver_permission VALUES (104,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billDelete');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1" t="str">
         <f t="shared" si="19"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C150" s="1">
+        <v>87</v>
+      </c>
+      <c r="C150" s="4">
+        <f t="shared" si="20"/>
+        <v>105</v>
+      </c>
+      <c r="G150" s="5" t="str">
+        <f>IF(B150&lt;&gt;"",CONCATENATE(inicio_consulta,C150,mid_consulta,A150,B150,fin_consulta),IF(A150&lt;&gt;"",CONCATENATE("-- ",A150),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (105,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoQuery');</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C151" s="4">
+        <f t="shared" si="20"/>
+        <v>106</v>
+      </c>
+      <c r="G151" s="5" t="str">
+        <f>IF(B151&lt;&gt;"",CONCATENATE(inicio_consulta,C151,mid_consulta,A151,B151,fin_consulta),IF(A151&lt;&gt;"",CONCATENATE("-- ",A151),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (106,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoHotelQuery');</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="4">
         <f t="shared" si="20"/>
         <v>107</v>
       </c>
-      <c r="E150" s="2" t="str">
-        <f>IF(B150&lt;&gt;"",CONCATENATE(inicio_consulta,C150,mid_consulta,A150,B150,fin_consulta),IF(A150&lt;&gt;"",CONCATENATE("-- ",A150),""))</f>
+      <c r="G152" s="5" t="str">
+        <f>IF(B152&lt;&gt;"",CONCATENATE(inicio_consulta,C152,mid_consulta,A152,B152,fin_consulta),IF(A152&lt;&gt;"",CONCATENATE("-- ",A152),""))</f>
         <v>INSERT INTO tserver_permission VALUES (107,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billsByHotelDepartmentQuery');</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E152" s="2" t="str">
-        <f>IF(B152&lt;&gt;"",CONCATENATE(inicio_consulta,C152,mid_consulta,A152,B152,fin_consulta),IF(A152&lt;&gt;"",CONCATENATE("-- ",A152),""))</f>
+    <row r="154" spans="1:7">
+      <c r="A154" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G154" s="5" t="str">
+        <f>IF(B154&lt;&gt;"",CONCATENATE(inicio_consulta,C154,mid_consulta,A154,B154,fin_consulta),IF(A154&lt;&gt;"",CONCATENATE("-- ",A154),""))</f>
         <v>-- userRole</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B153" s="1" t="str">
-        <f>IF(A152&lt;&gt;"",CONCATENATE(A152,"Query"),"")</f>
+    <row r="155" spans="1:7">
+      <c r="A155" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B155" s="1" t="str">
+        <f>IF(A154&lt;&gt;"",CONCATENATE(A154,"Query"),"")</f>
         <v>userRoleQuery</v>
       </c>
-      <c r="C153" s="1">
-        <f>C150+1</f>
+      <c r="C155" s="4">
+        <f>C152+1</f>
         <v>108</v>
       </c>
-      <c r="E153" s="2" t="str">
-        <f>IF(B153&lt;&gt;"",CONCATENATE(inicio_consulta,C153,mid_consulta,A153,B153,fin_consulta),IF(A153&lt;&gt;"",CONCATENATE("-- ",A153),""))</f>
+      <c r="G155" s="5" t="str">
+        <f>IF(B155&lt;&gt;"",CONCATENATE(inicio_consulta,C155,mid_consulta,A155,B155,fin_consulta),IF(A155&lt;&gt;"",CONCATENATE("-- ",A155),""))</f>
         <v>INSERT INTO tserver_permission VALUES (108,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleQuery');</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="1" t="str">
-        <f>A153</f>
+    <row r="156" spans="1:7">
+      <c r="A156" s="1" t="str">
+        <f>A155</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/</v>
       </c>
-      <c r="B154" s="1" t="str">
-        <f>IF(A152&lt;&gt;"",CONCATENATE(A152,"Insert"),"")</f>
+      <c r="B156" s="1" t="str">
+        <f>IF(A154&lt;&gt;"",CONCATENATE(A154,"Insert"),"")</f>
         <v>userRoleInsert</v>
       </c>
-      <c r="C154" s="1">
-        <f t="shared" ref="C154:C156" si="21">C153+1</f>
+      <c r="C156" s="4">
+        <f t="shared" ref="C156:C158" si="21">C155+1</f>
         <v>109</v>
       </c>
-      <c r="E154" s="2" t="str">
-        <f>IF(B154&lt;&gt;"",CONCATENATE(inicio_consulta,C154,mid_consulta,A154,B154,fin_consulta),IF(A154&lt;&gt;"",CONCATENATE("-- ",A154),""))</f>
+      <c r="G156" s="5" t="str">
+        <f>IF(B156&lt;&gt;"",CONCATENATE(inicio_consulta,C156,mid_consulta,A156,B156,fin_consulta),IF(A156&lt;&gt;"",CONCATENATE("-- ",A156),""))</f>
         <v>INSERT INTO tserver_permission VALUES (109,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleInsert');</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="1" t="str">
-        <f>A154</f>
+    <row r="157" spans="1:7">
+      <c r="A157" s="1" t="str">
+        <f>A156</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C155" s="1">
+      <c r="B157" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" s="4">
         <f t="shared" si="21"/>
         <v>110</v>
       </c>
-      <c r="E155" s="2" t="str">
-        <f>IF(B155&lt;&gt;"",CONCATENATE(inicio_consulta,C155,mid_consulta,A155,B155,fin_consulta),IF(A155&lt;&gt;"",CONCATENATE("-- ",A155),""))</f>
+      <c r="G157" s="5" t="str">
+        <f>IF(B157&lt;&gt;"",CONCATENATE(inicio_consulta,C157,mid_consulta,A157,B157,fin_consulta),IF(A157&lt;&gt;"",CONCATENATE("-- ",A157),""))</f>
         <v>INSERT INTO tserver_permission VALUES (110,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleDelete');</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="E157" s="2" t="str">
-        <f>IF(B157&lt;&gt;"",CONCATENATE(inicio_consulta,C157,mid_consulta,A157,B157,fin_consulta),IF(A157&lt;&gt;"",CONCATENATE("-- ",A157),""))</f>
+    <row r="159" spans="1:7">
+      <c r="A159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="5" t="str">
+        <f>IF(B159&lt;&gt;"",CONCATENATE(inicio_consulta,C159,mid_consulta,A159,B159,fin_consulta),IF(A159&lt;&gt;"",CONCATENATE("-- ",A159),""))</f>
         <v>-- hotel</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B158" s="1" t="s">
+    <row r="160" spans="1:7">
+      <c r="A160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C160" s="4">
+        <f>C157+1</f>
+        <v>111</v>
+      </c>
+      <c r="G160" s="5" t="str">
+        <f>IF(B160&lt;&gt;"",CONCATENATE(inicio_consulta,C160,mid_consulta,A160,B160,fin_consulta),IF(A160&lt;&gt;"",CONCATENATE("-- ",A160),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (111,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/poiQuery');</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G162" s="5" t="str">
+        <f>IF(B162&lt;&gt;"",CONCATENATE(inicio_consulta,C162,mid_consulta,A162,B162,fin_consulta),IF(A162&lt;&gt;"",CONCATENATE("-- ",A162),""))</f>
+        <v>-- user</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C158" s="1">
-        <f>C155+1</f>
-        <v>111</v>
-      </c>
-      <c r="E158" s="2" t="str">
-        <f>IF(B158&lt;&gt;"",CONCATENATE(inicio_consulta,C158,mid_consulta,A158,B158,fin_consulta),IF(A158&lt;&gt;"",CONCATENATE("-- ",A158),""))</f>
-        <v>INSERT INTO tserver_permission VALUES (111,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/poiQuery');</v>
-      </c>
-    </row>
-    <row r="160" spans="5:5">
-      <c r="E160" s="2" t="str">
-        <f>IF(B160&lt;&gt;"",CONCATENATE(inicio_consulta,C160,mid_consulta,A160,B160,fin_consulta),IF(A160&lt;&gt;"",CONCATENATE("-- ",A160),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="5:5">
-      <c r="E161" s="2" t="str">
-        <f>IF(B161&lt;&gt;"",CONCATENATE(inicio_consulta,C161,mid_consulta,A161,B161,fin_consulta),IF(A161&lt;&gt;"",CONCATENATE("-- ",A161),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="5:5">
-      <c r="E162" s="2" t="str">
-        <f>IF(B162&lt;&gt;"",CONCATENATE(inicio_consulta,C162,mid_consulta,A162,B162,fin_consulta),IF(A162&lt;&gt;"",CONCATENATE("-- ",A162),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="5:5">
-      <c r="E163" s="2" t="str">
+      <c r="B163" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C163" s="4">
+        <f>C160+1</f>
+        <v>112</v>
+      </c>
+      <c r="G163" s="5" t="str">
         <f>IF(B163&lt;&gt;"",CONCATENATE(inicio_consulta,C163,mid_consulta,A163,B163,fin_consulta),IF(A163&lt;&gt;"",CONCATENATE("-- ",A163),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="5:5">
-      <c r="E164" s="2" t="str">
-        <f>IF(B164&lt;&gt;"",CONCATENATE(inicio_consulta,C164,mid_consulta,A164,B164,fin_consulta),IF(A164&lt;&gt;"",CONCATENATE("-- ",A164),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="5:5">
-      <c r="E165" s="2" t="str">
+        <v>INSERT INTO tserver_permission VALUES (112,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userCancelUpdate');</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7">
+      <c r="G165" s="5" t="str">
         <f>IF(B165&lt;&gt;"",CONCATENATE(inicio_consulta,C165,mid_consulta,A165,B165,fin_consulta),IF(A165&lt;&gt;"",CONCATENATE("-- ",A165),""))</f>
         <v/>
       </c>
     </row>
-    <row r="166" spans="5:5">
-      <c r="E166" s="2" t="str">
+    <row r="166" spans="7:7">
+      <c r="G166" s="5" t="str">
         <f>IF(B166&lt;&gt;"",CONCATENATE(inicio_consulta,C166,mid_consulta,A166,B166,fin_consulta),IF(A166&lt;&gt;"",CONCATENATE("-- ",A166),""))</f>
         <v/>
       </c>
     </row>
-    <row r="167" spans="5:5">
-      <c r="E167" s="2" t="str">
+    <row r="167" spans="7:7">
+      <c r="G167" s="5" t="str">
         <f>IF(B167&lt;&gt;"",CONCATENATE(inicio_consulta,C167,mid_consulta,A167,B167,fin_consulta),IF(A167&lt;&gt;"",CONCATENATE("-- ",A167),""))</f>
         <v/>
       </c>
     </row>
-    <row r="168" spans="5:5">
-      <c r="E168" s="2" t="str">
+    <row r="168" spans="7:7">
+      <c r="G168" s="5" t="str">
         <f>IF(B168&lt;&gt;"",CONCATENATE(inicio_consulta,C168,mid_consulta,A168,B168,fin_consulta),IF(A168&lt;&gt;"",CONCATENATE("-- ",A168),""))</f>
         <v/>
       </c>
     </row>
-    <row r="169" spans="5:5">
-      <c r="E169" s="2" t="str">
+    <row r="169" spans="7:7">
+      <c r="G169" s="5" t="str">
         <f>IF(B169&lt;&gt;"",CONCATENATE(inicio_consulta,C169,mid_consulta,A169,B169,fin_consulta),IF(A169&lt;&gt;"",CONCATENATE("-- ",A169),""))</f>
         <v/>
       </c>
     </row>
-    <row r="170" spans="5:5">
-      <c r="E170" s="2" t="str">
+    <row r="170" spans="7:7">
+      <c r="G170" s="5" t="str">
         <f>IF(B170&lt;&gt;"",CONCATENATE(inicio_consulta,C170,mid_consulta,A170,B170,fin_consulta),IF(A170&lt;&gt;"",CONCATENATE("-- ",A170),""))</f>
         <v/>
       </c>
     </row>
-    <row r="171" spans="5:5">
-      <c r="E171" s="2" t="str">
+    <row r="171" spans="7:7">
+      <c r="G171" s="5" t="str">
         <f>IF(B171&lt;&gt;"",CONCATENATE(inicio_consulta,C171,mid_consulta,A171,B171,fin_consulta),IF(A171&lt;&gt;"",CONCATENATE("-- ",A171),""))</f>
         <v/>
       </c>
     </row>
-    <row r="172" spans="5:5">
-      <c r="E172" s="2" t="str">
+    <row r="172" spans="7:7">
+      <c r="G172" s="5" t="str">
         <f>IF(B172&lt;&gt;"",CONCATENATE(inicio_consulta,C172,mid_consulta,A172,B172,fin_consulta),IF(A172&lt;&gt;"",CONCATENATE("-- ",A172),""))</f>
         <v/>
       </c>
     </row>
-    <row r="173" spans="5:5">
-      <c r="E173" s="2" t="str">
+    <row r="173" spans="7:7">
+      <c r="G173" s="5" t="str">
         <f>IF(B173&lt;&gt;"",CONCATENATE(inicio_consulta,C173,mid_consulta,A173,B173,fin_consulta),IF(A173&lt;&gt;"",CONCATENATE("-- ",A173),""))</f>
         <v/>
       </c>
     </row>
-    <row r="174" spans="5:5">
-      <c r="E174" s="2" t="str">
+    <row r="174" spans="7:7">
+      <c r="G174" s="5" t="str">
         <f>IF(B174&lt;&gt;"",CONCATENATE(inicio_consulta,C174,mid_consulta,A174,B174,fin_consulta),IF(A174&lt;&gt;"",CONCATENATE("-- ",A174),""))</f>
         <v/>
       </c>
     </row>
-    <row r="175" spans="5:5">
-      <c r="E175" s="2" t="str">
+    <row r="175" spans="7:7">
+      <c r="G175" s="5" t="str">
         <f>IF(B175&lt;&gt;"",CONCATENATE(inicio_consulta,C175,mid_consulta,A175,B175,fin_consulta),IF(A175&lt;&gt;"",CONCATENATE("-- ",A175),""))</f>
         <v/>
       </c>
     </row>
-    <row r="176" spans="5:5">
-      <c r="E176" s="2" t="str">
+    <row r="176" spans="7:7">
+      <c r="G176" s="5" t="str">
         <f>IF(B176&lt;&gt;"",CONCATENATE(inicio_consulta,C176,mid_consulta,A176,B176,fin_consulta),IF(A176&lt;&gt;"",CONCATENATE("-- ",A176),""))</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="5:5">
-      <c r="E177" s="2" t="str">
+    <row r="177" spans="7:7">
+      <c r="G177" s="5" t="str">
         <f>IF(B177&lt;&gt;"",CONCATENATE(inicio_consulta,C177,mid_consulta,A177,B177,fin_consulta),IF(A177&lt;&gt;"",CONCATENATE("-- ",A177),""))</f>
         <v/>
       </c>
     </row>
-    <row r="178" spans="5:5">
-      <c r="E178" s="2" t="str">
+    <row r="178" spans="7:7">
+      <c r="G178" s="5" t="str">
         <f>IF(B178&lt;&gt;"",CONCATENATE(inicio_consulta,C178,mid_consulta,A178,B178,fin_consulta),IF(A178&lt;&gt;"",CONCATENATE("-- ",A178),""))</f>
         <v/>
       </c>
     </row>
-    <row r="179" spans="5:5">
-      <c r="E179" s="2" t="str">
+    <row r="179" spans="7:7">
+      <c r="G179" s="5" t="str">
         <f>IF(B179&lt;&gt;"",CONCATENATE(inicio_consulta,C179,mid_consulta,A179,B179,fin_consulta),IF(A179&lt;&gt;"",CONCATENATE("-- ",A179),""))</f>
         <v/>
       </c>
     </row>
-    <row r="180" spans="5:5">
-      <c r="E180" s="2" t="str">
+    <row r="180" spans="7:7">
+      <c r="G180" s="5" t="str">
         <f>IF(B180&lt;&gt;"",CONCATENATE(inicio_consulta,C180,mid_consulta,A180,B180,fin_consulta),IF(A180&lt;&gt;"",CONCATENATE("-- ",A180),""))</f>
         <v/>
       </c>
     </row>
-    <row r="181" spans="5:5">
-      <c r="E181" s="2" t="str">
+    <row r="181" spans="7:7">
+      <c r="G181" s="5" t="str">
         <f>IF(B181&lt;&gt;"",CONCATENATE(inicio_consulta,C181,mid_consulta,A181,B181,fin_consulta),IF(A181&lt;&gt;"",CONCATENATE("-- ",A181),""))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5">
-      <c r="E182" s="2" t="str">
+    <row r="182" spans="7:7">
+      <c r="G182" s="5" t="str">
         <f>IF(B182&lt;&gt;"",CONCATENATE(inicio_consulta,C182,mid_consulta,A182,B182,fin_consulta),IF(A182&lt;&gt;"",CONCATENATE("-- ",A182),""))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5">
-      <c r="E183" s="2" t="str">
+    <row r="183" spans="7:7">
+      <c r="G183" s="5" t="str">
         <f>IF(B183&lt;&gt;"",CONCATENATE(inicio_consulta,C183,mid_consulta,A183,B183,fin_consulta),IF(A183&lt;&gt;"",CONCATENATE("-- ",A183),""))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5">
-      <c r="E184" s="2" t="str">
+    <row r="184" spans="7:7">
+      <c r="G184" s="5" t="str">
         <f>IF(B184&lt;&gt;"",CONCATENATE(inicio_consulta,C184,mid_consulta,A184,B184,fin_consulta),IF(A184&lt;&gt;"",CONCATENATE("-- ",A184),""))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5">
-      <c r="E185" s="2" t="str">
+    <row r="185" spans="7:7">
+      <c r="G185" s="5" t="str">
         <f>IF(B185&lt;&gt;"",CONCATENATE(inicio_consulta,C185,mid_consulta,A185,B185,fin_consulta),IF(A185&lt;&gt;"",CONCATENATE("-- ",A185),""))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5">
-      <c r="E186" s="2" t="str">
+    <row r="186" spans="7:7">
+      <c r="G186" s="5" t="str">
         <f>IF(B186&lt;&gt;"",CONCATENATE(inicio_consulta,C186,mid_consulta,A186,B186,fin_consulta),IF(A186&lt;&gt;"",CONCATENATE("-- ",A186),""))</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="5:5">
-      <c r="E187" s="2" t="str">
+    <row r="187" spans="7:7">
+      <c r="G187" s="5" t="str">
         <f>IF(B187&lt;&gt;"",CONCATENATE(inicio_consulta,C187,mid_consulta,A187,B187,fin_consulta),IF(A187&lt;&gt;"",CONCATENATE("-- ",A187),""))</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="5:5">
-      <c r="E188" s="2" t="str">
+    <row r="188" spans="7:7">
+      <c r="G188" s="5" t="str">
         <f>IF(B188&lt;&gt;"",CONCATENATE(inicio_consulta,C188,mid_consulta,A188,B188,fin_consulta),IF(A188&lt;&gt;"",CONCATENATE("-- ",A188),""))</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="5:5">
-      <c r="E189" s="2" t="str">
+    <row r="189" spans="7:7">
+      <c r="G189" s="5" t="str">
         <f>IF(B189&lt;&gt;"",CONCATENATE(inicio_consulta,C189,mid_consulta,A189,B189,fin_consulta),IF(A189&lt;&gt;"",CONCATENATE("-- ",A189),""))</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="5:5">
-      <c r="E190" s="2" t="str">
+    <row r="190" spans="7:7">
+      <c r="G190" s="5" t="str">
         <f>IF(B190&lt;&gt;"",CONCATENATE(inicio_consulta,C190,mid_consulta,A190,B190,fin_consulta),IF(A190&lt;&gt;"",CONCATENATE("-- ",A190),""))</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="5:5">
-      <c r="E191" s="2" t="str">
+    <row r="191" spans="7:7">
+      <c r="G191" s="5" t="str">
         <f>IF(B191&lt;&gt;"",CONCATENATE(inicio_consulta,C191,mid_consulta,A191,B191,fin_consulta),IF(A191&lt;&gt;"",CONCATENATE("-- ",A191),""))</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="5:5">
-      <c r="E192" s="2" t="str">
+    <row r="192" spans="7:7">
+      <c r="G192" s="5" t="str">
         <f>IF(B192&lt;&gt;"",CONCATENATE(inicio_consulta,C192,mid_consulta,A192,B192,fin_consulta),IF(A192&lt;&gt;"",CONCATENATE("-- ",A192),""))</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="5:5">
-      <c r="E193" s="2" t="str">
+    <row r="193" spans="7:7">
+      <c r="G193" s="5" t="str">
         <f>IF(B193&lt;&gt;"",CONCATENATE(inicio_consulta,C193,mid_consulta,A193,B193,fin_consulta),IF(A193&lt;&gt;"",CONCATENATE("-- ",A193),""))</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="5:5">
-      <c r="E194" s="2" t="str">
+    <row r="194" spans="7:7">
+      <c r="G194" s="5" t="str">
         <f>IF(B194&lt;&gt;"",CONCATENATE(inicio_consulta,C194,mid_consulta,A194,B194,fin_consulta),IF(A194&lt;&gt;"",CONCATENATE("-- ",A194),""))</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="5:5">
-      <c r="E195" s="2" t="str">
+    <row r="195" spans="7:7">
+      <c r="G195" s="5" t="str">
         <f>IF(B195&lt;&gt;"",CONCATENATE(inicio_consulta,C195,mid_consulta,A195,B195,fin_consulta),IF(A195&lt;&gt;"",CONCATENATE("-- ",A195),""))</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="5:5">
-      <c r="E196" s="2" t="str">
+    <row r="196" spans="7:7">
+      <c r="G196" s="5" t="str">
         <f>IF(B196&lt;&gt;"",CONCATENATE(inicio_consulta,C196,mid_consulta,A196,B196,fin_consulta),IF(A196&lt;&gt;"",CONCATENATE("-- ",A196),""))</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="5:5">
-      <c r="E197" s="2" t="str">
+    <row r="197" spans="7:7">
+      <c r="G197" s="5" t="str">
         <f>IF(B197&lt;&gt;"",CONCATENATE(inicio_consulta,C197,mid_consulta,A197,B197,fin_consulta),IF(A197&lt;&gt;"",CONCATENATE("-- ",A197),""))</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="5:5">
-      <c r="E198" s="2" t="str">
+    <row r="198" spans="7:7">
+      <c r="G198" s="5" t="str">
         <f>IF(B198&lt;&gt;"",CONCATENATE(inicio_consulta,C198,mid_consulta,A198,B198,fin_consulta),IF(A198&lt;&gt;"",CONCATENATE("-- ",A198),""))</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="5:5">
-      <c r="E199" s="2" t="str">
+    <row r="199" spans="7:7">
+      <c r="G199" s="5" t="str">
         <f>IF(B199&lt;&gt;"",CONCATENATE(inicio_consulta,C199,mid_consulta,A199,B199,fin_consulta),IF(A199&lt;&gt;"",CONCATENATE("-- ",A199),""))</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="5:5">
-      <c r="E200" s="2" t="str">
+    <row r="200" spans="7:7">
+      <c r="G200" s="5" t="str">
         <f>IF(B200&lt;&gt;"",CONCATENATE(inicio_consulta,C200,mid_consulta,A200,B200,fin_consulta),IF(A200&lt;&gt;"",CONCATENATE("-- ",A200),""))</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="5:5">
-      <c r="E201" s="2" t="str">
+    <row r="201" spans="7:7">
+      <c r="G201" s="5" t="str">
         <f>IF(B201&lt;&gt;"",CONCATENATE(inicio_consulta,C201,mid_consulta,A201,B201,fin_consulta),IF(A201&lt;&gt;"",CONCATENATE("-- ",A201),""))</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="5:5">
-      <c r="E202" s="2" t="str">
+    <row r="202" spans="7:7">
+      <c r="G202" s="5" t="str">
         <f>IF(B202&lt;&gt;"",CONCATENATE(inicio_consulta,C202,mid_consulta,A202,B202,fin_consulta),IF(A202&lt;&gt;"",CONCATENATE("-- ",A202),""))</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="5:5">
-      <c r="E203" s="2" t="str">
+    <row r="203" spans="7:7">
+      <c r="G203" s="5" t="str">
         <f>IF(B203&lt;&gt;"",CONCATENATE(inicio_consulta,C203,mid_consulta,A203,B203,fin_consulta),IF(A203&lt;&gt;"",CONCATENATE("-- ",A203),""))</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="5:5">
-      <c r="E204" s="2" t="str">
+    <row r="204" spans="7:7">
+      <c r="G204" s="5" t="str">
         <f>IF(B204&lt;&gt;"",CONCATENATE(inicio_consulta,C204,mid_consulta,A204,B204,fin_consulta),IF(A204&lt;&gt;"",CONCATENATE("-- ",A204),""))</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="5:5">
-      <c r="E205" s="2" t="str">
+    <row r="205" spans="7:7">
+      <c r="G205" s="5" t="str">
         <f>IF(B205&lt;&gt;"",CONCATENATE(inicio_consulta,C205,mid_consulta,A205,B205,fin_consulta),IF(A205&lt;&gt;"",CONCATENATE("-- ",A205),""))</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="5:5">
-      <c r="E206" s="2" t="str">
+    <row r="206" spans="7:7">
+      <c r="G206" s="5" t="str">
         <f>IF(B206&lt;&gt;"",CONCATENATE(inicio_consulta,C206,mid_consulta,A206,B206,fin_consulta),IF(A206&lt;&gt;"",CONCATENATE("-- ",A206),""))</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="5:5">
-      <c r="E207" s="2" t="str">
+    <row r="207" spans="7:7">
+      <c r="G207" s="5" t="str">
         <f>IF(B207&lt;&gt;"",CONCATENATE(inicio_consulta,C207,mid_consulta,A207,B207,fin_consulta),IF(A207&lt;&gt;"",CONCATENATE("-- ",A207),""))</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="5:5">
-      <c r="E208" s="2" t="str">
+    <row r="208" spans="7:7">
+      <c r="G208" s="5" t="str">
         <f>IF(B208&lt;&gt;"",CONCATENATE(inicio_consulta,C208,mid_consulta,A208,B208,fin_consulta),IF(A208&lt;&gt;"",CONCATENATE("-- ",A208),""))</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="5:5">
-      <c r="E209" s="2" t="str">
+    <row r="209" spans="7:7">
+      <c r="G209" s="5" t="str">
         <f>IF(B209&lt;&gt;"",CONCATENATE(inicio_consulta,C209,mid_consulta,A209,B209,fin_consulta),IF(A209&lt;&gt;"",CONCATENATE("-- ",A209),""))</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="5:5">
-      <c r="E210" s="2" t="str">
+    <row r="210" spans="7:7">
+      <c r="G210" s="5" t="str">
         <f>IF(B210&lt;&gt;"",CONCATENATE(inicio_consulta,C210,mid_consulta,A210,B210,fin_consulta),IF(A210&lt;&gt;"",CONCATENATE("-- ",A210),""))</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="5:5">
-      <c r="E211" s="2" t="str">
+    <row r="211" spans="7:7">
+      <c r="G211" s="5" t="str">
         <f>IF(B211&lt;&gt;"",CONCATENATE(inicio_consulta,C211,mid_consulta,A211,B211,fin_consulta),IF(A211&lt;&gt;"",CONCATENATE("-- ",A211),""))</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="5:5">
-      <c r="E212" s="2" t="str">
+    <row r="212" spans="7:7">
+      <c r="G212" s="5" t="str">
         <f>IF(B212&lt;&gt;"",CONCATENATE(inicio_consulta,C212,mid_consulta,A212,B212,fin_consulta),IF(A212&lt;&gt;"",CONCATENATE("-- ",A212),""))</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="5:5">
-      <c r="E213" s="2" t="str">
+    <row r="213" spans="7:7">
+      <c r="G213" s="5" t="str">
         <f>IF(B213&lt;&gt;"",CONCATENATE(inicio_consulta,C213,mid_consulta,A213,B213,fin_consulta),IF(A213&lt;&gt;"",CONCATENATE("-- ",A213),""))</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="5:5">
-      <c r="E214" s="2" t="str">
+    <row r="214" spans="7:7">
+      <c r="G214" s="5" t="str">
         <f>IF(B214&lt;&gt;"",CONCATENATE(inicio_consulta,C214,mid_consulta,A214,B214,fin_consulta),IF(A214&lt;&gt;"",CONCATENATE("-- ",A214),""))</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="5:5">
-      <c r="E215" s="2" t="str">
+    <row r="215" spans="7:7">
+      <c r="G215" s="5" t="str">
         <f>IF(B215&lt;&gt;"",CONCATENATE(inicio_consulta,C215,mid_consulta,A215,B215,fin_consulta),IF(A215&lt;&gt;"",CONCATENATE("-- ",A215),""))</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="5:5">
-      <c r="E216" s="2" t="str">
+    <row r="216" spans="7:7">
+      <c r="G216" s="5" t="str">
         <f>IF(B216&lt;&gt;"",CONCATENATE(inicio_consulta,C216,mid_consulta,A216,B216,fin_consulta),IF(A216&lt;&gt;"",CONCATENATE("-- ",A216),""))</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="5:5">
-      <c r="E217" s="2" t="str">
+    <row r="217" spans="7:7">
+      <c r="G217" s="5" t="str">
         <f>IF(B217&lt;&gt;"",CONCATENATE(inicio_consulta,C217,mid_consulta,A217,B217,fin_consulta),IF(A217&lt;&gt;"",CONCATENATE("-- ",A217),""))</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="5:5">
-      <c r="E218" s="2" t="str">
+    <row r="218" spans="7:7">
+      <c r="G218" s="5" t="str">
         <f>IF(B218&lt;&gt;"",CONCATENATE(inicio_consulta,C218,mid_consulta,A218,B218,fin_consulta),IF(A218&lt;&gt;"",CONCATENATE("-- ",A218),""))</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="5:5">
-      <c r="E219" s="2" t="str">
+    <row r="219" spans="7:7">
+      <c r="G219" s="5" t="str">
         <f>IF(B219&lt;&gt;"",CONCATENATE(inicio_consulta,C219,mid_consulta,A219,B219,fin_consulta),IF(A219&lt;&gt;"",CONCATENATE("-- ",A219),""))</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="5:5">
-      <c r="E220" s="2" t="str">
+    <row r="220" spans="7:7">
+      <c r="G220" s="5" t="str">
         <f>IF(B220&lt;&gt;"",CONCATENATE(inicio_consulta,C220,mid_consulta,A220,B220,fin_consulta),IF(A220&lt;&gt;"",CONCATENATE("-- ",A220),""))</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="5:5">
-      <c r="E221" s="2" t="str">
+    <row r="221" spans="7:7">
+      <c r="G221" s="5" t="str">
         <f>IF(B221&lt;&gt;"",CONCATENATE(inicio_consulta,C221,mid_consulta,A221,B221,fin_consulta),IF(A221&lt;&gt;"",CONCATENATE("-- ",A221),""))</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="5:5">
-      <c r="E222" s="2" t="str">
+    <row r="222" spans="7:7">
+      <c r="G222" s="5" t="str">
         <f>IF(B222&lt;&gt;"",CONCATENATE(inicio_consulta,C222,mid_consulta,A222,B222,fin_consulta),IF(A222&lt;&gt;"",CONCATENATE("-- ",A222),""))</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="5:5">
-      <c r="E223" s="2" t="str">
+    <row r="223" spans="7:7">
+      <c r="G223" s="5" t="str">
         <f>IF(B223&lt;&gt;"",CONCATENATE(inicio_consulta,C223,mid_consulta,A223,B223,fin_consulta),IF(A223&lt;&gt;"",CONCATENATE("-- ",A223),""))</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="5:5">
-      <c r="E224" s="2" t="str">
+    <row r="224" spans="7:7">
+      <c r="G224" s="5" t="str">
         <f>IF(B224&lt;&gt;"",CONCATENATE(inicio_consulta,C224,mid_consulta,A224,B224,fin_consulta),IF(A224&lt;&gt;"",CONCATENATE("-- ",A224),""))</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="5:5">
-      <c r="E225" s="2" t="str">
+    <row r="225" spans="7:7">
+      <c r="G225" s="5" t="str">
         <f>IF(B225&lt;&gt;"",CONCATENATE(inicio_consulta,C225,mid_consulta,A225,B225,fin_consulta),IF(A225&lt;&gt;"",CONCATENATE("-- ",A225),""))</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="5:5">
-      <c r="E226" s="2" t="str">
+    <row r="226" spans="7:7">
+      <c r="G226" s="5" t="str">
         <f>IF(B226&lt;&gt;"",CONCATENATE(inicio_consulta,C226,mid_consulta,A226,B226,fin_consulta),IF(A226&lt;&gt;"",CONCATENATE("-- ",A226),""))</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="5:5">
-      <c r="E227" s="2" t="str">
+    <row r="227" spans="7:7">
+      <c r="G227" s="5" t="str">
         <f>IF(B227&lt;&gt;"",CONCATENATE(inicio_consulta,C227,mid_consulta,A227,B227,fin_consulta),IF(A227&lt;&gt;"",CONCATENATE("-- ",A227),""))</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="5:5">
-      <c r="E228" s="2" t="str">
+    <row r="228" spans="7:7">
+      <c r="G228" s="5" t="str">
         <f>IF(B228&lt;&gt;"",CONCATENATE(inicio_consulta,C228,mid_consulta,A228,B228,fin_consulta),IF(A228&lt;&gt;"",CONCATENATE("-- ",A228),""))</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="5:5">
-      <c r="E229" s="2" t="str">
+    <row r="229" spans="7:7">
+      <c r="G229" s="5" t="str">
         <f>IF(B229&lt;&gt;"",CONCATENATE(inicio_consulta,C229,mid_consulta,A229,B229,fin_consulta),IF(A229&lt;&gt;"",CONCATENATE("-- ",A229),""))</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="5:5">
-      <c r="E230" s="2" t="str">
+    <row r="230" spans="7:7">
+      <c r="G230" s="5" t="str">
         <f>IF(B230&lt;&gt;"",CONCATENATE(inicio_consulta,C230,mid_consulta,A230,B230,fin_consulta),IF(A230&lt;&gt;"",CONCATENATE("-- ",A230),""))</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="5:5">
-      <c r="E231" s="2" t="str">
+    <row r="231" spans="7:7">
+      <c r="G231" s="5" t="str">
         <f>IF(B231&lt;&gt;"",CONCATENATE(inicio_consulta,C231,mid_consulta,A231,B231,fin_consulta),IF(A231&lt;&gt;"",CONCATENATE("-- ",A231),""))</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="5:5">
-      <c r="E232" s="2" t="str">
+    <row r="232" spans="7:7">
+      <c r="G232" s="5" t="str">
         <f>IF(B232&lt;&gt;"",CONCATENATE(inicio_consulta,C232,mid_consulta,A232,B232,fin_consulta),IF(A232&lt;&gt;"",CONCATENATE("-- ",A232),""))</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="5:5">
-      <c r="E233" s="2" t="str">
+    <row r="233" spans="7:7">
+      <c r="G233" s="5" t="str">
         <f>IF(B233&lt;&gt;"",CONCATENATE(inicio_consulta,C233,mid_consulta,A233,B233,fin_consulta),IF(A233&lt;&gt;"",CONCATENATE("-- ",A233),""))</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="5:5">
-      <c r="E234" s="2" t="str">
+    <row r="234" spans="7:7">
+      <c r="G234" s="5" t="str">
         <f>IF(B234&lt;&gt;"",CONCATENATE(inicio_consulta,C234,mid_consulta,A234,B234,fin_consulta),IF(A234&lt;&gt;"",CONCATENATE("-- ",A234),""))</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="5:5">
-      <c r="E235" s="2" t="str">
+    <row r="235" spans="7:7">
+      <c r="G235" s="5" t="str">
         <f>IF(B235&lt;&gt;"",CONCATENATE(inicio_consulta,C235,mid_consulta,A235,B235,fin_consulta),IF(A235&lt;&gt;"",CONCATENATE("-- ",A235),""))</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="5:5">
-      <c r="E236" s="2" t="str">
+    <row r="236" spans="7:7">
+      <c r="G236" s="5" t="str">
         <f>IF(B236&lt;&gt;"",CONCATENATE(inicio_consulta,C236,mid_consulta,A236,B236,fin_consulta),IF(A236&lt;&gt;"",CONCATENATE("-- ",A236),""))</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="5:5">
-      <c r="E237" s="2" t="str">
+    <row r="237" spans="7:7">
+      <c r="G237" s="5" t="str">
         <f>IF(B237&lt;&gt;"",CONCATENATE(inicio_consulta,C237,mid_consulta,A237,B237,fin_consulta),IF(A237&lt;&gt;"",CONCATENATE("-- ",A237),""))</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="5:5">
-      <c r="E238" s="2" t="str">
+    <row r="238" spans="7:7">
+      <c r="G238" s="5" t="str">
         <f>IF(B238&lt;&gt;"",CONCATENATE(inicio_consulta,C238,mid_consulta,A238,B238,fin_consulta),IF(A238&lt;&gt;"",CONCATENATE("-- ",A238),""))</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="5:5">
-      <c r="E239" s="2" t="str">
+    <row r="239" spans="7:7">
+      <c r="G239" s="5" t="str">
         <f>IF(B239&lt;&gt;"",CONCATENATE(inicio_consulta,C239,mid_consulta,A239,B239,fin_consulta),IF(A239&lt;&gt;"",CONCATENATE("-- ",A239),""))</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="5:5">
-      <c r="E240" s="2" t="str">
+    <row r="240" spans="7:7">
+      <c r="G240" s="5" t="str">
         <f>IF(B240&lt;&gt;"",CONCATENATE(inicio_consulta,C240,mid_consulta,A240,B240,fin_consulta),IF(A240&lt;&gt;"",CONCATENATE("-- ",A240),""))</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="5:5">
-      <c r="E241" s="2" t="str">
+    <row r="241" spans="7:7">
+      <c r="G241" s="5" t="str">
         <f>IF(B241&lt;&gt;"",CONCATENATE(inicio_consulta,C241,mid_consulta,A241,B241,fin_consulta),IF(A241&lt;&gt;"",CONCATENATE("-- ",A241),""))</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="5:5">
-      <c r="E242" s="2" t="str">
+    <row r="242" spans="7:7">
+      <c r="G242" s="5" t="str">
         <f>IF(B242&lt;&gt;"",CONCATENATE(inicio_consulta,C242,mid_consulta,A242,B242,fin_consulta),IF(A242&lt;&gt;"",CONCATENATE("-- ",A242),""))</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="5:5">
-      <c r="E243" s="2" t="str">
+    <row r="243" spans="7:7">
+      <c r="G243" s="5" t="str">
         <f>IF(B243&lt;&gt;"",CONCATENATE(inicio_consulta,C243,mid_consulta,A243,B243,fin_consulta),IF(A243&lt;&gt;"",CONCATENATE("-- ",A243),""))</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="5:5">
-      <c r="E244" s="2" t="str">
+    <row r="244" spans="7:7">
+      <c r="G244" s="5" t="str">
         <f>IF(B244&lt;&gt;"",CONCATENATE(inicio_consulta,C244,mid_consulta,A244,B244,fin_consulta),IF(A244&lt;&gt;"",CONCATENATE("-- ",A244),""))</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="5:5">
-      <c r="E245" s="2" t="str">
+    <row r="245" spans="7:7">
+      <c r="G245" s="5" t="str">
         <f>IF(B245&lt;&gt;"",CONCATENATE(inicio_consulta,C245,mid_consulta,A245,B245,fin_consulta),IF(A245&lt;&gt;"",CONCATENATE("-- ",A245),""))</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="5:5">
-      <c r="E246" s="2" t="str">
+    <row r="246" spans="7:7">
+      <c r="G246" s="5" t="str">
         <f>IF(B246&lt;&gt;"",CONCATENATE(inicio_consulta,C246,mid_consulta,A246,B246,fin_consulta),IF(A246&lt;&gt;"",CONCATENATE("-- ",A246),""))</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="5:5">
-      <c r="E247" s="2" t="str">
+    <row r="247" spans="7:7">
+      <c r="G247" s="5" t="str">
         <f>IF(B247&lt;&gt;"",CONCATENATE(inicio_consulta,C247,mid_consulta,A247,B247,fin_consulta),IF(A247&lt;&gt;"",CONCATENATE("-- ",A247),""))</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="5:5">
-      <c r="E248" s="2" t="str">
+    <row r="248" spans="7:7">
+      <c r="G248" s="5" t="str">
         <f>IF(B248&lt;&gt;"",CONCATENATE(inicio_consulta,C248,mid_consulta,A248,B248,fin_consulta),IF(A248&lt;&gt;"",CONCATENATE("-- ",A248),""))</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="5:5">
-      <c r="E249" s="2" t="str">
+    <row r="249" spans="7:7">
+      <c r="G249" s="5" t="str">
         <f>IF(B249&lt;&gt;"",CONCATENATE(inicio_consulta,C249,mid_consulta,A249,B249,fin_consulta),IF(A249&lt;&gt;"",CONCATENATE("-- ",A249),""))</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="5:5">
-      <c r="E250" s="2" t="str">
+    <row r="250" spans="7:7">
+      <c r="G250" s="5" t="str">
         <f>IF(B250&lt;&gt;"",CONCATENATE(inicio_consulta,C250,mid_consulta,A250,B250,fin_consulta),IF(A250&lt;&gt;"",CONCATENATE("-- ",A250),""))</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="5:5">
-      <c r="E251" s="2" t="str">
+    <row r="251" spans="7:7">
+      <c r="G251" s="5" t="str">
         <f>IF(B251&lt;&gt;"",CONCATENATE(inicio_consulta,C251,mid_consulta,A251,B251,fin_consulta),IF(A251&lt;&gt;"",CONCATENATE("-- ",A251),""))</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="5:5">
-      <c r="E252" s="2" t="str">
+    <row r="252" spans="7:7">
+      <c r="G252" s="5" t="str">
         <f>IF(B252&lt;&gt;"",CONCATENATE(inicio_consulta,C252,mid_consulta,A252,B252,fin_consulta),IF(A252&lt;&gt;"",CONCATENATE("-- ",A252),""))</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="5:5">
-      <c r="E253" s="2" t="str">
+    <row r="253" spans="7:7">
+      <c r="G253" s="5" t="str">
         <f>IF(B253&lt;&gt;"",CONCATENATE(inicio_consulta,C253,mid_consulta,A253,B253,fin_consulta),IF(A253&lt;&gt;"",CONCATENATE("-- ",A253),""))</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="5:5">
-      <c r="E254" s="2" t="str">
+    <row r="254" spans="7:7">
+      <c r="G254" s="5" t="str">
         <f>IF(B254&lt;&gt;"",CONCATENATE(inicio_consulta,C254,mid_consulta,A254,B254,fin_consulta),IF(A254&lt;&gt;"",CONCATENATE("-- ",A254),""))</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="5:5">
-      <c r="E255" s="2" t="str">
+    <row r="255" spans="7:7">
+      <c r="G255" s="5" t="str">
         <f>IF(B255&lt;&gt;"",CONCATENATE(inicio_consulta,C255,mid_consulta,A255,B255,fin_consulta),IF(A255&lt;&gt;"",CONCATENATE("-- ",A255),""))</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="5:5">
-      <c r="E256" s="2" t="str">
+    <row r="256" spans="7:7">
+      <c r="G256" s="5" t="str">
         <f>IF(B256&lt;&gt;"",CONCATENATE(inicio_consulta,C256,mid_consulta,A256,B256,fin_consulta),IF(A256&lt;&gt;"",CONCATENATE("-- ",A256),""))</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="5:5">
-      <c r="E257" s="2" t="str">
+    <row r="257" spans="7:7">
+      <c r="G257" s="5" t="str">
         <f>IF(B257&lt;&gt;"",CONCATENATE(inicio_consulta,C257,mid_consulta,A257,B257,fin_consulta),IF(A257&lt;&gt;"",CONCATENATE("-- ",A257),""))</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="5:5">
-      <c r="E258" s="2" t="str">
+    <row r="258" spans="7:7">
+      <c r="G258" s="5" t="str">
         <f>IF(B258&lt;&gt;"",CONCATENATE(inicio_consulta,C258,mid_consulta,A258,B258,fin_consulta),IF(A258&lt;&gt;"",CONCATENATE("-- ",A258),""))</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="5:5">
-      <c r="E259" s="2" t="str">
+    <row r="259" spans="7:7">
+      <c r="G259" s="5" t="str">
         <f>IF(B259&lt;&gt;"",CONCATENATE(inicio_consulta,C259,mid_consulta,A259,B259,fin_consulta),IF(A259&lt;&gt;"",CONCATENATE("-- ",A259),""))</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="5:5">
-      <c r="E260" s="2" t="str">
+    <row r="260" spans="7:7">
+      <c r="G260" s="5" t="str">
         <f>IF(B260&lt;&gt;"",CONCATENATE(inicio_consulta,C260,mid_consulta,A260,B260,fin_consulta),IF(A260&lt;&gt;"",CONCATENATE("-- ",A260),""))</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="5:5">
-      <c r="E261" s="2" t="str">
+    <row r="261" spans="7:7">
+      <c r="G261" s="5" t="str">
         <f>IF(B261&lt;&gt;"",CONCATENATE(inicio_consulta,C261,mid_consulta,A261,B261,fin_consulta),IF(A261&lt;&gt;"",CONCATENATE("-- ",A261),""))</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="5:5">
-      <c r="E262" s="2" t="str">
+    <row r="262" spans="7:7">
+      <c r="G262" s="5" t="str">
         <f>IF(B262&lt;&gt;"",CONCATENATE(inicio_consulta,C262,mid_consulta,A262,B262,fin_consulta),IF(A262&lt;&gt;"",CONCATENATE("-- ",A262),""))</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="5:5">
-      <c r="E263" s="2" t="str">
+    <row r="263" spans="7:7">
+      <c r="G263" s="5" t="str">
         <f>IF(B263&lt;&gt;"",CONCATENATE(inicio_consulta,C263,mid_consulta,A263,B263,fin_consulta),IF(A263&lt;&gt;"",CONCATENATE("-- ",A263),""))</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="5:5">
-      <c r="E264" s="2" t="str">
+    <row r="264" spans="7:7">
+      <c r="G264" s="5" t="str">
         <f>IF(B264&lt;&gt;"",CONCATENATE(inicio_consulta,C264,mid_consulta,A264,B264,fin_consulta),IF(A264&lt;&gt;"",CONCATENATE("-- ",A264),""))</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="5:5">
-      <c r="E265" s="2" t="str">
+    <row r="265" spans="7:7">
+      <c r="G265" s="5" t="str">
         <f>IF(B265&lt;&gt;"",CONCATENATE(inicio_consulta,C265,mid_consulta,A265,B265,fin_consulta),IF(A265&lt;&gt;"",CONCATENATE("-- ",A265),""))</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="5:5">
-      <c r="E266" s="2" t="str">
+    <row r="266" spans="7:7">
+      <c r="G266" s="5" t="str">
         <f>IF(B266&lt;&gt;"",CONCATENATE(inicio_consulta,C266,mid_consulta,A266,B266,fin_consulta),IF(A266&lt;&gt;"",CONCATENATE("-- ",A266),""))</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="5:5">
-      <c r="E267" s="2" t="str">
+    <row r="267" spans="7:7">
+      <c r="G267" s="5" t="str">
         <f>IF(B267&lt;&gt;"",CONCATENATE(inicio_consulta,C267,mid_consulta,A267,B267,fin_consulta),IF(A267&lt;&gt;"",CONCATENATE("-- ",A267),""))</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="5:5">
-      <c r="E268" s="2" t="str">
+    <row r="268" spans="7:7">
+      <c r="G268" s="5" t="str">
         <f>IF(B268&lt;&gt;"",CONCATENATE(inicio_consulta,C268,mid_consulta,A268,B268,fin_consulta),IF(A268&lt;&gt;"",CONCATENATE("-- ",A268),""))</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="5:5">
-      <c r="E269" s="2" t="str">
+    <row r="269" spans="7:7">
+      <c r="G269" s="5" t="str">
         <f>IF(B269&lt;&gt;"",CONCATENATE(inicio_consulta,C269,mid_consulta,A269,B269,fin_consulta),IF(A269&lt;&gt;"",CONCATENATE("-- ",A269),""))</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="5:5">
-      <c r="E270" s="2" t="str">
-        <f t="shared" ref="E236:E271" si="22">IF(B270&lt;&gt;"",CONCATENATE(inicio_consulta,C270,mid_consulta,A270,B270,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="271" spans="5:5">
-      <c r="E271" s="2" t="str">
+    <row r="270" spans="7:7">
+      <c r="G270" s="5" t="str">
+        <f>IF(B270&lt;&gt;"",CONCATENATE(inicio_consulta,C270,mid_consulta,A270,B270,fin_consulta),IF(A270&lt;&gt;"",CONCATENATE("-- ",A270),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="7:7">
+      <c r="G271" s="5" t="str">
+        <f>IF(B271&lt;&gt;"",CONCATENATE(inicio_consulta,C271,mid_consulta,A271,B271,fin_consulta),IF(A271&lt;&gt;"",CONCATENATE("-- ",A271),""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="7:7">
+      <c r="G272" s="5" t="str">
+        <f t="shared" ref="G238:G273" si="22">IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,C272,mid_consulta,A272,B272,fin_consulta),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="7:7">
+      <c r="G273" s="5" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="5:5">
-      <c r="E272" s="2" t="str">
-        <f>IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,A272,B272,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="5:5">
-      <c r="E273" s="2" t="str">
-        <f>IF(B273&lt;&gt;"",CONCATENATE(inicio_consulta,A273,B273,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="274" spans="5:5">
-      <c r="E274" s="2" t="str">
+    <row r="274" spans="7:7">
+      <c r="G274" s="5" t="str">
         <f>IF(B274&lt;&gt;"",CONCATENATE(inicio_consulta,A274,B274,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="5:5">
-      <c r="E275" s="2" t="str">
+    <row r="275" spans="7:7">
+      <c r="G275" s="5" t="str">
         <f>IF(B275&lt;&gt;"",CONCATENATE(inicio_consulta,A275,B275,fin_consulta),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="7:7">
+      <c r="G276" s="5" t="str">
+        <f>IF(B276&lt;&gt;"",CONCATENATE(inicio_consulta,A276,B276,fin_consulta),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="7:7">
+      <c r="G277" s="5" t="str">
+        <f>IF(B277&lt;&gt;"",CONCATENATE(inicio_consulta,A277,B277,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
@@ -4159,7 +4324,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -4172,7 +4337,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -5133,17 +5298,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>83</v>
+      <c r="A2" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>84</v>
+      <c r="A3" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
+++ b/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18045"/>
+    <workbookView windowWidth="19440" windowHeight="18480"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="111">
   <si>
     <t>Servicio / Interfaz</t>
   </si>
@@ -77,7 +77,7 @@
     <t>Ceo, HotelManager, Staff</t>
   </si>
   <si>
-    <t>HotelManager y Staff por idHotel</t>
+    <t>HotelManager y Staff por htl_id</t>
   </si>
   <si>
     <t>guestCountQuery</t>
@@ -92,7 +92,7 @@
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/</t>
   </si>
   <si>
-    <t>HotelManager y Staff por idHotel, Customer por user_</t>
+    <t>HotelManager y Staff por htl_id, Customer por user_</t>
   </si>
   <si>
     <t>bookingActionUpdate</t>
@@ -306,6 +306,39 @@
   </si>
   <si>
     <t>userCancelUpdate</t>
+  </si>
+  <si>
+    <t>statistics</t>
+  </si>
+  <si>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</t>
+  </si>
+  <si>
+    <t>hotelMaximumCapacityQuery</t>
+  </si>
+  <si>
+    <t>HotelManager por htl_id</t>
+  </si>
+  <si>
+    <t>hotelOccupancyPercentageQuery</t>
+  </si>
+  <si>
+    <t>hotelCapacityInDateRangeQuery</t>
+  </si>
+  <si>
+    <t>hotelOccupancyByNationalityPercentageQuery</t>
+  </si>
+  <si>
+    <t>departmentExpensesByHotelQuery</t>
+  </si>
+  <si>
+    <t>roomsIncomeByHotelQuery</t>
+  </si>
+  <si>
+    <t>servicesExtraIncomeByHotelQuery</t>
+  </si>
+  <si>
+    <t>incomeVsExpensesByHotelQuery</t>
   </si>
   <si>
     <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</t>
@@ -328,10 +361,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -357,8 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,7 +406,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,35 +420,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,31 +466,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,7 +491,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,14 +499,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,19 +543,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +573,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,97 +705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,42 +724,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,8 +740,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,22 +750,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,22 +770,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,10 +814,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,127 +858,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,19 +1318,19 @@
   <sheetPr/>
   <dimension ref="A1:G277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="77.2857142857143" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.4285714285714" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.0285714285714" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.52380952380952" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.7809523809524" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.0761904761905" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.0761904761905" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.0285714285714" style="5" customWidth="1"/>
+    <col min="7" max="7" width="162.67619047619" style="5" customWidth="1"/>
     <col min="8" max="16384" width="11.4285714285714" style="1"/>
   </cols>
   <sheetData>
@@ -3618,93 +3651,204 @@
         <f>C160+1</f>
         <v>112</v>
       </c>
+      <c r="D163" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G163" s="5" t="str">
         <f>IF(B163&lt;&gt;"",CONCATENATE(inicio_consulta,C163,mid_consulta,A163,B163,fin_consulta),IF(A163&lt;&gt;"",CONCATENATE("-- ",A163),""))</f>
         <v>INSERT INTO tserver_permission VALUES (112,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userCancelUpdate');</v>
       </c>
     </row>
-    <row r="165" spans="7:7">
+    <row r="165" spans="1:7">
+      <c r="A165" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="G165" s="5" t="str">
         <f>IF(B165&lt;&gt;"",CONCATENATE(inicio_consulta,C165,mid_consulta,A165,B165,fin_consulta),IF(A165&lt;&gt;"",CONCATENATE("-- ",A165),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" spans="7:7">
+        <v>-- statistics</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C166" s="4">
+        <f>C163+1</f>
+        <v>113</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G166" s="5" t="str">
         <f>IF(B166&lt;&gt;"",CONCATENATE(inicio_consulta,C166,mid_consulta,A166,B166,fin_consulta),IF(A166&lt;&gt;"",CONCATENATE("-- ",A166),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" spans="7:7">
+        <v>INSERT INTO tserver_permission VALUES (113,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelMaximumCapacityQuery');</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="1" t="str">
+        <f>A166</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C167" s="4">
+        <f>C166+1</f>
+        <v>114</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G167" s="5" t="str">
         <f>IF(B167&lt;&gt;"",CONCATENATE(inicio_consulta,C167,mid_consulta,A167,B167,fin_consulta),IF(A167&lt;&gt;"",CONCATENATE("-- ",A167),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" spans="7:7">
+        <v>INSERT INTO tserver_permission VALUES (114,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelOccupancyPercentageQuery');</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="1" t="str">
+        <f>A167</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C168" s="4">
+        <f>C167+1</f>
+        <v>115</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G168" s="5" t="str">
         <f>IF(B168&lt;&gt;"",CONCATENATE(inicio_consulta,C168,mid_consulta,A168,B168,fin_consulta),IF(A168&lt;&gt;"",CONCATENATE("-- ",A168),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="7:7">
+        <v>INSERT INTO tserver_permission VALUES (115,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelCapacityInDateRangeQuery');</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="1" t="str">
+        <f t="shared" ref="A169:A177" si="22">A168</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C169" s="4">
+        <f t="shared" ref="C169:C177" si="23">C168+1</f>
+        <v>116</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G169" s="5" t="str">
         <f>IF(B169&lt;&gt;"",CONCATENATE(inicio_consulta,C169,mid_consulta,A169,B169,fin_consulta),IF(A169&lt;&gt;"",CONCATENATE("-- ",A169),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="7:7">
+        <v>INSERT INTO tserver_permission VALUES (116,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelOccupancyByNationalityPercentageQuery');</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C170" s="4">
+        <f t="shared" si="23"/>
+        <v>117</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G170" s="5" t="str">
         <f>IF(B170&lt;&gt;"",CONCATENATE(inicio_consulta,C170,mid_consulta,A170,B170,fin_consulta),IF(A170&lt;&gt;"",CONCATENATE("-- ",A170),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="7:7">
+        <v>INSERT INTO tserver_permission VALUES (117,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/departmentExpensesByHotelQuery');</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C171" s="4">
+        <f t="shared" si="23"/>
+        <v>118</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G171" s="5" t="str">
         <f>IF(B171&lt;&gt;"",CONCATENATE(inicio_consulta,C171,mid_consulta,A171,B171,fin_consulta),IF(A171&lt;&gt;"",CONCATENATE("-- ",A171),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="7:7">
+        <v>INSERT INTO tserver_permission VALUES (118,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/roomsIncomeByHotelQuery');</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C172" s="4">
+        <f t="shared" si="23"/>
+        <v>119</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G172" s="5" t="str">
         <f>IF(B172&lt;&gt;"",CONCATENATE(inicio_consulta,C172,mid_consulta,A172,B172,fin_consulta),IF(A172&lt;&gt;"",CONCATENATE("-- ",A172),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="7:7">
+        <v>INSERT INTO tserver_permission VALUES (119,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/servicesExtraIncomeByHotelQuery');</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C173" s="4">
+        <f t="shared" si="23"/>
+        <v>120</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G173" s="5" t="str">
         <f>IF(B173&lt;&gt;"",CONCATENATE(inicio_consulta,C173,mid_consulta,A173,B173,fin_consulta),IF(A173&lt;&gt;"",CONCATENATE("-- ",A173),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" spans="7:7">
-      <c r="G174" s="5" t="str">
-        <f>IF(B174&lt;&gt;"",CONCATENATE(inicio_consulta,C174,mid_consulta,A174,B174,fin_consulta),IF(A174&lt;&gt;"",CONCATENATE("-- ",A174),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="7:7">
-      <c r="G175" s="5" t="str">
-        <f>IF(B175&lt;&gt;"",CONCATENATE(inicio_consulta,C175,mid_consulta,A175,B175,fin_consulta),IF(A175&lt;&gt;"",CONCATENATE("-- ",A175),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="7:7">
-      <c r="G176" s="5" t="str">
-        <f>IF(B176&lt;&gt;"",CONCATENATE(inicio_consulta,C176,mid_consulta,A176,B176,fin_consulta),IF(A176&lt;&gt;"",CONCATENATE("-- ",A176),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" spans="7:7">
-      <c r="G177" s="5" t="str">
-        <f>IF(B177&lt;&gt;"",CONCATENATE(inicio_consulta,C177,mid_consulta,A177,B177,fin_consulta),IF(A177&lt;&gt;"",CONCATENATE("-- ",A177),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="7:7">
-      <c r="G178" s="5" t="str">
-        <f>IF(B178&lt;&gt;"",CONCATENATE(inicio_consulta,C178,mid_consulta,A178,B178,fin_consulta),IF(A178&lt;&gt;"",CONCATENATE("-- ",A178),""))</f>
-        <v/>
+        <v>INSERT INTO tserver_permission VALUES (120,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/incomeVsExpensesByHotelQuery');</v>
       </c>
     </row>
     <row r="179" spans="7:7">
@@ -4267,13 +4411,13 @@
     </row>
     <row r="272" spans="7:7">
       <c r="G272" s="5" t="str">
-        <f t="shared" ref="G238:G273" si="22">IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,C272,mid_consulta,A272,B272,fin_consulta),"")</f>
+        <f t="shared" ref="G238:G273" si="24">IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,C272,mid_consulta,A272,B272,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="7:7">
       <c r="G273" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -4324,7 +4468,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -4337,7 +4481,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -5298,17 +5442,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
+++ b/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="18480"/>
+    <workbookView windowWidth="24570" windowHeight="10920" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Metodos permisos inserts" sheetId="1" r:id="rId1"/>
+    <sheet name="Roles y Usuarios" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="fin_consulta">Hoja2!$A$2</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
   <si>
     <t>Servicio / Interfaz</t>
   </si>
@@ -339,6 +340,87 @@
   </si>
   <si>
     <t>incomeVsExpensesByHotelQuery</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/</t>
+  </si>
+  <si>
+    <t>getPicture</t>
+  </si>
+  <si>
+    <t>id rol</t>
+  </si>
+  <si>
+    <t>roles</t>
+  </si>
+  <si>
+    <t>observaciones</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>accede a todos los metodos</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>hotelManager</t>
+  </si>
+  <si>
+    <t>accede algunos metodos, se puede restringir por HTL_ID</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>accede algunos metodos, se puede restringir por user_</t>
+  </si>
+  <si>
+    <t>accede a pocos motodos abiertos para todo el mundo</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>Rol Asociado</t>
+  </si>
+  <si>
+    <t>Restricción</t>
+  </si>
+  <si>
+    <t>turisticas</t>
+  </si>
+  <si>
+    <t>usuarioLibre</t>
+  </si>
+  <si>
+    <t>gerenteAtom01</t>
+  </si>
+  <si>
+    <t>htl_id =  1</t>
+  </si>
+  <si>
+    <t>personalAtom01</t>
+  </si>
+  <si>
+    <t>gerenteAtom02</t>
+  </si>
+  <si>
+    <t>htl_id =  2</t>
+  </si>
+  <si>
+    <t>personalAtom02</t>
+  </si>
+  <si>
+    <t>atom</t>
   </si>
   <si>
     <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</t>
@@ -362,12 +444,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -390,9 +480,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,18 +502,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,17 +519,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,6 +564,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -497,6 +587,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -506,7 +603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,13 +623,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -543,19 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +651,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,13 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +711,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,37 +741,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,13 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,55 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,15 +832,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,6 +862,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -837,13 +927,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,19 +948,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,118 +972,132 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -1318,53 +1422,53 @@
   <sheetPr/>
   <dimension ref="A1:G277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="77.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.0285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.52380952380952" style="4" customWidth="1"/>
+    <col min="3" max="3" width="4.52380952380952" style="10" customWidth="1"/>
     <col min="4" max="4" width="33.7809523809524" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.0761904761905" style="1" customWidth="1"/>
     <col min="6" max="6" width="28.0761904761905" style="1" customWidth="1"/>
-    <col min="7" max="7" width="162.67619047619" style="5" customWidth="1"/>
+    <col min="7" max="7" width="162.67619047619" style="11" customWidth="1"/>
     <col min="8" max="16384" width="11.4285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="15.75" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="8" customFormat="1" ht="15.75" spans="1:7">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="15.75" spans="3:3">
-      <c r="C2" s="6"/>
+    <row r="2" s="9" customFormat="1" ht="15.75" spans="3:3">
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="11" t="str">
         <f>IF(B3&lt;&gt;"",CONCATENATE(inicio_consulta,C3,mid_consulta,A3,B3,fin_consulta),IF(A3&lt;&gt;"",CONCATENATE("-- ",A3),""))</f>
         <v>-- hotel</v>
       </c>
@@ -1377,13 +1481,13 @@
         <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Query"),"")</f>
         <v>hotelQuery</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="G4" s="11" t="str">
         <f>IF(B4&lt;&gt;"",CONCATENATE(inicio_consulta,C4,mid_consulta,A4,B4,fin_consulta),IF(A4&lt;&gt;"",CONCATENATE("-- ",A4),""))</f>
         <v>INSERT INTO tserver_permission VALUES (1,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelQuery');</v>
       </c>
@@ -1396,14 +1500,14 @@
         <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Insert"),"")</f>
         <v>hotelInsert</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="10">
         <f>C4+1</f>
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="G5" s="11" t="str">
         <f>IF(B5&lt;&gt;"",CONCATENATE(inicio_consulta,C5,mid_consulta,A5,B5,fin_consulta),IF(A5&lt;&gt;"",CONCATENATE("-- ",A5),""))</f>
         <v>INSERT INTO tserver_permission VALUES (2,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelInsert');</v>
       </c>
@@ -1416,14 +1520,14 @@
         <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Update"),"")</f>
         <v>hotelUpdate</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="10">
         <f t="shared" ref="C6:C7" si="0">C5+1</f>
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="G6" s="11" t="str">
         <f>IF(B6&lt;&gt;"",CONCATENATE(inicio_consulta,C6,mid_consulta,A6,B6,fin_consulta),IF(A6&lt;&gt;"",CONCATENATE("-- ",A6),""))</f>
         <v>INSERT INTO tserver_permission VALUES (3,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelUpdate');</v>
       </c>
@@ -1436,20 +1540,20 @@
         <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Delete"),"")</f>
         <v>hotelDelete</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="G7" s="11" t="str">
         <f>IF(B7&lt;&gt;"",CONCATENATE(inicio_consulta,C7,mid_consulta,A7,B7,fin_consulta),IF(A7&lt;&gt;"",CONCATENATE("-- ",A7),""))</f>
         <v>INSERT INTO tserver_permission VALUES (4,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelDelete');</v>
       </c>
     </row>
     <row r="8" spans="7:7">
-      <c r="G8" s="5" t="str">
+      <c r="G8" s="11" t="str">
         <f>IF(B8&lt;&gt;"",CONCATENATE(inicio_consulta,C8,mid_consulta,A8,B8,fin_consulta),IF(A8&lt;&gt;"",CONCATENATE("-- ",A8),""))</f>
         <v/>
       </c>
@@ -1458,7 +1562,7 @@
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="G9" s="11" t="str">
         <f>IF(B9&lt;&gt;"",CONCATENATE(inicio_consulta,C9,mid_consulta,A9,B9,fin_consulta),IF(A9&lt;&gt;"",CONCATENATE("-- ",A9),""))</f>
         <v>-- bedCombo</v>
       </c>
@@ -1471,14 +1575,14 @@
         <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Query"),"")</f>
         <v>bedComboQuery</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="10">
         <f>C7+1</f>
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="G10" s="11" t="str">
         <f>IF(B10&lt;&gt;"",CONCATENATE(inicio_consulta,C10,mid_consulta,A10,B10,fin_consulta),IF(A10&lt;&gt;"",CONCATENATE("-- ",A10),""))</f>
         <v>INSERT INTO tserver_permission VALUES (5,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboQuery');</v>
       </c>
@@ -1491,14 +1595,14 @@
         <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Insert"),"")</f>
         <v>bedComboInsert</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="10">
         <f>C10+1</f>
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="G11" s="11" t="str">
         <f>IF(B11&lt;&gt;"",CONCATENATE(inicio_consulta,C11,mid_consulta,A11,B11,fin_consulta),IF(A11&lt;&gt;"",CONCATENATE("-- ",A11),""))</f>
         <v>INSERT INTO tserver_permission VALUES (6,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboInsert');</v>
       </c>
@@ -1511,14 +1615,14 @@
         <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Update"),"")</f>
         <v>bedComboUpdate</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="10">
         <f t="shared" ref="C12:C13" si="1">C11+1</f>
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="G12" s="11" t="str">
         <f>IF(B12&lt;&gt;"",CONCATENATE(inicio_consulta,C12,mid_consulta,A12,B12,fin_consulta),IF(A12&lt;&gt;"",CONCATENATE("-- ",A12),""))</f>
         <v>INSERT INTO tserver_permission VALUES (7,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboUpdate');</v>
       </c>
@@ -1531,20 +1635,20 @@
         <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Delete"),"")</f>
         <v>bedComboDelete</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="G13" s="11" t="str">
         <f>IF(B13&lt;&gt;"",CONCATENATE(inicio_consulta,C13,mid_consulta,A13,B13,fin_consulta),IF(A13&lt;&gt;"",CONCATENATE("-- ",A13),""))</f>
         <v>INSERT INTO tserver_permission VALUES (8,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboDelete');</v>
       </c>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="5" t="str">
+      <c r="G14" s="11" t="str">
         <f>IF(B14&lt;&gt;"",CONCATENATE(inicio_consulta,C14,mid_consulta,A14,B14,fin_consulta),IF(A14&lt;&gt;"",CONCATENATE("-- ",A14),""))</f>
         <v/>
       </c>
@@ -1553,7 +1657,7 @@
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="G15" s="11" t="str">
         <f>IF(B15&lt;&gt;"",CONCATENATE(inicio_consulta,C15,mid_consulta,A15,B15,fin_consulta),IF(A15&lt;&gt;"",CONCATENATE("-- ",A15),""))</f>
         <v>-- bookingGuest</v>
       </c>
@@ -1566,7 +1670,7 @@
         <f>IF(A15&lt;&gt;"",CONCATENATE(A15,"Query"),"")</f>
         <v>bookingGuestQuery</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="10">
         <f>C13+1</f>
         <v>9</v>
       </c>
@@ -1576,7 +1680,7 @@
       <c r="E16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="11" t="str">
         <f>IF(B16&lt;&gt;"",CONCATENATE(inicio_consulta,C16,mid_consulta,A16,B16,fin_consulta),IF(A16&lt;&gt;"",CONCATENATE("-- ",A16),""))</f>
         <v>INSERT INTO tserver_permission VALUES (9,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestQuery');</v>
       </c>
@@ -1589,7 +1693,7 @@
         <f>IF(A15&lt;&gt;"",CONCATENATE(A15,"Insert"),"")</f>
         <v>bookingGuestInsert</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="10">
         <f>C16+1</f>
         <v>10</v>
       </c>
@@ -1599,7 +1703,7 @@
       <c r="E17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="G17" s="11" t="str">
         <f>IF(B17&lt;&gt;"",CONCATENATE(inicio_consulta,C17,mid_consulta,A17,B17,fin_consulta),IF(A17&lt;&gt;"",CONCATENATE("-- ",A17),""))</f>
         <v>INSERT INTO tserver_permission VALUES (10,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestInsert');</v>
       </c>
@@ -1611,7 +1715,7 @@
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="10">
         <f t="shared" ref="C18:C20" si="2">C17+1</f>
         <v>11</v>
       </c>
@@ -1621,7 +1725,7 @@
       <c r="E18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="G18" s="11" t="str">
         <f>IF(B18&lt;&gt;"",CONCATENATE(inicio_consulta,C18,mid_consulta,A18,B18,fin_consulta),IF(A18&lt;&gt;"",CONCATENATE("-- ",A18),""))</f>
         <v>INSERT INTO tserver_permission VALUES (11,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/guestCountQuery');</v>
       </c>
@@ -1634,7 +1738,7 @@
         <f>IF(A15&lt;&gt;"",CONCATENATE(A15,"Delete"),"")</f>
         <v>bookingGuestDelete</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="10">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1644,7 +1748,7 @@
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="G19" s="11" t="str">
         <f>IF(B19&lt;&gt;"",CONCATENATE(inicio_consulta,C19,mid_consulta,A19,B19,fin_consulta),IF(A19&lt;&gt;"",CONCATENATE("-- ",A19),""))</f>
         <v>INSERT INTO tserver_permission VALUES (12,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestDelete');</v>
       </c>
@@ -1656,7 +1760,7 @@
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1666,13 +1770,13 @@
       <c r="E20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="G20" s="11" t="str">
         <f>IF(B20&lt;&gt;"",CONCATENATE(inicio_consulta,C20,mid_consulta,A20,B20,fin_consulta),IF(A20&lt;&gt;"",CONCATENATE("-- ",A20),""))</f>
         <v>INSERT INTO tserver_permission VALUES (13,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestsInfoQuery');</v>
       </c>
     </row>
     <row r="21" spans="7:7">
-      <c r="G21" s="5" t="str">
+      <c r="G21" s="11" t="str">
         <f>IF(B21&lt;&gt;"",CONCATENATE(inicio_consulta,C21,mid_consulta,A21,B21,fin_consulta),IF(A21&lt;&gt;"",CONCATENATE("-- ",A21),""))</f>
         <v/>
       </c>
@@ -1681,7 +1785,7 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="G22" s="11" t="str">
         <f>IF(B22&lt;&gt;"",CONCATENATE(inicio_consulta,C22,mid_consulta,A22,B22,fin_consulta),IF(A22&lt;&gt;"",CONCATENATE("-- ",A22),""))</f>
         <v>-- booking</v>
       </c>
@@ -1694,7 +1798,7 @@
         <f>IF(A22&lt;&gt;"",CONCATENATE(A22,"Query"),"")</f>
         <v>bookingQuery</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="10">
         <f>C20+1</f>
         <v>14</v>
       </c>
@@ -1704,7 +1808,7 @@
       <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="G23" s="11" t="str">
         <f>IF(B23&lt;&gt;"",CONCATENATE(inicio_consulta,C23,mid_consulta,A23,B23,fin_consulta),IF(A23&lt;&gt;"",CONCATENATE("-- ",A23),""))</f>
         <v>INSERT INTO tserver_permission VALUES (14,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingQuery');</v>
       </c>
@@ -1717,7 +1821,7 @@
         <f>IF(A22&lt;&gt;"",CONCATENATE(A22,"Insert"),"")</f>
         <v>bookingInsert</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="10">
         <f>C23+1</f>
         <v>15</v>
       </c>
@@ -1727,7 +1831,7 @@
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="G24" s="11" t="str">
         <f>IF(B24&lt;&gt;"",CONCATENATE(inicio_consulta,C24,mid_consulta,A24,B24,fin_consulta),IF(A24&lt;&gt;"",CONCATENATE("-- ",A24),""))</f>
         <v>INSERT INTO tserver_permission VALUES (15,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInsert');</v>
       </c>
@@ -1739,14 +1843,14 @@
       <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="10">
         <f t="shared" ref="C25:C35" si="3">C24+1</f>
         <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="G25" s="11" t="str">
         <f>IF(B25&lt;&gt;"",CONCATENATE(inicio_consulta,C25,mid_consulta,A25,B25,fin_consulta),IF(A25&lt;&gt;"",CONCATENATE("-- ",A25),""))</f>
         <v>INSERT INTO tserver_permission VALUES (16,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingActionUpdate');</v>
       </c>
@@ -1759,11 +1863,11 @@
         <f>IF(A22&lt;&gt;"",CONCATENATE(A22,"Delete"),"")</f>
         <v>bookingDelete</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="10">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="G26" s="5" t="str">
+      <c r="G26" s="11" t="str">
         <f>IF(B26&lt;&gt;"",CONCATENATE(inicio_consulta,C26,mid_consulta,A26,B26,fin_consulta),IF(A26&lt;&gt;"",CONCATENATE("-- ",A26),""))</f>
         <v>INSERT INTO tserver_permission VALUES (17,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDelete');</v>
       </c>
@@ -1775,11 +1879,11 @@
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="10">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G27" s="5" t="str">
+      <c r="G27" s="11" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE(inicio_consulta,C27,mid_consulta,A27,B27,fin_consulta),IF(A27&lt;&gt;"",CONCATENATE("-- ",A27),""))</f>
         <v>INSERT INTO tserver_permission VALUES (18,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInfoQuery');</v>
       </c>
@@ -1791,11 +1895,11 @@
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="10">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G28" s="5" t="str">
+      <c r="G28" s="11" t="str">
         <f>IF(B28&lt;&gt;"",CONCATENATE(inicio_consulta,C28,mid_consulta,A28,B28,fin_consulta),IF(A28&lt;&gt;"",CONCATENATE("-- ",A28),""))</f>
         <v>INSERT INTO tserver_permission VALUES (19,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeQuery');</v>
       </c>
@@ -1807,11 +1911,11 @@
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="10">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G29" s="5" t="str">
+      <c r="G29" s="11" t="str">
         <f>IF(B29&lt;&gt;"",CONCATENATE(inicio_consulta,C29,mid_consulta,A29,B29,fin_consulta),IF(A29&lt;&gt;"",CONCATENATE("-- ",A29),""))</f>
         <v>INSERT INTO tserver_permission VALUES (20,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeInfoQuery');</v>
       </c>
@@ -1823,11 +1927,11 @@
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="10">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="G30" s="5" t="str">
+      <c r="G30" s="11" t="str">
         <f>IF(B30&lt;&gt;"",CONCATENATE(inicio_consulta,C30,mid_consulta,A30,B30,fin_consulta),IF(A30&lt;&gt;"",CONCATENATE("-- ",A30),""))</f>
         <v>INSERT INTO tserver_permission VALUES (21,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDaysUnitaryRoomPriceQuery');</v>
       </c>
@@ -1839,11 +1943,11 @@
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="10">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="G31" s="5" t="str">
+      <c r="G31" s="11" t="str">
         <f>IF(B31&lt;&gt;"",CONCATENATE(inicio_consulta,C31,mid_consulta,A31,B31,fin_consulta),IF(A31&lt;&gt;"",CONCATENATE("-- ",A31),""))</f>
         <v>INSERT INTO tserver_permission VALUES (22,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsHotelsQuery');</v>
       </c>
@@ -1855,11 +1959,11 @@
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="10">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="G32" s="5" t="str">
+      <c r="G32" s="11" t="str">
         <f>IF(B32&lt;&gt;"",CONCATENATE(inicio_consulta,C32,mid_consulta,A32,B32,fin_consulta),IF(A32&lt;&gt;"",CONCATENATE("-- ",A32),""))</f>
         <v>INSERT INTO tserver_permission VALUES (23,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/booking_now_by_room_numberQuery');</v>
       </c>
@@ -1871,11 +1975,11 @@
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="10">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="G33" s="5" t="str">
+      <c r="G33" s="11" t="str">
         <f>IF(B33&lt;&gt;"",CONCATENATE(inicio_consulta,C33,mid_consulta,A33,B33,fin_consulta),IF(A33&lt;&gt;"",CONCATENATE("-- ",A33),""))</f>
         <v>INSERT INTO tserver_permission VALUES (24,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingSlotsInfoQuery');</v>
       </c>
@@ -1887,11 +1991,11 @@
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="10">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G34" s="5" t="str">
+      <c r="G34" s="11" t="str">
         <f>IF(B34&lt;&gt;"",CONCATENATE(inicio_consulta,C34,mid_consulta,A34,B34,fin_consulta),IF(A34&lt;&gt;"",CONCATENATE("-- ",A34),""))</f>
         <v>INSERT INTO tserver_permission VALUES (25,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingCompleteInfoQuery');</v>
       </c>
@@ -1903,17 +2007,17 @@
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="10">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="G35" s="5" t="str">
+      <c r="G35" s="11" t="str">
         <f>IF(B35&lt;&gt;"",CONCATENATE(inicio_consulta,C35,mid_consulta,A35,B35,fin_consulta),IF(A35&lt;&gt;"",CONCATENATE("-- ",A35),""))</f>
         <v>INSERT INTO tserver_permission VALUES (26,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingHotelRoomRoomTypeQuery');</v>
       </c>
     </row>
     <row r="36" spans="7:7">
-      <c r="G36" s="5" t="str">
+      <c r="G36" s="11" t="str">
         <f>IF(B36&lt;&gt;"",CONCATENATE(inicio_consulta,C36,mid_consulta,A36,B36,fin_consulta),IF(A36&lt;&gt;"",CONCATENATE("-- ",A36),""))</f>
         <v/>
       </c>
@@ -1922,7 +2026,7 @@
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G37" s="5" t="str">
+      <c r="G37" s="11" t="str">
         <f>IF(B37&lt;&gt;"",CONCATENATE(inicio_consulta,C37,mid_consulta,A37,B37,fin_consulta),IF(A37&lt;&gt;"",CONCATENATE("-- ",A37),""))</f>
         <v>-- bookingServiceExtra</v>
       </c>
@@ -1935,11 +2039,11 @@
         <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Query"),"")</f>
         <v>bookingServiceExtraQuery</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="10">
         <f>C35+1</f>
         <v>27</v>
       </c>
-      <c r="G38" s="5" t="str">
+      <c r="G38" s="11" t="str">
         <f>IF(B38&lt;&gt;"",CONCATENATE(inicio_consulta,C38,mid_consulta,A38,B38,fin_consulta),IF(A38&lt;&gt;"",CONCATENATE("-- ",A38),""))</f>
         <v>INSERT INTO tserver_permission VALUES (27,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraQuery');</v>
       </c>
@@ -1952,11 +2056,11 @@
         <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Insert"),"")</f>
         <v>bookingServiceExtraInsert</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="10">
         <f>C38+1</f>
         <v>28</v>
       </c>
-      <c r="G39" s="5" t="str">
+      <c r="G39" s="11" t="str">
         <f>IF(B39&lt;&gt;"",CONCATENATE(inicio_consulta,C39,mid_consulta,A39,B39,fin_consulta),IF(A39&lt;&gt;"",CONCATENATE("-- ",A39),""))</f>
         <v>INSERT INTO tserver_permission VALUES (28,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraInsert');</v>
       </c>
@@ -1969,11 +2073,11 @@
         <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Delete"),"")</f>
         <v>bookingServiceExtraDelete</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="10">
         <f t="shared" ref="C40:C42" si="4">C39+1</f>
         <v>29</v>
       </c>
-      <c r="G40" s="5" t="str">
+      <c r="G40" s="11" t="str">
         <f>IF(B40&lt;&gt;"",CONCATENATE(inicio_consulta,C40,mid_consulta,A40,B40,fin_consulta),IF(A40&lt;&gt;"",CONCATENATE("-- ",A40),""))</f>
         <v>INSERT INTO tserver_permission VALUES (29,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraDelete');</v>
       </c>
@@ -1985,11 +2089,11 @@
       <c r="B41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="10">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="G41" s="5" t="str">
+      <c r="G41" s="11" t="str">
         <f>IF(B41&lt;&gt;"",CONCATENATE(inicio_consulta,C41,mid_consulta,A41,B41,fin_consulta),IF(A41&lt;&gt;"",CONCATENATE("-- ",A41),""))</f>
         <v>INSERT INTO tserver_permission VALUES (30,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingExtraServicePriceUnitsTotalQuery');</v>
       </c>
@@ -2001,17 +2105,17 @@
       <c r="B42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="10">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="G42" s="5" t="str">
+      <c r="G42" s="11" t="str">
         <f>IF(B42&lt;&gt;"",CONCATENATE(inicio_consulta,C42,mid_consulta,A42,B42,fin_consulta),IF(A42&lt;&gt;"",CONCATENATE("-- ",A42),""))</f>
         <v>INSERT INTO tserver_permission VALUES (31,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/extraServicesNameDescriptionUnitsPriceDateQuery');</v>
       </c>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="5" t="str">
+      <c r="G43" s="11" t="str">
         <f>IF(B43&lt;&gt;"",CONCATENATE(inicio_consulta,C43,mid_consulta,A43,B43,fin_consulta),IF(A43&lt;&gt;"",CONCATENATE("-- ",A43),""))</f>
         <v/>
       </c>
@@ -2020,7 +2124,7 @@
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G44" s="5" t="str">
+      <c r="G44" s="11" t="str">
         <f>IF(B44&lt;&gt;"",CONCATENATE(inicio_consulta,C44,mid_consulta,A44,B44,fin_consulta),IF(A44&lt;&gt;"",CONCATENATE("-- ",A44),""))</f>
         <v>-- country</v>
       </c>
@@ -2033,17 +2137,17 @@
         <f>IF(A44&lt;&gt;"",CONCATENATE(A44,"Query"),"")</f>
         <v>countryQuery</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="10">
         <f>C42+1</f>
         <v>32</v>
       </c>
-      <c r="G45" s="5" t="str">
+      <c r="G45" s="11" t="str">
         <f>IF(B45&lt;&gt;"",CONCATENATE(inicio_consulta,C45,mid_consulta,A45,B45,fin_consulta),IF(A45&lt;&gt;"",CONCATENATE("-- ",A45),""))</f>
         <v>INSERT INTO tserver_permission VALUES (32,'com.ontimize.atomicHotelsApiRest.api.core.service.ICountryService/countryQuery');</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="7:7">
-      <c r="G46" s="5" t="str">
+      <c r="G46" s="11" t="str">
         <f>IF(B46&lt;&gt;"",CONCATENATE(inicio_consulta,C46,mid_consulta,A46,B46,fin_consulta),IF(A46&lt;&gt;"",CONCATENATE("-- ",A46),""))</f>
         <v/>
       </c>
@@ -2052,7 +2156,7 @@
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="5" t="str">
+      <c r="G47" s="11" t="str">
         <f>IF(B47&lt;&gt;"",CONCATENATE(inicio_consulta,C47,mid_consulta,A47,B47,fin_consulta),IF(A47&lt;&gt;"",CONCATENATE("-- ",A47),""))</f>
         <v>-- creditCard</v>
       </c>
@@ -2065,11 +2169,11 @@
         <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Query"),"")</f>
         <v>creditCardQuery</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="10">
         <f>C45+1</f>
         <v>33</v>
       </c>
-      <c r="G48" s="5" t="str">
+      <c r="G48" s="11" t="str">
         <f>IF(B48&lt;&gt;"",CONCATENATE(inicio_consulta,C48,mid_consulta,A48,B48,fin_consulta),IF(A48&lt;&gt;"",CONCATENATE("-- ",A48),""))</f>
         <v>INSERT INTO tserver_permission VALUES (33,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardQuery');</v>
       </c>
@@ -2082,11 +2186,11 @@
         <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Insert"),"")</f>
         <v>creditCardInsert</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="10">
         <f>C48+1</f>
         <v>34</v>
       </c>
-      <c r="G49" s="5" t="str">
+      <c r="G49" s="11" t="str">
         <f>IF(B49&lt;&gt;"",CONCATENATE(inicio_consulta,C49,mid_consulta,A49,B49,fin_consulta),IF(A49&lt;&gt;"",CONCATENATE("-- ",A49),""))</f>
         <v>INSERT INTO tserver_permission VALUES (34,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardInsert');</v>
       </c>
@@ -2099,17 +2203,17 @@
         <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Delete"),"")</f>
         <v>creditCardDelete</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="10">
         <f>C49+1</f>
         <v>35</v>
       </c>
-      <c r="G50" s="5" t="str">
+      <c r="G50" s="11" t="str">
         <f>IF(B50&lt;&gt;"",CONCATENATE(inicio_consulta,C50,mid_consulta,A50,B50,fin_consulta),IF(A50&lt;&gt;"",CONCATENATE("-- ",A50),""))</f>
         <v>INSERT INTO tserver_permission VALUES (35,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardDelete');</v>
       </c>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="5" t="str">
+      <c r="G51" s="11" t="str">
         <f>IF(B51&lt;&gt;"",CONCATENATE(inicio_consulta,C51,mid_consulta,A51,B51,fin_consulta),IF(A51&lt;&gt;"",CONCATENATE("-- ",A51),""))</f>
         <v/>
       </c>
@@ -2118,7 +2222,7 @@
       <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="5" t="str">
+      <c r="G52" s="11" t="str">
         <f>IF(B52&lt;&gt;"",CONCATENATE(inicio_consulta,C52,mid_consulta,A52,B52,fin_consulta),IF(A52&lt;&gt;"",CONCATENATE("-- ",A52),""))</f>
         <v>-- customerCreditCard</v>
       </c>
@@ -2131,11 +2235,11 @@
         <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Query"),"")</f>
         <v>customerCreditCardQuery</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="10">
         <f>C50+1</f>
         <v>36</v>
       </c>
-      <c r="G53" s="5" t="str">
+      <c r="G53" s="11" t="str">
         <f>IF(B53&lt;&gt;"",CONCATENATE(inicio_consulta,C53,mid_consulta,A53,B53,fin_consulta),IF(A53&lt;&gt;"",CONCATENATE("-- ",A53),""))</f>
         <v>INSERT INTO tserver_permission VALUES (36,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardQuery');</v>
       </c>
@@ -2148,11 +2252,11 @@
         <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Insert"),"")</f>
         <v>customerCreditCardInsert</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="10">
         <f>C53+1</f>
         <v>37</v>
       </c>
-      <c r="G54" s="5" t="str">
+      <c r="G54" s="11" t="str">
         <f>IF(B54&lt;&gt;"",CONCATENATE(inicio_consulta,C54,mid_consulta,A54,B54,fin_consulta),IF(A54&lt;&gt;"",CONCATENATE("-- ",A54),""))</f>
         <v>INSERT INTO tserver_permission VALUES (37,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardInsert');</v>
       </c>
@@ -2165,17 +2269,17 @@
         <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Delete"),"")</f>
         <v>customerCreditCardDelete</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="10">
         <f>C54+1</f>
         <v>38</v>
       </c>
-      <c r="G55" s="5" t="str">
+      <c r="G55" s="11" t="str">
         <f>IF(B55&lt;&gt;"",CONCATENATE(inicio_consulta,C55,mid_consulta,A55,B55,fin_consulta),IF(A55&lt;&gt;"",CONCATENATE("-- ",A55),""))</f>
         <v>INSERT INTO tserver_permission VALUES (38,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardDelete');</v>
       </c>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="5" t="str">
+      <c r="G56" s="11" t="str">
         <f>IF(B56&lt;&gt;"",CONCATENATE(inicio_consulta,C56,mid_consulta,A56,B56,fin_consulta),IF(A56&lt;&gt;"",CONCATENATE("-- ",A56),""))</f>
         <v/>
       </c>
@@ -2184,7 +2288,7 @@
       <c r="A57" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="5" t="str">
+      <c r="G57" s="11" t="str">
         <f>IF(B57&lt;&gt;"",CONCATENATE(inicio_consulta,C57,mid_consulta,A57,B57,fin_consulta),IF(A57&lt;&gt;"",CONCATENATE("-- ",A57),""))</f>
         <v>-- customer</v>
       </c>
@@ -2197,11 +2301,11 @@
         <f>IF(A57&lt;&gt;"",CONCATENATE(A57,"Query"),"")</f>
         <v>customerQuery</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="10">
         <f>C55+1</f>
         <v>39</v>
       </c>
-      <c r="G58" s="5" t="str">
+      <c r="G58" s="11" t="str">
         <f>IF(B58&lt;&gt;"",CONCATENATE(inicio_consulta,C58,mid_consulta,A58,B58,fin_consulta),IF(A58&lt;&gt;"",CONCATENATE("-- ",A58),""))</f>
         <v>INSERT INTO tserver_permission VALUES (39,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerQuery');</v>
       </c>
@@ -2213,11 +2317,11 @@
       <c r="B59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="10">
         <f>C58+1</f>
         <v>40</v>
       </c>
-      <c r="G59" s="5" t="str">
+      <c r="G59" s="11" t="str">
         <f>IF(B59&lt;&gt;"",CONCATENATE(inicio_consulta,C59,mid_consulta,A59,B59,fin_consulta),IF(A59&lt;&gt;"",CONCATENATE("-- ",A59),""))</f>
         <v>INSERT INTO tserver_permission VALUES (40,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/mailAgreementQuery');</v>
       </c>
@@ -2229,11 +2333,11 @@
       <c r="B60" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="10">
         <f t="shared" ref="C60:C66" si="5">C59+1</f>
         <v>41</v>
       </c>
-      <c r="G60" s="5" t="str">
+      <c r="G60" s="11" t="str">
         <f>IF(B60&lt;&gt;"",CONCATENATE(inicio_consulta,C60,mid_consulta,A60,B60,fin_consulta),IF(A60&lt;&gt;"",CONCATENATE("-- ",A60),""))</f>
         <v>INSERT INTO tserver_permission VALUES (41,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/isCustomerValidBookingHolder');</v>
       </c>
@@ -2246,11 +2350,11 @@
         <f>IF(A57&lt;&gt;"",CONCATENATE(A57,"Delete"),"")</f>
         <v>customerDelete</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="10">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="G61" s="5" t="str">
+      <c r="G61" s="11" t="str">
         <f>IF(B61&lt;&gt;"",CONCATENATE(inicio_consulta,C61,mid_consulta,A61,B61,fin_consulta),IF(A61&lt;&gt;"",CONCATENATE("-- ",A61),""))</f>
         <v>INSERT INTO tserver_permission VALUES (42,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerDelete');</v>
       </c>
@@ -2262,11 +2366,11 @@
       <c r="B62" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="10">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="G62" s="5" t="str">
+      <c r="G62" s="11" t="str">
         <f>IF(B62&lt;&gt;"",CONCATENATE(inicio_consulta,C62,mid_consulta,A62,B62,fin_consulta),IF(A62&lt;&gt;"",CONCATENATE("-- ",A62),""))</f>
         <v>INSERT INTO tserver_permission VALUES (43,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/businessCustomerInsert');</v>
       </c>
@@ -2278,11 +2382,11 @@
       <c r="B63" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="10">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="G63" s="5" t="str">
+      <c r="G63" s="11" t="str">
         <f>IF(B63&lt;&gt;"",CONCATENATE(inicio_consulta,C63,mid_consulta,A63,B63,fin_consulta),IF(A63&lt;&gt;"",CONCATENATE("-- ",A63),""))</f>
         <v>INSERT INTO tserver_permission VALUES (44,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/regularCustomerInsert');</v>
       </c>
@@ -2294,11 +2398,11 @@
       <c r="B64" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="10">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="G64" s="5" t="str">
+      <c r="G64" s="11" t="str">
         <f>IF(B64&lt;&gt;"",CONCATENATE(inicio_consulta,C64,mid_consulta,A64,B64,fin_consulta),IF(A64&lt;&gt;"",CONCATENATE("-- ",A64),""))</f>
         <v>INSERT INTO tserver_permission VALUES (45,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerCancelUpdate');</v>
       </c>
@@ -2310,11 +2414,11 @@
       <c r="B65" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="10">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="G65" s="5" t="str">
+      <c r="G65" s="11" t="str">
         <f>IF(B65&lt;&gt;"",CONCATENATE(inicio_consulta,C65,mid_consulta,A65,B65,fin_consulta),IF(A65&lt;&gt;"",CONCATENATE("-- ",A65),""))</f>
         <v>INSERT INTO tserver_permission VALUES (46,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerBusinessUpdate');</v>
       </c>
@@ -2326,17 +2430,17 @@
       <c r="B66" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="10">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="G66" s="5" t="str">
+      <c r="G66" s="11" t="str">
         <f>IF(B66&lt;&gt;"",CONCATENATE(inicio_consulta,C66,mid_consulta,A66,B66,fin_consulta),IF(A66&lt;&gt;"",CONCATENATE("-- ",A66),""))</f>
         <v>INSERT INTO tserver_permission VALUES (47,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerRegularUpdate');</v>
       </c>
     </row>
     <row r="67" spans="7:7">
-      <c r="G67" s="5" t="str">
+      <c r="G67" s="11" t="str">
         <f>IF(B67&lt;&gt;"",CONCATENATE(inicio_consulta,C67,mid_consulta,A67,B67,fin_consulta),IF(A67&lt;&gt;"",CONCATENATE("-- ",A67),""))</f>
         <v/>
       </c>
@@ -2345,7 +2449,7 @@
       <c r="A68" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G68" s="5" t="str">
+      <c r="G68" s="11" t="str">
         <f>IF(B68&lt;&gt;"",CONCATENATE(inicio_consulta,C68,mid_consulta,A68,B68,fin_consulta),IF(A68&lt;&gt;"",CONCATENATE("-- ",A68),""))</f>
         <v>-- feature</v>
       </c>
@@ -2358,11 +2462,11 @@
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Query"),"")</f>
         <v>featureQuery</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="10">
         <f>C66+1</f>
         <v>48</v>
       </c>
-      <c r="G69" s="5" t="str">
+      <c r="G69" s="11" t="str">
         <f>IF(B69&lt;&gt;"",CONCATENATE(inicio_consulta,C69,mid_consulta,A69,B69,fin_consulta),IF(A69&lt;&gt;"",CONCATENATE("-- ",A69),""))</f>
         <v>INSERT INTO tserver_permission VALUES (48,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureQuery');</v>
       </c>
@@ -2375,11 +2479,11 @@
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Insert"),"")</f>
         <v>featureInsert</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="10">
         <f>C69+1</f>
         <v>49</v>
       </c>
-      <c r="G70" s="5" t="str">
+      <c r="G70" s="11" t="str">
         <f>IF(B70&lt;&gt;"",CONCATENATE(inicio_consulta,C70,mid_consulta,A70,B70,fin_consulta),IF(A70&lt;&gt;"",CONCATENATE("-- ",A70),""))</f>
         <v>INSERT INTO tserver_permission VALUES (49,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureInsert');</v>
       </c>
@@ -2392,11 +2496,11 @@
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Update"),"")</f>
         <v>featureUpdate</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="10">
         <f t="shared" ref="C71:C72" si="6">C70+1</f>
         <v>50</v>
       </c>
-      <c r="G71" s="5" t="str">
+      <c r="G71" s="11" t="str">
         <f>IF(B71&lt;&gt;"",CONCATENATE(inicio_consulta,C71,mid_consulta,A71,B71,fin_consulta),IF(A71&lt;&gt;"",CONCATENATE("-- ",A71),""))</f>
         <v>INSERT INTO tserver_permission VALUES (50,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureUpdate');</v>
       </c>
@@ -2409,17 +2513,17 @@
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Delete"),"")</f>
         <v>featureDelete</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="10">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="G72" s="5" t="str">
+      <c r="G72" s="11" t="str">
         <f>IF(B72&lt;&gt;"",CONCATENATE(inicio_consulta,C72,mid_consulta,A72,B72,fin_consulta),IF(A72&lt;&gt;"",CONCATENATE("-- ",A72),""))</f>
         <v>INSERT INTO tserver_permission VALUES (51,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureDelete');</v>
       </c>
     </row>
     <row r="73" spans="7:7">
-      <c r="G73" s="5" t="str">
+      <c r="G73" s="11" t="str">
         <f>IF(B73&lt;&gt;"",CONCATENATE(inicio_consulta,C73,mid_consulta,A73,B73,fin_consulta),IF(A73&lt;&gt;"",CONCATENATE("-- ",A73),""))</f>
         <v/>
       </c>
@@ -2428,7 +2532,7 @@
       <c r="A74" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G74" s="5" t="str">
+      <c r="G74" s="11" t="str">
         <f>IF(B74&lt;&gt;"",CONCATENATE(inicio_consulta,C74,mid_consulta,A74,B74,fin_consulta),IF(A74&lt;&gt;"",CONCATENATE("-- ",A74),""))</f>
         <v>-- hotelServiceExtra</v>
       </c>
@@ -2441,11 +2545,11 @@
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Query"),"")</f>
         <v>hotelServiceExtraQuery</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="10">
         <f>C72+1</f>
         <v>52</v>
       </c>
-      <c r="G75" s="5" t="str">
+      <c r="G75" s="11" t="str">
         <f>IF(B75&lt;&gt;"",CONCATENATE(inicio_consulta,C75,mid_consulta,A75,B75,fin_consulta),IF(A75&lt;&gt;"",CONCATENATE("-- ",A75),""))</f>
         <v>INSERT INTO tserver_permission VALUES (52,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraQuery');</v>
       </c>
@@ -2458,11 +2562,11 @@
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Insert"),"")</f>
         <v>hotelServiceExtraInsert</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="10">
         <f>C75+1</f>
         <v>53</v>
       </c>
-      <c r="G76" s="5" t="str">
+      <c r="G76" s="11" t="str">
         <f>IF(B76&lt;&gt;"",CONCATENATE(inicio_consulta,C76,mid_consulta,A76,B76,fin_consulta),IF(A76&lt;&gt;"",CONCATENATE("-- ",A76),""))</f>
         <v>INSERT INTO tserver_permission VALUES (53,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraInsert');</v>
       </c>
@@ -2475,11 +2579,11 @@
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Update"),"")</f>
         <v>hotelServiceExtraUpdate</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="10">
         <f t="shared" ref="C77:C78" si="7">C76+1</f>
         <v>54</v>
       </c>
-      <c r="G77" s="5" t="str">
+      <c r="G77" s="11" t="str">
         <f>IF(B77&lt;&gt;"",CONCATENATE(inicio_consulta,C77,mid_consulta,A77,B77,fin_consulta),IF(A77&lt;&gt;"",CONCATENATE("-- ",A77),""))</f>
         <v>INSERT INTO tserver_permission VALUES (54,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraUpdate');</v>
       </c>
@@ -2492,17 +2596,17 @@
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Delete"),"")</f>
         <v>hotelServiceExtraDelete</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="10">
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="G78" s="5" t="str">
+      <c r="G78" s="11" t="str">
         <f>IF(B78&lt;&gt;"",CONCATENATE(inicio_consulta,C78,mid_consulta,A78,B78,fin_consulta),IF(A78&lt;&gt;"",CONCATENATE("-- ",A78),""))</f>
         <v>INSERT INTO tserver_permission VALUES (55,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraDelete');</v>
       </c>
     </row>
     <row r="79" spans="7:7">
-      <c r="G79" s="5" t="str">
+      <c r="G79" s="11" t="str">
         <f>IF(B79&lt;&gt;"",CONCATENATE(inicio_consulta,C79,mid_consulta,A79,B79,fin_consulta),IF(A79&lt;&gt;"",CONCATENATE("-- ",A79),""))</f>
         <v/>
       </c>
@@ -2511,7 +2615,7 @@
       <c r="A80" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G80" s="5" t="str">
+      <c r="G80" s="11" t="str">
         <f>IF(B80&lt;&gt;"",CONCATENATE(inicio_consulta,C80,mid_consulta,A80,B80,fin_consulta),IF(A80&lt;&gt;"",CONCATENATE("-- ",A80),""))</f>
         <v>-- hotelService</v>
       </c>
@@ -2524,11 +2628,11 @@
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Query"),"")</f>
         <v>hotelServiceQuery</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="10">
         <f>C78+1</f>
         <v>56</v>
       </c>
-      <c r="G81" s="5" t="str">
+      <c r="G81" s="11" t="str">
         <f>IF(B81&lt;&gt;"",CONCATENATE(inicio_consulta,C81,mid_consulta,A81,B81,fin_consulta),IF(A81&lt;&gt;"",CONCATENATE("-- ",A81),""))</f>
         <v>INSERT INTO tserver_permission VALUES (56,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceQuery');</v>
       </c>
@@ -2541,11 +2645,11 @@
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Insert"),"")</f>
         <v>hotelServiceInsert</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="10">
         <f>C81+1</f>
         <v>57</v>
       </c>
-      <c r="G82" s="5" t="str">
+      <c r="G82" s="11" t="str">
         <f>IF(B82&lt;&gt;"",CONCATENATE(inicio_consulta,C82,mid_consulta,A82,B82,fin_consulta),IF(A82&lt;&gt;"",CONCATENATE("-- ",A82),""))</f>
         <v>INSERT INTO tserver_permission VALUES (57,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceInsert');</v>
       </c>
@@ -2558,11 +2662,11 @@
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Update"),"")</f>
         <v>hotelServiceUpdate</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="10">
         <f t="shared" ref="C83:C84" si="8">C82+1</f>
         <v>58</v>
       </c>
-      <c r="G83" s="5" t="str">
+      <c r="G83" s="11" t="str">
         <f>IF(B83&lt;&gt;"",CONCATENATE(inicio_consulta,C83,mid_consulta,A83,B83,fin_consulta),IF(A83&lt;&gt;"",CONCATENATE("-- ",A83),""))</f>
         <v>INSERT INTO tserver_permission VALUES (58,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceUpdate');</v>
       </c>
@@ -2575,17 +2679,17 @@
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Delete"),"")</f>
         <v>hotelServiceDelete</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="10">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="G84" s="5" t="str">
+      <c r="G84" s="11" t="str">
         <f>IF(B84&lt;&gt;"",CONCATENATE(inicio_consulta,C84,mid_consulta,A84,B84,fin_consulta),IF(A84&lt;&gt;"",CONCATENATE("-- ",A84),""))</f>
         <v>INSERT INTO tserver_permission VALUES (59,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceDelete');</v>
       </c>
     </row>
     <row r="85" spans="7:7">
-      <c r="G85" s="5" t="str">
+      <c r="G85" s="11" t="str">
         <f>IF(B85&lt;&gt;"",CONCATENATE(inicio_consulta,C85,mid_consulta,A85,B85,fin_consulta),IF(A85&lt;&gt;"",CONCATENATE("-- ",A85),""))</f>
         <v/>
       </c>
@@ -2594,7 +2698,7 @@
       <c r="A86" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G86" s="5" t="str">
+      <c r="G86" s="11" t="str">
         <f>IF(B86&lt;&gt;"",CONCATENATE(inicio_consulta,C86,mid_consulta,A86,B86,fin_consulta),IF(A86&lt;&gt;"",CONCATENATE("-- ",A86),""))</f>
         <v>-- receipt</v>
       </c>
@@ -2607,11 +2711,11 @@
         <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Query"),"")</f>
         <v>receiptQuery</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="10">
         <f>C84+1</f>
         <v>60</v>
       </c>
-      <c r="G87" s="5" t="str">
+      <c r="G87" s="11" t="str">
         <f>IF(B87&lt;&gt;"",CONCATENATE(inicio_consulta,C87,mid_consulta,A87,B87,fin_consulta),IF(A87&lt;&gt;"",CONCATENATE("-- ",A87),""))</f>
         <v>INSERT INTO tserver_permission VALUES (60,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptQuery');</v>
       </c>
@@ -2624,11 +2728,11 @@
         <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Insert"),"")</f>
         <v>receiptInsert</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="10">
         <f>C87+1</f>
         <v>61</v>
       </c>
-      <c r="G88" s="5" t="str">
+      <c r="G88" s="11" t="str">
         <f>IF(B88&lt;&gt;"",CONCATENATE(inicio_consulta,C88,mid_consulta,A88,B88,fin_consulta),IF(A88&lt;&gt;"",CONCATENATE("-- ",A88),""))</f>
         <v>INSERT INTO tserver_permission VALUES (61,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptInsert');</v>
       </c>
@@ -2640,11 +2744,11 @@
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="10">
         <f t="shared" ref="C89:C90" si="9">C88+1</f>
         <v>62</v>
       </c>
-      <c r="G89" s="5" t="str">
+      <c r="G89" s="11" t="str">
         <f>IF(B89&lt;&gt;"",CONCATENATE(inicio_consulta,C89,mid_consulta,A89,B89,fin_consulta),IF(A89&lt;&gt;"",CONCATENATE("-- ",A89),""))</f>
         <v>INSERT INTO tserver_permission VALUES (62,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/completeReceiptQuery');</v>
       </c>
@@ -2657,17 +2761,17 @@
         <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Delete"),"")</f>
         <v>receiptDelete</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="10">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="G90" s="5" t="str">
+      <c r="G90" s="11" t="str">
         <f>IF(B90&lt;&gt;"",CONCATENATE(inicio_consulta,C90,mid_consulta,A90,B90,fin_consulta),IF(A90&lt;&gt;"",CONCATENATE("-- ",A90),""))</f>
         <v>INSERT INTO tserver_permission VALUES (63,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptDelete');</v>
       </c>
     </row>
     <row r="91" spans="7:7">
-      <c r="G91" s="5" t="str">
+      <c r="G91" s="11" t="str">
         <f>IF(B91&lt;&gt;"",CONCATENATE(inicio_consulta,C91,mid_consulta,A91,B91,fin_consulta),IF(A91&lt;&gt;"",CONCATENATE("-- ",A91),""))</f>
         <v/>
       </c>
@@ -2676,7 +2780,7 @@
       <c r="A92" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G92" s="5" t="str">
+      <c r="G92" s="11" t="str">
         <f>IF(B92&lt;&gt;"",CONCATENATE(inicio_consulta,C92,mid_consulta,A92,B92,fin_consulta),IF(A92&lt;&gt;"",CONCATENATE("-- ",A92),""))</f>
         <v>-- room</v>
       </c>
@@ -2689,11 +2793,11 @@
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Query"),"")</f>
         <v>roomQuery</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="10">
         <f>C90+1</f>
         <v>64</v>
       </c>
-      <c r="G93" s="5" t="str">
+      <c r="G93" s="11" t="str">
         <f>IF(B93&lt;&gt;"",CONCATENATE(inicio_consulta,C93,mid_consulta,A93,B93,fin_consulta),IF(A93&lt;&gt;"",CONCATENATE("-- ",A93),""))</f>
         <v>INSERT INTO tserver_permission VALUES (64,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomQuery');</v>
       </c>
@@ -2706,11 +2810,11 @@
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Insert"),"")</f>
         <v>roomInsert</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="10">
         <f>C93+1</f>
         <v>65</v>
       </c>
-      <c r="G94" s="5" t="str">
+      <c r="G94" s="11" t="str">
         <f>IF(B94&lt;&gt;"",CONCATENATE(inicio_consulta,C94,mid_consulta,A94,B94,fin_consulta),IF(A94&lt;&gt;"",CONCATENATE("-- ",A94),""))</f>
         <v>INSERT INTO tserver_permission VALUES (65,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInsert');</v>
       </c>
@@ -2723,11 +2827,11 @@
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Update"),"")</f>
         <v>roomUpdate</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="10">
         <f t="shared" ref="C95:C100" si="10">C94+1</f>
         <v>66</v>
       </c>
-      <c r="G95" s="5" t="str">
+      <c r="G95" s="11" t="str">
         <f>IF(B95&lt;&gt;"",CONCATENATE(inicio_consulta,C95,mid_consulta,A95,B95,fin_consulta),IF(A95&lt;&gt;"",CONCATENATE("-- ",A95),""))</f>
         <v>INSERT INTO tserver_permission VALUES (66,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomUpdate');</v>
       </c>
@@ -2740,11 +2844,11 @@
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Delete"),"")</f>
         <v>roomDelete</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="10">
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="G96" s="5" t="str">
+      <c r="G96" s="11" t="str">
         <f>IF(B96&lt;&gt;"",CONCATENATE(inicio_consulta,C96,mid_consulta,A96,B96,fin_consulta),IF(A96&lt;&gt;"",CONCATENATE("-- ",A96),""))</f>
         <v>INSERT INTO tserver_permission VALUES (67,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomDelete');</v>
       </c>
@@ -2756,11 +2860,11 @@
       <c r="B97" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="10">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="G97" s="5" t="str">
+      <c r="G97" s="11" t="str">
         <f>IF(B97&lt;&gt;"",CONCATENATE(inicio_consulta,C97,mid_consulta,A97,B97,fin_consulta),IF(A97&lt;&gt;"",CONCATENATE("-- ",A97),""))</f>
         <v>INSERT INTO tserver_permission VALUES (68,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomsUnbookedInRangeQuery');</v>
       </c>
@@ -2772,11 +2876,11 @@
       <c r="B98" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="10">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="G98" s="5" t="str">
+      <c r="G98" s="11" t="str">
         <f>IF(B98&lt;&gt;"",CONCATENATE(inicio_consulta,C98,mid_consulta,A98,B98,fin_consulta),IF(A98&lt;&gt;"",CONCATENATE("-- ",A98),""))</f>
         <v>INSERT INTO tserver_permission VALUES (69,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/isRoomUnbookedgInRange');</v>
       </c>
@@ -2788,11 +2892,11 @@
       <c r="B99" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="10">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="G99" s="5" t="str">
+      <c r="G99" s="11" t="str">
         <f>IF(B99&lt;&gt;"",CONCATENATE(inicio_consulta,C99,mid_consulta,A99,B99,fin_consulta),IF(A99&lt;&gt;"",CONCATENATE("-- ",A99),""))</f>
         <v>INSERT INTO tserver_permission VALUES (70,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInfoQuery');</v>
       </c>
@@ -2804,17 +2908,17 @@
       <c r="B100" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="10">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="G100" s="5" t="str">
+      <c r="G100" s="11" t="str">
         <f>IF(B100&lt;&gt;"",CONCATENATE(inicio_consulta,C100,mid_consulta,A100,B100,fin_consulta),IF(A100&lt;&gt;"",CONCATENATE("-- ",A100),""))</f>
         <v>INSERT INTO tserver_permission VALUES (71,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/infoHotelFeaturesQuery');</v>
       </c>
     </row>
     <row r="101" spans="7:7">
-      <c r="G101" s="5" t="str">
+      <c r="G101" s="11" t="str">
         <f>IF(B101&lt;&gt;"",CONCATENATE(inicio_consulta,C101,mid_consulta,A101,B101,fin_consulta),IF(A101&lt;&gt;"",CONCATENATE("-- ",A101),""))</f>
         <v/>
       </c>
@@ -2823,7 +2927,7 @@
       <c r="A102" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G102" s="5" t="str">
+      <c r="G102" s="11" t="str">
         <f>IF(B102&lt;&gt;"",CONCATENATE(inicio_consulta,C102,mid_consulta,A102,B102,fin_consulta),IF(A102&lt;&gt;"",CONCATENATE("-- ",A102),""))</f>
         <v>-- roomTypeFeature</v>
       </c>
@@ -2836,11 +2940,11 @@
         <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Query"),"")</f>
         <v>roomTypeFeatureQuery</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="10">
         <f>C100+1</f>
         <v>72</v>
       </c>
-      <c r="G103" s="5" t="str">
+      <c r="G103" s="11" t="str">
         <f>IF(B103&lt;&gt;"",CONCATENATE(inicio_consulta,C103,mid_consulta,A103,B103,fin_consulta),IF(A103&lt;&gt;"",CONCATENATE("-- ",A103),""))</f>
         <v>INSERT INTO tserver_permission VALUES (72,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureQuery');</v>
       </c>
@@ -2853,11 +2957,11 @@
         <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Insert"),"")</f>
         <v>roomTypeFeatureInsert</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="10">
         <f>C103+1</f>
         <v>73</v>
       </c>
-      <c r="G104" s="5" t="str">
+      <c r="G104" s="11" t="str">
         <f>IF(B104&lt;&gt;"",CONCATENATE(inicio_consulta,C104,mid_consulta,A104,B104,fin_consulta),IF(A104&lt;&gt;"",CONCATENATE("-- ",A104),""))</f>
         <v>INSERT INTO tserver_permission VALUES (73,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureInsert');</v>
       </c>
@@ -2870,17 +2974,17 @@
         <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Delete"),"")</f>
         <v>roomTypeFeatureDelete</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="10">
         <f>C104+1</f>
         <v>74</v>
       </c>
-      <c r="G105" s="5" t="str">
+      <c r="G105" s="11" t="str">
         <f>IF(B105&lt;&gt;"",CONCATENATE(inicio_consulta,C105,mid_consulta,A105,B105,fin_consulta),IF(A105&lt;&gt;"",CONCATENATE("-- ",A105),""))</f>
         <v>INSERT INTO tserver_permission VALUES (74,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureDelete');</v>
       </c>
     </row>
     <row r="106" spans="7:7">
-      <c r="G106" s="5" t="str">
+      <c r="G106" s="11" t="str">
         <f>IF(B106&lt;&gt;"",CONCATENATE(inicio_consulta,C106,mid_consulta,A106,B106,fin_consulta),IF(A106&lt;&gt;"",CONCATENATE("-- ",A106),""))</f>
         <v/>
       </c>
@@ -2889,7 +2993,7 @@
       <c r="A107" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G107" s="5" t="str">
+      <c r="G107" s="11" t="str">
         <f>IF(B107&lt;&gt;"",CONCATENATE(inicio_consulta,C107,mid_consulta,A107,B107,fin_consulta),IF(A107&lt;&gt;"",CONCATENATE("-- ",A107),""))</f>
         <v>-- roomType</v>
       </c>
@@ -2902,11 +3006,11 @@
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Query"),"")</f>
         <v>roomTypeQuery</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="10">
         <f>C105+1</f>
         <v>75</v>
       </c>
-      <c r="G108" s="5" t="str">
+      <c r="G108" s="11" t="str">
         <f>IF(B108&lt;&gt;"",CONCATENATE(inicio_consulta,C108,mid_consulta,A108,B108,fin_consulta),IF(A108&lt;&gt;"",CONCATENATE("-- ",A108),""))</f>
         <v>INSERT INTO tserver_permission VALUES (75,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeQuery');</v>
       </c>
@@ -2919,11 +3023,11 @@
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Insert"),"")</f>
         <v>roomTypeInsert</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="10">
         <f>C108+1</f>
         <v>76</v>
       </c>
-      <c r="G109" s="5" t="str">
+      <c r="G109" s="11" t="str">
         <f>IF(B109&lt;&gt;"",CONCATENATE(inicio_consulta,C109,mid_consulta,A109,B109,fin_consulta),IF(A109&lt;&gt;"",CONCATENATE("-- ",A109),""))</f>
         <v>INSERT INTO tserver_permission VALUES (76,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeInsert');</v>
       </c>
@@ -2936,11 +3040,11 @@
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Update"),"")</f>
         <v>roomTypeUpdate</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="10">
         <f t="shared" ref="C110:C113" si="11">C109+1</f>
         <v>77</v>
       </c>
-      <c r="G110" s="5" t="str">
+      <c r="G110" s="11" t="str">
         <f>IF(B110&lt;&gt;"",CONCATENATE(inicio_consulta,C110,mid_consulta,A110,B110,fin_consulta),IF(A110&lt;&gt;"",CONCATENATE("-- ",A110),""))</f>
         <v>INSERT INTO tserver_permission VALUES (77,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeUpdate');</v>
       </c>
@@ -2953,11 +3057,11 @@
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Delete"),"")</f>
         <v>roomTypeDelete</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="10">
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
-      <c r="G111" s="5" t="str">
+      <c r="G111" s="11" t="str">
         <f>IF(B111&lt;&gt;"",CONCATENATE(inicio_consulta,C111,mid_consulta,A111,B111,fin_consulta),IF(A111&lt;&gt;"",CONCATENATE("-- ",A111),""))</f>
         <v>INSERT INTO tserver_permission VALUES (78,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeDelete');</v>
       </c>
@@ -2969,11 +3073,11 @@
       <c r="B112" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="10">
         <f t="shared" si="11"/>
         <v>79</v>
       </c>
-      <c r="G112" s="5" t="str">
+      <c r="G112" s="11" t="str">
         <f>IF(B112&lt;&gt;"",CONCATENATE(inicio_consulta,C112,mid_consulta,A112,B112,fin_consulta),IF(A112&lt;&gt;"",CONCATENATE("-- ",A112),""))</f>
         <v>INSERT INTO tserver_permission VALUES (79,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoQuery');</v>
       </c>
@@ -2985,17 +3089,17 @@
       <c r="B113" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="10">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="G113" s="5" t="str">
+      <c r="G113" s="11" t="str">
         <f>IF(B113&lt;&gt;"",CONCATENATE(inicio_consulta,C113,mid_consulta,A113,B113,fin_consulta),IF(A113&lt;&gt;"",CONCATENATE("-- ",A113),""))</f>
         <v>INSERT INTO tserver_permission VALUES (80,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoRoomFeaturesQuery');</v>
       </c>
     </row>
     <row r="114" spans="7:7">
-      <c r="G114" s="5" t="str">
+      <c r="G114" s="11" t="str">
         <f>IF(B114&lt;&gt;"",CONCATENATE(inicio_consulta,C114,mid_consulta,A114,B114,fin_consulta),IF(A114&lt;&gt;"",CONCATENATE("-- ",A114),""))</f>
         <v/>
       </c>
@@ -3004,7 +3108,7 @@
       <c r="A115" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G115" s="5" t="str">
+      <c r="G115" s="11" t="str">
         <f>IF(B115&lt;&gt;"",CONCATENATE(inicio_consulta,C115,mid_consulta,A115,B115,fin_consulta),IF(A115&lt;&gt;"",CONCATENATE("-- ",A115),""))</f>
         <v>-- service</v>
       </c>
@@ -3017,11 +3121,11 @@
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Query"),"")</f>
         <v>serviceQuery</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="10">
         <f>C113+1</f>
         <v>81</v>
       </c>
-      <c r="G116" s="5" t="str">
+      <c r="G116" s="11" t="str">
         <f>IF(B116&lt;&gt;"",CONCATENATE(inicio_consulta,C116,mid_consulta,A116,B116,fin_consulta),IF(A116&lt;&gt;"",CONCATENATE("-- ",A116),""))</f>
         <v>INSERT INTO tserver_permission VALUES (81,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceQuery');</v>
       </c>
@@ -3034,11 +3138,11 @@
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Insert"),"")</f>
         <v>serviceInsert</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="10">
         <f>C116+1</f>
         <v>82</v>
       </c>
-      <c r="G117" s="5" t="str">
+      <c r="G117" s="11" t="str">
         <f>IF(B117&lt;&gt;"",CONCATENATE(inicio_consulta,C117,mid_consulta,A117,B117,fin_consulta),IF(A117&lt;&gt;"",CONCATENATE("-- ",A117),""))</f>
         <v>INSERT INTO tserver_permission VALUES (82,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceInsert');</v>
       </c>
@@ -3051,11 +3155,11 @@
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Update"),"")</f>
         <v>serviceUpdate</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="10">
         <f t="shared" ref="C118:C119" si="12">C117+1</f>
         <v>83</v>
       </c>
-      <c r="G118" s="5" t="str">
+      <c r="G118" s="11" t="str">
         <f>IF(B118&lt;&gt;"",CONCATENATE(inicio_consulta,C118,mid_consulta,A118,B118,fin_consulta),IF(A118&lt;&gt;"",CONCATENATE("-- ",A118),""))</f>
         <v>INSERT INTO tserver_permission VALUES (83,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceUpdate');</v>
       </c>
@@ -3068,17 +3172,17 @@
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Delete"),"")</f>
         <v>serviceDelete</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="10">
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="G119" s="5" t="str">
+      <c r="G119" s="11" t="str">
         <f>IF(B119&lt;&gt;"",CONCATENATE(inicio_consulta,C119,mid_consulta,A119,B119,fin_consulta),IF(A119&lt;&gt;"",CONCATENATE("-- ",A119),""))</f>
         <v>INSERT INTO tserver_permission VALUES (84,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceDelete');</v>
       </c>
     </row>
     <row r="120" spans="7:7">
-      <c r="G120" s="5" t="str">
+      <c r="G120" s="11" t="str">
         <f>IF(B120&lt;&gt;"",CONCATENATE(inicio_consulta,C120,mid_consulta,A120,B120,fin_consulta),IF(A120&lt;&gt;"",CONCATENATE("-- ",A120),""))</f>
         <v/>
       </c>
@@ -3087,7 +3191,7 @@
       <c r="A121" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G121" s="5" t="str">
+      <c r="G121" s="11" t="str">
         <f>IF(B121&lt;&gt;"",CONCATENATE(inicio_consulta,C121,mid_consulta,A121,B121,fin_consulta),IF(A121&lt;&gt;"",CONCATENATE("-- ",A121),""))</f>
         <v>-- servicesXtra</v>
       </c>
@@ -3100,11 +3204,11 @@
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Query"),"")</f>
         <v>servicesXtraQuery</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="10">
         <f>C119+1</f>
         <v>85</v>
       </c>
-      <c r="G122" s="5" t="str">
+      <c r="G122" s="11" t="str">
         <f>IF(B122&lt;&gt;"",CONCATENATE(inicio_consulta,C122,mid_consulta,A122,B122,fin_consulta),IF(A122&lt;&gt;"",CONCATENATE("-- ",A122),""))</f>
         <v>INSERT INTO tserver_permission VALUES (85,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraQuery');</v>
       </c>
@@ -3117,11 +3221,11 @@
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Insert"),"")</f>
         <v>servicesXtraInsert</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="10">
         <f>C122+1</f>
         <v>86</v>
       </c>
-      <c r="G123" s="5" t="str">
+      <c r="G123" s="11" t="str">
         <f>IF(B123&lt;&gt;"",CONCATENATE(inicio_consulta,C123,mid_consulta,A123,B123,fin_consulta),IF(A123&lt;&gt;"",CONCATENATE("-- ",A123),""))</f>
         <v>INSERT INTO tserver_permission VALUES (86,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraInsert');</v>
       </c>
@@ -3134,11 +3238,11 @@
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Update"),"")</f>
         <v>servicesXtraUpdate</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="10">
         <f t="shared" ref="C124:C125" si="13">C123+1</f>
         <v>87</v>
       </c>
-      <c r="G124" s="5" t="str">
+      <c r="G124" s="11" t="str">
         <f>IF(B124&lt;&gt;"",CONCATENATE(inicio_consulta,C124,mid_consulta,A124,B124,fin_consulta),IF(A124&lt;&gt;"",CONCATENATE("-- ",A124),""))</f>
         <v>INSERT INTO tserver_permission VALUES (87,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraUpdate');</v>
       </c>
@@ -3151,17 +3255,17 @@
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Delete"),"")</f>
         <v>servicesXtraDelete</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="10">
         <f t="shared" si="13"/>
         <v>88</v>
       </c>
-      <c r="G125" s="5" t="str">
+      <c r="G125" s="11" t="str">
         <f>IF(B125&lt;&gt;"",CONCATENATE(inicio_consulta,C125,mid_consulta,A125,B125,fin_consulta),IF(A125&lt;&gt;"",CONCATENATE("-- ",A125),""))</f>
         <v>INSERT INTO tserver_permission VALUES (88,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraDelete');</v>
       </c>
     </row>
     <row r="126" spans="7:7">
-      <c r="G126" s="5" t="str">
+      <c r="G126" s="11" t="str">
         <f>IF(B126&lt;&gt;"",CONCATENATE(inicio_consulta,C126,mid_consulta,A126,B126,fin_consulta),IF(A126&lt;&gt;"",CONCATENATE("-- ",A126),""))</f>
         <v/>
       </c>
@@ -3170,7 +3274,7 @@
       <c r="A127" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G127" s="5" t="str">
+      <c r="G127" s="11" t="str">
         <f>IF(B127&lt;&gt;"",CONCATENATE(inicio_consulta,C127,mid_consulta,A127,B127,fin_consulta),IF(A127&lt;&gt;"",CONCATENATE("-- ",A127),""))</f>
         <v>-- user</v>
       </c>
@@ -3183,11 +3287,11 @@
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Query"),"")</f>
         <v>userQuery</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="10">
         <f>C125+1</f>
         <v>89</v>
       </c>
-      <c r="G128" s="5" t="str">
+      <c r="G128" s="11" t="str">
         <f>IF(B128&lt;&gt;"",CONCATENATE(inicio_consulta,C128,mid_consulta,A128,B128,fin_consulta),IF(A128&lt;&gt;"",CONCATENATE("-- ",A128),""))</f>
         <v>INSERT INTO tserver_permission VALUES (89,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userQuery');</v>
       </c>
@@ -3200,11 +3304,11 @@
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Insert"),"")</f>
         <v>userInsert</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="10">
         <f>C128+1</f>
         <v>90</v>
       </c>
-      <c r="G129" s="5" t="str">
+      <c r="G129" s="11" t="str">
         <f>IF(B129&lt;&gt;"",CONCATENATE(inicio_consulta,C129,mid_consulta,A129,B129,fin_consulta),IF(A129&lt;&gt;"",CONCATENATE("-- ",A129),""))</f>
         <v>INSERT INTO tserver_permission VALUES (90,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userInsert');</v>
       </c>
@@ -3217,11 +3321,11 @@
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Update"),"")</f>
         <v>userUpdate</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="10">
         <f t="shared" ref="C130:C131" si="14">C129+1</f>
         <v>91</v>
       </c>
-      <c r="G130" s="5" t="str">
+      <c r="G130" s="11" t="str">
         <f>IF(B130&lt;&gt;"",CONCATENATE(inicio_consulta,C130,mid_consulta,A130,B130,fin_consulta),IF(A130&lt;&gt;"",CONCATENATE("-- ",A130),""))</f>
         <v>INSERT INTO tserver_permission VALUES (91,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userUpdate');</v>
       </c>
@@ -3234,17 +3338,17 @@
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Delete"),"")</f>
         <v>userDelete</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="10">
         <f t="shared" si="14"/>
         <v>92</v>
       </c>
-      <c r="G131" s="5" t="str">
+      <c r="G131" s="11" t="str">
         <f>IF(B131&lt;&gt;"",CONCATENATE(inicio_consulta,C131,mid_consulta,A131,B131,fin_consulta),IF(A131&lt;&gt;"",CONCATENATE("-- ",A131),""))</f>
         <v>INSERT INTO tserver_permission VALUES (92,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userDelete');</v>
       </c>
     </row>
     <row r="132" spans="7:7">
-      <c r="G132" s="5" t="str">
+      <c r="G132" s="11" t="str">
         <f>IF(B132&lt;&gt;"",CONCATENATE(inicio_consulta,C132,mid_consulta,A132,B132,fin_consulta),IF(A132&lt;&gt;"",CONCATENATE("-- ",A132),""))</f>
         <v/>
       </c>
@@ -3253,7 +3357,7 @@
       <c r="A133" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G133" s="5" t="str">
+      <c r="G133" s="11" t="str">
         <f>IF(B133&lt;&gt;"",CONCATENATE(inicio_consulta,C133,mid_consulta,A133,B133,fin_consulta),IF(A133&lt;&gt;"",CONCATENATE("-- ",A133),""))</f>
         <v>-- department</v>
       </c>
@@ -3266,11 +3370,11 @@
         <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Query"),"")</f>
         <v>departmentQuery</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="10">
         <f>C131+1</f>
         <v>93</v>
       </c>
-      <c r="G134" s="5" t="str">
+      <c r="G134" s="11" t="str">
         <f>IF(B134&lt;&gt;"",CONCATENATE(inicio_consulta,C134,mid_consulta,A134,B134,fin_consulta),IF(A134&lt;&gt;"",CONCATENATE("-- ",A134),""))</f>
         <v>INSERT INTO tserver_permission VALUES (93,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentQuery');</v>
       </c>
@@ -3284,11 +3388,11 @@
         <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Insert"),"")</f>
         <v>departmentInsert</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="10">
         <f>C134+1</f>
         <v>94</v>
       </c>
-      <c r="G135" s="5" t="str">
+      <c r="G135" s="11" t="str">
         <f>IF(B135&lt;&gt;"",CONCATENATE(inicio_consulta,C135,mid_consulta,A135,B135,fin_consulta),IF(A135&lt;&gt;"",CONCATENATE("-- ",A135),""))</f>
         <v>INSERT INTO tserver_permission VALUES (94,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentInsert');</v>
       </c>
@@ -3302,11 +3406,11 @@
         <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Update"),"")</f>
         <v>departmentUpdate</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="10">
         <f t="shared" ref="C136:C137" si="16">C135+1</f>
         <v>95</v>
       </c>
-      <c r="G136" s="5" t="str">
+      <c r="G136" s="11" t="str">
         <f>IF(B136&lt;&gt;"",CONCATENATE(inicio_consulta,C136,mid_consulta,A136,B136,fin_consulta),IF(A136&lt;&gt;"",CONCATENATE("-- ",A136),""))</f>
         <v>INSERT INTO tserver_permission VALUES (95,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentUpdate');</v>
       </c>
@@ -3320,17 +3424,17 @@
         <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Delete"),"")</f>
         <v>departmentDelete</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="10">
         <f t="shared" si="16"/>
         <v>96</v>
       </c>
-      <c r="G137" s="5" t="str">
+      <c r="G137" s="11" t="str">
         <f>IF(B137&lt;&gt;"",CONCATENATE(inicio_consulta,C137,mid_consulta,A137,B137,fin_consulta),IF(A137&lt;&gt;"",CONCATENATE("-- ",A137),""))</f>
         <v>INSERT INTO tserver_permission VALUES (96,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentDelete');</v>
       </c>
     </row>
     <row r="138" spans="7:7">
-      <c r="G138" s="5" t="str">
+      <c r="G138" s="11" t="str">
         <f>IF(B138&lt;&gt;"",CONCATENATE(inicio_consulta,C138,mid_consulta,A138,B138,fin_consulta),IF(A138&lt;&gt;"",CONCATENATE("-- ",A138),""))</f>
         <v/>
       </c>
@@ -3339,7 +3443,7 @@
       <c r="A139" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G139" s="5" t="str">
+      <c r="G139" s="11" t="str">
         <f>IF(B139&lt;&gt;"",CONCATENATE(inicio_consulta,C139,mid_consulta,A139,B139,fin_consulta),IF(A139&lt;&gt;"",CONCATENATE("-- ",A139),""))</f>
         <v>-- employee</v>
       </c>
@@ -3352,11 +3456,11 @@
         <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Query"),"")</f>
         <v>employeeQuery</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="10">
         <f>C137+1</f>
         <v>97</v>
       </c>
-      <c r="G140" s="5" t="str">
+      <c r="G140" s="11" t="str">
         <f>IF(B140&lt;&gt;"",CONCATENATE(inicio_consulta,C140,mid_consulta,A140,B140,fin_consulta),IF(A140&lt;&gt;"",CONCATENATE("-- ",A140),""))</f>
         <v>INSERT INTO tserver_permission VALUES (97,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeQuery');</v>
       </c>
@@ -3370,11 +3474,11 @@
         <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Insert"),"")</f>
         <v>employeeInsert</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="10">
         <f>C140+1</f>
         <v>98</v>
       </c>
-      <c r="G141" s="5" t="str">
+      <c r="G141" s="11" t="str">
         <f>IF(B141&lt;&gt;"",CONCATENATE(inicio_consulta,C141,mid_consulta,A141,B141,fin_consulta),IF(A141&lt;&gt;"",CONCATENATE("-- ",A141),""))</f>
         <v>INSERT INTO tserver_permission VALUES (98,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeInsert');</v>
       </c>
@@ -3388,11 +3492,11 @@
         <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Update"),"")</f>
         <v>employeeUpdate</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="10">
         <f t="shared" ref="C142:C143" si="18">C141+1</f>
         <v>99</v>
       </c>
-      <c r="G142" s="5" t="str">
+      <c r="G142" s="11" t="str">
         <f>IF(B142&lt;&gt;"",CONCATENATE(inicio_consulta,C142,mid_consulta,A142,B142,fin_consulta),IF(A142&lt;&gt;"",CONCATENATE("-- ",A142),""))</f>
         <v>INSERT INTO tserver_permission VALUES (99,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeUpdate');</v>
       </c>
@@ -3405,11 +3509,11 @@
       <c r="B143" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="10">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="G143" s="5" t="str">
+      <c r="G143" s="11" t="str">
         <f>IF(B143&lt;&gt;"",CONCATENATE(inicio_consulta,C143,mid_consulta,A143,B143,fin_consulta),IF(A143&lt;&gt;"",CONCATENATE("-- ",A143),""))</f>
         <v>INSERT INTO tserver_permission VALUES (100,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeFiredUpdate');</v>
       </c>
@@ -3418,7 +3522,7 @@
       <c r="A145" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G145" s="5" t="str">
+      <c r="G145" s="11" t="str">
         <f>IF(B145&lt;&gt;"",CONCATENATE(inicio_consulta,C145,mid_consulta,A145,B145,fin_consulta),IF(A145&lt;&gt;"",CONCATENATE("-- ",A145),""))</f>
         <v>-- bill</v>
       </c>
@@ -3431,11 +3535,11 @@
         <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Query"),"")</f>
         <v>billQuery</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="10">
         <f>C143+1</f>
         <v>101</v>
       </c>
-      <c r="G146" s="5" t="str">
+      <c r="G146" s="11" t="str">
         <f>IF(B146&lt;&gt;"",CONCATENATE(inicio_consulta,C146,mid_consulta,A146,B146,fin_consulta),IF(A146&lt;&gt;"",CONCATENATE("-- ",A146),""))</f>
         <v>INSERT INTO tserver_permission VALUES (101,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billQuery');</v>
       </c>
@@ -3449,11 +3553,11 @@
         <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Insert"),"")</f>
         <v>billInsert</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="10">
         <f>C146+1</f>
         <v>102</v>
       </c>
-      <c r="G147" s="5" t="str">
+      <c r="G147" s="11" t="str">
         <f>IF(B147&lt;&gt;"",CONCATENATE(inicio_consulta,C147,mid_consulta,A147,B147,fin_consulta),IF(A147&lt;&gt;"",CONCATENATE("-- ",A147),""))</f>
         <v>INSERT INTO tserver_permission VALUES (102,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billInsert');</v>
       </c>
@@ -3467,11 +3571,11 @@
         <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Update"),"")</f>
         <v>billUpdate</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="10">
         <f t="shared" ref="C148:C152" si="20">C147+1</f>
         <v>103</v>
       </c>
-      <c r="G148" s="5" t="str">
+      <c r="G148" s="11" t="str">
         <f>IF(B148&lt;&gt;"",CONCATENATE(inicio_consulta,C148,mid_consulta,A148,B148,fin_consulta),IF(A148&lt;&gt;"",CONCATENATE("-- ",A148),""))</f>
         <v>INSERT INTO tserver_permission VALUES (103,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billUpdate');</v>
       </c>
@@ -3485,11 +3589,11 @@
         <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Delete"),"")</f>
         <v>billDelete</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="10">
         <f t="shared" si="20"/>
         <v>104</v>
       </c>
-      <c r="G149" s="5" t="str">
+      <c r="G149" s="11" t="str">
         <f>IF(B149&lt;&gt;"",CONCATENATE(inicio_consulta,C149,mid_consulta,A149,B149,fin_consulta),IF(A149&lt;&gt;"",CONCATENATE("-- ",A149),""))</f>
         <v>INSERT INTO tserver_permission VALUES (104,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billDelete');</v>
       </c>
@@ -3502,11 +3606,11 @@
       <c r="B150" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="10">
         <f t="shared" si="20"/>
         <v>105</v>
       </c>
-      <c r="G150" s="5" t="str">
+      <c r="G150" s="11" t="str">
         <f>IF(B150&lt;&gt;"",CONCATENATE(inicio_consulta,C150,mid_consulta,A150,B150,fin_consulta),IF(A150&lt;&gt;"",CONCATENATE("-- ",A150),""))</f>
         <v>INSERT INTO tserver_permission VALUES (105,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoQuery');</v>
       </c>
@@ -3519,11 +3623,11 @@
       <c r="B151" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="10">
         <f t="shared" si="20"/>
         <v>106</v>
       </c>
-      <c r="G151" s="5" t="str">
+      <c r="G151" s="11" t="str">
         <f>IF(B151&lt;&gt;"",CONCATENATE(inicio_consulta,C151,mid_consulta,A151,B151,fin_consulta),IF(A151&lt;&gt;"",CONCATENATE("-- ",A151),""))</f>
         <v>INSERT INTO tserver_permission VALUES (106,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoHotelQuery');</v>
       </c>
@@ -3536,11 +3640,11 @@
       <c r="B152" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="10">
         <f t="shared" si="20"/>
         <v>107</v>
       </c>
-      <c r="G152" s="5" t="str">
+      <c r="G152" s="11" t="str">
         <f>IF(B152&lt;&gt;"",CONCATENATE(inicio_consulta,C152,mid_consulta,A152,B152,fin_consulta),IF(A152&lt;&gt;"",CONCATENATE("-- ",A152),""))</f>
         <v>INSERT INTO tserver_permission VALUES (107,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billsByHotelDepartmentQuery');</v>
       </c>
@@ -3549,7 +3653,7 @@
       <c r="A154" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G154" s="5" t="str">
+      <c r="G154" s="11" t="str">
         <f>IF(B154&lt;&gt;"",CONCATENATE(inicio_consulta,C154,mid_consulta,A154,B154,fin_consulta),IF(A154&lt;&gt;"",CONCATENATE("-- ",A154),""))</f>
         <v>-- userRole</v>
       </c>
@@ -3562,11 +3666,11 @@
         <f>IF(A154&lt;&gt;"",CONCATENATE(A154,"Query"),"")</f>
         <v>userRoleQuery</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="10">
         <f>C152+1</f>
         <v>108</v>
       </c>
-      <c r="G155" s="5" t="str">
+      <c r="G155" s="11" t="str">
         <f>IF(B155&lt;&gt;"",CONCATENATE(inicio_consulta,C155,mid_consulta,A155,B155,fin_consulta),IF(A155&lt;&gt;"",CONCATENATE("-- ",A155),""))</f>
         <v>INSERT INTO tserver_permission VALUES (108,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleQuery');</v>
       </c>
@@ -3580,11 +3684,11 @@
         <f>IF(A154&lt;&gt;"",CONCATENATE(A154,"Insert"),"")</f>
         <v>userRoleInsert</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="10">
         <f t="shared" ref="C156:C158" si="21">C155+1</f>
         <v>109</v>
       </c>
-      <c r="G156" s="5" t="str">
+      <c r="G156" s="11" t="str">
         <f>IF(B156&lt;&gt;"",CONCATENATE(inicio_consulta,C156,mid_consulta,A156,B156,fin_consulta),IF(A156&lt;&gt;"",CONCATENATE("-- ",A156),""))</f>
         <v>INSERT INTO tserver_permission VALUES (109,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleInsert');</v>
       </c>
@@ -3597,11 +3701,11 @@
       <c r="B157" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="10">
         <f t="shared" si="21"/>
         <v>110</v>
       </c>
-      <c r="G157" s="5" t="str">
+      <c r="G157" s="11" t="str">
         <f>IF(B157&lt;&gt;"",CONCATENATE(inicio_consulta,C157,mid_consulta,A157,B157,fin_consulta),IF(A157&lt;&gt;"",CONCATENATE("-- ",A157),""))</f>
         <v>INSERT INTO tserver_permission VALUES (110,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleDelete');</v>
       </c>
@@ -3610,7 +3714,7 @@
       <c r="A159" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G159" s="5" t="str">
+      <c r="G159" s="11" t="str">
         <f>IF(B159&lt;&gt;"",CONCATENATE(inicio_consulta,C159,mid_consulta,A159,B159,fin_consulta),IF(A159&lt;&gt;"",CONCATENATE("-- ",A159),""))</f>
         <v>-- hotel</v>
       </c>
@@ -3622,11 +3726,14 @@
       <c r="B160" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="10">
         <f>C157+1</f>
         <v>111</v>
       </c>
-      <c r="G160" s="5" t="str">
+      <c r="D160" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="11" t="str">
         <f>IF(B160&lt;&gt;"",CONCATENATE(inicio_consulta,C160,mid_consulta,A160,B160,fin_consulta),IF(A160&lt;&gt;"",CONCATENATE("-- ",A160),""))</f>
         <v>INSERT INTO tserver_permission VALUES (111,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/poiQuery');</v>
       </c>
@@ -3635,7 +3742,7 @@
       <c r="A162" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G162" s="5" t="str">
+      <c r="G162" s="11" t="str">
         <f>IF(B162&lt;&gt;"",CONCATENATE(inicio_consulta,C162,mid_consulta,A162,B162,fin_consulta),IF(A162&lt;&gt;"",CONCATENATE("-- ",A162),""))</f>
         <v>-- user</v>
       </c>
@@ -3647,14 +3754,14 @@
       <c r="B163" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="10">
         <f>C160+1</f>
         <v>112</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G163" s="5" t="str">
+      <c r="G163" s="11" t="str">
         <f>IF(B163&lt;&gt;"",CONCATENATE(inicio_consulta,C163,mid_consulta,A163,B163,fin_consulta),IF(A163&lt;&gt;"",CONCATENATE("-- ",A163),""))</f>
         <v>INSERT INTO tserver_permission VALUES (112,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userCancelUpdate');</v>
       </c>
@@ -3663,7 +3770,7 @@
       <c r="A165" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G165" s="5" t="str">
+      <c r="G165" s="11" t="str">
         <f>IF(B165&lt;&gt;"",CONCATENATE(inicio_consulta,C165,mid_consulta,A165,B165,fin_consulta),IF(A165&lt;&gt;"",CONCATENATE("-- ",A165),""))</f>
         <v>-- statistics</v>
       </c>
@@ -3675,7 +3782,7 @@
       <c r="B166" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="10">
         <f>C163+1</f>
         <v>113</v>
       </c>
@@ -3685,7 +3792,7 @@
       <c r="E166" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G166" s="5" t="str">
+      <c r="G166" s="11" t="str">
         <f>IF(B166&lt;&gt;"",CONCATENATE(inicio_consulta,C166,mid_consulta,A166,B166,fin_consulta),IF(A166&lt;&gt;"",CONCATENATE("-- ",A166),""))</f>
         <v>INSERT INTO tserver_permission VALUES (113,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelMaximumCapacityQuery');</v>
       </c>
@@ -3698,7 +3805,7 @@
       <c r="B167" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="10">
         <f>C166+1</f>
         <v>114</v>
       </c>
@@ -3708,7 +3815,7 @@
       <c r="E167" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G167" s="5" t="str">
+      <c r="G167" s="11" t="str">
         <f>IF(B167&lt;&gt;"",CONCATENATE(inicio_consulta,C167,mid_consulta,A167,B167,fin_consulta),IF(A167&lt;&gt;"",CONCATENATE("-- ",A167),""))</f>
         <v>INSERT INTO tserver_permission VALUES (114,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelOccupancyPercentageQuery');</v>
       </c>
@@ -3721,7 +3828,7 @@
       <c r="B168" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="10">
         <f>C167+1</f>
         <v>115</v>
       </c>
@@ -3731,7 +3838,7 @@
       <c r="E168" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G168" s="5" t="str">
+      <c r="G168" s="11" t="str">
         <f>IF(B168&lt;&gt;"",CONCATENATE(inicio_consulta,C168,mid_consulta,A168,B168,fin_consulta),IF(A168&lt;&gt;"",CONCATENATE("-- ",A168),""))</f>
         <v>INSERT INTO tserver_permission VALUES (115,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelCapacityInDateRangeQuery');</v>
       </c>
@@ -3744,7 +3851,7 @@
       <c r="B169" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="10">
         <f t="shared" ref="C169:C177" si="23">C168+1</f>
         <v>116</v>
       </c>
@@ -3754,7 +3861,7 @@
       <c r="E169" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G169" s="5" t="str">
+      <c r="G169" s="11" t="str">
         <f>IF(B169&lt;&gt;"",CONCATENATE(inicio_consulta,C169,mid_consulta,A169,B169,fin_consulta),IF(A169&lt;&gt;"",CONCATENATE("-- ",A169),""))</f>
         <v>INSERT INTO tserver_permission VALUES (116,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelOccupancyByNationalityPercentageQuery');</v>
       </c>
@@ -3767,7 +3874,7 @@
       <c r="B170" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="10">
         <f t="shared" si="23"/>
         <v>117</v>
       </c>
@@ -3777,7 +3884,7 @@
       <c r="E170" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G170" s="5" t="str">
+      <c r="G170" s="11" t="str">
         <f>IF(B170&lt;&gt;"",CONCATENATE(inicio_consulta,C170,mid_consulta,A170,B170,fin_consulta),IF(A170&lt;&gt;"",CONCATENATE("-- ",A170),""))</f>
         <v>INSERT INTO tserver_permission VALUES (117,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/departmentExpensesByHotelQuery');</v>
       </c>
@@ -3790,7 +3897,7 @@
       <c r="B171" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="10">
         <f t="shared" si="23"/>
         <v>118</v>
       </c>
@@ -3800,7 +3907,7 @@
       <c r="E171" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G171" s="5" t="str">
+      <c r="G171" s="11" t="str">
         <f>IF(B171&lt;&gt;"",CONCATENATE(inicio_consulta,C171,mid_consulta,A171,B171,fin_consulta),IF(A171&lt;&gt;"",CONCATENATE("-- ",A171),""))</f>
         <v>INSERT INTO tserver_permission VALUES (118,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/roomsIncomeByHotelQuery');</v>
       </c>
@@ -3813,7 +3920,7 @@
       <c r="B172" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="10">
         <f t="shared" si="23"/>
         <v>119</v>
       </c>
@@ -3823,7 +3930,7 @@
       <c r="E172" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G172" s="5" t="str">
+      <c r="G172" s="11" t="str">
         <f>IF(B172&lt;&gt;"",CONCATENATE(inicio_consulta,C172,mid_consulta,A172,B172,fin_consulta),IF(A172&lt;&gt;"",CONCATENATE("-- ",A172),""))</f>
         <v>INSERT INTO tserver_permission VALUES (119,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/servicesExtraIncomeByHotelQuery');</v>
       </c>
@@ -3836,7 +3943,7 @@
       <c r="B173" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="10">
         <f t="shared" si="23"/>
         <v>120</v>
       </c>
@@ -3846,601 +3953,701 @@
       <c r="E173" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G173" s="5" t="str">
+      <c r="G173" s="11" t="str">
         <f>IF(B173&lt;&gt;"",CONCATENATE(inicio_consulta,C173,mid_consulta,A173,B173,fin_consulta),IF(A173&lt;&gt;"",CONCATENATE("-- ",A173),""))</f>
         <v>INSERT INTO tserver_permission VALUES (120,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/incomeVsExpensesByHotelQuery');</v>
       </c>
     </row>
-    <row r="179" spans="7:7">
-      <c r="G179" s="5" t="str">
+    <row r="175" spans="1:7">
+      <c r="A175" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G175" s="11" t="str">
+        <f>IF(B175&lt;&gt;"",CONCATENATE(inicio_consulta,C175,mid_consulta,A175,B175,fin_consulta),IF(A175&lt;&gt;"",CONCATENATE("-- ",A175),""))</f>
+        <v>-- picture</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B176" s="1" t="str">
+        <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Query"),"")</f>
+        <v>pictureQuery</v>
+      </c>
+      <c r="C176" s="10">
+        <f>C173+1</f>
+        <v>121</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="11" t="str">
+        <f>IF(B176&lt;&gt;"",CONCATENATE(inicio_consulta,C176,mid_consulta,A176,B176,fin_consulta),IF(A176&lt;&gt;"",CONCATENATE("-- ",A176),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (121,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/pictureQuery');</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="1" t="str">
+        <f>A176</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/</v>
+      </c>
+      <c r="B177" s="1" t="str">
+        <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Insert"),"")</f>
+        <v>pictureInsert</v>
+      </c>
+      <c r="C177" s="10">
+        <f t="shared" ref="C177:C179" si="24">C176+1</f>
+        <v>122</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="11" t="str">
+        <f>IF(B177&lt;&gt;"",CONCATENATE(inicio_consulta,C177,mid_consulta,A177,B177,fin_consulta),IF(A177&lt;&gt;"",CONCATENATE("-- ",A177),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (122,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/pictureInsert');</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="1" t="str">
+        <f>A177</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/</v>
+      </c>
+      <c r="B178" s="1" t="str">
+        <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Update"),"")</f>
+        <v>pictureUpdate</v>
+      </c>
+      <c r="C178" s="10">
+        <f t="shared" si="24"/>
+        <v>123</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="11" t="str">
+        <f>IF(B178&lt;&gt;"",CONCATENATE(inicio_consulta,C178,mid_consulta,A178,B178,fin_consulta),IF(A178&lt;&gt;"",CONCATENATE("-- ",A178),""))</f>
+        <v>INSERT INTO tserver_permission VALUES (123,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/pictureUpdate');</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="1" t="str">
+        <f>A178</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/</v>
+      </c>
+      <c r="B179" s="1" t="str">
+        <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Delete"),"")</f>
+        <v>pictureDelete</v>
+      </c>
+      <c r="C179" s="10">
+        <f t="shared" si="24"/>
+        <v>124</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="11" t="str">
         <f>IF(B179&lt;&gt;"",CONCATENATE(inicio_consulta,C179,mid_consulta,A179,B179,fin_consulta),IF(A179&lt;&gt;"",CONCATENATE("-- ",A179),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="7:7">
-      <c r="G180" s="5" t="str">
+        <v>INSERT INTO tserver_permission VALUES (124,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/pictureDelete');</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="1" t="str">
+        <f>A179</f>
+        <v>com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C180" s="10">
+        <f>C179+1</f>
+        <v>125</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="11" t="str">
         <f>IF(B180&lt;&gt;"",CONCATENATE(inicio_consulta,C180,mid_consulta,A180,B180,fin_consulta),IF(A180&lt;&gt;"",CONCATENATE("-- ",A180),""))</f>
-        <v/>
+        <v>INSERT INTO tserver_permission VALUES (125,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/getPicture');</v>
       </c>
     </row>
     <row r="181" spans="7:7">
-      <c r="G181" s="5" t="str">
+      <c r="G181" s="11" t="str">
         <f>IF(B181&lt;&gt;"",CONCATENATE(inicio_consulta,C181,mid_consulta,A181,B181,fin_consulta),IF(A181&lt;&gt;"",CONCATENATE("-- ",A181),""))</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="7:7">
-      <c r="G182" s="5" t="str">
+      <c r="G182" s="11" t="str">
         <f>IF(B182&lt;&gt;"",CONCATENATE(inicio_consulta,C182,mid_consulta,A182,B182,fin_consulta),IF(A182&lt;&gt;"",CONCATENATE("-- ",A182),""))</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="7:7">
-      <c r="G183" s="5" t="str">
+      <c r="G183" s="11" t="str">
         <f>IF(B183&lt;&gt;"",CONCATENATE(inicio_consulta,C183,mid_consulta,A183,B183,fin_consulta),IF(A183&lt;&gt;"",CONCATENATE("-- ",A183),""))</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="7:7">
-      <c r="G184" s="5" t="str">
+      <c r="G184" s="11" t="str">
         <f>IF(B184&lt;&gt;"",CONCATENATE(inicio_consulta,C184,mid_consulta,A184,B184,fin_consulta),IF(A184&lt;&gt;"",CONCATENATE("-- ",A184),""))</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="7:7">
-      <c r="G185" s="5" t="str">
+      <c r="G185" s="11" t="str">
         <f>IF(B185&lt;&gt;"",CONCATENATE(inicio_consulta,C185,mid_consulta,A185,B185,fin_consulta),IF(A185&lt;&gt;"",CONCATENATE("-- ",A185),""))</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="7:7">
-      <c r="G186" s="5" t="str">
+      <c r="G186" s="11" t="str">
         <f>IF(B186&lt;&gt;"",CONCATENATE(inicio_consulta,C186,mid_consulta,A186,B186,fin_consulta),IF(A186&lt;&gt;"",CONCATENATE("-- ",A186),""))</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="7:7">
-      <c r="G187" s="5" t="str">
+      <c r="G187" s="11" t="str">
         <f>IF(B187&lt;&gt;"",CONCATENATE(inicio_consulta,C187,mid_consulta,A187,B187,fin_consulta),IF(A187&lt;&gt;"",CONCATENATE("-- ",A187),""))</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="7:7">
-      <c r="G188" s="5" t="str">
+      <c r="G188" s="11" t="str">
         <f>IF(B188&lt;&gt;"",CONCATENATE(inicio_consulta,C188,mid_consulta,A188,B188,fin_consulta),IF(A188&lt;&gt;"",CONCATENATE("-- ",A188),""))</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="7:7">
-      <c r="G189" s="5" t="str">
+      <c r="G189" s="11" t="str">
         <f>IF(B189&lt;&gt;"",CONCATENATE(inicio_consulta,C189,mid_consulta,A189,B189,fin_consulta),IF(A189&lt;&gt;"",CONCATENATE("-- ",A189),""))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="7:7">
-      <c r="G190" s="5" t="str">
+      <c r="G190" s="11" t="str">
         <f>IF(B190&lt;&gt;"",CONCATENATE(inicio_consulta,C190,mid_consulta,A190,B190,fin_consulta),IF(A190&lt;&gt;"",CONCATENATE("-- ",A190),""))</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="7:7">
-      <c r="G191" s="5" t="str">
+      <c r="G191" s="11" t="str">
         <f>IF(B191&lt;&gt;"",CONCATENATE(inicio_consulta,C191,mid_consulta,A191,B191,fin_consulta),IF(A191&lt;&gt;"",CONCATENATE("-- ",A191),""))</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="7:7">
-      <c r="G192" s="5" t="str">
+      <c r="G192" s="11" t="str">
         <f>IF(B192&lt;&gt;"",CONCATENATE(inicio_consulta,C192,mid_consulta,A192,B192,fin_consulta),IF(A192&lt;&gt;"",CONCATENATE("-- ",A192),""))</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="7:7">
-      <c r="G193" s="5" t="str">
+      <c r="G193" s="11" t="str">
         <f>IF(B193&lt;&gt;"",CONCATENATE(inicio_consulta,C193,mid_consulta,A193,B193,fin_consulta),IF(A193&lt;&gt;"",CONCATENATE("-- ",A193),""))</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="7:7">
-      <c r="G194" s="5" t="str">
+      <c r="G194" s="11" t="str">
         <f>IF(B194&lt;&gt;"",CONCATENATE(inicio_consulta,C194,mid_consulta,A194,B194,fin_consulta),IF(A194&lt;&gt;"",CONCATENATE("-- ",A194),""))</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="7:7">
-      <c r="G195" s="5" t="str">
+      <c r="G195" s="11" t="str">
         <f>IF(B195&lt;&gt;"",CONCATENATE(inicio_consulta,C195,mid_consulta,A195,B195,fin_consulta),IF(A195&lt;&gt;"",CONCATENATE("-- ",A195),""))</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="7:7">
-      <c r="G196" s="5" t="str">
+      <c r="G196" s="11" t="str">
         <f>IF(B196&lt;&gt;"",CONCATENATE(inicio_consulta,C196,mid_consulta,A196,B196,fin_consulta),IF(A196&lt;&gt;"",CONCATENATE("-- ",A196),""))</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="7:7">
-      <c r="G197" s="5" t="str">
+      <c r="G197" s="11" t="str">
         <f>IF(B197&lt;&gt;"",CONCATENATE(inicio_consulta,C197,mid_consulta,A197,B197,fin_consulta),IF(A197&lt;&gt;"",CONCATENATE("-- ",A197),""))</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="7:7">
-      <c r="G198" s="5" t="str">
+      <c r="G198" s="11" t="str">
         <f>IF(B198&lt;&gt;"",CONCATENATE(inicio_consulta,C198,mid_consulta,A198,B198,fin_consulta),IF(A198&lt;&gt;"",CONCATENATE("-- ",A198),""))</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="7:7">
-      <c r="G199" s="5" t="str">
+      <c r="G199" s="11" t="str">
         <f>IF(B199&lt;&gt;"",CONCATENATE(inicio_consulta,C199,mid_consulta,A199,B199,fin_consulta),IF(A199&lt;&gt;"",CONCATENATE("-- ",A199),""))</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="7:7">
-      <c r="G200" s="5" t="str">
+      <c r="G200" s="11" t="str">
         <f>IF(B200&lt;&gt;"",CONCATENATE(inicio_consulta,C200,mid_consulta,A200,B200,fin_consulta),IF(A200&lt;&gt;"",CONCATENATE("-- ",A200),""))</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="7:7">
-      <c r="G201" s="5" t="str">
+      <c r="G201" s="11" t="str">
         <f>IF(B201&lt;&gt;"",CONCATENATE(inicio_consulta,C201,mid_consulta,A201,B201,fin_consulta),IF(A201&lt;&gt;"",CONCATENATE("-- ",A201),""))</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="7:7">
-      <c r="G202" s="5" t="str">
+      <c r="G202" s="11" t="str">
         <f>IF(B202&lt;&gt;"",CONCATENATE(inicio_consulta,C202,mid_consulta,A202,B202,fin_consulta),IF(A202&lt;&gt;"",CONCATENATE("-- ",A202),""))</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="7:7">
-      <c r="G203" s="5" t="str">
+      <c r="G203" s="11" t="str">
         <f>IF(B203&lt;&gt;"",CONCATENATE(inicio_consulta,C203,mid_consulta,A203,B203,fin_consulta),IF(A203&lt;&gt;"",CONCATENATE("-- ",A203),""))</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="7:7">
-      <c r="G204" s="5" t="str">
+      <c r="G204" s="11" t="str">
         <f>IF(B204&lt;&gt;"",CONCATENATE(inicio_consulta,C204,mid_consulta,A204,B204,fin_consulta),IF(A204&lt;&gt;"",CONCATENATE("-- ",A204),""))</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="7:7">
-      <c r="G205" s="5" t="str">
+      <c r="G205" s="11" t="str">
         <f>IF(B205&lt;&gt;"",CONCATENATE(inicio_consulta,C205,mid_consulta,A205,B205,fin_consulta),IF(A205&lt;&gt;"",CONCATENATE("-- ",A205),""))</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="7:7">
-      <c r="G206" s="5" t="str">
+      <c r="G206" s="11" t="str">
         <f>IF(B206&lt;&gt;"",CONCATENATE(inicio_consulta,C206,mid_consulta,A206,B206,fin_consulta),IF(A206&lt;&gt;"",CONCATENATE("-- ",A206),""))</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="7:7">
-      <c r="G207" s="5" t="str">
+      <c r="G207" s="11" t="str">
         <f>IF(B207&lt;&gt;"",CONCATENATE(inicio_consulta,C207,mid_consulta,A207,B207,fin_consulta),IF(A207&lt;&gt;"",CONCATENATE("-- ",A207),""))</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="7:7">
-      <c r="G208" s="5" t="str">
+      <c r="G208" s="11" t="str">
         <f>IF(B208&lt;&gt;"",CONCATENATE(inicio_consulta,C208,mid_consulta,A208,B208,fin_consulta),IF(A208&lt;&gt;"",CONCATENATE("-- ",A208),""))</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="7:7">
-      <c r="G209" s="5" t="str">
+      <c r="G209" s="11" t="str">
         <f>IF(B209&lt;&gt;"",CONCATENATE(inicio_consulta,C209,mid_consulta,A209,B209,fin_consulta),IF(A209&lt;&gt;"",CONCATENATE("-- ",A209),""))</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="7:7">
-      <c r="G210" s="5" t="str">
+      <c r="G210" s="11" t="str">
         <f>IF(B210&lt;&gt;"",CONCATENATE(inicio_consulta,C210,mid_consulta,A210,B210,fin_consulta),IF(A210&lt;&gt;"",CONCATENATE("-- ",A210),""))</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="7:7">
-      <c r="G211" s="5" t="str">
+      <c r="G211" s="11" t="str">
         <f>IF(B211&lt;&gt;"",CONCATENATE(inicio_consulta,C211,mid_consulta,A211,B211,fin_consulta),IF(A211&lt;&gt;"",CONCATENATE("-- ",A211),""))</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="7:7">
-      <c r="G212" s="5" t="str">
+      <c r="G212" s="11" t="str">
         <f>IF(B212&lt;&gt;"",CONCATENATE(inicio_consulta,C212,mid_consulta,A212,B212,fin_consulta),IF(A212&lt;&gt;"",CONCATENATE("-- ",A212),""))</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="7:7">
-      <c r="G213" s="5" t="str">
+      <c r="G213" s="11" t="str">
         <f>IF(B213&lt;&gt;"",CONCATENATE(inicio_consulta,C213,mid_consulta,A213,B213,fin_consulta),IF(A213&lt;&gt;"",CONCATENATE("-- ",A213),""))</f>
         <v/>
       </c>
     </row>
     <row r="214" spans="7:7">
-      <c r="G214" s="5" t="str">
+      <c r="G214" s="11" t="str">
         <f>IF(B214&lt;&gt;"",CONCATENATE(inicio_consulta,C214,mid_consulta,A214,B214,fin_consulta),IF(A214&lt;&gt;"",CONCATENATE("-- ",A214),""))</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="7:7">
-      <c r="G215" s="5" t="str">
+      <c r="G215" s="11" t="str">
         <f>IF(B215&lt;&gt;"",CONCATENATE(inicio_consulta,C215,mid_consulta,A215,B215,fin_consulta),IF(A215&lt;&gt;"",CONCATENATE("-- ",A215),""))</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="7:7">
-      <c r="G216" s="5" t="str">
+      <c r="G216" s="11" t="str">
         <f>IF(B216&lt;&gt;"",CONCATENATE(inicio_consulta,C216,mid_consulta,A216,B216,fin_consulta),IF(A216&lt;&gt;"",CONCATENATE("-- ",A216),""))</f>
         <v/>
       </c>
     </row>
     <row r="217" spans="7:7">
-      <c r="G217" s="5" t="str">
+      <c r="G217" s="11" t="str">
         <f>IF(B217&lt;&gt;"",CONCATENATE(inicio_consulta,C217,mid_consulta,A217,B217,fin_consulta),IF(A217&lt;&gt;"",CONCATENATE("-- ",A217),""))</f>
         <v/>
       </c>
     </row>
     <row r="218" spans="7:7">
-      <c r="G218" s="5" t="str">
+      <c r="G218" s="11" t="str">
         <f>IF(B218&lt;&gt;"",CONCATENATE(inicio_consulta,C218,mid_consulta,A218,B218,fin_consulta),IF(A218&lt;&gt;"",CONCATENATE("-- ",A218),""))</f>
         <v/>
       </c>
     </row>
     <row r="219" spans="7:7">
-      <c r="G219" s="5" t="str">
+      <c r="G219" s="11" t="str">
         <f>IF(B219&lt;&gt;"",CONCATENATE(inicio_consulta,C219,mid_consulta,A219,B219,fin_consulta),IF(A219&lt;&gt;"",CONCATENATE("-- ",A219),""))</f>
         <v/>
       </c>
     </row>
     <row r="220" spans="7:7">
-      <c r="G220" s="5" t="str">
+      <c r="G220" s="11" t="str">
         <f>IF(B220&lt;&gt;"",CONCATENATE(inicio_consulta,C220,mid_consulta,A220,B220,fin_consulta),IF(A220&lt;&gt;"",CONCATENATE("-- ",A220),""))</f>
         <v/>
       </c>
     </row>
     <row r="221" spans="7:7">
-      <c r="G221" s="5" t="str">
+      <c r="G221" s="11" t="str">
         <f>IF(B221&lt;&gt;"",CONCATENATE(inicio_consulta,C221,mid_consulta,A221,B221,fin_consulta),IF(A221&lt;&gt;"",CONCATENATE("-- ",A221),""))</f>
         <v/>
       </c>
     </row>
     <row r="222" spans="7:7">
-      <c r="G222" s="5" t="str">
+      <c r="G222" s="11" t="str">
         <f>IF(B222&lt;&gt;"",CONCATENATE(inicio_consulta,C222,mid_consulta,A222,B222,fin_consulta),IF(A222&lt;&gt;"",CONCATENATE("-- ",A222),""))</f>
         <v/>
       </c>
     </row>
     <row r="223" spans="7:7">
-      <c r="G223" s="5" t="str">
+      <c r="G223" s="11" t="str">
         <f>IF(B223&lt;&gt;"",CONCATENATE(inicio_consulta,C223,mid_consulta,A223,B223,fin_consulta),IF(A223&lt;&gt;"",CONCATENATE("-- ",A223),""))</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="7:7">
-      <c r="G224" s="5" t="str">
+      <c r="G224" s="11" t="str">
         <f>IF(B224&lt;&gt;"",CONCATENATE(inicio_consulta,C224,mid_consulta,A224,B224,fin_consulta),IF(A224&lt;&gt;"",CONCATENATE("-- ",A224),""))</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="7:7">
-      <c r="G225" s="5" t="str">
+      <c r="G225" s="11" t="str">
         <f>IF(B225&lt;&gt;"",CONCATENATE(inicio_consulta,C225,mid_consulta,A225,B225,fin_consulta),IF(A225&lt;&gt;"",CONCATENATE("-- ",A225),""))</f>
         <v/>
       </c>
     </row>
     <row r="226" spans="7:7">
-      <c r="G226" s="5" t="str">
+      <c r="G226" s="11" t="str">
         <f>IF(B226&lt;&gt;"",CONCATENATE(inicio_consulta,C226,mid_consulta,A226,B226,fin_consulta),IF(A226&lt;&gt;"",CONCATENATE("-- ",A226),""))</f>
         <v/>
       </c>
     </row>
     <row r="227" spans="7:7">
-      <c r="G227" s="5" t="str">
+      <c r="G227" s="11" t="str">
         <f>IF(B227&lt;&gt;"",CONCATENATE(inicio_consulta,C227,mid_consulta,A227,B227,fin_consulta),IF(A227&lt;&gt;"",CONCATENATE("-- ",A227),""))</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="7:7">
-      <c r="G228" s="5" t="str">
+      <c r="G228" s="11" t="str">
         <f>IF(B228&lt;&gt;"",CONCATENATE(inicio_consulta,C228,mid_consulta,A228,B228,fin_consulta),IF(A228&lt;&gt;"",CONCATENATE("-- ",A228),""))</f>
         <v/>
       </c>
     </row>
     <row r="229" spans="7:7">
-      <c r="G229" s="5" t="str">
+      <c r="G229" s="11" t="str">
         <f>IF(B229&lt;&gt;"",CONCATENATE(inicio_consulta,C229,mid_consulta,A229,B229,fin_consulta),IF(A229&lt;&gt;"",CONCATENATE("-- ",A229),""))</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="7:7">
-      <c r="G230" s="5" t="str">
+      <c r="G230" s="11" t="str">
         <f>IF(B230&lt;&gt;"",CONCATENATE(inicio_consulta,C230,mid_consulta,A230,B230,fin_consulta),IF(A230&lt;&gt;"",CONCATENATE("-- ",A230),""))</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="7:7">
-      <c r="G231" s="5" t="str">
+      <c r="G231" s="11" t="str">
         <f>IF(B231&lt;&gt;"",CONCATENATE(inicio_consulta,C231,mid_consulta,A231,B231,fin_consulta),IF(A231&lt;&gt;"",CONCATENATE("-- ",A231),""))</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="7:7">
-      <c r="G232" s="5" t="str">
+      <c r="G232" s="11" t="str">
         <f>IF(B232&lt;&gt;"",CONCATENATE(inicio_consulta,C232,mid_consulta,A232,B232,fin_consulta),IF(A232&lt;&gt;"",CONCATENATE("-- ",A232),""))</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="7:7">
-      <c r="G233" s="5" t="str">
+      <c r="G233" s="11" t="str">
         <f>IF(B233&lt;&gt;"",CONCATENATE(inicio_consulta,C233,mid_consulta,A233,B233,fin_consulta),IF(A233&lt;&gt;"",CONCATENATE("-- ",A233),""))</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="7:7">
-      <c r="G234" s="5" t="str">
+      <c r="G234" s="11" t="str">
         <f>IF(B234&lt;&gt;"",CONCATENATE(inicio_consulta,C234,mid_consulta,A234,B234,fin_consulta),IF(A234&lt;&gt;"",CONCATENATE("-- ",A234),""))</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="7:7">
-      <c r="G235" s="5" t="str">
+      <c r="G235" s="11" t="str">
         <f>IF(B235&lt;&gt;"",CONCATENATE(inicio_consulta,C235,mid_consulta,A235,B235,fin_consulta),IF(A235&lt;&gt;"",CONCATENATE("-- ",A235),""))</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="7:7">
-      <c r="G236" s="5" t="str">
+      <c r="G236" s="11" t="str">
         <f>IF(B236&lt;&gt;"",CONCATENATE(inicio_consulta,C236,mid_consulta,A236,B236,fin_consulta),IF(A236&lt;&gt;"",CONCATENATE("-- ",A236),""))</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="7:7">
-      <c r="G237" s="5" t="str">
+      <c r="G237" s="11" t="str">
         <f>IF(B237&lt;&gt;"",CONCATENATE(inicio_consulta,C237,mid_consulta,A237,B237,fin_consulta),IF(A237&lt;&gt;"",CONCATENATE("-- ",A237),""))</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="7:7">
-      <c r="G238" s="5" t="str">
+      <c r="G238" s="11" t="str">
         <f>IF(B238&lt;&gt;"",CONCATENATE(inicio_consulta,C238,mid_consulta,A238,B238,fin_consulta),IF(A238&lt;&gt;"",CONCATENATE("-- ",A238),""))</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="7:7">
-      <c r="G239" s="5" t="str">
+      <c r="G239" s="11" t="str">
         <f>IF(B239&lt;&gt;"",CONCATENATE(inicio_consulta,C239,mid_consulta,A239,B239,fin_consulta),IF(A239&lt;&gt;"",CONCATENATE("-- ",A239),""))</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="7:7">
-      <c r="G240" s="5" t="str">
+      <c r="G240" s="11" t="str">
         <f>IF(B240&lt;&gt;"",CONCATENATE(inicio_consulta,C240,mid_consulta,A240,B240,fin_consulta),IF(A240&lt;&gt;"",CONCATENATE("-- ",A240),""))</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="7:7">
-      <c r="G241" s="5" t="str">
+      <c r="G241" s="11" t="str">
         <f>IF(B241&lt;&gt;"",CONCATENATE(inicio_consulta,C241,mid_consulta,A241,B241,fin_consulta),IF(A241&lt;&gt;"",CONCATENATE("-- ",A241),""))</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="7:7">
-      <c r="G242" s="5" t="str">
+      <c r="G242" s="11" t="str">
         <f>IF(B242&lt;&gt;"",CONCATENATE(inicio_consulta,C242,mid_consulta,A242,B242,fin_consulta),IF(A242&lt;&gt;"",CONCATENATE("-- ",A242),""))</f>
         <v/>
       </c>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="5" t="str">
+      <c r="G243" s="11" t="str">
         <f>IF(B243&lt;&gt;"",CONCATENATE(inicio_consulta,C243,mid_consulta,A243,B243,fin_consulta),IF(A243&lt;&gt;"",CONCATENATE("-- ",A243),""))</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="7:7">
-      <c r="G244" s="5" t="str">
+      <c r="G244" s="11" t="str">
         <f>IF(B244&lt;&gt;"",CONCATENATE(inicio_consulta,C244,mid_consulta,A244,B244,fin_consulta),IF(A244&lt;&gt;"",CONCATENATE("-- ",A244),""))</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="7:7">
-      <c r="G245" s="5" t="str">
+      <c r="G245" s="11" t="str">
         <f>IF(B245&lt;&gt;"",CONCATENATE(inicio_consulta,C245,mid_consulta,A245,B245,fin_consulta),IF(A245&lt;&gt;"",CONCATENATE("-- ",A245),""))</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="7:7">
-      <c r="G246" s="5" t="str">
+      <c r="G246" s="11" t="str">
         <f>IF(B246&lt;&gt;"",CONCATENATE(inicio_consulta,C246,mid_consulta,A246,B246,fin_consulta),IF(A246&lt;&gt;"",CONCATENATE("-- ",A246),""))</f>
         <v/>
       </c>
     </row>
     <row r="247" spans="7:7">
-      <c r="G247" s="5" t="str">
+      <c r="G247" s="11" t="str">
         <f>IF(B247&lt;&gt;"",CONCATENATE(inicio_consulta,C247,mid_consulta,A247,B247,fin_consulta),IF(A247&lt;&gt;"",CONCATENATE("-- ",A247),""))</f>
         <v/>
       </c>
     </row>
     <row r="248" spans="7:7">
-      <c r="G248" s="5" t="str">
+      <c r="G248" s="11" t="str">
         <f>IF(B248&lt;&gt;"",CONCATENATE(inicio_consulta,C248,mid_consulta,A248,B248,fin_consulta),IF(A248&lt;&gt;"",CONCATENATE("-- ",A248),""))</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="7:7">
-      <c r="G249" s="5" t="str">
+      <c r="G249" s="11" t="str">
         <f>IF(B249&lt;&gt;"",CONCATENATE(inicio_consulta,C249,mid_consulta,A249,B249,fin_consulta),IF(A249&lt;&gt;"",CONCATENATE("-- ",A249),""))</f>
         <v/>
       </c>
     </row>
     <row r="250" spans="7:7">
-      <c r="G250" s="5" t="str">
+      <c r="G250" s="11" t="str">
         <f>IF(B250&lt;&gt;"",CONCATENATE(inicio_consulta,C250,mid_consulta,A250,B250,fin_consulta),IF(A250&lt;&gt;"",CONCATENATE("-- ",A250),""))</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="7:7">
-      <c r="G251" s="5" t="str">
+      <c r="G251" s="11" t="str">
         <f>IF(B251&lt;&gt;"",CONCATENATE(inicio_consulta,C251,mid_consulta,A251,B251,fin_consulta),IF(A251&lt;&gt;"",CONCATENATE("-- ",A251),""))</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="7:7">
-      <c r="G252" s="5" t="str">
+      <c r="G252" s="11" t="str">
         <f>IF(B252&lt;&gt;"",CONCATENATE(inicio_consulta,C252,mid_consulta,A252,B252,fin_consulta),IF(A252&lt;&gt;"",CONCATENATE("-- ",A252),""))</f>
         <v/>
       </c>
     </row>
     <row r="253" spans="7:7">
-      <c r="G253" s="5" t="str">
+      <c r="G253" s="11" t="str">
         <f>IF(B253&lt;&gt;"",CONCATENATE(inicio_consulta,C253,mid_consulta,A253,B253,fin_consulta),IF(A253&lt;&gt;"",CONCATENATE("-- ",A253),""))</f>
         <v/>
       </c>
     </row>
     <row r="254" spans="7:7">
-      <c r="G254" s="5" t="str">
+      <c r="G254" s="11" t="str">
         <f>IF(B254&lt;&gt;"",CONCATENATE(inicio_consulta,C254,mid_consulta,A254,B254,fin_consulta),IF(A254&lt;&gt;"",CONCATENATE("-- ",A254),""))</f>
         <v/>
       </c>
     </row>
     <row r="255" spans="7:7">
-      <c r="G255" s="5" t="str">
+      <c r="G255" s="11" t="str">
         <f>IF(B255&lt;&gt;"",CONCATENATE(inicio_consulta,C255,mid_consulta,A255,B255,fin_consulta),IF(A255&lt;&gt;"",CONCATENATE("-- ",A255),""))</f>
         <v/>
       </c>
     </row>
     <row r="256" spans="7:7">
-      <c r="G256" s="5" t="str">
+      <c r="G256" s="11" t="str">
         <f>IF(B256&lt;&gt;"",CONCATENATE(inicio_consulta,C256,mid_consulta,A256,B256,fin_consulta),IF(A256&lt;&gt;"",CONCATENATE("-- ",A256),""))</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="7:7">
-      <c r="G257" s="5" t="str">
+      <c r="G257" s="11" t="str">
         <f>IF(B257&lt;&gt;"",CONCATENATE(inicio_consulta,C257,mid_consulta,A257,B257,fin_consulta),IF(A257&lt;&gt;"",CONCATENATE("-- ",A257),""))</f>
         <v/>
       </c>
     </row>
     <row r="258" spans="7:7">
-      <c r="G258" s="5" t="str">
+      <c r="G258" s="11" t="str">
         <f>IF(B258&lt;&gt;"",CONCATENATE(inicio_consulta,C258,mid_consulta,A258,B258,fin_consulta),IF(A258&lt;&gt;"",CONCATENATE("-- ",A258),""))</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="7:7">
-      <c r="G259" s="5" t="str">
+      <c r="G259" s="11" t="str">
         <f>IF(B259&lt;&gt;"",CONCATENATE(inicio_consulta,C259,mid_consulta,A259,B259,fin_consulta),IF(A259&lt;&gt;"",CONCATENATE("-- ",A259),""))</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="7:7">
-      <c r="G260" s="5" t="str">
+      <c r="G260" s="11" t="str">
         <f>IF(B260&lt;&gt;"",CONCATENATE(inicio_consulta,C260,mid_consulta,A260,B260,fin_consulta),IF(A260&lt;&gt;"",CONCATENATE("-- ",A260),""))</f>
         <v/>
       </c>
     </row>
     <row r="261" spans="7:7">
-      <c r="G261" s="5" t="str">
+      <c r="G261" s="11" t="str">
         <f>IF(B261&lt;&gt;"",CONCATENATE(inicio_consulta,C261,mid_consulta,A261,B261,fin_consulta),IF(A261&lt;&gt;"",CONCATENATE("-- ",A261),""))</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="7:7">
-      <c r="G262" s="5" t="str">
+      <c r="G262" s="11" t="str">
         <f>IF(B262&lt;&gt;"",CONCATENATE(inicio_consulta,C262,mid_consulta,A262,B262,fin_consulta),IF(A262&lt;&gt;"",CONCATENATE("-- ",A262),""))</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="7:7">
-      <c r="G263" s="5" t="str">
+      <c r="G263" s="11" t="str">
         <f>IF(B263&lt;&gt;"",CONCATENATE(inicio_consulta,C263,mid_consulta,A263,B263,fin_consulta),IF(A263&lt;&gt;"",CONCATENATE("-- ",A263),""))</f>
         <v/>
       </c>
     </row>
     <row r="264" spans="7:7">
-      <c r="G264" s="5" t="str">
+      <c r="G264" s="11" t="str">
         <f>IF(B264&lt;&gt;"",CONCATENATE(inicio_consulta,C264,mid_consulta,A264,B264,fin_consulta),IF(A264&lt;&gt;"",CONCATENATE("-- ",A264),""))</f>
         <v/>
       </c>
     </row>
     <row r="265" spans="7:7">
-      <c r="G265" s="5" t="str">
+      <c r="G265" s="11" t="str">
         <f>IF(B265&lt;&gt;"",CONCATENATE(inicio_consulta,C265,mid_consulta,A265,B265,fin_consulta),IF(A265&lt;&gt;"",CONCATENATE("-- ",A265),""))</f>
         <v/>
       </c>
     </row>
     <row r="266" spans="7:7">
-      <c r="G266" s="5" t="str">
+      <c r="G266" s="11" t="str">
         <f>IF(B266&lt;&gt;"",CONCATENATE(inicio_consulta,C266,mid_consulta,A266,B266,fin_consulta),IF(A266&lt;&gt;"",CONCATENATE("-- ",A266),""))</f>
         <v/>
       </c>
     </row>
     <row r="267" spans="7:7">
-      <c r="G267" s="5" t="str">
+      <c r="G267" s="11" t="str">
         <f>IF(B267&lt;&gt;"",CONCATENATE(inicio_consulta,C267,mid_consulta,A267,B267,fin_consulta),IF(A267&lt;&gt;"",CONCATENATE("-- ",A267),""))</f>
         <v/>
       </c>
     </row>
     <row r="268" spans="7:7">
-      <c r="G268" s="5" t="str">
+      <c r="G268" s="11" t="str">
         <f>IF(B268&lt;&gt;"",CONCATENATE(inicio_consulta,C268,mid_consulta,A268,B268,fin_consulta),IF(A268&lt;&gt;"",CONCATENATE("-- ",A268),""))</f>
         <v/>
       </c>
     </row>
     <row r="269" spans="7:7">
-      <c r="G269" s="5" t="str">
+      <c r="G269" s="11" t="str">
         <f>IF(B269&lt;&gt;"",CONCATENATE(inicio_consulta,C269,mid_consulta,A269,B269,fin_consulta),IF(A269&lt;&gt;"",CONCATENATE("-- ",A269),""))</f>
         <v/>
       </c>
     </row>
     <row r="270" spans="7:7">
-      <c r="G270" s="5" t="str">
+      <c r="G270" s="11" t="str">
         <f>IF(B270&lt;&gt;"",CONCATENATE(inicio_consulta,C270,mid_consulta,A270,B270,fin_consulta),IF(A270&lt;&gt;"",CONCATENATE("-- ",A270),""))</f>
         <v/>
       </c>
     </row>
     <row r="271" spans="7:7">
-      <c r="G271" s="5" t="str">
+      <c r="G271" s="11" t="str">
         <f>IF(B271&lt;&gt;"",CONCATENATE(inicio_consulta,C271,mid_consulta,A271,B271,fin_consulta),IF(A271&lt;&gt;"",CONCATENATE("-- ",A271),""))</f>
         <v/>
       </c>
     </row>
     <row r="272" spans="7:7">
-      <c r="G272" s="5" t="str">
-        <f t="shared" ref="G238:G273" si="24">IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,C272,mid_consulta,A272,B272,fin_consulta),"")</f>
+      <c r="G272" s="11" t="str">
+        <f t="shared" ref="G238:G273" si="25">IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,C272,mid_consulta,A272,B272,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="7:7">
-      <c r="G273" s="5" t="str">
-        <f t="shared" si="24"/>
+      <c r="G273" s="11" t="str">
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="7:7">
-      <c r="G274" s="5" t="str">
+      <c r="G274" s="11" t="str">
         <f>IF(B274&lt;&gt;"",CONCATENATE(inicio_consulta,A274,B274,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="275" spans="7:7">
-      <c r="G275" s="5" t="str">
+      <c r="G275" s="11" t="str">
         <f>IF(B275&lt;&gt;"",CONCATENATE(inicio_consulta,A275,B275,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="276" spans="7:7">
-      <c r="G276" s="5" t="str">
+      <c r="G276" s="11" t="str">
         <f>IF(B276&lt;&gt;"",CONCATENATE(inicio_consulta,A276,B276,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
     <row r="277" spans="7:7">
-      <c r="G277" s="5" t="str">
+      <c r="G277" s="11" t="str">
         <f>IF(B277&lt;&gt;"",CONCATENATE(inicio_consulta,A277,B277,fin_consulta),"")</f>
         <v/>
       </c>
@@ -4455,10 +4662,222 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A2:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="6">
+        <v>123456</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E110"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -4468,7 +4887,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -4481,7 +4900,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -5429,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
@@ -5442,17 +5861,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
-        <v>109</v>
+      <c r="A2" s="13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
-        <v>110</v>
+      <c r="A3" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
+++ b/Herramientas y Documentacion/generador inserts permisos metodos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24570" windowHeight="10920" activeTab="1"/>
+    <workbookView windowHeight="18045"/>
   </bookViews>
   <sheets>
     <sheet name="Metodos permisos inserts" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="145">
   <si>
     <t>Servicio / Interfaz</t>
   </si>
@@ -42,18 +42,27 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>Url Acceso</t>
+  </si>
+  <si>
     <t>Inserción Sql</t>
   </si>
   <si>
     <t>hotel</t>
   </si>
   <si>
+    <t>/hotelservice/hotelService/search</t>
+  </si>
+  <si>
     <t>com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/</t>
   </si>
   <si>
     <t>Todos</t>
   </si>
   <si>
+    <t>/hotelservice/hotelService</t>
+  </si>
+  <si>
     <t>Ceo</t>
   </si>
   <si>
@@ -351,6 +360,12 @@
     <t>getPicture</t>
   </si>
   <si>
+    <t>ROLES</t>
+  </si>
+  <si>
+    <t>USUARIOS (EJEMPLO)</t>
+  </si>
+  <si>
     <t>id rol</t>
   </si>
   <si>
@@ -360,67 +375,73 @@
     <t>observaciones</t>
   </si>
   <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Clave</t>
+  </si>
+  <si>
+    <t>Rol Asociado</t>
+  </si>
+  <si>
+    <t>Restricción</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
     <t>accede a todos los metodos</t>
   </si>
   <si>
+    <t>turisticas</t>
+  </si>
+  <si>
     <t>ceo</t>
   </si>
   <si>
+    <t>usuarioLibre</t>
+  </si>
+  <si>
     <t>hotelManager</t>
   </si>
   <si>
     <t>accede algunos metodos, se puede restringir por HTL_ID</t>
   </si>
   <si>
+    <t>gerenteAtom01</t>
+  </si>
+  <si>
+    <t>htl_id =  1</t>
+  </si>
+  <si>
     <t>staff</t>
   </si>
   <si>
+    <t>personalAtom01</t>
+  </si>
+  <si>
     <t>accede algunos metodos, se puede restringir por user_</t>
   </si>
   <si>
+    <t>gerenteAtom02</t>
+  </si>
+  <si>
+    <t>htl_id =  2</t>
+  </si>
+  <si>
     <t>accede a pocos motodos abiertos para todo el mundo</t>
   </si>
   <si>
-    <t>Usuario</t>
-  </si>
-  <si>
-    <t>Clave</t>
-  </si>
-  <si>
-    <t>Rol Asociado</t>
-  </si>
-  <si>
-    <t>Restricción</t>
-  </si>
-  <si>
-    <t>turisticas</t>
-  </si>
-  <si>
-    <t>usuarioLibre</t>
-  </si>
-  <si>
-    <t>gerenteAtom01</t>
-  </si>
-  <si>
-    <t>htl_id =  1</t>
-  </si>
-  <si>
-    <t>personalAtom01</t>
-  </si>
-  <si>
-    <t>gerenteAtom02</t>
-  </si>
-  <si>
-    <t>htl_id =  2</t>
-  </si>
-  <si>
     <t>personalAtom02</t>
   </si>
   <si>
     <t>atom</t>
+  </si>
+  <si>
+    <t>gerenteAtomX</t>
+  </si>
+  <si>
+    <t>incompleto (sin htl_id)</t>
   </si>
   <si>
     <t>INSERT INTO trole_server_permission (id_rolename,id_server_permission) VALUES (4,14);</t>
@@ -444,9 +465,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -480,6 +501,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -489,16 +524,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,9 +561,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,38 +624,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,52 +639,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,7 +654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +678,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,97 +720,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,13 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +762,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,35 +810,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -851,26 +911,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,26 +941,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,19 +963,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,147 +984,155 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,6 +1141,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1420,1966 +1467,1978 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G277"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="77.2857142857143" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.0285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.52380952380952" style="10" customWidth="1"/>
+    <col min="3" max="3" width="4.52380952380952" style="14" customWidth="1"/>
     <col min="4" max="4" width="33.7809523809524" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.0761904761905" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.0761904761905" style="1" customWidth="1"/>
-    <col min="7" max="7" width="162.67619047619" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="11.4285714285714" style="1"/>
+    <col min="6" max="7" width="28.0761904761905" style="1" customWidth="1"/>
+    <col min="8" max="8" width="162.67619047619" style="15" customWidth="1"/>
+    <col min="9" max="16384" width="11.4285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="15.75" spans="1:7">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="12" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="15.75" spans="3:3">
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H1" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="13" customFormat="1" ht="15.75" spans="3:3">
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="15" t="str">
         <f>IF(B3&lt;&gt;"",CONCATENATE(inicio_consulta,C3,mid_consulta,A3,B3,fin_consulta),IF(A3&lt;&gt;"",CONCATENATE("-- ",A3),""))</f>
         <v>-- hotel</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="str">
         <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Query"),"")</f>
         <v>hotelQuery</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="15" t="str">
         <f>IF(B4&lt;&gt;"",CONCATENATE(inicio_consulta,C4,mid_consulta,A4,B4,fin_consulta),IF(A4&lt;&gt;"",CONCATENATE("-- ",A4),""))</f>
         <v>INSERT INTO tserver_permission VALUES (1,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelQuery');</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="str">
         <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Insert"),"")</f>
         <v>hotelInsert</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="14">
         <f>C4+1</f>
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H5" s="15" t="str">
         <f>IF(B5&lt;&gt;"",CONCATENATE(inicio_consulta,C5,mid_consulta,A5,B5,fin_consulta),IF(A5&lt;&gt;"",CONCATENATE("-- ",A5),""))</f>
         <v>INSERT INTO tserver_permission VALUES (2,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelInsert');</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="str">
         <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Update"),"")</f>
         <v>hotelUpdate</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="14">
         <f t="shared" ref="C6:C7" si="0">C5+1</f>
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15" t="str">
         <f>IF(B6&lt;&gt;"",CONCATENATE(inicio_consulta,C6,mid_consulta,A6,B6,fin_consulta),IF(A6&lt;&gt;"",CONCATENATE("-- ",A6),""))</f>
         <v>INSERT INTO tserver_permission VALUES (3,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelUpdate');</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="str">
         <f>IF(A3&lt;&gt;"",CONCATENATE(A3,"Delete"),"")</f>
         <v>hotelDelete</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H7" s="15" t="str">
         <f>IF(B7&lt;&gt;"",CONCATENATE(inicio_consulta,C7,mid_consulta,A7,B7,fin_consulta),IF(A7&lt;&gt;"",CONCATENATE("-- ",A7),""))</f>
         <v>INSERT INTO tserver_permission VALUES (4,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/hotelDelete');</v>
       </c>
     </row>
-    <row r="8" spans="7:7">
-      <c r="G8" s="11" t="str">
+    <row r="8" spans="8:8">
+      <c r="H8" s="15" t="str">
         <f>IF(B8&lt;&gt;"",CONCATENATE(inicio_consulta,C8,mid_consulta,A8,B8,fin_consulta),IF(A8&lt;&gt;"",CONCATENATE("-- ",A8),""))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>15</v>
+      </c>
+      <c r="H9" s="15" t="str">
         <f>IF(B9&lt;&gt;"",CONCATENATE(inicio_consulta,C9,mid_consulta,A9,B9,fin_consulta),IF(A9&lt;&gt;"",CONCATENATE("-- ",A9),""))</f>
         <v>-- bedCombo</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="str">
         <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Query"),"")</f>
         <v>bedComboQuery</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="14">
         <f>C7+1</f>
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>17</v>
+      </c>
+      <c r="H10" s="15" t="str">
         <f>IF(B10&lt;&gt;"",CONCATENATE(inicio_consulta,C10,mid_consulta,A10,B10,fin_consulta),IF(A10&lt;&gt;"",CONCATENATE("-- ",A10),""))</f>
         <v>INSERT INTO tserver_permission VALUES (5,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboQuery');</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="str">
         <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Insert"),"")</f>
         <v>bedComboInsert</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="14">
         <f>C10+1</f>
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H11" s="15" t="str">
         <f>IF(B11&lt;&gt;"",CONCATENATE(inicio_consulta,C11,mid_consulta,A11,B11,fin_consulta),IF(A11&lt;&gt;"",CONCATENATE("-- ",A11),""))</f>
         <v>INSERT INTO tserver_permission VALUES (6,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboInsert');</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="str">
         <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Update"),"")</f>
         <v>bedComboUpdate</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="14">
         <f t="shared" ref="C12:C13" si="1">C11+1</f>
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H12" s="15" t="str">
         <f>IF(B12&lt;&gt;"",CONCATENATE(inicio_consulta,C12,mid_consulta,A12,B12,fin_consulta),IF(A12&lt;&gt;"",CONCATENATE("-- ",A12),""))</f>
         <v>INSERT INTO tserver_permission VALUES (7,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboUpdate');</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="str">
         <f>IF(A9&lt;&gt;"",CONCATENATE(A9,"Delete"),"")</f>
         <v>bedComboDelete</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="14">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H13" s="15" t="str">
         <f>IF(B13&lt;&gt;"",CONCATENATE(inicio_consulta,C13,mid_consulta,A13,B13,fin_consulta),IF(A13&lt;&gt;"",CONCATENATE("-- ",A13),""))</f>
         <v>INSERT INTO tserver_permission VALUES (8,'com.ontimize.atomicHotelsApiRest.api.core.service.IBedComboService/bedComboDelete');</v>
       </c>
     </row>
-    <row r="14" spans="7:7">
-      <c r="G14" s="11" t="str">
+    <row r="14" spans="8:8">
+      <c r="H14" s="15" t="str">
         <f>IF(B14&lt;&gt;"",CONCATENATE(inicio_consulta,C14,mid_consulta,A14,B14,fin_consulta),IF(A14&lt;&gt;"",CONCATENATE("-- ",A14),""))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="11" t="str">
+        <v>18</v>
+      </c>
+      <c r="H15" s="15" t="str">
         <f>IF(B15&lt;&gt;"",CONCATENATE(inicio_consulta,C15,mid_consulta,A15,B15,fin_consulta),IF(A15&lt;&gt;"",CONCATENATE("-- ",A15),""))</f>
         <v>-- bookingGuest</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1" t="str">
         <f>IF(A15&lt;&gt;"",CONCATENATE(A15,"Query"),"")</f>
         <v>bookingGuestQuery</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="14">
         <f>C13+1</f>
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="11" t="str">
+        <v>21</v>
+      </c>
+      <c r="H16" s="15" t="str">
         <f>IF(B16&lt;&gt;"",CONCATENATE(inicio_consulta,C16,mid_consulta,A16,B16,fin_consulta),IF(A16&lt;&gt;"",CONCATENATE("-- ",A16),""))</f>
         <v>INSERT INTO tserver_permission VALUES (9,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestQuery');</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="str">
         <f>IF(A15&lt;&gt;"",CONCATENATE(A15,"Insert"),"")</f>
         <v>bookingGuestInsert</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="14">
         <f>C16+1</f>
         <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="11" t="str">
+        <v>21</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f>IF(B17&lt;&gt;"",CONCATENATE(inicio_consulta,C17,mid_consulta,A17,B17,fin_consulta),IF(A17&lt;&gt;"",CONCATENATE("-- ",A17),""))</f>
         <v>INSERT INTO tserver_permission VALUES (10,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestInsert');</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10">
+        <v>22</v>
+      </c>
+      <c r="C18" s="14">
         <f t="shared" ref="C18:C20" si="2">C17+1</f>
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="11" t="str">
+        <v>21</v>
+      </c>
+      <c r="H18" s="15" t="str">
         <f>IF(B18&lt;&gt;"",CONCATENATE(inicio_consulta,C18,mid_consulta,A18,B18,fin_consulta),IF(A18&lt;&gt;"",CONCATENATE("-- ",A18),""))</f>
         <v>INSERT INTO tserver_permission VALUES (11,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/guestCountQuery');</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="str">
         <f>IF(A15&lt;&gt;"",CONCATENATE(A15,"Delete"),"")</f>
         <v>bookingGuestDelete</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="11" t="str">
+        <v>21</v>
+      </c>
+      <c r="H19" s="15" t="str">
         <f>IF(B19&lt;&gt;"",CONCATENATE(inicio_consulta,C19,mid_consulta,A19,B19,fin_consulta),IF(A19&lt;&gt;"",CONCATENATE("-- ",A19),""))</f>
         <v>INSERT INTO tserver_permission VALUES (12,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestDelete');</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10">
+        <v>23</v>
+      </c>
+      <c r="C20" s="14">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="11" t="str">
+        <v>21</v>
+      </c>
+      <c r="H20" s="15" t="str">
         <f>IF(B20&lt;&gt;"",CONCATENATE(inicio_consulta,C20,mid_consulta,A20,B20,fin_consulta),IF(A20&lt;&gt;"",CONCATENATE("-- ",A20),""))</f>
         <v>INSERT INTO tserver_permission VALUES (13,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingGuestService/bookingGuestsInfoQuery');</v>
       </c>
     </row>
-    <row r="21" spans="7:7">
-      <c r="G21" s="11" t="str">
+    <row r="21" spans="8:8">
+      <c r="H21" s="15" t="str">
         <f>IF(B21&lt;&gt;"",CONCATENATE(inicio_consulta,C21,mid_consulta,A21,B21,fin_consulta),IF(A21&lt;&gt;"",CONCATENATE("-- ",A21),""))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="11" t="str">
+        <v>24</v>
+      </c>
+      <c r="H22" s="15" t="str">
         <f>IF(B22&lt;&gt;"",CONCATENATE(inicio_consulta,C22,mid_consulta,A22,B22,fin_consulta),IF(A22&lt;&gt;"",CONCATENATE("-- ",A22),""))</f>
         <v>-- booking</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="str">
         <f>IF(A22&lt;&gt;"",CONCATENATE(A22,"Query"),"")</f>
         <v>bookingQuery</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="14">
         <f>C20+1</f>
         <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="11" t="str">
+        <v>26</v>
+      </c>
+      <c r="H23" s="15" t="str">
         <f>IF(B23&lt;&gt;"",CONCATENATE(inicio_consulta,C23,mid_consulta,A23,B23,fin_consulta),IF(A23&lt;&gt;"",CONCATENATE("-- ",A23),""))</f>
         <v>INSERT INTO tserver_permission VALUES (14,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingQuery');</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="str">
         <f>IF(A22&lt;&gt;"",CONCATENATE(A22,"Insert"),"")</f>
         <v>bookingInsert</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="14">
         <f>C23+1</f>
         <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="11" t="str">
+        <v>21</v>
+      </c>
+      <c r="H24" s="15" t="str">
         <f>IF(B24&lt;&gt;"",CONCATENATE(inicio_consulta,C24,mid_consulta,A24,B24,fin_consulta),IF(A24&lt;&gt;"",CONCATENATE("-- ",A24),""))</f>
         <v>INSERT INTO tserver_permission VALUES (15,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInsert');</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="10">
+        <v>27</v>
+      </c>
+      <c r="C25" s="14">
         <f t="shared" ref="C25:C35" si="3">C24+1</f>
         <v>16</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="11" t="str">
+        <v>20</v>
+      </c>
+      <c r="H25" s="15" t="str">
         <f>IF(B25&lt;&gt;"",CONCATENATE(inicio_consulta,C25,mid_consulta,A25,B25,fin_consulta),IF(A25&lt;&gt;"",CONCATENATE("-- ",A25),""))</f>
         <v>INSERT INTO tserver_permission VALUES (16,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingActionUpdate');</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="str">
         <f>IF(A22&lt;&gt;"",CONCATENATE(A22,"Delete"),"")</f>
         <v>bookingDelete</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="14">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="G26" s="11" t="str">
+      <c r="H26" s="15" t="str">
         <f>IF(B26&lt;&gt;"",CONCATENATE(inicio_consulta,C26,mid_consulta,A26,B26,fin_consulta),IF(A26&lt;&gt;"",CONCATENATE("-- ",A26),""))</f>
         <v>INSERT INTO tserver_permission VALUES (17,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDelete');</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="10">
+        <v>28</v>
+      </c>
+      <c r="C27" s="14">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G27" s="11" t="str">
+      <c r="H27" s="15" t="str">
         <f>IF(B27&lt;&gt;"",CONCATENATE(inicio_consulta,C27,mid_consulta,A27,B27,fin_consulta),IF(A27&lt;&gt;"",CONCATENATE("-- ",A27),""))</f>
         <v>INSERT INTO tserver_permission VALUES (18,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingInfoQuery');</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="10">
+        <v>29</v>
+      </c>
+      <c r="C28" s="14">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G28" s="11" t="str">
+      <c r="H28" s="15" t="str">
         <f>IF(B28&lt;&gt;"",CONCATENATE(inicio_consulta,C28,mid_consulta,A28,B28,fin_consulta),IF(A28&lt;&gt;"",CONCATENATE("-- ",A28),""))</f>
         <v>INSERT INTO tserver_permission VALUES (19,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeQuery');</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="10">
+        <v>30</v>
+      </c>
+      <c r="C29" s="14">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G29" s="11" t="str">
+      <c r="H29" s="15" t="str">
         <f>IF(B29&lt;&gt;"",CONCATENATE(inicio_consulta,C29,mid_consulta,A29,B29,fin_consulta),IF(A29&lt;&gt;"",CONCATENATE("-- ",A29),""))</f>
         <v>INSERT INTO tserver_permission VALUES (20,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsInRangeInfoQuery');</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="10">
+        <v>31</v>
+      </c>
+      <c r="C30" s="14">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="G30" s="11" t="str">
+      <c r="H30" s="15" t="str">
         <f>IF(B30&lt;&gt;"",CONCATENATE(inicio_consulta,C30,mid_consulta,A30,B30,fin_consulta),IF(A30&lt;&gt;"",CONCATENATE("-- ",A30),""))</f>
         <v>INSERT INTO tserver_permission VALUES (21,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingDaysUnitaryRoomPriceQuery');</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="10">
+        <v>32</v>
+      </c>
+      <c r="C31" s="14">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="G31" s="11" t="str">
+      <c r="H31" s="15" t="str">
         <f>IF(B31&lt;&gt;"",CONCATENATE(inicio_consulta,C31,mid_consulta,A31,B31,fin_consulta),IF(A31&lt;&gt;"",CONCATENATE("-- ",A31),""))</f>
         <v>INSERT INTO tserver_permission VALUES (22,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingsHotelsQuery');</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="10">
+        <v>33</v>
+      </c>
+      <c r="C32" s="14">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="G32" s="11" t="str">
+      <c r="H32" s="15" t="str">
         <f>IF(B32&lt;&gt;"",CONCATENATE(inicio_consulta,C32,mid_consulta,A32,B32,fin_consulta),IF(A32&lt;&gt;"",CONCATENATE("-- ",A32),""))</f>
         <v>INSERT INTO tserver_permission VALUES (23,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/booking_now_by_room_numberQuery');</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="10">
+        <v>34</v>
+      </c>
+      <c r="C33" s="14">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="G33" s="11" t="str">
+      <c r="H33" s="15" t="str">
         <f>IF(B33&lt;&gt;"",CONCATENATE(inicio_consulta,C33,mid_consulta,A33,B33,fin_consulta),IF(A33&lt;&gt;"",CONCATENATE("-- ",A33),""))</f>
         <v>INSERT INTO tserver_permission VALUES (24,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingSlotsInfoQuery');</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="10">
+        <v>35</v>
+      </c>
+      <c r="C34" s="14">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G34" s="11" t="str">
+      <c r="H34" s="15" t="str">
         <f>IF(B34&lt;&gt;"",CONCATENATE(inicio_consulta,C34,mid_consulta,A34,B34,fin_consulta),IF(A34&lt;&gt;"",CONCATENATE("-- ",A34),""))</f>
         <v>INSERT INTO tserver_permission VALUES (25,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingCompleteInfoQuery');</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="10">
+        <v>36</v>
+      </c>
+      <c r="C35" s="14">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="G35" s="11" t="str">
+      <c r="H35" s="15" t="str">
         <f>IF(B35&lt;&gt;"",CONCATENATE(inicio_consulta,C35,mid_consulta,A35,B35,fin_consulta),IF(A35&lt;&gt;"",CONCATENATE("-- ",A35),""))</f>
         <v>INSERT INTO tserver_permission VALUES (26,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingService/bookingHotelRoomRoomTypeQuery');</v>
       </c>
     </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="11" t="str">
+    <row r="36" spans="8:8">
+      <c r="H36" s="15" t="str">
         <f>IF(B36&lt;&gt;"",CONCATENATE(inicio_consulta,C36,mid_consulta,A36,B36,fin_consulta),IF(A36&lt;&gt;"",CONCATENATE("-- ",A36),""))</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="11" t="str">
+        <v>37</v>
+      </c>
+      <c r="H37" s="15" t="str">
         <f>IF(B37&lt;&gt;"",CONCATENATE(inicio_consulta,C37,mid_consulta,A37,B37,fin_consulta),IF(A37&lt;&gt;"",CONCATENATE("-- ",A37),""))</f>
         <v>-- bookingServiceExtra</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="str">
         <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Query"),"")</f>
         <v>bookingServiceExtraQuery</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="14">
         <f>C35+1</f>
         <v>27</v>
       </c>
-      <c r="G38" s="11" t="str">
+      <c r="H38" s="15" t="str">
         <f>IF(B38&lt;&gt;"",CONCATENATE(inicio_consulta,C38,mid_consulta,A38,B38,fin_consulta),IF(A38&lt;&gt;"",CONCATENATE("-- ",A38),""))</f>
         <v>INSERT INTO tserver_permission VALUES (27,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraQuery');</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="str">
         <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Insert"),"")</f>
         <v>bookingServiceExtraInsert</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="14">
         <f>C38+1</f>
         <v>28</v>
       </c>
-      <c r="G39" s="11" t="str">
+      <c r="H39" s="15" t="str">
         <f>IF(B39&lt;&gt;"",CONCATENATE(inicio_consulta,C39,mid_consulta,A39,B39,fin_consulta),IF(A39&lt;&gt;"",CONCATENATE("-- ",A39),""))</f>
         <v>INSERT INTO tserver_permission VALUES (28,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraInsert');</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="str">
         <f>IF(A37&lt;&gt;"",CONCATENATE(A37,"Delete"),"")</f>
         <v>bookingServiceExtraDelete</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="14">
         <f t="shared" ref="C40:C42" si="4">C39+1</f>
         <v>29</v>
       </c>
-      <c r="G40" s="11" t="str">
+      <c r="H40" s="15" t="str">
         <f>IF(B40&lt;&gt;"",CONCATENATE(inicio_consulta,C40,mid_consulta,A40,B40,fin_consulta),IF(A40&lt;&gt;"",CONCATENATE("-- ",A40),""))</f>
         <v>INSERT INTO tserver_permission VALUES (29,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingServiceExtraDelete');</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="10">
+        <v>39</v>
+      </c>
+      <c r="C41" s="14">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="G41" s="11" t="str">
+      <c r="H41" s="15" t="str">
         <f>IF(B41&lt;&gt;"",CONCATENATE(inicio_consulta,C41,mid_consulta,A41,B41,fin_consulta),IF(A41&lt;&gt;"",CONCATENATE("-- ",A41),""))</f>
         <v>INSERT INTO tserver_permission VALUES (30,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/bookingExtraServicePriceUnitsTotalQuery');</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="10">
+        <v>40</v>
+      </c>
+      <c r="C42" s="14">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="G42" s="11" t="str">
+      <c r="H42" s="15" t="str">
         <f>IF(B42&lt;&gt;"",CONCATENATE(inicio_consulta,C42,mid_consulta,A42,B42,fin_consulta),IF(A42&lt;&gt;"",CONCATENATE("-- ",A42),""))</f>
         <v>INSERT INTO tserver_permission VALUES (31,'com.ontimize.atomicHotelsApiRest.api.core.service.IBookingServiceExtraService/extraServicesNameDescriptionUnitsPriceDateQuery');</v>
       </c>
     </row>
-    <row r="43" spans="7:7">
-      <c r="G43" s="11" t="str">
+    <row r="43" spans="8:8">
+      <c r="H43" s="15" t="str">
         <f>IF(B43&lt;&gt;"",CONCATENATE(inicio_consulta,C43,mid_consulta,A43,B43,fin_consulta),IF(A43&lt;&gt;"",CONCATENATE("-- ",A43),""))</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="11" t="str">
+        <v>41</v>
+      </c>
+      <c r="H44" s="15" t="str">
         <f>IF(B44&lt;&gt;"",CONCATENATE(inicio_consulta,C44,mid_consulta,A44,B44,fin_consulta),IF(A44&lt;&gt;"",CONCATENATE("-- ",A44),""))</f>
         <v>-- country</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="str">
         <f>IF(A44&lt;&gt;"",CONCATENATE(A44,"Query"),"")</f>
         <v>countryQuery</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="14">
         <f>C42+1</f>
         <v>32</v>
       </c>
-      <c r="G45" s="11" t="str">
+      <c r="H45" s="15" t="str">
         <f>IF(B45&lt;&gt;"",CONCATENATE(inicio_consulta,C45,mid_consulta,A45,B45,fin_consulta),IF(A45&lt;&gt;"",CONCATENATE("-- ",A45),""))</f>
         <v>INSERT INTO tserver_permission VALUES (32,'com.ontimize.atomicHotelsApiRest.api.core.service.ICountryService/countryQuery');</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" spans="7:7">
-      <c r="G46" s="11" t="str">
+    <row r="46" ht="14.25" customHeight="1" spans="8:8">
+      <c r="H46" s="15" t="str">
         <f>IF(B46&lt;&gt;"",CONCATENATE(inicio_consulta,C46,mid_consulta,A46,B46,fin_consulta),IF(A46&lt;&gt;"",CONCATENATE("-- ",A46),""))</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="11" t="str">
+        <v>43</v>
+      </c>
+      <c r="H47" s="15" t="str">
         <f>IF(B47&lt;&gt;"",CONCATENATE(inicio_consulta,C47,mid_consulta,A47,B47,fin_consulta),IF(A47&lt;&gt;"",CONCATENATE("-- ",A47),""))</f>
         <v>-- creditCard</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1" t="str">
         <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Query"),"")</f>
         <v>creditCardQuery</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="14">
         <f>C45+1</f>
         <v>33</v>
       </c>
-      <c r="G48" s="11" t="str">
+      <c r="H48" s="15" t="str">
         <f>IF(B48&lt;&gt;"",CONCATENATE(inicio_consulta,C48,mid_consulta,A48,B48,fin_consulta),IF(A48&lt;&gt;"",CONCATENATE("-- ",A48),""))</f>
         <v>INSERT INTO tserver_permission VALUES (33,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardQuery');</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="str">
         <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Insert"),"")</f>
         <v>creditCardInsert</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="14">
         <f>C48+1</f>
         <v>34</v>
       </c>
-      <c r="G49" s="11" t="str">
+      <c r="H49" s="15" t="str">
         <f>IF(B49&lt;&gt;"",CONCATENATE(inicio_consulta,C49,mid_consulta,A49,B49,fin_consulta),IF(A49&lt;&gt;"",CONCATENATE("-- ",A49),""))</f>
         <v>INSERT INTO tserver_permission VALUES (34,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardInsert');</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1" t="str">
         <f>IF(A47&lt;&gt;"",CONCATENATE(A47,"Delete"),"")</f>
         <v>creditCardDelete</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="14">
         <f>C49+1</f>
         <v>35</v>
       </c>
-      <c r="G50" s="11" t="str">
+      <c r="H50" s="15" t="str">
         <f>IF(B50&lt;&gt;"",CONCATENATE(inicio_consulta,C50,mid_consulta,A50,B50,fin_consulta),IF(A50&lt;&gt;"",CONCATENATE("-- ",A50),""))</f>
         <v>INSERT INTO tserver_permission VALUES (35,'com.ontimize.atomicHotelsApiRest.api.core.service.ICreditCardService/creditCardDelete');</v>
       </c>
     </row>
-    <row r="51" spans="7:7">
-      <c r="G51" s="11" t="str">
+    <row r="51" spans="8:8">
+      <c r="H51" s="15" t="str">
         <f>IF(B51&lt;&gt;"",CONCATENATE(inicio_consulta,C51,mid_consulta,A51,B51,fin_consulta),IF(A51&lt;&gt;"",CONCATENATE("-- ",A51),""))</f>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" s="11" t="str">
+        <v>45</v>
+      </c>
+      <c r="H52" s="15" t="str">
         <f>IF(B52&lt;&gt;"",CONCATENATE(inicio_consulta,C52,mid_consulta,A52,B52,fin_consulta),IF(A52&lt;&gt;"",CONCATENATE("-- ",A52),""))</f>
         <v>-- customerCreditCard</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="str">
         <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Query"),"")</f>
         <v>customerCreditCardQuery</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="14">
         <f>C50+1</f>
         <v>36</v>
       </c>
-      <c r="G53" s="11" t="str">
+      <c r="H53" s="15" t="str">
         <f>IF(B53&lt;&gt;"",CONCATENATE(inicio_consulta,C53,mid_consulta,A53,B53,fin_consulta),IF(A53&lt;&gt;"",CONCATENATE("-- ",A53),""))</f>
         <v>INSERT INTO tserver_permission VALUES (36,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardQuery');</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="str">
         <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Insert"),"")</f>
         <v>customerCreditCardInsert</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="14">
         <f>C53+1</f>
         <v>37</v>
       </c>
-      <c r="G54" s="11" t="str">
+      <c r="H54" s="15" t="str">
         <f>IF(B54&lt;&gt;"",CONCATENATE(inicio_consulta,C54,mid_consulta,A54,B54,fin_consulta),IF(A54&lt;&gt;"",CONCATENATE("-- ",A54),""))</f>
         <v>INSERT INTO tserver_permission VALUES (37,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardInsert');</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="str">
         <f>IF(A52&lt;&gt;"",CONCATENATE(A52,"Delete"),"")</f>
         <v>customerCreditCardDelete</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="14">
         <f>C54+1</f>
         <v>38</v>
       </c>
-      <c r="G55" s="11" t="str">
+      <c r="H55" s="15" t="str">
         <f>IF(B55&lt;&gt;"",CONCATENATE(inicio_consulta,C55,mid_consulta,A55,B55,fin_consulta),IF(A55&lt;&gt;"",CONCATENATE("-- ",A55),""))</f>
         <v>INSERT INTO tserver_permission VALUES (38,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerCreditCardService/customerCreditCardDelete');</v>
       </c>
     </row>
-    <row r="56" spans="7:7">
-      <c r="G56" s="11" t="str">
+    <row r="56" spans="8:8">
+      <c r="H56" s="15" t="str">
         <f>IF(B56&lt;&gt;"",CONCATENATE(inicio_consulta,C56,mid_consulta,A56,B56,fin_consulta),IF(A56&lt;&gt;"",CONCATENATE("-- ",A56),""))</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="11" t="str">
+        <v>47</v>
+      </c>
+      <c r="H57" s="15" t="str">
         <f>IF(B57&lt;&gt;"",CONCATENATE(inicio_consulta,C57,mid_consulta,A57,B57,fin_consulta),IF(A57&lt;&gt;"",CONCATENATE("-- ",A57),""))</f>
         <v>-- customer</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B58" s="1" t="str">
         <f>IF(A57&lt;&gt;"",CONCATENATE(A57,"Query"),"")</f>
         <v>customerQuery</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="14">
         <f>C55+1</f>
         <v>39</v>
       </c>
-      <c r="G58" s="11" t="str">
+      <c r="H58" s="15" t="str">
         <f>IF(B58&lt;&gt;"",CONCATENATE(inicio_consulta,C58,mid_consulta,A58,B58,fin_consulta),IF(A58&lt;&gt;"",CONCATENATE("-- ",A58),""))</f>
         <v>INSERT INTO tserver_permission VALUES (39,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerQuery');</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C59" s="10">
+        <v>49</v>
+      </c>
+      <c r="C59" s="14">
         <f>C58+1</f>
         <v>40</v>
       </c>
-      <c r="G59" s="11" t="str">
+      <c r="H59" s="15" t="str">
         <f>IF(B59&lt;&gt;"",CONCATENATE(inicio_consulta,C59,mid_consulta,A59,B59,fin_consulta),IF(A59&lt;&gt;"",CONCATENATE("-- ",A59),""))</f>
         <v>INSERT INTO tserver_permission VALUES (40,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/mailAgreementQuery');</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="10">
+        <v>50</v>
+      </c>
+      <c r="C60" s="14">
         <f t="shared" ref="C60:C66" si="5">C59+1</f>
         <v>41</v>
       </c>
-      <c r="G60" s="11" t="str">
+      <c r="H60" s="15" t="str">
         <f>IF(B60&lt;&gt;"",CONCATENATE(inicio_consulta,C60,mid_consulta,A60,B60,fin_consulta),IF(A60&lt;&gt;"",CONCATENATE("-- ",A60),""))</f>
         <v>INSERT INTO tserver_permission VALUES (41,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/isCustomerValidBookingHolder');</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B61" s="1" t="str">
         <f>IF(A57&lt;&gt;"",CONCATENATE(A57,"Delete"),"")</f>
         <v>customerDelete</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="14">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="G61" s="11" t="str">
+      <c r="H61" s="15" t="str">
         <f>IF(B61&lt;&gt;"",CONCATENATE(inicio_consulta,C61,mid_consulta,A61,B61,fin_consulta),IF(A61&lt;&gt;"",CONCATENATE("-- ",A61),""))</f>
         <v>INSERT INTO tserver_permission VALUES (42,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerDelete');</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="10">
+        <v>51</v>
+      </c>
+      <c r="C62" s="14">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="G62" s="11" t="str">
+      <c r="H62" s="15" t="str">
         <f>IF(B62&lt;&gt;"",CONCATENATE(inicio_consulta,C62,mid_consulta,A62,B62,fin_consulta),IF(A62&lt;&gt;"",CONCATENATE("-- ",A62),""))</f>
         <v>INSERT INTO tserver_permission VALUES (43,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/businessCustomerInsert');</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="10">
+        <v>52</v>
+      </c>
+      <c r="C63" s="14">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="G63" s="11" t="str">
+      <c r="H63" s="15" t="str">
         <f>IF(B63&lt;&gt;"",CONCATENATE(inicio_consulta,C63,mid_consulta,A63,B63,fin_consulta),IF(A63&lt;&gt;"",CONCATENATE("-- ",A63),""))</f>
         <v>INSERT INTO tserver_permission VALUES (44,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/regularCustomerInsert');</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C64" s="10">
+        <v>53</v>
+      </c>
+      <c r="C64" s="14">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="G64" s="11" t="str">
+      <c r="H64" s="15" t="str">
         <f>IF(B64&lt;&gt;"",CONCATENATE(inicio_consulta,C64,mid_consulta,A64,B64,fin_consulta),IF(A64&lt;&gt;"",CONCATENATE("-- ",A64),""))</f>
         <v>INSERT INTO tserver_permission VALUES (45,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerCancelUpdate');</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C65" s="10">
+        <v>54</v>
+      </c>
+      <c r="C65" s="14">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="G65" s="11" t="str">
+      <c r="H65" s="15" t="str">
         <f>IF(B65&lt;&gt;"",CONCATENATE(inicio_consulta,C65,mid_consulta,A65,B65,fin_consulta),IF(A65&lt;&gt;"",CONCATENATE("-- ",A65),""))</f>
         <v>INSERT INTO tserver_permission VALUES (46,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerBusinessUpdate');</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="10">
+        <v>55</v>
+      </c>
+      <c r="C66" s="14">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
-      <c r="G66" s="11" t="str">
+      <c r="H66" s="15" t="str">
         <f>IF(B66&lt;&gt;"",CONCATENATE(inicio_consulta,C66,mid_consulta,A66,B66,fin_consulta),IF(A66&lt;&gt;"",CONCATENATE("-- ",A66),""))</f>
         <v>INSERT INTO tserver_permission VALUES (47,'com.ontimize.atomicHotelsApiRest.api.core.service.ICustomerService/customerRegularUpdate');</v>
       </c>
     </row>
-    <row r="67" spans="7:7">
-      <c r="G67" s="11" t="str">
+    <row r="67" spans="8:8">
+      <c r="H67" s="15" t="str">
         <f>IF(B67&lt;&gt;"",CONCATENATE(inicio_consulta,C67,mid_consulta,A67,B67,fin_consulta),IF(A67&lt;&gt;"",CONCATENATE("-- ",A67),""))</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G68" s="11" t="str">
+        <v>56</v>
+      </c>
+      <c r="H68" s="15" t="str">
         <f>IF(B68&lt;&gt;"",CONCATENATE(inicio_consulta,C68,mid_consulta,A68,B68,fin_consulta),IF(A68&lt;&gt;"",CONCATENATE("-- ",A68),""))</f>
         <v>-- feature</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B69" s="1" t="str">
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Query"),"")</f>
         <v>featureQuery</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="14">
         <f>C66+1</f>
         <v>48</v>
       </c>
-      <c r="G69" s="11" t="str">
+      <c r="H69" s="15" t="str">
         <f>IF(B69&lt;&gt;"",CONCATENATE(inicio_consulta,C69,mid_consulta,A69,B69,fin_consulta),IF(A69&lt;&gt;"",CONCATENATE("-- ",A69),""))</f>
         <v>INSERT INTO tserver_permission VALUES (48,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureQuery');</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B70" s="1" t="str">
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Insert"),"")</f>
         <v>featureInsert</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="14">
         <f>C69+1</f>
         <v>49</v>
       </c>
-      <c r="G70" s="11" t="str">
+      <c r="H70" s="15" t="str">
         <f>IF(B70&lt;&gt;"",CONCATENATE(inicio_consulta,C70,mid_consulta,A70,B70,fin_consulta),IF(A70&lt;&gt;"",CONCATENATE("-- ",A70),""))</f>
         <v>INSERT INTO tserver_permission VALUES (49,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureInsert');</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B71" s="1" t="str">
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Update"),"")</f>
         <v>featureUpdate</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="14">
         <f t="shared" ref="C71:C72" si="6">C70+1</f>
         <v>50</v>
       </c>
-      <c r="G71" s="11" t="str">
+      <c r="H71" s="15" t="str">
         <f>IF(B71&lt;&gt;"",CONCATENATE(inicio_consulta,C71,mid_consulta,A71,B71,fin_consulta),IF(A71&lt;&gt;"",CONCATENATE("-- ",A71),""))</f>
         <v>INSERT INTO tserver_permission VALUES (50,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureUpdate');</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B72" s="1" t="str">
         <f>IF(A68&lt;&gt;"",CONCATENATE(A68,"Delete"),"")</f>
         <v>featureDelete</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="14">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
-      <c r="G72" s="11" t="str">
+      <c r="H72" s="15" t="str">
         <f>IF(B72&lt;&gt;"",CONCATENATE(inicio_consulta,C72,mid_consulta,A72,B72,fin_consulta),IF(A72&lt;&gt;"",CONCATENATE("-- ",A72),""))</f>
         <v>INSERT INTO tserver_permission VALUES (51,'com.ontimize.atomicHotelsApiRest.api.core.service.IFeatureService/featureDelete');</v>
       </c>
     </row>
-    <row r="73" spans="7:7">
-      <c r="G73" s="11" t="str">
+    <row r="73" spans="8:8">
+      <c r="H73" s="15" t="str">
         <f>IF(B73&lt;&gt;"",CONCATENATE(inicio_consulta,C73,mid_consulta,A73,B73,fin_consulta),IF(A73&lt;&gt;"",CONCATENATE("-- ",A73),""))</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G74" s="11" t="str">
+        <v>58</v>
+      </c>
+      <c r="H74" s="15" t="str">
         <f>IF(B74&lt;&gt;"",CONCATENATE(inicio_consulta,C74,mid_consulta,A74,B74,fin_consulta),IF(A74&lt;&gt;"",CONCATENATE("-- ",A74),""))</f>
         <v>-- hotelServiceExtra</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B75" s="1" t="str">
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Query"),"")</f>
         <v>hotelServiceExtraQuery</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="14">
         <f>C72+1</f>
         <v>52</v>
       </c>
-      <c r="G75" s="11" t="str">
+      <c r="H75" s="15" t="str">
         <f>IF(B75&lt;&gt;"",CONCATENATE(inicio_consulta,C75,mid_consulta,A75,B75,fin_consulta),IF(A75&lt;&gt;"",CONCATENATE("-- ",A75),""))</f>
         <v>INSERT INTO tserver_permission VALUES (52,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraQuery');</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1" t="str">
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Insert"),"")</f>
         <v>hotelServiceExtraInsert</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="14">
         <f>C75+1</f>
         <v>53</v>
       </c>
-      <c r="G76" s="11" t="str">
+      <c r="H76" s="15" t="str">
         <f>IF(B76&lt;&gt;"",CONCATENATE(inicio_consulta,C76,mid_consulta,A76,B76,fin_consulta),IF(A76&lt;&gt;"",CONCATENATE("-- ",A76),""))</f>
         <v>INSERT INTO tserver_permission VALUES (53,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraInsert');</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B77" s="1" t="str">
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Update"),"")</f>
         <v>hotelServiceExtraUpdate</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="14">
         <f t="shared" ref="C77:C78" si="7">C76+1</f>
         <v>54</v>
       </c>
-      <c r="G77" s="11" t="str">
+      <c r="H77" s="15" t="str">
         <f>IF(B77&lt;&gt;"",CONCATENATE(inicio_consulta,C77,mid_consulta,A77,B77,fin_consulta),IF(A77&lt;&gt;"",CONCATENATE("-- ",A77),""))</f>
         <v>INSERT INTO tserver_permission VALUES (54,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraUpdate');</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B78" s="1" t="str">
         <f>IF(A74&lt;&gt;"",CONCATENATE(A74,"Delete"),"")</f>
         <v>hotelServiceExtraDelete</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="14">
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="G78" s="11" t="str">
+      <c r="H78" s="15" t="str">
         <f>IF(B78&lt;&gt;"",CONCATENATE(inicio_consulta,C78,mid_consulta,A78,B78,fin_consulta),IF(A78&lt;&gt;"",CONCATENATE("-- ",A78),""))</f>
         <v>INSERT INTO tserver_permission VALUES (55,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceExtraService/hotelServiceExtraDelete');</v>
       </c>
     </row>
-    <row r="79" spans="7:7">
-      <c r="G79" s="11" t="str">
+    <row r="79" spans="8:8">
+      <c r="H79" s="15" t="str">
         <f>IF(B79&lt;&gt;"",CONCATENATE(inicio_consulta,C79,mid_consulta,A79,B79,fin_consulta),IF(A79&lt;&gt;"",CONCATENATE("-- ",A79),""))</f>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G80" s="11" t="str">
+        <v>60</v>
+      </c>
+      <c r="H80" s="15" t="str">
         <f>IF(B80&lt;&gt;"",CONCATENATE(inicio_consulta,C80,mid_consulta,A80,B80,fin_consulta),IF(A80&lt;&gt;"",CONCATENATE("-- ",A80),""))</f>
         <v>-- hotelService</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B81" s="1" t="str">
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Query"),"")</f>
         <v>hotelServiceQuery</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="14">
         <f>C78+1</f>
         <v>56</v>
       </c>
-      <c r="G81" s="11" t="str">
+      <c r="H81" s="15" t="str">
         <f>IF(B81&lt;&gt;"",CONCATENATE(inicio_consulta,C81,mid_consulta,A81,B81,fin_consulta),IF(A81&lt;&gt;"",CONCATENATE("-- ",A81),""))</f>
         <v>INSERT INTO tserver_permission VALUES (56,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceQuery');</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B82" s="1" t="str">
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Insert"),"")</f>
         <v>hotelServiceInsert</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="14">
         <f>C81+1</f>
         <v>57</v>
       </c>
-      <c r="G82" s="11" t="str">
+      <c r="H82" s="15" t="str">
         <f>IF(B82&lt;&gt;"",CONCATENATE(inicio_consulta,C82,mid_consulta,A82,B82,fin_consulta),IF(A82&lt;&gt;"",CONCATENATE("-- ",A82),""))</f>
         <v>INSERT INTO tserver_permission VALUES (57,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceInsert');</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B83" s="1" t="str">
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Update"),"")</f>
         <v>hotelServiceUpdate</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="14">
         <f t="shared" ref="C83:C84" si="8">C82+1</f>
         <v>58</v>
       </c>
-      <c r="G83" s="11" t="str">
+      <c r="H83" s="15" t="str">
         <f>IF(B83&lt;&gt;"",CONCATENATE(inicio_consulta,C83,mid_consulta,A83,B83,fin_consulta),IF(A83&lt;&gt;"",CONCATENATE("-- ",A83),""))</f>
         <v>INSERT INTO tserver_permission VALUES (58,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceUpdate');</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B84" s="1" t="str">
         <f>IF(A80&lt;&gt;"",CONCATENATE(A80,"Delete"),"")</f>
         <v>hotelServiceDelete</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C84" s="14">
         <f t="shared" si="8"/>
         <v>59</v>
       </c>
-      <c r="G84" s="11" t="str">
+      <c r="H84" s="15" t="str">
         <f>IF(B84&lt;&gt;"",CONCATENATE(inicio_consulta,C84,mid_consulta,A84,B84,fin_consulta),IF(A84&lt;&gt;"",CONCATENATE("-- ",A84),""))</f>
         <v>INSERT INTO tserver_permission VALUES (59,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelServiceService/hotelServiceDelete');</v>
       </c>
     </row>
-    <row r="85" spans="7:7">
-      <c r="G85" s="11" t="str">
+    <row r="85" spans="8:8">
+      <c r="H85" s="15" t="str">
         <f>IF(B85&lt;&gt;"",CONCATENATE(inicio_consulta,C85,mid_consulta,A85,B85,fin_consulta),IF(A85&lt;&gt;"",CONCATENATE("-- ",A85),""))</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G86" s="11" t="str">
+        <v>62</v>
+      </c>
+      <c r="H86" s="15" t="str">
         <f>IF(B86&lt;&gt;"",CONCATENATE(inicio_consulta,C86,mid_consulta,A86,B86,fin_consulta),IF(A86&lt;&gt;"",CONCATENATE("-- ",A86),""))</f>
         <v>-- receipt</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B87" s="1" t="str">
         <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Query"),"")</f>
         <v>receiptQuery</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="14">
         <f>C84+1</f>
         <v>60</v>
       </c>
-      <c r="G87" s="11" t="str">
+      <c r="H87" s="15" t="str">
         <f>IF(B87&lt;&gt;"",CONCATENATE(inicio_consulta,C87,mid_consulta,A87,B87,fin_consulta),IF(A87&lt;&gt;"",CONCATENATE("-- ",A87),""))</f>
         <v>INSERT INTO tserver_permission VALUES (60,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptQuery');</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B88" s="1" t="str">
         <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Insert"),"")</f>
         <v>receiptInsert</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="14">
         <f>C87+1</f>
         <v>61</v>
       </c>
-      <c r="G88" s="11" t="str">
+      <c r="H88" s="15" t="str">
         <f>IF(B88&lt;&gt;"",CONCATENATE(inicio_consulta,C88,mid_consulta,A88,B88,fin_consulta),IF(A88&lt;&gt;"",CONCATENATE("-- ",A88),""))</f>
         <v>INSERT INTO tserver_permission VALUES (61,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptInsert');</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" s="10">
+        <v>64</v>
+      </c>
+      <c r="C89" s="14">
         <f t="shared" ref="C89:C90" si="9">C88+1</f>
         <v>62</v>
       </c>
-      <c r="G89" s="11" t="str">
+      <c r="H89" s="15" t="str">
         <f>IF(B89&lt;&gt;"",CONCATENATE(inicio_consulta,C89,mid_consulta,A89,B89,fin_consulta),IF(A89&lt;&gt;"",CONCATENATE("-- ",A89),""))</f>
         <v>INSERT INTO tserver_permission VALUES (62,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/completeReceiptQuery');</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B90" s="1" t="str">
         <f>IF(A86&lt;&gt;"",CONCATENATE(A86,"Delete"),"")</f>
         <v>receiptDelete</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="14">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="G90" s="11" t="str">
+      <c r="H90" s="15" t="str">
         <f>IF(B90&lt;&gt;"",CONCATENATE(inicio_consulta,C90,mid_consulta,A90,B90,fin_consulta),IF(A90&lt;&gt;"",CONCATENATE("-- ",A90),""))</f>
         <v>INSERT INTO tserver_permission VALUES (63,'com.ontimize.atomicHotelsApiRest.api.core.service.IReceiptService/receiptDelete');</v>
       </c>
     </row>
-    <row r="91" spans="7:7">
-      <c r="G91" s="11" t="str">
+    <row r="91" spans="8:8">
+      <c r="H91" s="15" t="str">
         <f>IF(B91&lt;&gt;"",CONCATENATE(inicio_consulta,C91,mid_consulta,A91,B91,fin_consulta),IF(A91&lt;&gt;"",CONCATENATE("-- ",A91),""))</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G92" s="11" t="str">
+        <v>65</v>
+      </c>
+      <c r="H92" s="15" t="str">
         <f>IF(B92&lt;&gt;"",CONCATENATE(inicio_consulta,C92,mid_consulta,A92,B92,fin_consulta),IF(A92&lt;&gt;"",CONCATENATE("-- ",A92),""))</f>
         <v>-- room</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B93" s="1" t="str">
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Query"),"")</f>
         <v>roomQuery</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="14">
         <f>C90+1</f>
         <v>64</v>
       </c>
-      <c r="G93" s="11" t="str">
+      <c r="H93" s="15" t="str">
         <f>IF(B93&lt;&gt;"",CONCATENATE(inicio_consulta,C93,mid_consulta,A93,B93,fin_consulta),IF(A93&lt;&gt;"",CONCATENATE("-- ",A93),""))</f>
         <v>INSERT INTO tserver_permission VALUES (64,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomQuery');</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B94" s="1" t="str">
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Insert"),"")</f>
         <v>roomInsert</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="14">
         <f>C93+1</f>
         <v>65</v>
       </c>
-      <c r="G94" s="11" t="str">
+      <c r="H94" s="15" t="str">
         <f>IF(B94&lt;&gt;"",CONCATENATE(inicio_consulta,C94,mid_consulta,A94,B94,fin_consulta),IF(A94&lt;&gt;"",CONCATENATE("-- ",A94),""))</f>
         <v>INSERT INTO tserver_permission VALUES (65,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInsert');</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B95" s="1" t="str">
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Update"),"")</f>
         <v>roomUpdate</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="14">
         <f t="shared" ref="C95:C100" si="10">C94+1</f>
         <v>66</v>
       </c>
-      <c r="G95" s="11" t="str">
+      <c r="H95" s="15" t="str">
         <f>IF(B95&lt;&gt;"",CONCATENATE(inicio_consulta,C95,mid_consulta,A95,B95,fin_consulta),IF(A95&lt;&gt;"",CONCATENATE("-- ",A95),""))</f>
         <v>INSERT INTO tserver_permission VALUES (66,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomUpdate');</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B96" s="1" t="str">
         <f>IF(A92&lt;&gt;"",CONCATENATE(A92,"Delete"),"")</f>
         <v>roomDelete</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="14">
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="G96" s="11" t="str">
+      <c r="H96" s="15" t="str">
         <f>IF(B96&lt;&gt;"",CONCATENATE(inicio_consulta,C96,mid_consulta,A96,B96,fin_consulta),IF(A96&lt;&gt;"",CONCATENATE("-- ",A96),""))</f>
         <v>INSERT INTO tserver_permission VALUES (67,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomDelete');</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C97" s="10">
+        <v>67</v>
+      </c>
+      <c r="C97" s="14">
         <f t="shared" si="10"/>
         <v>68</v>
       </c>
-      <c r="G97" s="11" t="str">
+      <c r="H97" s="15" t="str">
         <f>IF(B97&lt;&gt;"",CONCATENATE(inicio_consulta,C97,mid_consulta,A97,B97,fin_consulta),IF(A97&lt;&gt;"",CONCATENATE("-- ",A97),""))</f>
         <v>INSERT INTO tserver_permission VALUES (68,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomsUnbookedInRangeQuery');</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C98" s="10">
+        <v>68</v>
+      </c>
+      <c r="C98" s="14">
         <f t="shared" si="10"/>
         <v>69</v>
       </c>
-      <c r="G98" s="11" t="str">
+      <c r="H98" s="15" t="str">
         <f>IF(B98&lt;&gt;"",CONCATENATE(inicio_consulta,C98,mid_consulta,A98,B98,fin_consulta),IF(A98&lt;&gt;"",CONCATENATE("-- ",A98),""))</f>
         <v>INSERT INTO tserver_permission VALUES (69,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/isRoomUnbookedgInRange');</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C99" s="10">
+        <v>69</v>
+      </c>
+      <c r="C99" s="14">
         <f t="shared" si="10"/>
         <v>70</v>
       </c>
-      <c r="G99" s="11" t="str">
+      <c r="H99" s="15" t="str">
         <f>IF(B99&lt;&gt;"",CONCATENATE(inicio_consulta,C99,mid_consulta,A99,B99,fin_consulta),IF(A99&lt;&gt;"",CONCATENATE("-- ",A99),""))</f>
         <v>INSERT INTO tserver_permission VALUES (70,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/roomInfoQuery');</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="10">
+        <v>70</v>
+      </c>
+      <c r="C100" s="14">
         <f t="shared" si="10"/>
         <v>71</v>
       </c>
-      <c r="G100" s="11" t="str">
+      <c r="H100" s="15" t="str">
         <f>IF(B100&lt;&gt;"",CONCATENATE(inicio_consulta,C100,mid_consulta,A100,B100,fin_consulta),IF(A100&lt;&gt;"",CONCATENATE("-- ",A100),""))</f>
         <v>INSERT INTO tserver_permission VALUES (71,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomService/infoHotelFeaturesQuery');</v>
       </c>
     </row>
-    <row r="101" spans="7:7">
-      <c r="G101" s="11" t="str">
+    <row r="101" spans="8:8">
+      <c r="H101" s="15" t="str">
         <f>IF(B101&lt;&gt;"",CONCATENATE(inicio_consulta,C101,mid_consulta,A101,B101,fin_consulta),IF(A101&lt;&gt;"",CONCATENATE("-- ",A101),""))</f>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G102" s="11" t="str">
+        <v>71</v>
+      </c>
+      <c r="H102" s="15" t="str">
         <f>IF(B102&lt;&gt;"",CONCATENATE(inicio_consulta,C102,mid_consulta,A102,B102,fin_consulta),IF(A102&lt;&gt;"",CONCATENATE("-- ",A102),""))</f>
         <v>-- roomTypeFeature</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B103" s="1" t="str">
         <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Query"),"")</f>
         <v>roomTypeFeatureQuery</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="14">
         <f>C100+1</f>
         <v>72</v>
       </c>
-      <c r="G103" s="11" t="str">
+      <c r="H103" s="15" t="str">
         <f>IF(B103&lt;&gt;"",CONCATENATE(inicio_consulta,C103,mid_consulta,A103,B103,fin_consulta),IF(A103&lt;&gt;"",CONCATENATE("-- ",A103),""))</f>
         <v>INSERT INTO tserver_permission VALUES (72,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureQuery');</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B104" s="1" t="str">
         <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Insert"),"")</f>
         <v>roomTypeFeatureInsert</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="14">
         <f>C103+1</f>
         <v>73</v>
       </c>
-      <c r="G104" s="11" t="str">
+      <c r="H104" s="15" t="str">
         <f>IF(B104&lt;&gt;"",CONCATENATE(inicio_consulta,C104,mid_consulta,A104,B104,fin_consulta),IF(A104&lt;&gt;"",CONCATENATE("-- ",A104),""))</f>
         <v>INSERT INTO tserver_permission VALUES (73,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureInsert');</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B105" s="1" t="str">
         <f>IF(A102&lt;&gt;"",CONCATENATE(A102,"Delete"),"")</f>
         <v>roomTypeFeatureDelete</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="14">
         <f>C104+1</f>
         <v>74</v>
       </c>
-      <c r="G105" s="11" t="str">
+      <c r="H105" s="15" t="str">
         <f>IF(B105&lt;&gt;"",CONCATENATE(inicio_consulta,C105,mid_consulta,A105,B105,fin_consulta),IF(A105&lt;&gt;"",CONCATENATE("-- ",A105),""))</f>
         <v>INSERT INTO tserver_permission VALUES (74,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeFeatureService/roomTypeFeatureDelete');</v>
       </c>
     </row>
-    <row r="106" spans="7:7">
-      <c r="G106" s="11" t="str">
+    <row r="106" spans="8:8">
+      <c r="H106" s="15" t="str">
         <f>IF(B106&lt;&gt;"",CONCATENATE(inicio_consulta,C106,mid_consulta,A106,B106,fin_consulta),IF(A106&lt;&gt;"",CONCATENATE("-- ",A106),""))</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G107" s="11" t="str">
+        <v>73</v>
+      </c>
+      <c r="H107" s="15" t="str">
         <f>IF(B107&lt;&gt;"",CONCATENATE(inicio_consulta,C107,mid_consulta,A107,B107,fin_consulta),IF(A107&lt;&gt;"",CONCATENATE("-- ",A107),""))</f>
         <v>-- roomType</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B108" s="1" t="str">
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Query"),"")</f>
         <v>roomTypeQuery</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="14">
         <f>C105+1</f>
         <v>75</v>
       </c>
-      <c r="G108" s="11" t="str">
+      <c r="H108" s="15" t="str">
         <f>IF(B108&lt;&gt;"",CONCATENATE(inicio_consulta,C108,mid_consulta,A108,B108,fin_consulta),IF(A108&lt;&gt;"",CONCATENATE("-- ",A108),""))</f>
         <v>INSERT INTO tserver_permission VALUES (75,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeQuery');</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B109" s="1" t="str">
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Insert"),"")</f>
         <v>roomTypeInsert</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C109" s="14">
         <f>C108+1</f>
         <v>76</v>
       </c>
-      <c r="G109" s="11" t="str">
+      <c r="H109" s="15" t="str">
         <f>IF(B109&lt;&gt;"",CONCATENATE(inicio_consulta,C109,mid_consulta,A109,B109,fin_consulta),IF(A109&lt;&gt;"",CONCATENATE("-- ",A109),""))</f>
         <v>INSERT INTO tserver_permission VALUES (76,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeInsert');</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B110" s="1" t="str">
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Update"),"")</f>
         <v>roomTypeUpdate</v>
       </c>
-      <c r="C110" s="10">
+      <c r="C110" s="14">
         <f t="shared" ref="C110:C113" si="11">C109+1</f>
         <v>77</v>
       </c>
-      <c r="G110" s="11" t="str">
+      <c r="H110" s="15" t="str">
         <f>IF(B110&lt;&gt;"",CONCATENATE(inicio_consulta,C110,mid_consulta,A110,B110,fin_consulta),IF(A110&lt;&gt;"",CONCATENATE("-- ",A110),""))</f>
         <v>INSERT INTO tserver_permission VALUES (77,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeUpdate');</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B111" s="1" t="str">
         <f>IF(A107&lt;&gt;"",CONCATENATE(A107,"Delete"),"")</f>
         <v>roomTypeDelete</v>
       </c>
-      <c r="C111" s="10">
+      <c r="C111" s="14">
         <f t="shared" si="11"/>
         <v>78</v>
       </c>
-      <c r="G111" s="11" t="str">
+      <c r="H111" s="15" t="str">
         <f>IF(B111&lt;&gt;"",CONCATENATE(inicio_consulta,C111,mid_consulta,A111,B111,fin_consulta),IF(A111&lt;&gt;"",CONCATENATE("-- ",A111),""))</f>
         <v>INSERT INTO tserver_permission VALUES (78,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/roomTypeDelete');</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C112" s="10">
+        <v>75</v>
+      </c>
+      <c r="C112" s="14">
         <f t="shared" si="11"/>
         <v>79</v>
       </c>
-      <c r="G112" s="11" t="str">
+      <c r="H112" s="15" t="str">
         <f>IF(B112&lt;&gt;"",CONCATENATE(inicio_consulta,C112,mid_consulta,A112,B112,fin_consulta),IF(A112&lt;&gt;"",CONCATENATE("-- ",A112),""))</f>
         <v>INSERT INTO tserver_permission VALUES (79,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoQuery');</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C113" s="10">
+        <v>76</v>
+      </c>
+      <c r="C113" s="14">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="G113" s="11" t="str">
+      <c r="H113" s="15" t="str">
         <f>IF(B113&lt;&gt;"",CONCATENATE(inicio_consulta,C113,mid_consulta,A113,B113,fin_consulta),IF(A113&lt;&gt;"",CONCATENATE("-- ",A113),""))</f>
         <v>INSERT INTO tserver_permission VALUES (80,'com.ontimize.atomicHotelsApiRest.api.core.service.IRoomTypeService/infoRoomFeaturesQuery');</v>
       </c>
     </row>
-    <row r="114" spans="7:7">
-      <c r="G114" s="11" t="str">
+    <row r="114" spans="8:8">
+      <c r="H114" s="15" t="str">
         <f>IF(B114&lt;&gt;"",CONCATENATE(inicio_consulta,C114,mid_consulta,A114,B114,fin_consulta),IF(A114&lt;&gt;"",CONCATENATE("-- ",A114),""))</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G115" s="11" t="str">
+        <v>77</v>
+      </c>
+      <c r="H115" s="15" t="str">
         <f>IF(B115&lt;&gt;"",CONCATENATE(inicio_consulta,C115,mid_consulta,A115,B115,fin_consulta),IF(A115&lt;&gt;"",CONCATENATE("-- ",A115),""))</f>
         <v>-- service</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B116" s="1" t="str">
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Query"),"")</f>
         <v>serviceQuery</v>
       </c>
-      <c r="C116" s="10">
+      <c r="C116" s="14">
         <f>C113+1</f>
         <v>81</v>
       </c>
-      <c r="G116" s="11" t="str">
+      <c r="H116" s="15" t="str">
         <f>IF(B116&lt;&gt;"",CONCATENATE(inicio_consulta,C116,mid_consulta,A116,B116,fin_consulta),IF(A116&lt;&gt;"",CONCATENATE("-- ",A116),""))</f>
         <v>INSERT INTO tserver_permission VALUES (81,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceQuery');</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B117" s="1" t="str">
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Insert"),"")</f>
         <v>serviceInsert</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="14">
         <f>C116+1</f>
         <v>82</v>
       </c>
-      <c r="G117" s="11" t="str">
+      <c r="H117" s="15" t="str">
         <f>IF(B117&lt;&gt;"",CONCATENATE(inicio_consulta,C117,mid_consulta,A117,B117,fin_consulta),IF(A117&lt;&gt;"",CONCATENATE("-- ",A117),""))</f>
         <v>INSERT INTO tserver_permission VALUES (82,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceInsert');</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B118" s="1" t="str">
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Update"),"")</f>
         <v>serviceUpdate</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="14">
         <f t="shared" ref="C118:C119" si="12">C117+1</f>
         <v>83</v>
       </c>
-      <c r="G118" s="11" t="str">
+      <c r="H118" s="15" t="str">
         <f>IF(B118&lt;&gt;"",CONCATENATE(inicio_consulta,C118,mid_consulta,A118,B118,fin_consulta),IF(A118&lt;&gt;"",CONCATENATE("-- ",A118),""))</f>
         <v>INSERT INTO tserver_permission VALUES (83,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceUpdate');</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B119" s="1" t="str">
         <f>IF(A115&lt;&gt;"",CONCATENATE(A115,"Delete"),"")</f>
         <v>serviceDelete</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="14">
         <f t="shared" si="12"/>
         <v>84</v>
       </c>
-      <c r="G119" s="11" t="str">
+      <c r="H119" s="15" t="str">
         <f>IF(B119&lt;&gt;"",CONCATENATE(inicio_consulta,C119,mid_consulta,A119,B119,fin_consulta),IF(A119&lt;&gt;"",CONCATENATE("-- ",A119),""))</f>
         <v>INSERT INTO tserver_permission VALUES (84,'com.ontimize.atomicHotelsApiRest.api.core.service.IServiceService/serviceDelete');</v>
       </c>
     </row>
-    <row r="120" spans="7:7">
-      <c r="G120" s="11" t="str">
+    <row r="120" spans="8:8">
+      <c r="H120" s="15" t="str">
         <f>IF(B120&lt;&gt;"",CONCATENATE(inicio_consulta,C120,mid_consulta,A120,B120,fin_consulta),IF(A120&lt;&gt;"",CONCATENATE("-- ",A120),""))</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G121" s="11" t="str">
+        <v>79</v>
+      </c>
+      <c r="H121" s="15" t="str">
         <f>IF(B121&lt;&gt;"",CONCATENATE(inicio_consulta,C121,mid_consulta,A121,B121,fin_consulta),IF(A121&lt;&gt;"",CONCATENATE("-- ",A121),""))</f>
         <v>-- servicesXtra</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B122" s="1" t="str">
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Query"),"")</f>
         <v>servicesXtraQuery</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="14">
         <f>C119+1</f>
         <v>85</v>
       </c>
-      <c r="G122" s="11" t="str">
+      <c r="H122" s="15" t="str">
         <f>IF(B122&lt;&gt;"",CONCATENATE(inicio_consulta,C122,mid_consulta,A122,B122,fin_consulta),IF(A122&lt;&gt;"",CONCATENATE("-- ",A122),""))</f>
         <v>INSERT INTO tserver_permission VALUES (85,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraQuery');</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B123" s="1" t="str">
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Insert"),"")</f>
         <v>servicesXtraInsert</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="14">
         <f>C122+1</f>
         <v>86</v>
       </c>
-      <c r="G123" s="11" t="str">
+      <c r="H123" s="15" t="str">
         <f>IF(B123&lt;&gt;"",CONCATENATE(inicio_consulta,C123,mid_consulta,A123,B123,fin_consulta),IF(A123&lt;&gt;"",CONCATENATE("-- ",A123),""))</f>
         <v>INSERT INTO tserver_permission VALUES (86,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraInsert');</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B124" s="1" t="str">
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Update"),"")</f>
         <v>servicesXtraUpdate</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="14">
         <f t="shared" ref="C124:C125" si="13">C123+1</f>
         <v>87</v>
       </c>
-      <c r="G124" s="11" t="str">
+      <c r="H124" s="15" t="str">
         <f>IF(B124&lt;&gt;"",CONCATENATE(inicio_consulta,C124,mid_consulta,A124,B124,fin_consulta),IF(A124&lt;&gt;"",CONCATENATE("-- ",A124),""))</f>
         <v>INSERT INTO tserver_permission VALUES (87,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraUpdate');</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B125" s="1" t="str">
         <f>IF(A121&lt;&gt;"",CONCATENATE(A121,"Delete"),"")</f>
         <v>servicesXtraDelete</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="14">
         <f t="shared" si="13"/>
         <v>88</v>
       </c>
-      <c r="G125" s="11" t="str">
+      <c r="H125" s="15" t="str">
         <f>IF(B125&lt;&gt;"",CONCATENATE(inicio_consulta,C125,mid_consulta,A125,B125,fin_consulta),IF(A125&lt;&gt;"",CONCATENATE("-- ",A125),""))</f>
         <v>INSERT INTO tserver_permission VALUES (88,'com.ontimize.atomicHotelsApiRest.api.core.service.IServicesXtraService/servicesXtraDelete');</v>
       </c>
     </row>
-    <row r="126" spans="7:7">
-      <c r="G126" s="11" t="str">
+    <row r="126" spans="8:8">
+      <c r="H126" s="15" t="str">
         <f>IF(B126&lt;&gt;"",CONCATENATE(inicio_consulta,C126,mid_consulta,A126,B126,fin_consulta),IF(A126&lt;&gt;"",CONCATENATE("-- ",A126),""))</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G127" s="11" t="str">
+        <v>81</v>
+      </c>
+      <c r="H127" s="15" t="str">
         <f>IF(B127&lt;&gt;"",CONCATENATE(inicio_consulta,C127,mid_consulta,A127,B127,fin_consulta),IF(A127&lt;&gt;"",CONCATENATE("-- ",A127),""))</f>
         <v>-- user</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B128" s="1" t="str">
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Query"),"")</f>
         <v>userQuery</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="14">
         <f>C125+1</f>
         <v>89</v>
       </c>
-      <c r="G128" s="11" t="str">
+      <c r="H128" s="15" t="str">
         <f>IF(B128&lt;&gt;"",CONCATENATE(inicio_consulta,C128,mid_consulta,A128,B128,fin_consulta),IF(A128&lt;&gt;"",CONCATENATE("-- ",A128),""))</f>
         <v>INSERT INTO tserver_permission VALUES (89,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userQuery');</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B129" s="1" t="str">
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Insert"),"")</f>
         <v>userInsert</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="14">
         <f>C128+1</f>
         <v>90</v>
       </c>
-      <c r="G129" s="11" t="str">
+      <c r="H129" s="15" t="str">
         <f>IF(B129&lt;&gt;"",CONCATENATE(inicio_consulta,C129,mid_consulta,A129,B129,fin_consulta),IF(A129&lt;&gt;"",CONCATENATE("-- ",A129),""))</f>
         <v>INSERT INTO tserver_permission VALUES (90,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userInsert');</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B130" s="1" t="str">
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Update"),"")</f>
         <v>userUpdate</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="14">
         <f t="shared" ref="C130:C131" si="14">C129+1</f>
         <v>91</v>
       </c>
-      <c r="G130" s="11" t="str">
+      <c r="H130" s="15" t="str">
         <f>IF(B130&lt;&gt;"",CONCATENATE(inicio_consulta,C130,mid_consulta,A130,B130,fin_consulta),IF(A130&lt;&gt;"",CONCATENATE("-- ",A130),""))</f>
         <v>INSERT INTO tserver_permission VALUES (91,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userUpdate');</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B131" s="1" t="str">
         <f>IF(A127&lt;&gt;"",CONCATENATE(A127,"Delete"),"")</f>
         <v>userDelete</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="14">
         <f t="shared" si="14"/>
         <v>92</v>
       </c>
-      <c r="G131" s="11" t="str">
+      <c r="H131" s="15" t="str">
         <f>IF(B131&lt;&gt;"",CONCATENATE(inicio_consulta,C131,mid_consulta,A131,B131,fin_consulta),IF(A131&lt;&gt;"",CONCATENATE("-- ",A131),""))</f>
         <v>INSERT INTO tserver_permission VALUES (92,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userDelete');</v>
       </c>
     </row>
-    <row r="132" spans="7:7">
-      <c r="G132" s="11" t="str">
+    <row r="132" spans="8:8">
+      <c r="H132" s="15" t="str">
         <f>IF(B132&lt;&gt;"",CONCATENATE(inicio_consulta,C132,mid_consulta,A132,B132,fin_consulta),IF(A132&lt;&gt;"",CONCATENATE("-- ",A132),""))</f>
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G133" s="11" t="str">
+        <v>83</v>
+      </c>
+      <c r="H133" s="15" t="str">
         <f>IF(B133&lt;&gt;"",CONCATENATE(inicio_consulta,C133,mid_consulta,A133,B133,fin_consulta),IF(A133&lt;&gt;"",CONCATENATE("-- ",A133),""))</f>
         <v>-- department</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B134" s="1" t="str">
         <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Query"),"")</f>
         <v>departmentQuery</v>
       </c>
-      <c r="C134" s="10">
+      <c r="C134" s="14">
         <f>C131+1</f>
         <v>93</v>
       </c>
-      <c r="G134" s="11" t="str">
+      <c r="D134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H134" s="15" t="str">
         <f>IF(B134&lt;&gt;"",CONCATENATE(inicio_consulta,C134,mid_consulta,A134,B134,fin_consulta),IF(A134&lt;&gt;"",CONCATENATE("-- ",A134),""))</f>
         <v>INSERT INTO tserver_permission VALUES (93,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentQuery');</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" s="1" t="str">
         <f>A134</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
@@ -3388,16 +3447,19 @@
         <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Insert"),"")</f>
         <v>departmentInsert</v>
       </c>
-      <c r="C135" s="10">
+      <c r="C135" s="14">
         <f>C134+1</f>
         <v>94</v>
       </c>
-      <c r="G135" s="11" t="str">
+      <c r="D135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H135" s="15" t="str">
         <f>IF(B135&lt;&gt;"",CONCATENATE(inicio_consulta,C135,mid_consulta,A135,B135,fin_consulta),IF(A135&lt;&gt;"",CONCATENATE("-- ",A135),""))</f>
         <v>INSERT INTO tserver_permission VALUES (94,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentInsert');</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" s="1" t="str">
         <f t="shared" ref="A136:A137" si="15">A135</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
@@ -3406,16 +3468,19 @@
         <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Update"),"")</f>
         <v>departmentUpdate</v>
       </c>
-      <c r="C136" s="10">
+      <c r="C136" s="14">
         <f t="shared" ref="C136:C137" si="16">C135+1</f>
         <v>95</v>
       </c>
-      <c r="G136" s="11" t="str">
+      <c r="D136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" s="15" t="str">
         <f>IF(B136&lt;&gt;"",CONCATENATE(inicio_consulta,C136,mid_consulta,A136,B136,fin_consulta),IF(A136&lt;&gt;"",CONCATENATE("-- ",A136),""))</f>
         <v>INSERT INTO tserver_permission VALUES (95,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentUpdate');</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:8">
       <c r="A137" s="1" t="str">
         <f t="shared" si="15"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/</v>
@@ -3424,48 +3489,51 @@
         <f>IF(A133&lt;&gt;"",CONCATENATE(A133,"Delete"),"")</f>
         <v>departmentDelete</v>
       </c>
-      <c r="C137" s="10">
+      <c r="C137" s="14">
         <f t="shared" si="16"/>
         <v>96</v>
       </c>
-      <c r="G137" s="11" t="str">
+      <c r="D137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" s="15" t="str">
         <f>IF(B137&lt;&gt;"",CONCATENATE(inicio_consulta,C137,mid_consulta,A137,B137,fin_consulta),IF(A137&lt;&gt;"",CONCATENATE("-- ",A137),""))</f>
         <v>INSERT INTO tserver_permission VALUES (96,'com.ontimize.atomicHotelsApiRest.api.core.service.IDepartmentService/departmentDelete');</v>
       </c>
     </row>
-    <row r="138" spans="7:7">
-      <c r="G138" s="11" t="str">
+    <row r="138" spans="8:8">
+      <c r="H138" s="15" t="str">
         <f>IF(B138&lt;&gt;"",CONCATENATE(inicio_consulta,C138,mid_consulta,A138,B138,fin_consulta),IF(A138&lt;&gt;"",CONCATENATE("-- ",A138),""))</f>
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G139" s="11" t="str">
+        <v>85</v>
+      </c>
+      <c r="H139" s="15" t="str">
         <f>IF(B139&lt;&gt;"",CONCATENATE(inicio_consulta,C139,mid_consulta,A139,B139,fin_consulta),IF(A139&lt;&gt;"",CONCATENATE("-- ",A139),""))</f>
         <v>-- employee</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B140" s="1" t="str">
         <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Query"),"")</f>
         <v>employeeQuery</v>
       </c>
-      <c r="C140" s="10">
+      <c r="C140" s="14">
         <f>C137+1</f>
         <v>97</v>
       </c>
-      <c r="G140" s="11" t="str">
+      <c r="H140" s="15" t="str">
         <f>IF(B140&lt;&gt;"",CONCATENATE(inicio_consulta,C140,mid_consulta,A140,B140,fin_consulta),IF(A140&lt;&gt;"",CONCATENATE("-- ",A140),""))</f>
         <v>INSERT INTO tserver_permission VALUES (97,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeQuery');</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" s="1" t="str">
         <f>A140</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
@@ -3474,16 +3542,16 @@
         <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Insert"),"")</f>
         <v>employeeInsert</v>
       </c>
-      <c r="C141" s="10">
+      <c r="C141" s="14">
         <f>C140+1</f>
         <v>98</v>
       </c>
-      <c r="G141" s="11" t="str">
+      <c r="H141" s="15" t="str">
         <f>IF(B141&lt;&gt;"",CONCATENATE(inicio_consulta,C141,mid_consulta,A141,B141,fin_consulta),IF(A141&lt;&gt;"",CONCATENATE("-- ",A141),""))</f>
         <v>INSERT INTO tserver_permission VALUES (98,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeInsert');</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" s="1" t="str">
         <f t="shared" ref="A142:A143" si="17">A141</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
@@ -3492,59 +3560,59 @@
         <f>IF(A139&lt;&gt;"",CONCATENATE(A139,"Update"),"")</f>
         <v>employeeUpdate</v>
       </c>
-      <c r="C142" s="10">
+      <c r="C142" s="14">
         <f t="shared" ref="C142:C143" si="18">C141+1</f>
         <v>99</v>
       </c>
-      <c r="G142" s="11" t="str">
+      <c r="H142" s="15" t="str">
         <f>IF(B142&lt;&gt;"",CONCATENATE(inicio_consulta,C142,mid_consulta,A142,B142,fin_consulta),IF(A142&lt;&gt;"",CONCATENATE("-- ",A142),""))</f>
         <v>INSERT INTO tserver_permission VALUES (99,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeUpdate');</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" s="1" t="str">
         <f t="shared" si="17"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" s="10">
+        <v>87</v>
+      </c>
+      <c r="C143" s="14">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="G143" s="11" t="str">
+      <c r="H143" s="15" t="str">
         <f>IF(B143&lt;&gt;"",CONCATENATE(inicio_consulta,C143,mid_consulta,A143,B143,fin_consulta),IF(A143&lt;&gt;"",CONCATENATE("-- ",A143),""))</f>
         <v>INSERT INTO tserver_permission VALUES (100,'com.ontimize.atomicHotelsApiRest.api.core.service.IEmployeeService/employeeFiredUpdate');</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G145" s="11" t="str">
+        <v>88</v>
+      </c>
+      <c r="H145" s="15" t="str">
         <f>IF(B145&lt;&gt;"",CONCATENATE(inicio_consulta,C145,mid_consulta,A145,B145,fin_consulta),IF(A145&lt;&gt;"",CONCATENATE("-- ",A145),""))</f>
         <v>-- bill</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B146" s="1" t="str">
         <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Query"),"")</f>
         <v>billQuery</v>
       </c>
-      <c r="C146" s="10">
+      <c r="C146" s="14">
         <f>C143+1</f>
         <v>101</v>
       </c>
-      <c r="G146" s="11" t="str">
+      <c r="H146" s="15" t="str">
         <f>IF(B146&lt;&gt;"",CONCATENATE(inicio_consulta,C146,mid_consulta,A146,B146,fin_consulta),IF(A146&lt;&gt;"",CONCATENATE("-- ",A146),""))</f>
         <v>INSERT INTO tserver_permission VALUES (101,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billQuery');</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" s="1" t="str">
         <f>A146</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
@@ -3553,16 +3621,16 @@
         <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Insert"),"")</f>
         <v>billInsert</v>
       </c>
-      <c r="C147" s="10">
+      <c r="C147" s="14">
         <f>C146+1</f>
         <v>102</v>
       </c>
-      <c r="G147" s="11" t="str">
+      <c r="H147" s="15" t="str">
         <f>IF(B147&lt;&gt;"",CONCATENATE(inicio_consulta,C147,mid_consulta,A147,B147,fin_consulta),IF(A147&lt;&gt;"",CONCATENATE("-- ",A147),""))</f>
         <v>INSERT INTO tserver_permission VALUES (102,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billInsert');</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" s="1" t="str">
         <f t="shared" ref="A148:A152" si="19">A147</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
@@ -3571,16 +3639,16 @@
         <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Update"),"")</f>
         <v>billUpdate</v>
       </c>
-      <c r="C148" s="10">
+      <c r="C148" s="14">
         <f t="shared" ref="C148:C152" si="20">C147+1</f>
         <v>103</v>
       </c>
-      <c r="G148" s="11" t="str">
+      <c r="H148" s="15" t="str">
         <f>IF(B148&lt;&gt;"",CONCATENATE(inicio_consulta,C148,mid_consulta,A148,B148,fin_consulta),IF(A148&lt;&gt;"",CONCATENATE("-- ",A148),""))</f>
         <v>INSERT INTO tserver_permission VALUES (103,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billUpdate');</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" s="1" t="str">
         <f t="shared" si="19"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
@@ -3589,93 +3657,93 @@
         <f>IF(A145&lt;&gt;"",CONCATENATE(A145,"Delete"),"")</f>
         <v>billDelete</v>
       </c>
-      <c r="C149" s="10">
+      <c r="C149" s="14">
         <f t="shared" si="20"/>
         <v>104</v>
       </c>
-      <c r="G149" s="11" t="str">
+      <c r="H149" s="15" t="str">
         <f>IF(B149&lt;&gt;"",CONCATENATE(inicio_consulta,C149,mid_consulta,A149,B149,fin_consulta),IF(A149&lt;&gt;"",CONCATENATE("-- ",A149),""))</f>
         <v>INSERT INTO tserver_permission VALUES (104,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billDelete');</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" s="1" t="str">
         <f t="shared" si="19"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C150" s="10">
+        <v>90</v>
+      </c>
+      <c r="C150" s="14">
         <f t="shared" si="20"/>
         <v>105</v>
       </c>
-      <c r="G150" s="11" t="str">
+      <c r="H150" s="15" t="str">
         <f>IF(B150&lt;&gt;"",CONCATENATE(inicio_consulta,C150,mid_consulta,A150,B150,fin_consulta),IF(A150&lt;&gt;"",CONCATENATE("-- ",A150),""))</f>
         <v>INSERT INTO tserver_permission VALUES (105,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoQuery');</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" s="1" t="str">
         <f t="shared" si="19"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C151" s="10">
+        <v>91</v>
+      </c>
+      <c r="C151" s="14">
         <f t="shared" si="20"/>
         <v>106</v>
       </c>
-      <c r="G151" s="11" t="str">
+      <c r="H151" s="15" t="str">
         <f>IF(B151&lt;&gt;"",CONCATENATE(inicio_consulta,C151,mid_consulta,A151,B151,fin_consulta),IF(A151&lt;&gt;"",CONCATENATE("-- ",A151),""))</f>
         <v>INSERT INTO tserver_permission VALUES (106,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/gastosDepartamentoHotelQuery');</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:8">
       <c r="A152" s="1" t="str">
         <f t="shared" si="19"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C152" s="10">
+        <v>92</v>
+      </c>
+      <c r="C152" s="14">
         <f t="shared" si="20"/>
         <v>107</v>
       </c>
-      <c r="G152" s="11" t="str">
+      <c r="H152" s="15" t="str">
         <f>IF(B152&lt;&gt;"",CONCATENATE(inicio_consulta,C152,mid_consulta,A152,B152,fin_consulta),IF(A152&lt;&gt;"",CONCATENATE("-- ",A152),""))</f>
         <v>INSERT INTO tserver_permission VALUES (107,'com.ontimize.atomicHotelsApiRest.api.core.service.IBillService/billsByHotelDepartmentQuery');</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G154" s="11" t="str">
+        <v>93</v>
+      </c>
+      <c r="H154" s="15" t="str">
         <f>IF(B154&lt;&gt;"",CONCATENATE(inicio_consulta,C154,mid_consulta,A154,B154,fin_consulta),IF(A154&lt;&gt;"",CONCATENATE("-- ",A154),""))</f>
         <v>-- userRole</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B155" s="1" t="str">
         <f>IF(A154&lt;&gt;"",CONCATENATE(A154,"Query"),"")</f>
         <v>userRoleQuery</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C155" s="14">
         <f>C152+1</f>
         <v>108</v>
       </c>
-      <c r="G155" s="11" t="str">
+      <c r="H155" s="15" t="str">
         <f>IF(B155&lt;&gt;"",CONCATENATE(inicio_consulta,C155,mid_consulta,A155,B155,fin_consulta),IF(A155&lt;&gt;"",CONCATENATE("-- ",A155),""))</f>
         <v>INSERT INTO tserver_permission VALUES (108,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleQuery');</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" s="1" t="str">
         <f>A155</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/</v>
@@ -3684,310 +3752,310 @@
         <f>IF(A154&lt;&gt;"",CONCATENATE(A154,"Insert"),"")</f>
         <v>userRoleInsert</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="14">
         <f t="shared" ref="C156:C158" si="21">C155+1</f>
         <v>109</v>
       </c>
-      <c r="G156" s="11" t="str">
+      <c r="H156" s="15" t="str">
         <f>IF(B156&lt;&gt;"",CONCATENATE(inicio_consulta,C156,mid_consulta,A156,B156,fin_consulta),IF(A156&lt;&gt;"",CONCATENATE("-- ",A156),""))</f>
         <v>INSERT INTO tserver_permission VALUES (109,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleInsert');</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8">
       <c r="A157" s="1" t="str">
         <f>A156</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C157" s="10">
+        <v>95</v>
+      </c>
+      <c r="C157" s="14">
         <f t="shared" si="21"/>
         <v>110</v>
       </c>
-      <c r="G157" s="11" t="str">
+      <c r="H157" s="15" t="str">
         <f>IF(B157&lt;&gt;"",CONCATENATE(inicio_consulta,C157,mid_consulta,A157,B157,fin_consulta),IF(A157&lt;&gt;"",CONCATENATE("-- ",A157),""))</f>
         <v>INSERT INTO tserver_permission VALUES (110,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserRoleService/userRoleDelete');</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G159" s="11" t="str">
+        <v>8</v>
+      </c>
+      <c r="H159" s="15" t="str">
         <f>IF(B159&lt;&gt;"",CONCATENATE(inicio_consulta,C159,mid_consulta,A159,B159,fin_consulta),IF(A159&lt;&gt;"",CONCATENATE("-- ",A159),""))</f>
         <v>-- hotel</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C160" s="10">
+        <v>96</v>
+      </c>
+      <c r="C160" s="14">
         <f>C157+1</f>
         <v>111</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" s="11" t="str">
+        <v>11</v>
+      </c>
+      <c r="H160" s="15" t="str">
         <f>IF(B160&lt;&gt;"",CONCATENATE(inicio_consulta,C160,mid_consulta,A160,B160,fin_consulta),IF(A160&lt;&gt;"",CONCATENATE("-- ",A160),""))</f>
         <v>INSERT INTO tserver_permission VALUES (111,'com.ontimize.atomicHotelsApiRest.api.core.service.IHotelService/poiQuery');</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G162" s="11" t="str">
+        <v>81</v>
+      </c>
+      <c r="H162" s="15" t="str">
         <f>IF(B162&lt;&gt;"",CONCATENATE(inicio_consulta,C162,mid_consulta,A162,B162,fin_consulta),IF(A162&lt;&gt;"",CONCATENATE("-- ",A162),""))</f>
         <v>-- user</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C163" s="10">
+        <v>97</v>
+      </c>
+      <c r="C163" s="14">
         <f>C160+1</f>
         <v>112</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H163" s="15" t="str">
         <f>IF(B163&lt;&gt;"",CONCATENATE(inicio_consulta,C163,mid_consulta,A163,B163,fin_consulta),IF(A163&lt;&gt;"",CONCATENATE("-- ",A163),""))</f>
         <v>INSERT INTO tserver_permission VALUES (112,'com.ontimize.atomicHotelsApiRest.api.core.service.IUserService/userCancelUpdate');</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G165" s="11" t="str">
+        <v>98</v>
+      </c>
+      <c r="H165" s="15" t="str">
         <f>IF(B165&lt;&gt;"",CONCATENATE(inicio_consulta,C165,mid_consulta,A165,B165,fin_consulta),IF(A165&lt;&gt;"",CONCATENATE("-- ",A165),""))</f>
         <v>-- statistics</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C166" s="10">
+        <v>100</v>
+      </c>
+      <c r="C166" s="14">
         <f>C163+1</f>
         <v>113</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G166" s="11" t="str">
+        <v>101</v>
+      </c>
+      <c r="H166" s="15" t="str">
         <f>IF(B166&lt;&gt;"",CONCATENATE(inicio_consulta,C166,mid_consulta,A166,B166,fin_consulta),IF(A166&lt;&gt;"",CONCATENATE("-- ",A166),""))</f>
         <v>INSERT INTO tserver_permission VALUES (113,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelMaximumCapacityQuery');</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:8">
       <c r="A167" s="1" t="str">
         <f>A166</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C167" s="10">
+        <v>102</v>
+      </c>
+      <c r="C167" s="14">
         <f>C166+1</f>
         <v>114</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G167" s="11" t="str">
+        <v>101</v>
+      </c>
+      <c r="H167" s="15" t="str">
         <f>IF(B167&lt;&gt;"",CONCATENATE(inicio_consulta,C167,mid_consulta,A167,B167,fin_consulta),IF(A167&lt;&gt;"",CONCATENATE("-- ",A167),""))</f>
         <v>INSERT INTO tserver_permission VALUES (114,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelOccupancyPercentageQuery');</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:8">
       <c r="A168" s="1" t="str">
         <f>A167</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C168" s="10">
+        <v>103</v>
+      </c>
+      <c r="C168" s="14">
         <f>C167+1</f>
         <v>115</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G168" s="11" t="str">
+        <v>101</v>
+      </c>
+      <c r="H168" s="15" t="str">
         <f>IF(B168&lt;&gt;"",CONCATENATE(inicio_consulta,C168,mid_consulta,A168,B168,fin_consulta),IF(A168&lt;&gt;"",CONCATENATE("-- ",A168),""))</f>
         <v>INSERT INTO tserver_permission VALUES (115,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelCapacityInDateRangeQuery');</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:8">
       <c r="A169" s="1" t="str">
         <f t="shared" ref="A169:A177" si="22">A168</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C169" s="10">
+        <v>104</v>
+      </c>
+      <c r="C169" s="14">
         <f t="shared" ref="C169:C177" si="23">C168+1</f>
         <v>116</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G169" s="11" t="str">
+        <v>101</v>
+      </c>
+      <c r="H169" s="15" t="str">
         <f>IF(B169&lt;&gt;"",CONCATENATE(inicio_consulta,C169,mid_consulta,A169,B169,fin_consulta),IF(A169&lt;&gt;"",CONCATENATE("-- ",A169),""))</f>
         <v>INSERT INTO tserver_permission VALUES (116,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/hotelOccupancyByNationalityPercentageQuery');</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:8">
       <c r="A170" s="1" t="str">
         <f t="shared" si="22"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C170" s="10">
+        <v>105</v>
+      </c>
+      <c r="C170" s="14">
         <f t="shared" si="23"/>
         <v>117</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G170" s="11" t="str">
+        <v>101</v>
+      </c>
+      <c r="H170" s="15" t="str">
         <f>IF(B170&lt;&gt;"",CONCATENATE(inicio_consulta,C170,mid_consulta,A170,B170,fin_consulta),IF(A170&lt;&gt;"",CONCATENATE("-- ",A170),""))</f>
         <v>INSERT INTO tserver_permission VALUES (117,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/departmentExpensesByHotelQuery');</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8">
       <c r="A171" s="1" t="str">
         <f t="shared" si="22"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C171" s="10">
+        <v>106</v>
+      </c>
+      <c r="C171" s="14">
         <f t="shared" si="23"/>
         <v>118</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G171" s="11" t="str">
+        <v>101</v>
+      </c>
+      <c r="H171" s="15" t="str">
         <f>IF(B171&lt;&gt;"",CONCATENATE(inicio_consulta,C171,mid_consulta,A171,B171,fin_consulta),IF(A171&lt;&gt;"",CONCATENATE("-- ",A171),""))</f>
         <v>INSERT INTO tserver_permission VALUES (118,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/roomsIncomeByHotelQuery');</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:8">
       <c r="A172" s="1" t="str">
         <f t="shared" si="22"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C172" s="10">
+        <v>107</v>
+      </c>
+      <c r="C172" s="14">
         <f t="shared" si="23"/>
         <v>119</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G172" s="11" t="str">
+        <v>101</v>
+      </c>
+      <c r="H172" s="15" t="str">
         <f>IF(B172&lt;&gt;"",CONCATENATE(inicio_consulta,C172,mid_consulta,A172,B172,fin_consulta),IF(A172&lt;&gt;"",CONCATENATE("-- ",A172),""))</f>
         <v>INSERT INTO tserver_permission VALUES (119,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/servicesExtraIncomeByHotelQuery');</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:8">
       <c r="A173" s="1" t="str">
         <f t="shared" si="22"/>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C173" s="10">
+        <v>108</v>
+      </c>
+      <c r="C173" s="14">
         <f t="shared" si="23"/>
         <v>120</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G173" s="11" t="str">
+        <v>101</v>
+      </c>
+      <c r="H173" s="15" t="str">
         <f>IF(B173&lt;&gt;"",CONCATENATE(inicio_consulta,C173,mid_consulta,A173,B173,fin_consulta),IF(A173&lt;&gt;"",CONCATENATE("-- ",A173),""))</f>
         <v>INSERT INTO tserver_permission VALUES (120,'com.ontimize.atomicHotelsApiRest.api.core.service.IStatisticsService/incomeVsExpensesByHotelQuery');</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G175" s="11" t="str">
+        <v>109</v>
+      </c>
+      <c r="H175" s="15" t="str">
         <f>IF(B175&lt;&gt;"",CONCATENATE(inicio_consulta,C175,mid_consulta,A175,B175,fin_consulta),IF(A175&lt;&gt;"",CONCATENATE("-- ",A175),""))</f>
         <v>-- picture</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B176" s="1" t="str">
         <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Query"),"")</f>
         <v>pictureQuery</v>
       </c>
-      <c r="C176" s="10">
+      <c r="C176" s="14">
         <f>C173+1</f>
         <v>121</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H176" s="15" t="str">
         <f>IF(B176&lt;&gt;"",CONCATENATE(inicio_consulta,C176,mid_consulta,A176,B176,fin_consulta),IF(A176&lt;&gt;"",CONCATENATE("-- ",A176),""))</f>
         <v>INSERT INTO tserver_permission VALUES (121,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/pictureQuery');</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:8">
       <c r="A177" s="1" t="str">
         <f>A176</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/</v>
@@ -3996,19 +4064,19 @@
         <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Insert"),"")</f>
         <v>pictureInsert</v>
       </c>
-      <c r="C177" s="10">
-        <f t="shared" ref="C177:C179" si="24">C176+1</f>
+      <c r="C177" s="14">
+        <f t="shared" ref="C177:C180" si="24">C176+1</f>
         <v>122</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H177" s="15" t="str">
         <f>IF(B177&lt;&gt;"",CONCATENATE(inicio_consulta,C177,mid_consulta,A177,B177,fin_consulta),IF(A177&lt;&gt;"",CONCATENATE("-- ",A177),""))</f>
         <v>INSERT INTO tserver_permission VALUES (122,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/pictureInsert');</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:8">
       <c r="A178" s="1" t="str">
         <f>A177</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/</v>
@@ -4017,19 +4085,19 @@
         <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Update"),"")</f>
         <v>pictureUpdate</v>
       </c>
-      <c r="C178" s="10">
+      <c r="C178" s="14">
         <f t="shared" si="24"/>
         <v>123</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H178" s="15" t="str">
         <f>IF(B178&lt;&gt;"",CONCATENATE(inicio_consulta,C178,mid_consulta,A178,B178,fin_consulta),IF(A178&lt;&gt;"",CONCATENATE("-- ",A178),""))</f>
         <v>INSERT INTO tserver_permission VALUES (123,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/pictureUpdate');</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:8">
       <c r="A179" s="1" t="str">
         <f>A178</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/</v>
@@ -4038,616 +4106,616 @@
         <f>IF(A175&lt;&gt;"",CONCATENATE(A175,"Delete"),"")</f>
         <v>pictureDelete</v>
       </c>
-      <c r="C179" s="10">
+      <c r="C179" s="14">
         <f t="shared" si="24"/>
         <v>124</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H179" s="15" t="str">
         <f>IF(B179&lt;&gt;"",CONCATENATE(inicio_consulta,C179,mid_consulta,A179,B179,fin_consulta),IF(A179&lt;&gt;"",CONCATENATE("-- ",A179),""))</f>
         <v>INSERT INTO tserver_permission VALUES (124,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/pictureDelete');</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:8">
       <c r="A180" s="1" t="str">
         <f>A179</f>
         <v>com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C180" s="10">
-        <f>C179+1</f>
+        <v>111</v>
+      </c>
+      <c r="C180" s="14">
+        <f t="shared" si="24"/>
         <v>125</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="11" t="str">
+        <v>13</v>
+      </c>
+      <c r="H180" s="15" t="str">
         <f>IF(B180&lt;&gt;"",CONCATENATE(inicio_consulta,C180,mid_consulta,A180,B180,fin_consulta),IF(A180&lt;&gt;"",CONCATENATE("-- ",A180),""))</f>
         <v>INSERT INTO tserver_permission VALUES (125,'com.ontimize.atomicHotelsApiRest.api.core.service.IPictureService/getPicture');</v>
       </c>
     </row>
-    <row r="181" spans="7:7">
-      <c r="G181" s="11" t="str">
+    <row r="181" spans="8:8">
+      <c r="H181" s="15" t="str">
         <f>IF(B181&lt;&gt;"",CONCATENATE(inicio_consulta,C181,mid_consulta,A181,B181,fin_consulta),IF(A181&lt;&gt;"",CONCATENATE("-- ",A181),""))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="7:7">
-      <c r="G182" s="11" t="str">
+    <row r="182" spans="8:8">
+      <c r="H182" s="15" t="str">
         <f>IF(B182&lt;&gt;"",CONCATENATE(inicio_consulta,C182,mid_consulta,A182,B182,fin_consulta),IF(A182&lt;&gt;"",CONCATENATE("-- ",A182),""))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="7:7">
-      <c r="G183" s="11" t="str">
+    <row r="183" spans="8:8">
+      <c r="H183" s="15" t="str">
         <f>IF(B183&lt;&gt;"",CONCATENATE(inicio_consulta,C183,mid_consulta,A183,B183,fin_consulta),IF(A183&lt;&gt;"",CONCATENATE("-- ",A183),""))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="7:7">
-      <c r="G184" s="11" t="str">
+    <row r="184" spans="8:8">
+      <c r="H184" s="15" t="str">
         <f>IF(B184&lt;&gt;"",CONCATENATE(inicio_consulta,C184,mid_consulta,A184,B184,fin_consulta),IF(A184&lt;&gt;"",CONCATENATE("-- ",A184),""))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="7:7">
-      <c r="G185" s="11" t="str">
+    <row r="185" spans="8:8">
+      <c r="H185" s="15" t="str">
         <f>IF(B185&lt;&gt;"",CONCATENATE(inicio_consulta,C185,mid_consulta,A185,B185,fin_consulta),IF(A185&lt;&gt;"",CONCATENATE("-- ",A185),""))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="7:7">
-      <c r="G186" s="11" t="str">
+    <row r="186" spans="8:8">
+      <c r="H186" s="15" t="str">
         <f>IF(B186&lt;&gt;"",CONCATENATE(inicio_consulta,C186,mid_consulta,A186,B186,fin_consulta),IF(A186&lt;&gt;"",CONCATENATE("-- ",A186),""))</f>
         <v/>
       </c>
     </row>
-    <row r="187" spans="7:7">
-      <c r="G187" s="11" t="str">
+    <row r="187" spans="8:8">
+      <c r="H187" s="15" t="str">
         <f>IF(B187&lt;&gt;"",CONCATENATE(inicio_consulta,C187,mid_consulta,A187,B187,fin_consulta),IF(A187&lt;&gt;"",CONCATENATE("-- ",A187),""))</f>
         <v/>
       </c>
     </row>
-    <row r="188" spans="7:7">
-      <c r="G188" s="11" t="str">
+    <row r="188" spans="8:8">
+      <c r="H188" s="15" t="str">
         <f>IF(B188&lt;&gt;"",CONCATENATE(inicio_consulta,C188,mid_consulta,A188,B188,fin_consulta),IF(A188&lt;&gt;"",CONCATENATE("-- ",A188),""))</f>
         <v/>
       </c>
     </row>
-    <row r="189" spans="7:7">
-      <c r="G189" s="11" t="str">
+    <row r="189" spans="8:8">
+      <c r="H189" s="15" t="str">
         <f>IF(B189&lt;&gt;"",CONCATENATE(inicio_consulta,C189,mid_consulta,A189,B189,fin_consulta),IF(A189&lt;&gt;"",CONCATENATE("-- ",A189),""))</f>
         <v/>
       </c>
     </row>
-    <row r="190" spans="7:7">
-      <c r="G190" s="11" t="str">
+    <row r="190" spans="8:8">
+      <c r="H190" s="15" t="str">
         <f>IF(B190&lt;&gt;"",CONCATENATE(inicio_consulta,C190,mid_consulta,A190,B190,fin_consulta),IF(A190&lt;&gt;"",CONCATENATE("-- ",A190),""))</f>
         <v/>
       </c>
     </row>
-    <row r="191" spans="7:7">
-      <c r="G191" s="11" t="str">
+    <row r="191" spans="8:8">
+      <c r="H191" s="15" t="str">
         <f>IF(B191&lt;&gt;"",CONCATENATE(inicio_consulta,C191,mid_consulta,A191,B191,fin_consulta),IF(A191&lt;&gt;"",CONCATENATE("-- ",A191),""))</f>
         <v/>
       </c>
     </row>
-    <row r="192" spans="7:7">
-      <c r="G192" s="11" t="str">
+    <row r="192" spans="8:8">
+      <c r="H192" s="15" t="str">
         <f>IF(B192&lt;&gt;"",CONCATENATE(inicio_consulta,C192,mid_consulta,A192,B192,fin_consulta),IF(A192&lt;&gt;"",CONCATENATE("-- ",A192),""))</f>
         <v/>
       </c>
     </row>
-    <row r="193" spans="7:7">
-      <c r="G193" s="11" t="str">
+    <row r="193" spans="8:8">
+      <c r="H193" s="15" t="str">
         <f>IF(B193&lt;&gt;"",CONCATENATE(inicio_consulta,C193,mid_consulta,A193,B193,fin_consulta),IF(A193&lt;&gt;"",CONCATENATE("-- ",A193),""))</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="7:7">
-      <c r="G194" s="11" t="str">
+    <row r="194" spans="8:8">
+      <c r="H194" s="15" t="str">
         <f>IF(B194&lt;&gt;"",CONCATENATE(inicio_consulta,C194,mid_consulta,A194,B194,fin_consulta),IF(A194&lt;&gt;"",CONCATENATE("-- ",A194),""))</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="7:7">
-      <c r="G195" s="11" t="str">
+    <row r="195" spans="8:8">
+      <c r="H195" s="15" t="str">
         <f>IF(B195&lt;&gt;"",CONCATENATE(inicio_consulta,C195,mid_consulta,A195,B195,fin_consulta),IF(A195&lt;&gt;"",CONCATENATE("-- ",A195),""))</f>
         <v/>
       </c>
     </row>
-    <row r="196" spans="7:7">
-      <c r="G196" s="11" t="str">
+    <row r="196" spans="8:8">
+      <c r="H196" s="15" t="str">
         <f>IF(B196&lt;&gt;"",CONCATENATE(inicio_consulta,C196,mid_consulta,A196,B196,fin_consulta),IF(A196&lt;&gt;"",CONCATENATE("-- ",A196),""))</f>
         <v/>
       </c>
     </row>
-    <row r="197" spans="7:7">
-      <c r="G197" s="11" t="str">
+    <row r="197" spans="8:8">
+      <c r="H197" s="15" t="str">
         <f>IF(B197&lt;&gt;"",CONCATENATE(inicio_consulta,C197,mid_consulta,A197,B197,fin_consulta),IF(A197&lt;&gt;"",CONCATENATE("-- ",A197),""))</f>
         <v/>
       </c>
     </row>
-    <row r="198" spans="7:7">
-      <c r="G198" s="11" t="str">
+    <row r="198" spans="8:8">
+      <c r="H198" s="15" t="str">
         <f>IF(B198&lt;&gt;"",CONCATENATE(inicio_consulta,C198,mid_consulta,A198,B198,fin_consulta),IF(A198&lt;&gt;"",CONCATENATE("-- ",A198),""))</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="7:7">
-      <c r="G199" s="11" t="str">
+    <row r="199" spans="8:8">
+      <c r="H199" s="15" t="str">
         <f>IF(B199&lt;&gt;"",CONCATENATE(inicio_consulta,C199,mid_consulta,A199,B199,fin_consulta),IF(A199&lt;&gt;"",CONCATENATE("-- ",A199),""))</f>
         <v/>
       </c>
     </row>
-    <row r="200" spans="7:7">
-      <c r="G200" s="11" t="str">
+    <row r="200" spans="8:8">
+      <c r="H200" s="15" t="str">
         <f>IF(B200&lt;&gt;"",CONCATENATE(inicio_consulta,C200,mid_consulta,A200,B200,fin_consulta),IF(A200&lt;&gt;"",CONCATENATE("-- ",A200),""))</f>
         <v/>
       </c>
     </row>
-    <row r="201" spans="7:7">
-      <c r="G201" s="11" t="str">
+    <row r="201" spans="8:8">
+      <c r="H201" s="15" t="str">
         <f>IF(B201&lt;&gt;"",CONCATENATE(inicio_consulta,C201,mid_consulta,A201,B201,fin_consulta),IF(A201&lt;&gt;"",CONCATENATE("-- ",A201),""))</f>
         <v/>
       </c>
     </row>
-    <row r="202" spans="7:7">
-      <c r="G202" s="11" t="str">
+    <row r="202" spans="8:8">
+      <c r="H202" s="15" t="str">
         <f>IF(B202&lt;&gt;"",CONCATENATE(inicio_consulta,C202,mid_consulta,A202,B202,fin_consulta),IF(A202&lt;&gt;"",CONCATENATE("-- ",A202),""))</f>
         <v/>
       </c>
     </row>
-    <row r="203" spans="7:7">
-      <c r="G203" s="11" t="str">
+    <row r="203" spans="8:8">
+      <c r="H203" s="15" t="str">
         <f>IF(B203&lt;&gt;"",CONCATENATE(inicio_consulta,C203,mid_consulta,A203,B203,fin_consulta),IF(A203&lt;&gt;"",CONCATENATE("-- ",A203),""))</f>
         <v/>
       </c>
     </row>
-    <row r="204" spans="7:7">
-      <c r="G204" s="11" t="str">
+    <row r="204" spans="8:8">
+      <c r="H204" s="15" t="str">
         <f>IF(B204&lt;&gt;"",CONCATENATE(inicio_consulta,C204,mid_consulta,A204,B204,fin_consulta),IF(A204&lt;&gt;"",CONCATENATE("-- ",A204),""))</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="7:7">
-      <c r="G205" s="11" t="str">
+    <row r="205" spans="8:8">
+      <c r="H205" s="15" t="str">
         <f>IF(B205&lt;&gt;"",CONCATENATE(inicio_consulta,C205,mid_consulta,A205,B205,fin_consulta),IF(A205&lt;&gt;"",CONCATENATE("-- ",A205),""))</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="7:7">
-      <c r="G206" s="11" t="str">
+    <row r="206" spans="8:8">
+      <c r="H206" s="15" t="str">
         <f>IF(B206&lt;&gt;"",CONCATENATE(inicio_consulta,C206,mid_consulta,A206,B206,fin_consulta),IF(A206&lt;&gt;"",CONCATENATE("-- ",A206),""))</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="7:7">
-      <c r="G207" s="11" t="str">
+    <row r="207" spans="8:8">
+      <c r="H207" s="15" t="str">
         <f>IF(B207&lt;&gt;"",CONCATENATE(inicio_consulta,C207,mid_consulta,A207,B207,fin_consulta),IF(A207&lt;&gt;"",CONCATENATE("-- ",A207),""))</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="7:7">
-      <c r="G208" s="11" t="str">
+    <row r="208" spans="8:8">
+      <c r="H208" s="15" t="str">
         <f>IF(B208&lt;&gt;"",CONCATENATE(inicio_consulta,C208,mid_consulta,A208,B208,fin_consulta),IF(A208&lt;&gt;"",CONCATENATE("-- ",A208),""))</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="7:7">
-      <c r="G209" s="11" t="str">
+    <row r="209" spans="8:8">
+      <c r="H209" s="15" t="str">
         <f>IF(B209&lt;&gt;"",CONCATENATE(inicio_consulta,C209,mid_consulta,A209,B209,fin_consulta),IF(A209&lt;&gt;"",CONCATENATE("-- ",A209),""))</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="7:7">
-      <c r="G210" s="11" t="str">
+    <row r="210" spans="8:8">
+      <c r="H210" s="15" t="str">
         <f>IF(B210&lt;&gt;"",CONCATENATE(inicio_consulta,C210,mid_consulta,A210,B210,fin_consulta),IF(A210&lt;&gt;"",CONCATENATE("-- ",A210),""))</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="7:7">
-      <c r="G211" s="11" t="str">
+    <row r="211" spans="8:8">
+      <c r="H211" s="15" t="str">
         <f>IF(B211&lt;&gt;"",CONCATENATE(inicio_consulta,C211,mid_consulta,A211,B211,fin_consulta),IF(A211&lt;&gt;"",CONCATENATE("-- ",A211),""))</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="7:7">
-      <c r="G212" s="11" t="str">
+    <row r="212" spans="8:8">
+      <c r="H212" s="15" t="str">
         <f>IF(B212&lt;&gt;"",CONCATENATE(inicio_consulta,C212,mid_consulta,A212,B212,fin_consulta),IF(A212&lt;&gt;"",CONCATENATE("-- ",A212),""))</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="7:7">
-      <c r="G213" s="11" t="str">
+    <row r="213" spans="8:8">
+      <c r="H213" s="15" t="str">
         <f>IF(B213&lt;&gt;"",CONCATENATE(inicio_consulta,C213,mid_consulta,A213,B213,fin_consulta),IF(A213&lt;&gt;"",CONCATENATE("-- ",A213),""))</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="7:7">
-      <c r="G214" s="11" t="str">
+    <row r="214" spans="8:8">
+      <c r="H214" s="15" t="str">
         <f>IF(B214&lt;&gt;"",CONCATENATE(inicio_consulta,C214,mid_consulta,A214,B214,fin_consulta),IF(A214&lt;&gt;"",CONCATENATE("-- ",A214),""))</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="7:7">
-      <c r="G215" s="11" t="str">
+    <row r="215" spans="8:8">
+      <c r="H215" s="15" t="str">
         <f>IF(B215&lt;&gt;"",CONCATENATE(inicio_consulta,C215,mid_consulta,A215,B215,fin_consulta),IF(A215&lt;&gt;"",CONCATENATE("-- ",A215),""))</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="7:7">
-      <c r="G216" s="11" t="str">
+    <row r="216" spans="8:8">
+      <c r="H216" s="15" t="str">
         <f>IF(B216&lt;&gt;"",CONCATENATE(inicio_consulta,C216,mid_consulta,A216,B216,fin_consulta),IF(A216&lt;&gt;"",CONCATENATE("-- ",A216),""))</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="7:7">
-      <c r="G217" s="11" t="str">
+    <row r="217" spans="8:8">
+      <c r="H217" s="15" t="str">
         <f>IF(B217&lt;&gt;"",CONCATENATE(inicio_consulta,C217,mid_consulta,A217,B217,fin_consulta),IF(A217&lt;&gt;"",CONCATENATE("-- ",A217),""))</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="7:7">
-      <c r="G218" s="11" t="str">
+    <row r="218" spans="8:8">
+      <c r="H218" s="15" t="str">
         <f>IF(B218&lt;&gt;"",CONCATENATE(inicio_consulta,C218,mid_consulta,A218,B218,fin_consulta),IF(A218&lt;&gt;"",CONCATENATE("-- ",A218),""))</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="7:7">
-      <c r="G219" s="11" t="str">
+    <row r="219" spans="8:8">
+      <c r="H219" s="15" t="str">
         <f>IF(B219&lt;&gt;"",CONCATENATE(inicio_consulta,C219,mid_consulta,A219,B219,fin_consulta),IF(A219&lt;&gt;"",CONCATENATE("-- ",A219),""))</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="7:7">
-      <c r="G220" s="11" t="str">
+    <row r="220" spans="8:8">
+      <c r="H220" s="15" t="str">
         <f>IF(B220&lt;&gt;"",CONCATENATE(inicio_consulta,C220,mid_consulta,A220,B220,fin_consulta),IF(A220&lt;&gt;"",CONCATENATE("-- ",A220),""))</f>
         <v/>
       </c>
     </row>
-    <row r="221" spans="7:7">
-      <c r="G221" s="11" t="str">
+    <row r="221" spans="8:8">
+      <c r="H221" s="15" t="str">
         <f>IF(B221&lt;&gt;"",CONCATENATE(inicio_consulta,C221,mid_consulta,A221,B221,fin_consulta),IF(A221&lt;&gt;"",CONCATENATE("-- ",A221),""))</f>
         <v/>
       </c>
     </row>
-    <row r="222" spans="7:7">
-      <c r="G222" s="11" t="str">
+    <row r="222" spans="8:8">
+      <c r="H222" s="15" t="str">
         <f>IF(B222&lt;&gt;"",CONCATENATE(inicio_consulta,C222,mid_consulta,A222,B222,fin_consulta),IF(A222&lt;&gt;"",CONCATENATE("-- ",A222),""))</f>
         <v/>
       </c>
     </row>
-    <row r="223" spans="7:7">
-      <c r="G223" s="11" t="str">
+    <row r="223" spans="8:8">
+      <c r="H223" s="15" t="str">
         <f>IF(B223&lt;&gt;"",CONCATENATE(inicio_consulta,C223,mid_consulta,A223,B223,fin_consulta),IF(A223&lt;&gt;"",CONCATENATE("-- ",A223),""))</f>
         <v/>
       </c>
     </row>
-    <row r="224" spans="7:7">
-      <c r="G224" s="11" t="str">
+    <row r="224" spans="8:8">
+      <c r="H224" s="15" t="str">
         <f>IF(B224&lt;&gt;"",CONCATENATE(inicio_consulta,C224,mid_consulta,A224,B224,fin_consulta),IF(A224&lt;&gt;"",CONCATENATE("-- ",A224),""))</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="7:7">
-      <c r="G225" s="11" t="str">
+    <row r="225" spans="8:8">
+      <c r="H225" s="15" t="str">
         <f>IF(B225&lt;&gt;"",CONCATENATE(inicio_consulta,C225,mid_consulta,A225,B225,fin_consulta),IF(A225&lt;&gt;"",CONCATENATE("-- ",A225),""))</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="7:7">
-      <c r="G226" s="11" t="str">
+    <row r="226" spans="8:8">
+      <c r="H226" s="15" t="str">
         <f>IF(B226&lt;&gt;"",CONCATENATE(inicio_consulta,C226,mid_consulta,A226,B226,fin_consulta),IF(A226&lt;&gt;"",CONCATENATE("-- ",A226),""))</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="7:7">
-      <c r="G227" s="11" t="str">
+    <row r="227" spans="8:8">
+      <c r="H227" s="15" t="str">
         <f>IF(B227&lt;&gt;"",CONCATENATE(inicio_consulta,C227,mid_consulta,A227,B227,fin_consulta),IF(A227&lt;&gt;"",CONCATENATE("-- ",A227),""))</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="7:7">
-      <c r="G228" s="11" t="str">
+    <row r="228" spans="8:8">
+      <c r="H228" s="15" t="str">
         <f>IF(B228&lt;&gt;"",CONCATENATE(inicio_consulta,C228,mid_consulta,A228,B228,fin_consulta),IF(A228&lt;&gt;"",CONCATENATE("-- ",A228),""))</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="7:7">
-      <c r="G229" s="11" t="str">
+    <row r="229" spans="8:8">
+      <c r="H229" s="15" t="str">
         <f>IF(B229&lt;&gt;"",CONCATENATE(inicio_consulta,C229,mid_consulta,A229,B229,fin_consulta),IF(A229&lt;&gt;"",CONCATENATE("-- ",A229),""))</f>
         <v/>
       </c>
     </row>
-    <row r="230" spans="7:7">
-      <c r="G230" s="11" t="str">
+    <row r="230" spans="8:8">
+      <c r="H230" s="15" t="str">
         <f>IF(B230&lt;&gt;"",CONCATENATE(inicio_consulta,C230,mid_consulta,A230,B230,fin_consulta),IF(A230&lt;&gt;"",CONCATENATE("-- ",A230),""))</f>
         <v/>
       </c>
     </row>
-    <row r="231" spans="7:7">
-      <c r="G231" s="11" t="str">
+    <row r="231" spans="8:8">
+      <c r="H231" s="15" t="str">
         <f>IF(B231&lt;&gt;"",CONCATENATE(inicio_consulta,C231,mid_consulta,A231,B231,fin_consulta),IF(A231&lt;&gt;"",CONCATENATE("-- ",A231),""))</f>
         <v/>
       </c>
     </row>
-    <row r="232" spans="7:7">
-      <c r="G232" s="11" t="str">
+    <row r="232" spans="8:8">
+      <c r="H232" s="15" t="str">
         <f>IF(B232&lt;&gt;"",CONCATENATE(inicio_consulta,C232,mid_consulta,A232,B232,fin_consulta),IF(A232&lt;&gt;"",CONCATENATE("-- ",A232),""))</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="7:7">
-      <c r="G233" s="11" t="str">
+    <row r="233" spans="8:8">
+      <c r="H233" s="15" t="str">
         <f>IF(B233&lt;&gt;"",CONCATENATE(inicio_consulta,C233,mid_consulta,A233,B233,fin_consulta),IF(A233&lt;&gt;"",CONCATENATE("-- ",A233),""))</f>
         <v/>
       </c>
     </row>
-    <row r="234" spans="7:7">
-      <c r="G234" s="11" t="str">
+    <row r="234" spans="8:8">
+      <c r="H234" s="15" t="str">
         <f>IF(B234&lt;&gt;"",CONCATENATE(inicio_consulta,C234,mid_consulta,A234,B234,fin_consulta),IF(A234&lt;&gt;"",CONCATENATE("-- ",A234),""))</f>
         <v/>
       </c>
     </row>
-    <row r="235" spans="7:7">
-      <c r="G235" s="11" t="str">
+    <row r="235" spans="8:8">
+      <c r="H235" s="15" t="str">
         <f>IF(B235&lt;&gt;"",CONCATENATE(inicio_consulta,C235,mid_consulta,A235,B235,fin_consulta),IF(A235&lt;&gt;"",CONCATENATE("-- ",A235),""))</f>
         <v/>
       </c>
     </row>
-    <row r="236" spans="7:7">
-      <c r="G236" s="11" t="str">
+    <row r="236" spans="8:8">
+      <c r="H236" s="15" t="str">
         <f>IF(B236&lt;&gt;"",CONCATENATE(inicio_consulta,C236,mid_consulta,A236,B236,fin_consulta),IF(A236&lt;&gt;"",CONCATENATE("-- ",A236),""))</f>
         <v/>
       </c>
     </row>
-    <row r="237" spans="7:7">
-      <c r="G237" s="11" t="str">
+    <row r="237" spans="8:8">
+      <c r="H237" s="15" t="str">
         <f>IF(B237&lt;&gt;"",CONCATENATE(inicio_consulta,C237,mid_consulta,A237,B237,fin_consulta),IF(A237&lt;&gt;"",CONCATENATE("-- ",A237),""))</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="7:7">
-      <c r="G238" s="11" t="str">
+    <row r="238" spans="8:8">
+      <c r="H238" s="15" t="str">
         <f>IF(B238&lt;&gt;"",CONCATENATE(inicio_consulta,C238,mid_consulta,A238,B238,fin_consulta),IF(A238&lt;&gt;"",CONCATENATE("-- ",A238),""))</f>
         <v/>
       </c>
     </row>
-    <row r="239" spans="7:7">
-      <c r="G239" s="11" t="str">
+    <row r="239" spans="8:8">
+      <c r="H239" s="15" t="str">
         <f>IF(B239&lt;&gt;"",CONCATENATE(inicio_consulta,C239,mid_consulta,A239,B239,fin_consulta),IF(A239&lt;&gt;"",CONCATENATE("-- ",A239),""))</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="7:7">
-      <c r="G240" s="11" t="str">
+    <row r="240" spans="8:8">
+      <c r="H240" s="15" t="str">
         <f>IF(B240&lt;&gt;"",CONCATENATE(inicio_consulta,C240,mid_consulta,A240,B240,fin_consulta),IF(A240&lt;&gt;"",CONCATENATE("-- ",A240),""))</f>
         <v/>
       </c>
     </row>
-    <row r="241" spans="7:7">
-      <c r="G241" s="11" t="str">
+    <row r="241" spans="8:8">
+      <c r="H241" s="15" t="str">
         <f>IF(B241&lt;&gt;"",CONCATENATE(inicio_consulta,C241,mid_consulta,A241,B241,fin_consulta),IF(A241&lt;&gt;"",CONCATENATE("-- ",A241),""))</f>
         <v/>
       </c>
     </row>
-    <row r="242" spans="7:7">
-      <c r="G242" s="11" t="str">
+    <row r="242" spans="8:8">
+      <c r="H242" s="15" t="str">
         <f>IF(B242&lt;&gt;"",CONCATENATE(inicio_consulta,C242,mid_consulta,A242,B242,fin_consulta),IF(A242&lt;&gt;"",CONCATENATE("-- ",A242),""))</f>
         <v/>
       </c>
     </row>
-    <row r="243" spans="7:7">
-      <c r="G243" s="11" t="str">
+    <row r="243" spans="8:8">
+      <c r="H243" s="15" t="str">
         <f>IF(B243&lt;&gt;"",CONCATENATE(inicio_consulta,C243,mid_consulta,A243,B243,fin_consulta),IF(A243&lt;&gt;"",CONCATENATE("-- ",A243),""))</f>
         <v/>
       </c>
     </row>
-    <row r="244" spans="7:7">
-      <c r="G244" s="11" t="str">
+    <row r="244" spans="8:8">
+      <c r="H244" s="15" t="str">
         <f>IF(B244&lt;&gt;"",CONCATENATE(inicio_consulta,C244,mid_consulta,A244,B244,fin_consulta),IF(A244&lt;&gt;"",CONCATENATE("-- ",A244),""))</f>
         <v/>
       </c>
     </row>
-    <row r="245" spans="7:7">
-      <c r="G245" s="11" t="str">
+    <row r="245" spans="8:8">
+      <c r="H245" s="15" t="str">
         <f>IF(B245&lt;&gt;"",CONCATENATE(inicio_consulta,C245,mid_consulta,A245,B245,fin_consulta),IF(A245&lt;&gt;"",CONCATENATE("-- ",A245),""))</f>
         <v/>
       </c>
     </row>
-    <row r="246" spans="7:7">
-      <c r="G246" s="11" t="str">
+    <row r="246" spans="8:8">
+      <c r="H246" s="15" t="str">
         <f>IF(B246&lt;&gt;"",CONCATENATE(inicio_consulta,C246,mid_consulta,A246,B246,fin_consulta),IF(A246&lt;&gt;"",CONCATENATE("-- ",A246),""))</f>
         <v/>
       </c>
     </row>
-    <row r="247" spans="7:7">
-      <c r="G247" s="11" t="str">
+    <row r="247" spans="8:8">
+      <c r="H247" s="15" t="str">
         <f>IF(B247&lt;&gt;"",CONCATENATE(inicio_consulta,C247,mid_consulta,A247,B247,fin_consulta),IF(A247&lt;&gt;"",CONCATENATE("-- ",A247),""))</f>
         <v/>
       </c>
     </row>
-    <row r="248" spans="7:7">
-      <c r="G248" s="11" t="str">
+    <row r="248" spans="8:8">
+      <c r="H248" s="15" t="str">
         <f>IF(B248&lt;&gt;"",CONCATENATE(inicio_consulta,C248,mid_consulta,A248,B248,fin_consulta),IF(A248&lt;&gt;"",CONCATENATE("-- ",A248),""))</f>
         <v/>
       </c>
     </row>
-    <row r="249" spans="7:7">
-      <c r="G249" s="11" t="str">
+    <row r="249" spans="8:8">
+      <c r="H249" s="15" t="str">
         <f>IF(B249&lt;&gt;"",CONCATENATE(inicio_consulta,C249,mid_consulta,A249,B249,fin_consulta),IF(A249&lt;&gt;"",CONCATENATE("-- ",A249),""))</f>
         <v/>
       </c>
     </row>
-    <row r="250" spans="7:7">
-      <c r="G250" s="11" t="str">
+    <row r="250" spans="8:8">
+      <c r="H250" s="15" t="str">
         <f>IF(B250&lt;&gt;"",CONCATENATE(inicio_consulta,C250,mid_consulta,A250,B250,fin_consulta),IF(A250&lt;&gt;"",CONCATENATE("-- ",A250),""))</f>
         <v/>
       </c>
     </row>
-    <row r="251" spans="7:7">
-      <c r="G251" s="11" t="str">
+    <row r="251" spans="8:8">
+      <c r="H251" s="15" t="str">
         <f>IF(B251&lt;&gt;"",CONCATENATE(inicio_consulta,C251,mid_consulta,A251,B251,fin_consulta),IF(A251&lt;&gt;"",CONCATENATE("-- ",A251),""))</f>
         <v/>
       </c>
     </row>
-    <row r="252" spans="7:7">
-      <c r="G252" s="11" t="str">
+    <row r="252" spans="8:8">
+      <c r="H252" s="15" t="str">
         <f>IF(B252&lt;&gt;"",CONCATENATE(inicio_consulta,C252,mid_consulta,A252,B252,fin_consulta),IF(A252&lt;&gt;"",CONCATENATE("-- ",A252),""))</f>
         <v/>
       </c>
     </row>
-    <row r="253" spans="7:7">
-      <c r="G253" s="11" t="str">
+    <row r="253" spans="8:8">
+      <c r="H253" s="15" t="str">
         <f>IF(B253&lt;&gt;"",CONCATENATE(inicio_consulta,C253,mid_consulta,A253,B253,fin_consulta),IF(A253&lt;&gt;"",CONCATENATE("-- ",A253),""))</f>
         <v/>
       </c>
     </row>
-    <row r="254" spans="7:7">
-      <c r="G254" s="11" t="str">
+    <row r="254" spans="8:8">
+      <c r="H254" s="15" t="str">
         <f>IF(B254&lt;&gt;"",CONCATENATE(inicio_consulta,C254,mid_consulta,A254,B254,fin_consulta),IF(A254&lt;&gt;"",CONCATENATE("-- ",A254),""))</f>
         <v/>
       </c>
     </row>
-    <row r="255" spans="7:7">
-      <c r="G255" s="11" t="str">
+    <row r="255" spans="8:8">
+      <c r="H255" s="15" t="str">
         <f>IF(B255&lt;&gt;"",CONCATENATE(inicio_consulta,C255,mid_consulta,A255,B255,fin_consulta),IF(A255&lt;&gt;"",CONCATENATE("-- ",A255),""))</f>
         <v/>
       </c>
     </row>
-    <row r="256" spans="7:7">
-      <c r="G256" s="11" t="str">
+    <row r="256" spans="8:8">
+      <c r="H256" s="15" t="str">
         <f>IF(B256&lt;&gt;"",CONCATENATE(inicio_consulta,C256,mid_consulta,A256,B256,fin_consulta),IF(A256&lt;&gt;"",CONCATENATE("-- ",A256),""))</f>
         <v/>
       </c>
     </row>
-    <row r="257" spans="7:7">
-      <c r="G257" s="11" t="str">
+    <row r="257" spans="8:8">
+      <c r="H257" s="15" t="str">
         <f>IF(B257&lt;&gt;"",CONCATENATE(inicio_consulta,C257,mid_consulta,A257,B257,fin_consulta),IF(A257&lt;&gt;"",CONCATENATE("-- ",A257),""))</f>
         <v/>
       </c>
     </row>
-    <row r="258" spans="7:7">
-      <c r="G258" s="11" t="str">
+    <row r="258" spans="8:8">
+      <c r="H258" s="15" t="str">
         <f>IF(B258&lt;&gt;"",CONCATENATE(inicio_consulta,C258,mid_consulta,A258,B258,fin_consulta),IF(A258&lt;&gt;"",CONCATENATE("-- ",A258),""))</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="7:7">
-      <c r="G259" s="11" t="str">
+    <row r="259" spans="8:8">
+      <c r="H259" s="15" t="str">
         <f>IF(B259&lt;&gt;"",CONCATENATE(inicio_consulta,C259,mid_consulta,A259,B259,fin_consulta),IF(A259&lt;&gt;"",CONCATENATE("-- ",A259),""))</f>
         <v/>
       </c>
     </row>
-    <row r="260" spans="7:7">
-      <c r="G260" s="11" t="str">
+    <row r="260" spans="8:8">
+      <c r="H260" s="15" t="str">
         <f>IF(B260&lt;&gt;"",CONCATENATE(inicio_consulta,C260,mid_consulta,A260,B260,fin_consulta),IF(A260&lt;&gt;"",CONCATENATE("-- ",A260),""))</f>
         <v/>
       </c>
     </row>
-    <row r="261" spans="7:7">
-      <c r="G261" s="11" t="str">
+    <row r="261" spans="8:8">
+      <c r="H261" s="15" t="str">
         <f>IF(B261&lt;&gt;"",CONCATENATE(inicio_consulta,C261,mid_consulta,A261,B261,fin_consulta),IF(A261&lt;&gt;"",CONCATENATE("-- ",A261),""))</f>
         <v/>
       </c>
     </row>
-    <row r="262" spans="7:7">
-      <c r="G262" s="11" t="str">
+    <row r="262" spans="8:8">
+      <c r="H262" s="15" t="str">
         <f>IF(B262&lt;&gt;"",CONCATENATE(inicio_consulta,C262,mid_consulta,A262,B262,fin_consulta),IF(A262&lt;&gt;"",CONCATENATE("-- ",A262),""))</f>
         <v/>
       </c>
     </row>
-    <row r="263" spans="7:7">
-      <c r="G263" s="11" t="str">
+    <row r="263" spans="8:8">
+      <c r="H263" s="15" t="str">
         <f>IF(B263&lt;&gt;"",CONCATENATE(inicio_consulta,C263,mid_consulta,A263,B263,fin_consulta),IF(A263&lt;&gt;"",CONCATENATE("-- ",A263),""))</f>
         <v/>
       </c>
     </row>
-    <row r="264" spans="7:7">
-      <c r="G264" s="11" t="str">
+    <row r="264" spans="8:8">
+      <c r="H264" s="15" t="str">
         <f>IF(B264&lt;&gt;"",CONCATENATE(inicio_consulta,C264,mid_consulta,A264,B264,fin_consulta),IF(A264&lt;&gt;"",CONCATENATE("-- ",A264),""))</f>
         <v/>
       </c>
     </row>
-    <row r="265" spans="7:7">
-      <c r="G265" s="11" t="str">
+    <row r="265" spans="8:8">
+      <c r="H265" s="15" t="str">
         <f>IF(B265&lt;&gt;"",CONCATENATE(inicio_consulta,C265,mid_consulta,A265,B265,fin_consulta),IF(A265&lt;&gt;"",CONCATENATE("-- ",A265),""))</f>
         <v/>
       </c>
     </row>
-    <row r="266" spans="7:7">
-      <c r="G266" s="11" t="str">
+    <row r="266" spans="8:8">
+      <c r="H266" s="15" t="str">
         <f>IF(B266&lt;&gt;"",CONCATENATE(inicio_consulta,C266,mid_consulta,A266,B266,fin_consulta),IF(A266&lt;&gt;"",CONCATENATE("-- ",A266),""))</f>
         <v/>
       </c>
     </row>
-    <row r="267" spans="7:7">
-      <c r="G267" s="11" t="str">
+    <row r="267" spans="8:8">
+      <c r="H267" s="15" t="str">
         <f>IF(B267&lt;&gt;"",CONCATENATE(inicio_consulta,C267,mid_consulta,A267,B267,fin_consulta),IF(A267&lt;&gt;"",CONCATENATE("-- ",A267),""))</f>
         <v/>
       </c>
     </row>
-    <row r="268" spans="7:7">
-      <c r="G268" s="11" t="str">
+    <row r="268" spans="8:8">
+      <c r="H268" s="15" t="str">
         <f>IF(B268&lt;&gt;"",CONCATENATE(inicio_consulta,C268,mid_consulta,A268,B268,fin_consulta),IF(A268&lt;&gt;"",CONCATENATE("-- ",A268),""))</f>
         <v/>
       </c>
     </row>
-    <row r="269" spans="7:7">
-      <c r="G269" s="11" t="str">
+    <row r="269" spans="8:8">
+      <c r="H269" s="15" t="str">
         <f>IF(B269&lt;&gt;"",CONCATENATE(inicio_consulta,C269,mid_consulta,A269,B269,fin_consulta),IF(A269&lt;&gt;"",CONCATENATE("-- ",A269),""))</f>
         <v/>
       </c>
     </row>
-    <row r="270" spans="7:7">
-      <c r="G270" s="11" t="str">
+    <row r="270" spans="8:8">
+      <c r="H270" s="15" t="str">
         <f>IF(B270&lt;&gt;"",CONCATENATE(inicio_consulta,C270,mid_consulta,A270,B270,fin_consulta),IF(A270&lt;&gt;"",CONCATENATE("-- ",A270),""))</f>
         <v/>
       </c>
     </row>
-    <row r="271" spans="7:7">
-      <c r="G271" s="11" t="str">
+    <row r="271" spans="8:8">
+      <c r="H271" s="15" t="str">
         <f>IF(B271&lt;&gt;"",CONCATENATE(inicio_consulta,C271,mid_consulta,A271,B271,fin_consulta),IF(A271&lt;&gt;"",CONCATENATE("-- ",A271),""))</f>
         <v/>
       </c>
     </row>
-    <row r="272" spans="7:7">
-      <c r="G272" s="11" t="str">
-        <f t="shared" ref="G238:G273" si="25">IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,C272,mid_consulta,A272,B272,fin_consulta),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="273" spans="7:7">
-      <c r="G273" s="11" t="str">
+    <row r="272" spans="8:8">
+      <c r="H272" s="15" t="str">
+        <f t="shared" ref="H238:H273" si="25">IF(B272&lt;&gt;"",CONCATENATE(inicio_consulta,C272,mid_consulta,A272,B272,fin_consulta),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="8:8">
+      <c r="H273" s="15" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="7:7">
-      <c r="G274" s="11" t="str">
+    <row r="274" spans="8:8">
+      <c r="H274" s="15" t="str">
         <f>IF(B274&lt;&gt;"",CONCATENATE(inicio_consulta,A274,B274,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
-    <row r="275" spans="7:7">
-      <c r="G275" s="11" t="str">
+    <row r="275" spans="8:8">
+      <c r="H275" s="15" t="str">
         <f>IF(B275&lt;&gt;"",CONCATENATE(inicio_consulta,A275,B275,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
-    <row r="276" spans="7:7">
-      <c r="G276" s="11" t="str">
+    <row r="276" spans="8:8">
+      <c r="H276" s="15" t="str">
         <f>IF(B276&lt;&gt;"",CONCATENATE(inicio_consulta,A276,B276,fin_consulta),"")</f>
         <v/>
       </c>
     </row>
-    <row r="277" spans="7:7">
-      <c r="G277" s="11" t="str">
+    <row r="277" spans="8:8">
+      <c r="H277" s="15" t="str">
         <f>IF(B277&lt;&gt;"",CONCATENATE(inicio_consulta,A277,B277,fin_consulta),"")</f>
         <v/>
       </c>
@@ -4662,210 +4730,230 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:E19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="16.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+    <col min="1" max="2" width="15.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="51.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="10.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="14.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="21.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="F1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="B3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="B4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="B5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="B6" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
+      <c r="B8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="6:9">
+      <c r="F9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="8">
+        <v>123456</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="6">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="6:9">
+      <c r="F10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="8">
         <v>123456</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="6">
-        <v>123456</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="6">
-        <v>123456</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="6">
-        <v>123456</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="6">
-        <v>123456</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="6">
-        <v>123456</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="6">
-        <v>123456</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -4887,7 +4975,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="2:3">
@@ -4900,7 +4988,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -5861,17 +5949,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
-        <v>136</v>
+      <c r="A2" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
-        <v>137</v>
+      <c r="A3" s="18" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
